--- a/market_filtered_pe.xlsx
+++ b/market_filtered_pe.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Filtered_Stocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,123 +134,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FilteredStocksTable" displayName="FilteredStocksTable" ref="A1:DD72" headerRowCount="1">
-  <autoFilter ref="A1:DD72"/>
-  <tableColumns count="108">
-    <tableColumn id="1" name="ticker"/>
-    <tableColumn id="2" name="exchange"/>
-    <tableColumn id="3" name="industry"/>
-    <tableColumn id="4" name="market_cap"/>
-    <tableColumn id="5" name="roe"/>
-    <tableColumn id="6" name="stock_rating"/>
-    <tableColumn id="7" name="business_operation"/>
-    <tableColumn id="8" name="business_model"/>
-    <tableColumn id="9" name="financial_health"/>
-    <tableColumn id="10" name="alpha"/>
-    <tableColumn id="11" name="beta"/>
-    <tableColumn id="12" name="active_buy_pct"/>
-    <tableColumn id="13" name="strong_buy_pct"/>
-    <tableColumn id="14" name="high_vol_match"/>
-    <tableColumn id="15" name="forecast_vol_ratio"/>
-    <tableColumn id="16" name="pe"/>
-    <tableColumn id="17" name="pb"/>
-    <tableColumn id="18" name="ev_ebitda"/>
-    <tableColumn id="19" name="dividend_yield"/>
-    <tableColumn id="20" name="price_vs_sma5"/>
-    <tableColumn id="21" name="price_vs_sma20"/>
-    <tableColumn id="22" name="revenue_growth_1y"/>
-    <tableColumn id="23" name="revenue_growth_5y"/>
-    <tableColumn id="24" name="eps_growth_1y"/>
-    <tableColumn id="25" name="eps_growth_5y"/>
-    <tableColumn id="26" name="gross_margin"/>
-    <tableColumn id="27" name="net_margin"/>
-    <tableColumn id="28" name="doe"/>
-    <tableColumn id="29" name="avg_trading_value_5d"/>
-    <tableColumn id="30" name="avg_trading_value_10d"/>
-    <tableColumn id="31" name="avg_trading_value_20d"/>
-    <tableColumn id="32" name="relative_strength_3d"/>
-    <tableColumn id="33" name="rel_strength_1m"/>
-    <tableColumn id="34" name="rel_strength_3m"/>
-    <tableColumn id="35" name="rel_strength_1y"/>
-    <tableColumn id="36" name="total_trading_value"/>
-    <tableColumn id="37" name="foreign_transaction"/>
-    <tableColumn id="38" name="price_near_realtime"/>
-    <tableColumn id="39" name="rsi14"/>
-    <tableColumn id="40" name="foreign_vol_pct"/>
-    <tableColumn id="41" name="tc_rs"/>
-    <tableColumn id="42" name="tcbs_recommend"/>
-    <tableColumn id="43" name="tcbs_buy_sell_signal"/>
-    <tableColumn id="44" name="foreign_buysell_20s"/>
-    <tableColumn id="45" name="num_increase_continuous_day"/>
-    <tableColumn id="46" name="num_decrease_continuous_day"/>
-    <tableColumn id="47" name="eps"/>
-    <tableColumn id="48" name="macd_histogram"/>
-    <tableColumn id="49" name="vol_vs_sma5"/>
-    <tableColumn id="50" name="vol_vs_sma10"/>
-    <tableColumn id="51" name="vol_vs_sma20"/>
-    <tableColumn id="52" name="vol_vs_sma50"/>
-    <tableColumn id="53" name="price_vs_sma10"/>
-    <tableColumn id="54" name="price_vs_sma50"/>
-    <tableColumn id="55" name="price_break_out52_week"/>
-    <tableColumn id="56" name="price_wash_out52_week"/>
-    <tableColumn id="57" name="sar_vs_macd_hist"/>
-    <tableColumn id="58" name="bolling_band_signal"/>
-    <tableColumn id="59" name="dmi_signal"/>
-    <tableColumn id="60" name="rsi14_status"/>
-    <tableColumn id="61" name="price_growth_1w"/>
-    <tableColumn id="62" name="price_growth_1m"/>
-    <tableColumn id="63" name="breakout"/>
-    <tableColumn id="64" name="prev_1d_growth_pct"/>
-    <tableColumn id="65" name="prev_1m_growth_pct"/>
-    <tableColumn id="66" name="prev_1y_growth_pct"/>
-    <tableColumn id="67" name="prev_5y_growth_pct"/>
-    <tableColumn id="68" name="has_financial_report"/>
-    <tableColumn id="69" name="free_transfer_rate"/>
-    <tableColumn id="70" name="net_cash_per_market_cap"/>
-    <tableColumn id="71" name="net_cash_per_total_assets"/>
-    <tableColumn id="72" name="profit_last_4q"/>
-    <tableColumn id="73" name="last_quarter_revenue_growth"/>
-    <tableColumn id="74" name="second_quarter_revenue_growth"/>
-    <tableColumn id="75" name="last_quarter_profit_growth"/>
-    <tableColumn id="76" name="second_quarter_profit_growth"/>
-    <tableColumn id="77" name="pct_1y_from_peak"/>
-    <tableColumn id="78" name="pct_away_from_hist_peak"/>
-    <tableColumn id="79" name="pct_1y_from_bottom"/>
-    <tableColumn id="80" name="pct_off_hist_bottom"/>
-    <tableColumn id="81" name="price_vs_sma100"/>
-    <tableColumn id="82" name="heating_up"/>
-    <tableColumn id="83" name="price_growth1_day"/>
-    <tableColumn id="84" name="vsma5"/>
-    <tableColumn id="85" name="vsma10"/>
-    <tableColumn id="86" name="vsma20"/>
-    <tableColumn id="87" name="vsma50"/>
-    <tableColumn id="88" name="corporate_percentage"/>
-    <tableColumn id="89" name="ev"/>
-    <tableColumn id="90" name="quarter_revenue_growth"/>
-    <tableColumn id="91" name="quarter_income_growth"/>
-    <tableColumn id="92" name="peg_forward"/>
-    <tableColumn id="93" name="peg_trailing"/>
-    <tableColumn id="94" name="quarterly_income"/>
-    <tableColumn id="95" name="quarterly_revenue"/>
-    <tableColumn id="96" name="ps"/>
-    <tableColumn id="97" name="roa"/>
-    <tableColumn id="98" name="npl"/>
-    <tableColumn id="99" name="nim"/>
-    <tableColumn id="100" name="price_vs_sma200"/>
-    <tableColumn id="101" name="eps_ttm_growth1_year"/>
-    <tableColumn id="102" name="eps_ttm_growth5_year"/>
-    <tableColumn id="103" name="equity_mi"/>
-    <tableColumn id="104" name="eps_recently"/>
-    <tableColumn id="105" name="percent_price_vs_ma200"/>
-    <tableColumn id="106" name="percent_price_vs_ma20"/>
-    <tableColumn id="107" name="percent_price_vs_ma50"/>
-    <tableColumn id="108" name="percent_price_vs_ma100"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,6 +1033,7 @@
       <c r="Q2" t="n">
         <v>0.9</v>
       </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -1175,9 +1059,11 @@
       <c r="Y2" t="n">
         <v>-17.27</v>
       </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>42.32</v>
       </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
         <v>170.98</v>
       </c>
@@ -1219,6 +1105,7 @@
       <c r="AO2" t="n">
         <v>90</v>
       </c>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>Mua mạnh</t>
@@ -1230,6 +1117,7 @@
       <c r="AS2" t="n">
         <v>1</v>
       </c>
+      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="n">
         <v>1406</v>
       </c>
@@ -1260,6 +1148,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr">
         <is>
           <t>Vào vùng quá mua</t>
@@ -1271,6 +1164,7 @@
       <c r="BJ2" t="n">
         <v>49.88</v>
       </c>
+      <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="n">
         <v>4.94</v>
       </c>
@@ -1280,6 +1174,7 @@
       <c r="BN2" t="n">
         <v>76.51000000000001</v>
       </c>
+      <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr">
         <is>
           <t>Có</t>
@@ -1288,6 +1183,8 @@
       <c r="BQ2" t="n">
         <v>50</v>
       </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="n">
         <v>1455.3</v>
       </c>
@@ -1320,6 +1217,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="n">
         <v>4.94</v>
       </c>
@@ -1338,6 +1236,7 @@
       <c r="CJ2" t="n">
         <v>34.2</v>
       </c>
+      <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="n">
         <v>81.3</v>
       </c>
@@ -1356,6 +1255,7 @@
       <c r="CQ2" t="n">
         <v>2369</v>
       </c>
+      <c r="CR2" t="inlineStr"/>
       <c r="CS2" t="n">
         <v>0.8</v>
       </c>
@@ -1365,6 +1265,7 @@
       <c r="CU2" t="n">
         <v>1.9</v>
       </c>
+      <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="n">
         <v>338.8</v>
       </c>
@@ -1454,6 +1355,7 @@
       <c r="S3" t="n">
         <v>0</v>
       </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -1521,6 +1423,7 @@
       <c r="AO3" t="n">
         <v>28</v>
       </c>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -1555,11 +1458,17 @@
       <c r="AZ3" t="n">
         <v>0.1</v>
       </c>
+      <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -1571,6 +1480,7 @@
       <c r="BJ3" t="n">
         <v>12.5</v>
       </c>
+      <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="n">
         <v>0</v>
       </c>
@@ -1629,6 +1539,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="n">
         <v>0</v>
       </c>
@@ -1656,6 +1567,7 @@
       <c r="CM3" t="n">
         <v>1090.4</v>
       </c>
+      <c r="CN3" t="inlineStr"/>
       <c r="CO3" t="n">
         <v>0.3</v>
       </c>
@@ -1671,6 +1583,9 @@
       <c r="CS3" t="n">
         <v>1.1</v>
       </c>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="n">
         <v>52.89</v>
       </c>
@@ -1736,6 +1651,7 @@
       <c r="K4" t="n">
         <v>0.3</v>
       </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>58.3</v>
       </c>
@@ -1757,6 +1673,7 @@
       <c r="S4" t="n">
         <v>0.9</v>
       </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -1807,6 +1724,7 @@
       <c r="AJ4" t="n">
         <v>0.1</v>
       </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>54.8</v>
       </c>
@@ -1819,6 +1737,7 @@
       <c r="AO4" t="n">
         <v>32</v>
       </c>
+      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -1853,11 +1772,17 @@
       <c r="AZ4" t="n">
         <v>1.7</v>
       </c>
+      <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -1869,6 +1794,7 @@
       <c r="BJ4" t="n">
         <v>-4.36</v>
       </c>
+      <c r="BK4" t="inlineStr"/>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
@@ -1927,6 +1853,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="n">
         <v>0</v>
       </c>
@@ -1972,6 +1899,9 @@
       <c r="CS4" t="n">
         <v>27.3</v>
       </c>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="n">
         <v>119.66</v>
       </c>
@@ -2055,6 +1985,7 @@
       <c r="Q5" t="n">
         <v>1.3</v>
       </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -2080,9 +2011,11 @@
       <c r="Y5" t="n">
         <v>-0.72</v>
       </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>24.55</v>
       </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
         <v>1.54</v>
       </c>
@@ -2124,6 +2057,7 @@
       <c r="AO5" t="n">
         <v>66</v>
       </c>
+      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>Mua mạnh</t>
@@ -2132,6 +2066,7 @@
       <c r="AR5" t="n">
         <v>5</v>
       </c>
+      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +2090,17 @@
       <c r="AZ5" t="n">
         <v>1.5</v>
       </c>
+      <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr">
         <is>
           <t>Thoát vùng quá mua</t>
@@ -2171,6 +2112,7 @@
       <c r="BJ5" t="n">
         <v>23.58</v>
       </c>
+      <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="n">
         <v>-2.56</v>
       </c>
@@ -2191,6 +2133,8 @@
       <c r="BQ5" t="n">
         <v>75</v>
       </c>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="n">
         <v>1114.1</v>
       </c>
@@ -2223,6 +2167,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="n">
         <v>-2.56</v>
       </c>
@@ -2238,6 +2183,8 @@
       <c r="CI5" t="n">
         <v>31.8</v>
       </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="n">
         <v>3.6</v>
       </c>
@@ -2256,6 +2203,7 @@
       <c r="CQ5" t="n">
         <v>991</v>
       </c>
+      <c r="CR5" t="inlineStr"/>
       <c r="CS5" t="n">
         <v>0.7</v>
       </c>
@@ -2265,6 +2213,7 @@
       <c r="CU5" t="n">
         <v>2</v>
       </c>
+      <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="n">
         <v>22.74</v>
       </c>
@@ -2354,6 +2303,7 @@
       <c r="S6" t="n">
         <v>9.6</v>
       </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -2434,6 +2384,7 @@
       <c r="AR6" t="n">
         <v>-896</v>
       </c>
+      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="n">
         <v>1</v>
       </c>
@@ -2457,11 +2408,17 @@
       <c r="AZ6" t="n">
         <v>1.9</v>
       </c>
+      <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr">
         <is>
           <t>Vào vùng quá bán</t>
@@ -2473,6 +2430,7 @@
       <c r="BJ6" t="n">
         <v>-7.01</v>
       </c>
+      <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="n">
         <v>-2.5</v>
       </c>
@@ -2531,6 +2489,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="n">
         <v>-2.5</v>
       </c>
@@ -2576,6 +2535,9 @@
       <c r="CS6" t="n">
         <v>34.4</v>
       </c>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="n">
         <v>21.54</v>
       </c>
@@ -2665,6 +2627,7 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>Giá cắt lên SMA(20)</t>
@@ -2715,6 +2678,7 @@
       <c r="AJ7" t="n">
         <v>0.1</v>
       </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
         <v>23.5</v>
       </c>
@@ -2727,6 +2691,7 @@
       <c r="AO7" t="n">
         <v>51</v>
       </c>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -2738,6 +2703,7 @@
       <c r="AS7" t="n">
         <v>1</v>
       </c>
+      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
         <v>1781</v>
       </c>
@@ -2758,16 +2724,21 @@
       <c r="AZ7" t="n">
         <v>0.6</v>
       </c>
+      <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr">
         <is>
           <t>Tín hiệu mua</t>
         </is>
       </c>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -2779,6 +2750,7 @@
       <c r="BJ7" t="n">
         <v>1.73</v>
       </c>
+      <c r="BK7" t="inlineStr"/>
       <c r="BL7" t="n">
         <v>1.29</v>
       </c>
@@ -2837,6 +2809,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="n">
         <v>1.29</v>
       </c>
@@ -2882,6 +2855,9 @@
       <c r="CS7" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="n">
         <v>195.05</v>
       </c>
@@ -2935,6 +2911,7 @@
       <c r="G8" t="n">
         <v>2.6</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>4.8</v>
       </c>
@@ -2987,6 +2964,7 @@
       <c r="X8" t="n">
         <v>-78.12</v>
       </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
         <v>41.76</v>
       </c>
@@ -3020,6 +2998,7 @@
       <c r="AJ8" t="n">
         <v>0.92</v>
       </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>19.4</v>
       </c>
@@ -3032,6 +3011,7 @@
       <c r="AO8" t="n">
         <v>74</v>
       </c>
+      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -3040,6 +3020,7 @@
       <c r="AR8" t="n">
         <v>0</v>
       </c>
+      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="n">
         <v>1</v>
       </c>
@@ -3073,6 +3054,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -3084,6 +3070,7 @@
       <c r="BJ8" t="n">
         <v>31.6</v>
       </c>
+      <c r="BK8" t="inlineStr"/>
       <c r="BL8" t="n">
         <v>-4.49</v>
       </c>
@@ -3093,6 +3080,7 @@
       <c r="BN8" t="n">
         <v>88.76000000000001</v>
       </c>
+      <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr">
         <is>
           <t>Có</t>
@@ -3139,6 +3127,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="n">
         <v>-4.49</v>
       </c>
@@ -3166,6 +3155,7 @@
       <c r="CM8" t="n">
         <v>-23.8</v>
       </c>
+      <c r="CN8" t="inlineStr"/>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
@@ -3181,9 +3171,13 @@
       <c r="CS8" t="n">
         <v>11.9</v>
       </c>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="n">
         <v>539.64</v>
       </c>
+      <c r="CX8" t="inlineStr"/>
       <c r="CY8" t="n">
         <v>1245</v>
       </c>
@@ -3267,6 +3261,7 @@
       <c r="S9" t="n">
         <v>6.7</v>
       </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -3334,6 +3329,7 @@
       <c r="AO9" t="n">
         <v>28</v>
       </c>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -3342,6 +3338,7 @@
       <c r="AR9" t="n">
         <v>-729</v>
       </c>
+      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
@@ -3375,6 +3372,11 @@
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -3386,6 +3388,7 @@
       <c r="BJ9" t="n">
         <v>-3.7</v>
       </c>
+      <c r="BK9" t="inlineStr"/>
       <c r="BL9" t="n">
         <v>-0.59</v>
       </c>
@@ -3444,6 +3447,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="n">
         <v>-0.59</v>
       </c>
@@ -3489,6 +3493,9 @@
       <c r="CS9" t="n">
         <v>17.3</v>
       </c>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="n">
         <v>71.53</v>
       </c>
@@ -3572,9 +3579,11 @@
       <c r="Q10" t="n">
         <v>1.7</v>
       </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
         <v>0</v>
       </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -3592,9 +3601,11 @@
       <c r="Y10" t="n">
         <v>19.11</v>
       </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>46.62</v>
       </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
         <v>739.38</v>
       </c>
@@ -3652,6 +3663,7 @@
       <c r="AS10" t="n">
         <v>2</v>
       </c>
+      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="n">
         <v>5608</v>
       </c>
@@ -3672,11 +3684,17 @@
       <c r="AZ10" t="n">
         <v>1.6</v>
       </c>
+      <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -3688,6 +3706,7 @@
       <c r="BJ10" t="n">
         <v>12.32</v>
       </c>
+      <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="n">
         <v>2.02</v>
       </c>
@@ -3708,6 +3727,8 @@
       <c r="BQ10" t="n">
         <v>15</v>
       </c>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="n">
         <v>30112.9</v>
       </c>
@@ -3740,6 +3761,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="n">
         <v>2.02</v>
       </c>
@@ -3758,6 +3780,7 @@
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
       </c>
+      <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="n">
         <v>2.3</v>
       </c>
@@ -3776,6 +3799,7 @@
       <c r="CQ10" t="n">
         <v>20917</v>
       </c>
+      <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="n">
         <v>1.3</v>
       </c>
@@ -3785,6 +3809,7 @@
       <c r="CU10" t="n">
         <v>2.7</v>
       </c>
+      <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="n">
         <v>48.29</v>
       </c>
@@ -3874,6 +3899,7 @@
       <c r="S11" t="n">
         <v>0</v>
       </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(20)</t>
@@ -3941,6 +3967,7 @@
       <c r="AO11" t="n">
         <v>52</v>
       </c>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -3949,6 +3976,7 @@
       <c r="AR11" t="n">
         <v>310</v>
       </c>
+      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
         <v>2</v>
       </c>
@@ -3972,16 +4000,21 @@
       <c r="AZ11" t="n">
         <v>1.8</v>
       </c>
+      <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -3993,6 +4026,7 @@
       <c r="BJ11" t="n">
         <v>1.57</v>
       </c>
+      <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="n">
         <v>-5.14</v>
       </c>
@@ -4051,6 +4085,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="n">
         <v>-5.14</v>
       </c>
@@ -4096,6 +4131,9 @@
       <c r="CS11" t="n">
         <v>3.1</v>
       </c>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="n">
         <v>90.77</v>
       </c>
@@ -4185,6 +4223,7 @@
       <c r="S12" t="n">
         <v>0</v>
       </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -4265,6 +4304,7 @@
       <c r="AR12" t="n">
         <v>-6976</v>
       </c>
+      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="n">
         <v>4</v>
       </c>
@@ -4288,11 +4328,17 @@
       <c r="AZ12" t="n">
         <v>1</v>
       </c>
+      <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
       <c r="BH12" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -4304,6 +4350,7 @@
       <c r="BJ12" t="n">
         <v>-3.09</v>
       </c>
+      <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
         <v>-3.07</v>
       </c>
@@ -4362,6 +4409,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="n">
         <v>-3.07</v>
       </c>
@@ -4407,6 +4455,9 @@
       <c r="CS12" t="n">
         <v>11.2</v>
       </c>
+      <c r="CT12" t="inlineStr"/>
+      <c r="CU12" t="inlineStr"/>
+      <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="n">
         <v>560.99</v>
       </c>
@@ -4581,6 +4632,7 @@
       <c r="AR13" t="n">
         <v>8685</v>
       </c>
+      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="n">
         <v>2</v>
       </c>
@@ -4614,6 +4666,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -4625,6 +4682,7 @@
       <c r="BJ13" t="n">
         <v>19.82</v>
       </c>
+      <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="n">
         <v>-3.57</v>
       </c>
@@ -4683,6 +4741,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="n">
         <v>-3.57</v>
       </c>
@@ -4728,6 +4787,9 @@
       <c r="CS13" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="CT13" t="inlineStr"/>
+      <c r="CU13" t="inlineStr"/>
+      <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="n">
         <v>13.89</v>
       </c>
@@ -4817,6 +4879,7 @@
       <c r="S14" t="n">
         <v>4.7</v>
       </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(20)</t>
@@ -4867,6 +4930,7 @@
       <c r="AJ14" t="n">
         <v>80.03</v>
       </c>
+      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
         <v>31.5</v>
       </c>
@@ -4892,6 +4956,7 @@
       <c r="AR14" t="n">
         <v>853</v>
       </c>
+      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
@@ -4915,11 +4980,15 @@
       <c r="AZ14" t="n">
         <v>1.2</v>
       </c>
+      <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
@@ -4941,6 +5010,7 @@
       <c r="BJ14" t="n">
         <v>5</v>
       </c>
+      <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="n">
         <v>-4.7</v>
       </c>
@@ -4999,6 +5069,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="n">
         <v>-4.7</v>
       </c>
@@ -5044,9 +5115,13 @@
       <c r="CS14" t="n">
         <v>14.5</v>
       </c>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="n">
         <v>120.89</v>
       </c>
+      <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="n">
         <v>1903</v>
       </c>
@@ -5130,6 +5205,7 @@
       <c r="S15" t="n">
         <v>7.4</v>
       </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -5197,6 +5273,7 @@
       <c r="AO15" t="n">
         <v>37</v>
       </c>
+      <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -5205,6 +5282,7 @@
       <c r="AR15" t="n">
         <v>67</v>
       </c>
+      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="n">
         <v>2</v>
       </c>
@@ -5228,11 +5306,17 @@
       <c r="AZ15" t="n">
         <v>0.9</v>
       </c>
+      <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -5244,6 +5328,7 @@
       <c r="BJ15" t="n">
         <v>-5.63</v>
       </c>
+      <c r="BK15" t="inlineStr"/>
       <c r="BL15" t="n">
         <v>-0.48</v>
       </c>
@@ -5302,6 +5387,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="n">
         <v>-0.48</v>
       </c>
@@ -5347,6 +5433,8 @@
       <c r="CS15" t="n">
         <v>21.7</v>
       </c>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
       <c r="CV15" t="inlineStr">
         <is>
           <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
@@ -5513,6 +5601,7 @@
       <c r="AO16" t="n">
         <v>50</v>
       </c>
+      <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -5521,6 +5610,7 @@
       <c r="AR16" t="n">
         <v>590</v>
       </c>
+      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="n">
         <v>1</v>
       </c>
@@ -5554,6 +5644,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr">
         <is>
           <t>Thoát vùng quá mua</t>
@@ -5565,6 +5660,7 @@
       <c r="BJ16" t="n">
         <v>15.43</v>
       </c>
+      <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="n">
         <v>-6.47</v>
       </c>
@@ -5623,6 +5719,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="n">
         <v>-6.47</v>
       </c>
@@ -5668,6 +5765,9 @@
       <c r="CS16" t="n">
         <v>9.6</v>
       </c>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="n">
         <v>101.21</v>
       </c>
@@ -5757,6 +5857,7 @@
       <c r="S17" t="n">
         <v>3.8</v>
       </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -5807,6 +5908,7 @@
       <c r="AJ17" t="n">
         <v>0.04</v>
       </c>
+      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
         <v>12.3</v>
       </c>
@@ -5819,6 +5921,7 @@
       <c r="AO17" t="n">
         <v>31</v>
       </c>
+      <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -5827,6 +5930,7 @@
       <c r="AR17" t="n">
         <v>0</v>
       </c>
+      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5954,17 @@
       <c r="AZ17" t="n">
         <v>1.3</v>
       </c>
+      <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -5866,6 +5976,7 @@
       <c r="BJ17" t="n">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="n">
         <v>-0.8100000000000001</v>
       </c>
@@ -5924,6 +6035,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="n">
         <v>-0.8100000000000001</v>
       </c>
@@ -5969,6 +6081,8 @@
       <c r="CS17" t="n">
         <v>4.8</v>
       </c>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr"/>
       <c r="CV17" t="inlineStr">
         <is>
           <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
@@ -6063,6 +6177,7 @@
       <c r="S18" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -6113,6 +6228,7 @@
       <c r="AJ18" t="n">
         <v>16.36</v>
       </c>
+      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
         <v>66.5</v>
       </c>
@@ -6138,6 +6254,7 @@
       <c r="AR18" t="n">
         <v>0</v>
       </c>
+      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="n">
         <v>7</v>
       </c>
@@ -6161,11 +6278,17 @@
       <c r="AZ18" t="n">
         <v>1.6</v>
       </c>
+      <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -6177,6 +6300,7 @@
       <c r="BJ18" t="n">
         <v>-13.16</v>
       </c>
+      <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="n">
         <v>-2.34</v>
       </c>
@@ -6235,6 +6359,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="n">
         <v>-2.34</v>
       </c>
@@ -6280,6 +6405,9 @@
       <c r="CS18" t="n">
         <v>13</v>
       </c>
+      <c r="CT18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="n">
         <v>19.42</v>
       </c>
@@ -6333,6 +6461,7 @@
       <c r="G19" t="n">
         <v>2.3</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>4.2</v>
       </c>
@@ -6379,9 +6508,11 @@
       <c r="V19" t="n">
         <v>21.91</v>
       </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
         <v>133.22</v>
       </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>36.56</v>
       </c>
@@ -6432,6 +6563,7 @@
       <c r="AO19" t="n">
         <v>56</v>
       </c>
+      <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -6440,6 +6572,7 @@
       <c r="AR19" t="n">
         <v>37</v>
       </c>
+      <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +6596,17 @@
       <c r="AZ19" t="n">
         <v>1.6</v>
       </c>
+      <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -6479,6 +6618,7 @@
       <c r="BJ19" t="n">
         <v>8.029999999999999</v>
       </c>
+      <c r="BK19" t="inlineStr"/>
       <c r="BL19" t="n">
         <v>-1.41</v>
       </c>
@@ -6488,6 +6628,7 @@
       <c r="BN19" t="n">
         <v>73.31999999999999</v>
       </c>
+      <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr">
         <is>
           <t>Có</t>
@@ -6534,6 +6675,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="n">
         <v>-1.41</v>
       </c>
@@ -6561,6 +6703,7 @@
       <c r="CM19" t="n">
         <v>20.1</v>
       </c>
+      <c r="CN19" t="inlineStr"/>
       <c r="CO19" t="n">
         <v>0.2</v>
       </c>
@@ -6576,9 +6719,13 @@
       <c r="CS19" t="n">
         <v>12.6</v>
       </c>
+      <c r="CT19" t="inlineStr"/>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
       <c r="CW19" t="n">
         <v>80.81</v>
       </c>
+      <c r="CX19" t="inlineStr"/>
       <c r="CY19" t="n">
         <v>437</v>
       </c>
@@ -6662,6 +6809,7 @@
       <c r="S20" t="n">
         <v>0</v>
       </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -6742,6 +6890,7 @@
       <c r="AR20" t="n">
         <v>33</v>
       </c>
+      <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="n">
         <v>2</v>
       </c>
@@ -6765,11 +6914,17 @@
       <c r="AZ20" t="n">
         <v>1.3</v>
       </c>
+      <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -6781,6 +6936,7 @@
       <c r="BJ20" t="n">
         <v>-3.6</v>
       </c>
+      <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="n">
         <v>-3.89</v>
       </c>
@@ -6839,6 +6995,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="n">
         <v>-3.89</v>
       </c>
@@ -6884,6 +7041,9 @@
       <c r="CS20" t="n">
         <v>3.5</v>
       </c>
+      <c r="CT20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="n">
         <v>212.27</v>
       </c>
@@ -6973,6 +7133,7 @@
       <c r="S21" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -7023,6 +7184,7 @@
       <c r="AJ21" t="n">
         <v>0.76</v>
       </c>
+      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
         <v>30.9</v>
       </c>
@@ -7035,6 +7197,7 @@
       <c r="AO21" t="n">
         <v>43</v>
       </c>
+      <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -7043,6 +7206,7 @@
       <c r="AR21" t="n">
         <v>0</v>
       </c>
+      <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="n">
         <v>1</v>
       </c>
@@ -7066,11 +7230,17 @@
       <c r="AZ21" t="n">
         <v>1.2</v>
       </c>
+      <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -7082,6 +7252,7 @@
       <c r="BJ21" t="n">
         <v>2.5</v>
       </c>
+      <c r="BK21" t="inlineStr"/>
       <c r="BL21" t="n">
         <v>-0.43</v>
       </c>
@@ -7140,6 +7311,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD21" t="inlineStr"/>
       <c r="CE21" t="n">
         <v>-0.43</v>
       </c>
@@ -7167,6 +7339,7 @@
       <c r="CM21" t="n">
         <v>27.9</v>
       </c>
+      <c r="CN21" t="inlineStr"/>
       <c r="CO21" t="n">
         <v>0</v>
       </c>
@@ -7182,6 +7355,9 @@
       <c r="CS21" t="n">
         <v>15.5</v>
       </c>
+      <c r="CT21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr"/>
+      <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="n">
         <v>216.23</v>
       </c>
@@ -7356,6 +7532,7 @@
       <c r="AR22" t="n">
         <v>2237</v>
       </c>
+      <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="n">
         <v>2</v>
       </c>
@@ -7389,6 +7566,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -7400,6 +7582,7 @@
       <c r="BJ22" t="n">
         <v>13.48</v>
       </c>
+      <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="n">
         <v>-4.74</v>
       </c>
@@ -7458,6 +7641,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="n">
         <v>-4.74</v>
       </c>
@@ -7503,6 +7687,9 @@
       <c r="CS22" t="n">
         <v>15.3</v>
       </c>
+      <c r="CT22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr"/>
+      <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="n">
         <v>216.22</v>
       </c>
@@ -7586,9 +7773,11 @@
       <c r="Q23" t="n">
         <v>1.7</v>
       </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
         <v>0</v>
       </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -7606,9 +7795,11 @@
       <c r="Y23" t="n">
         <v>15.08</v>
       </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>31.59</v>
       </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="n">
         <v>1084.36</v>
       </c>
@@ -7663,6 +7854,7 @@
       <c r="AR23" t="n">
         <v>8550</v>
       </c>
+      <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="n">
         <v>1</v>
       </c>
@@ -7686,11 +7878,17 @@
       <c r="AZ23" t="n">
         <v>1.4</v>
       </c>
+      <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -7702,6 +7900,7 @@
       <c r="BJ23" t="n">
         <v>30.53</v>
       </c>
+      <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="n">
         <v>-2</v>
       </c>
@@ -7722,6 +7921,8 @@
       <c r="BQ23" t="n">
         <v>75</v>
       </c>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="n">
         <v>14287.9</v>
       </c>
@@ -7754,6 +7955,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="n">
         <v>-2</v>
       </c>
@@ -7772,6 +7974,7 @@
       <c r="CJ23" t="n">
         <v>21.6</v>
       </c>
+      <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="n">
         <v>26.4</v>
       </c>
@@ -7790,6 +7993,7 @@
       <c r="CQ23" t="n">
         <v>11636</v>
       </c>
+      <c r="CR23" t="inlineStr"/>
       <c r="CS23" t="n">
         <v>2</v>
       </c>
@@ -7799,6 +8003,7 @@
       <c r="CU23" t="n">
         <v>5.2</v>
       </c>
+      <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="n">
         <v>18.58</v>
       </c>
@@ -7888,6 +8093,7 @@
       <c r="S24" t="n">
         <v>9.199999999999999</v>
       </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -7938,6 +8144,7 @@
       <c r="AJ24" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
         <v>35</v>
       </c>
@@ -7950,6 +8157,7 @@
       <c r="AO24" t="n">
         <v>58</v>
       </c>
+      <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -7958,6 +8166,7 @@
       <c r="AR24" t="n">
         <v>1</v>
       </c>
+      <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +8190,17 @@
       <c r="AZ24" t="n">
         <v>1.9</v>
       </c>
+      <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -7997,6 +8212,7 @@
       <c r="BJ24" t="n">
         <v>-2.39</v>
       </c>
+      <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="n">
         <v>-0.08</v>
       </c>
@@ -8055,6 +8271,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="n">
         <v>-0.08</v>
       </c>
@@ -8100,9 +8317,13 @@
       <c r="CS24" t="n">
         <v>12.3</v>
       </c>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="n">
         <v>40.58</v>
       </c>
+      <c r="CX24" t="inlineStr"/>
       <c r="CY24" t="n">
         <v>484</v>
       </c>
@@ -8186,6 +8407,7 @@
       <c r="S25" t="n">
         <v>6.2</v>
       </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -8236,6 +8458,7 @@
       <c r="AJ25" t="n">
         <v>0.37</v>
       </c>
+      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
         <v>300.1</v>
       </c>
@@ -8248,6 +8471,7 @@
       <c r="AO25" t="n">
         <v>37</v>
       </c>
+      <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -8256,6 +8480,7 @@
       <c r="AR25" t="n">
         <v>8</v>
       </c>
+      <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="n">
         <v>3</v>
       </c>
@@ -8279,11 +8504,17 @@
       <c r="AZ25" t="n">
         <v>0.3</v>
       </c>
+      <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -8295,6 +8526,7 @@
       <c r="BJ25" t="n">
         <v>-6.8</v>
       </c>
+      <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="n">
         <v>-4.7</v>
       </c>
@@ -8353,6 +8585,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="n">
         <v>-4.7</v>
       </c>
@@ -8380,6 +8613,7 @@
       <c r="CM25" t="n">
         <v>101.1</v>
       </c>
+      <c r="CN25" t="inlineStr"/>
       <c r="CO25" t="n">
         <v>0</v>
       </c>
@@ -8395,6 +8629,9 @@
       <c r="CS25" t="n">
         <v>95</v>
       </c>
+      <c r="CT25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="n">
         <v>350.61</v>
       </c>
@@ -8484,6 +8721,7 @@
       <c r="S26" t="n">
         <v>0</v>
       </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -8564,6 +8802,7 @@
       <c r="AR26" t="n">
         <v>2183</v>
       </c>
+      <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +8826,17 @@
       <c r="AZ26" t="n">
         <v>2.1</v>
       </c>
+      <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr">
         <is>
           <t>Thoát vùng quá mua</t>
@@ -8603,6 +8848,7 @@
       <c r="BJ26" t="n">
         <v>19.38</v>
       </c>
+      <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="n">
         <v>-3.14</v>
       </c>
@@ -8661,6 +8907,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="n">
         <v>-3.14</v>
       </c>
@@ -8706,9 +8953,13 @@
       <c r="CS26" t="n">
         <v>1.3</v>
       </c>
+      <c r="CT26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="n">
         <v>39.13</v>
       </c>
+      <c r="CX26" t="inlineStr"/>
       <c r="CY26" t="n">
         <v>10311</v>
       </c>
@@ -8792,6 +9043,7 @@
       <c r="S27" t="n">
         <v>5.5</v>
       </c>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -8842,6 +9094,7 @@
       <c r="AJ27" t="n">
         <v>0.12</v>
       </c>
+      <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="n">
         <v>18.5</v>
       </c>
@@ -8854,6 +9107,7 @@
       <c r="AO27" t="n">
         <v>32</v>
       </c>
+      <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -8888,11 +9142,17 @@
       <c r="AZ27" t="n">
         <v>1.7</v>
       </c>
+      <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -8904,6 +9164,7 @@
       <c r="BJ27" t="n">
         <v>-0.54</v>
       </c>
+      <c r="BK27" t="inlineStr"/>
       <c r="BL27" t="n">
         <v>0</v>
       </c>
@@ -8962,6 +9223,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD27" t="inlineStr"/>
       <c r="CE27" t="n">
         <v>0</v>
       </c>
@@ -8989,6 +9251,7 @@
       <c r="CM27" t="n">
         <v>112.2</v>
       </c>
+      <c r="CN27" t="inlineStr"/>
       <c r="CO27" t="n">
         <v>0.5</v>
       </c>
@@ -9004,6 +9267,9 @@
       <c r="CS27" t="n">
         <v>5.8</v>
       </c>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr"/>
+      <c r="CV27" t="inlineStr"/>
       <c r="CW27" t="n">
         <v>22.98</v>
       </c>
@@ -9093,6 +9359,7 @@
       <c r="S28" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -9143,6 +9410,7 @@
       <c r="AJ28" t="n">
         <v>2.22</v>
       </c>
+      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
         <v>47.4</v>
       </c>
@@ -9168,6 +9436,7 @@
       <c r="AR28" t="n">
         <v>0</v>
       </c>
+      <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="n">
         <v>2</v>
       </c>
@@ -9191,11 +9460,17 @@
       <c r="AZ28" t="n">
         <v>1.2</v>
       </c>
+      <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -9207,6 +9482,7 @@
       <c r="BJ28" t="n">
         <v>3.04</v>
       </c>
+      <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="n">
         <v>-0.11</v>
       </c>
@@ -9265,6 +9541,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="n">
         <v>-0.11</v>
       </c>
@@ -9310,6 +9587,9 @@
       <c r="CS28" t="n">
         <v>11.7</v>
       </c>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr"/>
+      <c r="CV28" t="inlineStr"/>
       <c r="CW28" t="n">
         <v>57.87</v>
       </c>
@@ -9399,6 +9679,7 @@
       <c r="S29" t="n">
         <v>12</v>
       </c>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(20)</t>
@@ -9466,6 +9747,7 @@
       <c r="AO29" t="n">
         <v>73</v>
       </c>
+      <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -9474,6 +9756,7 @@
       <c r="AR29" t="n">
         <v>-206</v>
       </c>
+      <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="n">
         <v>1</v>
       </c>
@@ -9497,16 +9780,21 @@
       <c r="AZ29" t="n">
         <v>1</v>
       </c>
+      <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
       <c r="BF29" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -9518,6 +9806,7 @@
       <c r="BJ29" t="n">
         <v>4.87</v>
       </c>
+      <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="n">
         <v>-1.74</v>
       </c>
@@ -9576,6 +9865,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="n">
         <v>-1.74</v>
       </c>
@@ -9603,6 +9893,7 @@
       <c r="CM29" t="n">
         <v>-36.9</v>
       </c>
+      <c r="CN29" t="inlineStr"/>
       <c r="CO29" t="n">
         <v>0</v>
       </c>
@@ -9618,6 +9909,9 @@
       <c r="CS29" t="n">
         <v>8.5</v>
       </c>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr"/>
+      <c r="CV29" t="inlineStr"/>
       <c r="CW29" t="n">
         <v>113.54</v>
       </c>
@@ -9762,6 +10056,7 @@
       <c r="AJ30" t="n">
         <v>0</v>
       </c>
+      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="n">
         <v>30.1</v>
       </c>
@@ -9774,6 +10069,7 @@
       <c r="AO30" t="n">
         <v>60</v>
       </c>
+      <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -9782,6 +10078,7 @@
       <c r="AR30" t="n">
         <v>0</v>
       </c>
+      <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="n">
         <v>1</v>
       </c>
@@ -9815,11 +10112,15 @@
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
       <c r="BF30" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -9831,6 +10132,7 @@
       <c r="BJ30" t="n">
         <v>-2.87</v>
       </c>
+      <c r="BK30" t="inlineStr"/>
       <c r="BL30" t="n">
         <v>-10.15</v>
       </c>
@@ -9889,6 +10191,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD30" t="inlineStr"/>
       <c r="CE30" t="n">
         <v>-10.15</v>
       </c>
@@ -9934,6 +10237,9 @@
       <c r="CS30" t="n">
         <v>13.9</v>
       </c>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr"/>
+      <c r="CV30" t="inlineStr"/>
       <c r="CW30" t="n">
         <v>21.24</v>
       </c>
@@ -10023,6 +10329,7 @@
       <c r="S31" t="n">
         <v>3.5</v>
       </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -10073,6 +10380,7 @@
       <c r="AJ31" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="n">
         <v>31.9</v>
       </c>
@@ -10085,6 +10393,7 @@
       <c r="AO31" t="n">
         <v>25</v>
       </c>
+      <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -10093,6 +10402,7 @@
       <c r="AR31" t="n">
         <v>-16</v>
       </c>
+      <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="n">
         <v>6</v>
       </c>
@@ -10116,11 +10426,17 @@
       <c r="AZ31" t="n">
         <v>0.4</v>
       </c>
+      <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="inlineStr">
         <is>
           <t>Vào vùng quá bán</t>
@@ -10132,6 +10448,7 @@
       <c r="BJ31" t="n">
         <v>-11.39</v>
       </c>
+      <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="n">
         <v>-1.24</v>
       </c>
@@ -10190,6 +10507,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD31" t="inlineStr"/>
       <c r="CE31" t="n">
         <v>-1.24</v>
       </c>
@@ -10235,6 +10553,9 @@
       <c r="CS31" t="n">
         <v>12.1</v>
       </c>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr"/>
+      <c r="CV31" t="inlineStr"/>
       <c r="CW31" t="n">
         <v>125.82</v>
       </c>
@@ -10379,6 +10700,7 @@
       <c r="AJ32" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="n">
         <v>29.15</v>
       </c>
@@ -10391,6 +10713,7 @@
       <c r="AO32" t="n">
         <v>51</v>
       </c>
+      <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -10399,6 +10722,7 @@
       <c r="AR32" t="n">
         <v>-2</v>
       </c>
+      <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +10746,17 @@
       <c r="AZ32" t="n">
         <v>0.2</v>
       </c>
+      <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -10438,6 +10768,7 @@
       <c r="BJ32" t="n">
         <v>6</v>
       </c>
+      <c r="BK32" t="inlineStr"/>
       <c r="BL32" t="n">
         <v>-0.85</v>
       </c>
@@ -10496,6 +10827,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD32" t="inlineStr"/>
       <c r="CE32" t="n">
         <v>-0.85</v>
       </c>
@@ -10541,6 +10873,9 @@
       <c r="CS32" t="n">
         <v>6.3</v>
       </c>
+      <c r="CT32" t="inlineStr"/>
+      <c r="CU32" t="inlineStr"/>
+      <c r="CV32" t="inlineStr"/>
       <c r="CW32" t="n">
         <v>16.21</v>
       </c>
@@ -10630,6 +10965,7 @@
       <c r="S33" t="n">
         <v>5.7</v>
       </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -10674,9 +11010,11 @@
       <c r="AH33" t="n">
         <v>46</v>
       </c>
+      <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="n">
         <v>0.01</v>
       </c>
+      <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="n">
         <v>37.5</v>
       </c>
@@ -10689,6 +11027,7 @@
       <c r="AO33" t="n">
         <v>62</v>
       </c>
+      <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -10723,11 +11062,17 @@
       <c r="AZ33" t="n">
         <v>0.9</v>
       </c>
+      <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -10739,6 +11084,7 @@
       <c r="BJ33" t="n">
         <v>5.34</v>
       </c>
+      <c r="BK33" t="inlineStr"/>
       <c r="BL33" t="n">
         <v>0</v>
       </c>
@@ -10797,6 +11143,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD33" t="inlineStr"/>
       <c r="CE33" t="n">
         <v>0</v>
       </c>
@@ -10824,6 +11171,7 @@
       <c r="CM33" t="n">
         <v>60.6</v>
       </c>
+      <c r="CN33" t="inlineStr"/>
       <c r="CO33" t="n">
         <v>0.6</v>
       </c>
@@ -10839,6 +11187,9 @@
       <c r="CS33" t="n">
         <v>14.2</v>
       </c>
+      <c r="CT33" t="inlineStr"/>
+      <c r="CU33" t="inlineStr"/>
+      <c r="CV33" t="inlineStr"/>
       <c r="CW33" t="n">
         <v>13.27</v>
       </c>
@@ -10922,6 +11273,7 @@
       <c r="Q34" t="n">
         <v>1.2</v>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
         <v>0</v>
       </c>
@@ -10947,9 +11299,11 @@
       <c r="Y34" t="n">
         <v>67.31999999999999</v>
       </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>37.91</v>
       </c>
+      <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="n">
         <v>16.4</v>
       </c>
@@ -10991,6 +11345,7 @@
       <c r="AO34" t="n">
         <v>75</v>
       </c>
+      <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -11002,6 +11357,7 @@
       <c r="AS34" t="n">
         <v>1</v>
       </c>
+      <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="n">
         <v>3275</v>
       </c>
@@ -11032,6 +11388,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
       <c r="BH34" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -11043,6 +11404,7 @@
       <c r="BJ34" t="n">
         <v>11.44</v>
       </c>
+      <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="n">
         <v>1.45</v>
       </c>
@@ -11063,6 +11425,8 @@
       <c r="BQ34" t="n">
         <v>95</v>
       </c>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
       <c r="BT34" t="n">
         <v>1183.7</v>
       </c>
@@ -11095,6 +11459,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD34" t="inlineStr"/>
       <c r="CE34" t="n">
         <v>1.45</v>
       </c>
@@ -11113,6 +11478,7 @@
       <c r="CJ34" t="n">
         <v>10.9</v>
       </c>
+      <c r="CK34" t="inlineStr"/>
       <c r="CL34" t="n">
         <v>5.1</v>
       </c>
@@ -11131,6 +11497,7 @@
       <c r="CQ34" t="n">
         <v>1191</v>
       </c>
+      <c r="CR34" t="inlineStr"/>
       <c r="CS34" t="n">
         <v>1.3</v>
       </c>
@@ -11140,6 +11507,7 @@
       <c r="CU34" t="n">
         <v>3.9</v>
       </c>
+      <c r="CV34" t="inlineStr"/>
       <c r="CW34" t="n">
         <v>70.91</v>
       </c>
@@ -11229,6 +11597,7 @@
       <c r="S35" t="n">
         <v>6.1</v>
       </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -11279,6 +11648,7 @@
       <c r="AJ35" t="n">
         <v>0.49</v>
       </c>
+      <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="n">
         <v>21.4</v>
       </c>
@@ -11291,6 +11661,7 @@
       <c r="AO35" t="n">
         <v>54</v>
       </c>
+      <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -11299,6 +11670,7 @@
       <c r="AR35" t="n">
         <v>0</v>
       </c>
+      <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="n">
         <v>1</v>
       </c>
@@ -11322,11 +11694,17 @@
       <c r="AZ35" t="n">
         <v>3.2</v>
       </c>
+      <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
       <c r="BH35" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -11338,6 +11716,7 @@
       <c r="BJ35" t="n">
         <v>1.9</v>
       </c>
+      <c r="BK35" t="inlineStr"/>
       <c r="BL35" t="n">
         <v>-1.04</v>
       </c>
@@ -11396,6 +11775,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD35" t="inlineStr"/>
       <c r="CE35" t="n">
         <v>-1.04</v>
       </c>
@@ -11441,6 +11821,9 @@
       <c r="CS35" t="n">
         <v>5.1</v>
       </c>
+      <c r="CT35" t="inlineStr"/>
+      <c r="CU35" t="inlineStr"/>
+      <c r="CV35" t="inlineStr"/>
       <c r="CW35" t="n">
         <v>22.85</v>
       </c>
@@ -11530,6 +11913,7 @@
       <c r="S36" t="n">
         <v>8.300000000000001</v>
       </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -11580,6 +11964,7 @@
       <c r="AJ36" t="n">
         <v>0.05</v>
       </c>
+      <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="n">
         <v>27.5</v>
       </c>
@@ -11592,6 +11977,7 @@
       <c r="AO36" t="n">
         <v>28</v>
       </c>
+      <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -11603,6 +11989,7 @@
       <c r="AS36" t="n">
         <v>1</v>
       </c>
+      <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="n">
         <v>5575</v>
       </c>
@@ -11623,11 +12010,17 @@
       <c r="AZ36" t="n">
         <v>0.8</v>
       </c>
+      <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
       <c r="BH36" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -11639,6 +12032,7 @@
       <c r="BJ36" t="n">
         <v>1.9</v>
       </c>
+      <c r="BK36" t="inlineStr"/>
       <c r="BL36" t="n">
         <v>2.42</v>
       </c>
@@ -11697,6 +12091,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD36" t="inlineStr"/>
       <c r="CE36" t="n">
         <v>2.42</v>
       </c>
@@ -11724,6 +12119,7 @@
       <c r="CM36" t="n">
         <v>5.5</v>
       </c>
+      <c r="CN36" t="inlineStr"/>
       <c r="CO36" t="n">
         <v>0</v>
       </c>
@@ -11739,6 +12135,9 @@
       <c r="CS36" t="n">
         <v>3.8</v>
       </c>
+      <c r="CT36" t="inlineStr"/>
+      <c r="CU36" t="inlineStr"/>
+      <c r="CV36" t="inlineStr"/>
       <c r="CW36" t="n">
         <v>257.85</v>
       </c>
@@ -11828,6 +12227,7 @@
       <c r="S37" t="n">
         <v>10.1</v>
       </c>
+      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -11908,6 +12308,7 @@
       <c r="AR37" t="n">
         <v>-502</v>
       </c>
+      <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="n">
         <v>4</v>
       </c>
@@ -11931,11 +12332,17 @@
       <c r="AZ37" t="n">
         <v>1.4</v>
       </c>
+      <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
       <c r="BH37" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -11947,6 +12354,7 @@
       <c r="BJ37" t="n">
         <v>-6.58</v>
       </c>
+      <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="n">
         <v>-3.01</v>
       </c>
@@ -12005,6 +12413,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD37" t="inlineStr"/>
       <c r="CE37" t="n">
         <v>-3.01</v>
       </c>
@@ -12050,6 +12459,9 @@
       <c r="CS37" t="n">
         <v>12.2</v>
       </c>
+      <c r="CT37" t="inlineStr"/>
+      <c r="CU37" t="inlineStr"/>
+      <c r="CV37" t="inlineStr"/>
       <c r="CW37" t="n">
         <v>101.87</v>
       </c>
@@ -12139,6 +12551,7 @@
       <c r="S38" t="n">
         <v>5.5</v>
       </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -12189,6 +12602,7 @@
       <c r="AJ38" t="n">
         <v>0.35</v>
       </c>
+      <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="n">
         <v>18</v>
       </c>
@@ -12201,6 +12615,7 @@
       <c r="AO38" t="n">
         <v>32</v>
       </c>
+      <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -12209,6 +12624,7 @@
       <c r="AR38" t="n">
         <v>6</v>
       </c>
+      <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12648,17 @@
       <c r="AZ38" t="n">
         <v>1.9</v>
       </c>
+      <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
       <c r="BH38" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -12248,6 +12670,7 @@
       <c r="BJ38" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="BK38" t="inlineStr"/>
       <c r="BL38" t="n">
         <v>-0.55</v>
       </c>
@@ -12306,6 +12729,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD38" t="inlineStr"/>
       <c r="CE38" t="n">
         <v>-0.55</v>
       </c>
@@ -12351,6 +12775,9 @@
       <c r="CS38" t="n">
         <v>7.9</v>
       </c>
+      <c r="CT38" t="inlineStr"/>
+      <c r="CU38" t="inlineStr"/>
+      <c r="CV38" t="inlineStr"/>
       <c r="CW38" t="n">
         <v>28.38</v>
       </c>
@@ -12440,6 +12867,7 @@
       <c r="S39" t="n">
         <v>4.9</v>
       </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -12490,6 +12918,7 @@
       <c r="AJ39" t="n">
         <v>1.73</v>
       </c>
+      <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="n">
         <v>14.8</v>
       </c>
@@ -12502,6 +12931,7 @@
       <c r="AO39" t="n">
         <v>86</v>
       </c>
+      <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -12510,6 +12940,7 @@
       <c r="AR39" t="n">
         <v>0</v>
       </c>
+      <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +12964,17 @@
       <c r="AZ39" t="n">
         <v>1</v>
       </c>
+      <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
       <c r="BH39" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -12549,6 +12986,7 @@
       <c r="BJ39" t="n">
         <v>43.98</v>
       </c>
+      <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="n">
         <v>-0.27</v>
       </c>
@@ -12607,6 +13045,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD39" t="inlineStr"/>
       <c r="CE39" t="n">
         <v>-0.27</v>
       </c>
@@ -12634,6 +13073,7 @@
       <c r="CM39" t="n">
         <v>109.2</v>
       </c>
+      <c r="CN39" t="inlineStr"/>
       <c r="CO39" t="n">
         <v>0.3</v>
       </c>
@@ -12649,6 +13089,9 @@
       <c r="CS39" t="n">
         <v>7.5</v>
       </c>
+      <c r="CT39" t="inlineStr"/>
+      <c r="CU39" t="inlineStr"/>
+      <c r="CV39" t="inlineStr"/>
       <c r="CW39" t="n">
         <v>47.61</v>
       </c>
@@ -12732,6 +13175,7 @@
       <c r="Q40" t="n">
         <v>1.3</v>
       </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
         <v>0</v>
       </c>
@@ -12757,9 +13201,11 @@
       <c r="Y40" t="n">
         <v>8.08</v>
       </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>38.15</v>
       </c>
+      <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="n">
         <v>47.69</v>
       </c>
@@ -12801,6 +13247,7 @@
       <c r="AO40" t="n">
         <v>58</v>
       </c>
+      <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -12812,6 +13259,7 @@
       <c r="AS40" t="n">
         <v>1</v>
       </c>
+      <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="n">
         <v>2243</v>
       </c>
@@ -12842,6 +13290,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
       <c r="BH40" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -12853,6 +13306,7 @@
       <c r="BJ40" t="n">
         <v>9.279999999999999</v>
       </c>
+      <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="n">
         <v>1.92</v>
       </c>
@@ -12862,6 +13316,7 @@
       <c r="BN40" t="n">
         <v>21.19</v>
       </c>
+      <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr">
         <is>
           <t>Có</t>
@@ -12870,6 +13325,8 @@
       <c r="BQ40" t="n">
         <v>80</v>
       </c>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
       <c r="BT40" t="n">
         <v>3848</v>
       </c>
@@ -12902,6 +13359,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD40" t="inlineStr"/>
       <c r="CE40" t="n">
         <v>1.92</v>
       </c>
@@ -12920,6 +13378,7 @@
       <c r="CJ40" t="n">
         <v>30</v>
       </c>
+      <c r="CK40" t="inlineStr"/>
       <c r="CL40" t="n">
         <v>18.9</v>
       </c>
@@ -12938,6 +13397,7 @@
       <c r="CQ40" t="n">
         <v>2712</v>
       </c>
+      <c r="CR40" t="inlineStr"/>
       <c r="CS40" t="n">
         <v>1.4</v>
       </c>
@@ -12947,6 +13407,7 @@
       <c r="CU40" t="n">
         <v>3.1</v>
       </c>
+      <c r="CV40" t="inlineStr"/>
       <c r="CW40" t="n">
         <v>21.19</v>
       </c>
@@ -13108,6 +13569,7 @@
       <c r="AO41" t="n">
         <v>75</v>
       </c>
+      <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr">
         <is>
           <t>Mua mạnh</t>
@@ -13119,6 +13581,7 @@
       <c r="AS41" t="n">
         <v>1</v>
       </c>
+      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="n">
         <v>3473</v>
       </c>
@@ -13139,11 +13602,17 @@
       <c r="AZ41" t="n">
         <v>2.1</v>
       </c>
+      <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -13155,6 +13624,7 @@
       <c r="BJ41" t="n">
         <v>9.369999999999999</v>
       </c>
+      <c r="BK41" t="inlineStr"/>
       <c r="BL41" t="n">
         <v>1.35</v>
       </c>
@@ -13213,6 +13683,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD41" t="inlineStr"/>
       <c r="CE41" t="n">
         <v>1.35</v>
       </c>
@@ -13240,6 +13711,7 @@
       <c r="CM41" t="n">
         <v>0.5</v>
       </c>
+      <c r="CN41" t="inlineStr"/>
       <c r="CO41" t="n">
         <v>0.8</v>
       </c>
@@ -13255,9 +13727,13 @@
       <c r="CS41" t="n">
         <v>13.5</v>
       </c>
+      <c r="CT41" t="inlineStr"/>
+      <c r="CU41" t="inlineStr"/>
+      <c r="CV41" t="inlineStr"/>
       <c r="CW41" t="n">
         <v>13.43</v>
       </c>
+      <c r="CX41" t="inlineStr"/>
       <c r="CY41" t="n">
         <v>214</v>
       </c>
@@ -13305,6 +13781,7 @@
       <c r="G42" t="n">
         <v>3.6</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>4.2</v>
       </c>
@@ -13338,6 +13815,7 @@
       <c r="S42" t="n">
         <v>12.4</v>
       </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -13388,6 +13866,7 @@
       <c r="AJ42" t="n">
         <v>0.14</v>
       </c>
+      <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="n">
         <v>55.1</v>
       </c>
@@ -13400,6 +13879,7 @@
       <c r="AO42" t="n">
         <v>54</v>
       </c>
+      <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -13408,6 +13888,7 @@
       <c r="AR42" t="n">
         <v>0</v>
       </c>
+      <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="n">
         <v>1</v>
       </c>
@@ -13431,11 +13912,17 @@
       <c r="AZ42" t="n">
         <v>0.3</v>
       </c>
+      <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
       <c r="BH42" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -13447,6 +13934,7 @@
       <c r="BJ42" t="n">
         <v>0.18</v>
       </c>
+      <c r="BK42" t="inlineStr"/>
       <c r="BL42" t="n">
         <v>-0.18</v>
       </c>
@@ -13505,6 +13993,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD42" t="inlineStr"/>
       <c r="CE42" t="n">
         <v>-0.18</v>
       </c>
@@ -13532,6 +14021,7 @@
       <c r="CM42" t="n">
         <v>-27</v>
       </c>
+      <c r="CN42" t="inlineStr"/>
       <c r="CO42" t="n">
         <v>0.1</v>
       </c>
@@ -13547,6 +14037,9 @@
       <c r="CS42" t="n">
         <v>24.2</v>
       </c>
+      <c r="CT42" t="inlineStr"/>
+      <c r="CU42" t="inlineStr"/>
+      <c r="CV42" t="inlineStr"/>
       <c r="CW42" t="n">
         <v>139.71</v>
       </c>
@@ -13612,9 +14105,12 @@
       <c r="K43" t="n">
         <v>-0.1</v>
       </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>27.9</v>
       </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -13627,6 +14123,8 @@
       <c r="S43" t="n">
         <v>8.9</v>
       </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
         <v>-7.08</v>
       </c>
@@ -13669,12 +14167,18 @@
       <c r="AI43" t="n">
         <v>62</v>
       </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="n">
         <v>0.14</v>
       </c>
       <c r="AO43" t="n">
         <v>87</v>
       </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="n">
         <v>2</v>
       </c>
@@ -13687,6 +14191,26 @@
       <c r="AU43" t="n">
         <v>5706</v>
       </c>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
       <c r="BP43" t="inlineStr">
         <is>
           <t>Có</t>
@@ -13716,6 +14240,18 @@
       <c r="BX43" t="n">
         <v>43</v>
       </c>
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr"/>
+      <c r="CC43" t="inlineStr"/>
+      <c r="CD43" t="inlineStr"/>
+      <c r="CE43" t="inlineStr"/>
+      <c r="CF43" t="inlineStr"/>
+      <c r="CG43" t="inlineStr"/>
+      <c r="CH43" t="inlineStr"/>
+      <c r="CI43" t="inlineStr"/>
+      <c r="CJ43" t="inlineStr"/>
       <c r="CK43" t="n">
         <v>1</v>
       </c>
@@ -13725,6 +14261,7 @@
       <c r="CM43" t="n">
         <v>-17.4</v>
       </c>
+      <c r="CN43" t="inlineStr"/>
       <c r="CO43" t="n">
         <v>0.3</v>
       </c>
@@ -13740,6 +14277,9 @@
       <c r="CS43" t="n">
         <v>30.7</v>
       </c>
+      <c r="CT43" t="inlineStr"/>
+      <c r="CU43" t="inlineStr"/>
+      <c r="CV43" t="inlineStr"/>
       <c r="CW43" t="n">
         <v>27.06</v>
       </c>
@@ -13752,6 +14292,10 @@
       <c r="CZ43" t="n">
         <v>5706</v>
       </c>
+      <c r="DA43" t="inlineStr"/>
+      <c r="DB43" t="inlineStr"/>
+      <c r="DC43" t="inlineStr"/>
+      <c r="DD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13817,6 +14361,7 @@
       <c r="S44" t="n">
         <v>4.9</v>
       </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -13897,6 +14442,7 @@
       <c r="AR44" t="n">
         <v>-952</v>
       </c>
+      <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="n">
         <v>2</v>
       </c>
@@ -13920,11 +14466,17 @@
       <c r="AZ44" t="n">
         <v>1.6</v>
       </c>
+      <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
       <c r="BH44" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -13936,6 +14488,7 @@
       <c r="BJ44" t="n">
         <v>-11.47</v>
       </c>
+      <c r="BK44" t="inlineStr"/>
       <c r="BL44" t="n">
         <v>-2.71</v>
       </c>
@@ -13994,6 +14547,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD44" t="inlineStr"/>
       <c r="CE44" t="n">
         <v>-2.71</v>
       </c>
@@ -14039,6 +14593,9 @@
       <c r="CS44" t="n">
         <v>15</v>
       </c>
+      <c r="CT44" t="inlineStr"/>
+      <c r="CU44" t="inlineStr"/>
+      <c r="CV44" t="inlineStr"/>
       <c r="CW44" t="n">
         <v>39.51</v>
       </c>
@@ -14183,6 +14740,7 @@
       <c r="AJ45" t="n">
         <v>0.25</v>
       </c>
+      <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="n">
         <v>94.5</v>
       </c>
@@ -14195,6 +14753,7 @@
       <c r="AO45" t="n">
         <v>49</v>
       </c>
+      <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -14206,6 +14765,7 @@
       <c r="AS45" t="n">
         <v>1</v>
       </c>
+      <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="n">
         <v>7226</v>
       </c>
@@ -14226,11 +14786,17 @@
       <c r="AZ45" t="n">
         <v>0.6</v>
       </c>
+      <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
       <c r="BH45" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -14242,6 +14808,7 @@
       <c r="BJ45" t="n">
         <v>-2.98</v>
       </c>
+      <c r="BK45" t="inlineStr"/>
       <c r="BL45" t="n">
         <v>0.53</v>
       </c>
@@ -14292,11 +14859,13 @@
       <c r="CA45" t="n">
         <v>45.3</v>
       </c>
+      <c r="CB45" t="inlineStr"/>
       <c r="CC45" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD45" t="inlineStr"/>
       <c r="CE45" t="n">
         <v>0.53</v>
       </c>
@@ -14342,6 +14911,9 @@
       <c r="CS45" t="n">
         <v>24.2</v>
       </c>
+      <c r="CT45" t="inlineStr"/>
+      <c r="CU45" t="inlineStr"/>
+      <c r="CV45" t="inlineStr"/>
       <c r="CW45" t="n">
         <v>21.21</v>
       </c>
@@ -14431,6 +15003,7 @@
       <c r="S46" t="n">
         <v>4.2</v>
       </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -14481,6 +15054,7 @@
       <c r="AJ46" t="n">
         <v>0.23</v>
       </c>
+      <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="n">
         <v>17.6</v>
       </c>
@@ -14493,6 +15067,7 @@
       <c r="AO46" t="n">
         <v>53</v>
       </c>
+      <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -14527,11 +15102,17 @@
       <c r="AZ46" t="n">
         <v>1</v>
       </c>
+      <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
       <c r="BH46" t="inlineStr">
         <is>
           <t>Vào vùng quá bán</t>
@@ -14606,6 +15187,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD46" t="inlineStr"/>
       <c r="CE46" t="n">
         <v>-1.12</v>
       </c>
@@ -14633,6 +15215,7 @@
       <c r="CM46" t="n">
         <v>-32.7</v>
       </c>
+      <c r="CN46" t="inlineStr"/>
       <c r="CO46" t="n">
         <v>0.1</v>
       </c>
@@ -14648,6 +15231,9 @@
       <c r="CS46" t="n">
         <v>11.4</v>
       </c>
+      <c r="CT46" t="inlineStr"/>
+      <c r="CU46" t="inlineStr"/>
+      <c r="CV46" t="inlineStr"/>
       <c r="CW46" t="n">
         <v>93.45999999999999</v>
       </c>
@@ -14737,6 +15323,7 @@
       <c r="S47" t="n">
         <v>8.699999999999999</v>
       </c>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -14787,6 +15374,7 @@
       <c r="AJ47" t="n">
         <v>0.65</v>
       </c>
+      <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="n">
         <v>27.8</v>
       </c>
@@ -14838,11 +15426,17 @@
       <c r="AZ47" t="n">
         <v>0.8</v>
       </c>
+      <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
       <c r="BH47" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -14854,6 +15448,7 @@
       <c r="BJ47" t="n">
         <v>1.2</v>
       </c>
+      <c r="BK47" t="inlineStr"/>
       <c r="BL47" t="n">
         <v>-0.16</v>
       </c>
@@ -14912,6 +15507,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD47" t="inlineStr"/>
       <c r="CE47" t="n">
         <v>-0.16</v>
       </c>
@@ -14957,6 +15553,8 @@
       <c r="CS47" t="n">
         <v>11.5</v>
       </c>
+      <c r="CT47" t="inlineStr"/>
+      <c r="CU47" t="inlineStr"/>
       <c r="CV47" t="inlineStr">
         <is>
           <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
@@ -15051,6 +15649,7 @@
       <c r="S48" t="n">
         <v>3.9</v>
       </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -15131,6 +15730,7 @@
       <c r="AR48" t="n">
         <v>-20</v>
       </c>
+      <c r="AS48" t="inlineStr"/>
       <c r="AT48" t="n">
         <v>2</v>
       </c>
@@ -15154,11 +15754,17 @@
       <c r="AZ48" t="n">
         <v>1.8</v>
       </c>
+      <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
       <c r="BH48" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -15170,6 +15776,7 @@
       <c r="BJ48" t="n">
         <v>-4.89</v>
       </c>
+      <c r="BK48" t="inlineStr"/>
       <c r="BL48" t="n">
         <v>-2.23</v>
       </c>
@@ -15228,6 +15835,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD48" t="inlineStr"/>
       <c r="CE48" t="n">
         <v>-2.23</v>
       </c>
@@ -15273,6 +15881,9 @@
       <c r="CS48" t="n">
         <v>7.6</v>
       </c>
+      <c r="CT48" t="inlineStr"/>
+      <c r="CU48" t="inlineStr"/>
+      <c r="CV48" t="inlineStr"/>
       <c r="CW48" t="n">
         <v>25.11</v>
       </c>
@@ -15362,6 +15973,7 @@
       <c r="S49" t="n">
         <v>0</v>
       </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(20)</t>
@@ -15442,6 +16054,7 @@
       <c r="AR49" t="n">
         <v>-3800</v>
       </c>
+      <c r="AS49" t="inlineStr"/>
       <c r="AT49" t="n">
         <v>2</v>
       </c>
@@ -15475,11 +16088,15 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
       <c r="BF49" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG49" t="inlineStr"/>
       <c r="BH49" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -15491,6 +16108,7 @@
       <c r="BJ49" t="n">
         <v>3.22</v>
       </c>
+      <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="n">
         <v>-4.59</v>
       </c>
@@ -15549,6 +16167,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD49" t="inlineStr"/>
       <c r="CE49" t="n">
         <v>-4.59</v>
       </c>
@@ -15594,6 +16213,9 @@
       <c r="CS49" t="n">
         <v>4</v>
       </c>
+      <c r="CT49" t="inlineStr"/>
+      <c r="CU49" t="inlineStr"/>
+      <c r="CV49" t="inlineStr"/>
       <c r="CW49" t="n">
         <v>37.08</v>
       </c>
@@ -15683,6 +16305,7 @@
       <c r="S50" t="n">
         <v>1.7</v>
       </c>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -15789,11 +16412,17 @@
       <c r="AZ50" t="n">
         <v>1.1</v>
       </c>
+      <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
       <c r="BH50" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -15805,6 +16434,7 @@
       <c r="BJ50" t="n">
         <v>-4.38</v>
       </c>
+      <c r="BK50" t="inlineStr"/>
       <c r="BL50" t="n">
         <v>0</v>
       </c>
@@ -15863,6 +16493,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD50" t="inlineStr"/>
       <c r="CE50" t="n">
         <v>0</v>
       </c>
@@ -15908,6 +16539,9 @@
       <c r="CS50" t="n">
         <v>6.7</v>
       </c>
+      <c r="CT50" t="inlineStr"/>
+      <c r="CU50" t="inlineStr"/>
+      <c r="CV50" t="inlineStr"/>
       <c r="CW50" t="n">
         <v>33.83</v>
       </c>
@@ -15991,6 +16625,7 @@
       <c r="Q51" t="n">
         <v>1.3</v>
       </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
         <v>6.3</v>
       </c>
@@ -16016,9 +16651,11 @@
       <c r="Y51" t="n">
         <v>17.48</v>
       </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>35</v>
       </c>
+      <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="n">
         <v>2459.14</v>
       </c>
@@ -16073,6 +16710,7 @@
       <c r="AR51" t="n">
         <v>26345</v>
       </c>
+      <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="n">
         <v>2</v>
       </c>
@@ -16096,11 +16734,17 @@
       <c r="AZ51" t="n">
         <v>1.9</v>
       </c>
+      <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
       <c r="BH51" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -16112,6 +16756,7 @@
       <c r="BJ51" t="n">
         <v>45.62</v>
       </c>
+      <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="n">
         <v>-1.08</v>
       </c>
@@ -16132,6 +16777,8 @@
       <c r="BQ51" t="n">
         <v>70</v>
       </c>
+      <c r="BR51" t="inlineStr"/>
+      <c r="BS51" t="inlineStr"/>
       <c r="BT51" t="n">
         <v>10930.3</v>
       </c>
@@ -16164,6 +16811,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD51" t="inlineStr"/>
       <c r="CE51" t="n">
         <v>-1.08</v>
       </c>
@@ -16182,6 +16830,7 @@
       <c r="CJ51" t="n">
         <v>15.5</v>
       </c>
+      <c r="CK51" t="inlineStr"/>
       <c r="CL51" t="n">
         <v>70.3</v>
       </c>
@@ -16200,6 +16849,7 @@
       <c r="CQ51" t="n">
         <v>10304</v>
       </c>
+      <c r="CR51" t="inlineStr"/>
       <c r="CS51" t="n">
         <v>1.5</v>
       </c>
@@ -16209,6 +16859,7 @@
       <c r="CU51" t="n">
         <v>3.8</v>
       </c>
+      <c r="CV51" t="inlineStr"/>
       <c r="CW51" t="n">
         <v>34.41</v>
       </c>
@@ -16353,6 +17004,7 @@
       <c r="AJ52" t="n">
         <v>0.06</v>
       </c>
+      <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="n">
         <v>19</v>
       </c>
@@ -16365,6 +17017,7 @@
       <c r="AO52" t="n">
         <v>41</v>
       </c>
+      <c r="AP52" t="inlineStr"/>
       <c r="AQ52" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -16373,6 +17026,7 @@
       <c r="AR52" t="n">
         <v>0</v>
       </c>
+      <c r="AS52" t="inlineStr"/>
       <c r="AT52" t="n">
         <v>1</v>
       </c>
@@ -16406,6 +17060,8 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
       <c r="BE52" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
@@ -16416,6 +17072,7 @@
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -16427,6 +17084,7 @@
       <c r="BJ52" t="n">
         <v>3.44</v>
       </c>
+      <c r="BK52" t="inlineStr"/>
       <c r="BL52" t="n">
         <v>-13.64</v>
       </c>
@@ -16485,6 +17143,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD52" t="inlineStr"/>
       <c r="CE52" t="n">
         <v>-13.64</v>
       </c>
@@ -16530,6 +17189,9 @@
       <c r="CS52" t="n">
         <v>3.4</v>
       </c>
+      <c r="CT52" t="inlineStr"/>
+      <c r="CU52" t="inlineStr"/>
+      <c r="CV52" t="inlineStr"/>
       <c r="CW52" t="n">
         <v>78.48999999999999</v>
       </c>
@@ -16595,9 +17257,12 @@
       <c r="K53" t="n">
         <v>0.3</v>
       </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>55.7</v>
       </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
         <v>9.300000000000001</v>
       </c>
@@ -16610,12 +17275,16 @@
       <c r="S53" t="n">
         <v>4.6</v>
       </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="n">
         <v>3.42</v>
       </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
         <v>-2.57</v>
       </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>61.53</v>
       </c>
@@ -16646,12 +17315,18 @@
       <c r="AI53" t="n">
         <v>67</v>
       </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="n">
         <v>0</v>
       </c>
       <c r="AO53" t="n">
         <v>65</v>
       </c>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="n">
         <v>0</v>
       </c>
@@ -16664,6 +17339,26 @@
       <c r="AU53" t="n">
         <v>4247</v>
       </c>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="inlineStr"/>
+      <c r="BG53" t="inlineStr"/>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="inlineStr"/>
+      <c r="BM53" t="inlineStr"/>
+      <c r="BN53" t="inlineStr"/>
+      <c r="BO53" t="inlineStr"/>
       <c r="BP53" t="inlineStr">
         <is>
           <t>Có</t>
@@ -16693,6 +17388,17 @@
       <c r="BX53" t="n">
         <v>53</v>
       </c>
+      <c r="BY53" t="inlineStr"/>
+      <c r="BZ53" t="inlineStr"/>
+      <c r="CA53" t="inlineStr"/>
+      <c r="CB53" t="inlineStr"/>
+      <c r="CC53" t="inlineStr"/>
+      <c r="CD53" t="inlineStr"/>
+      <c r="CE53" t="inlineStr"/>
+      <c r="CF53" t="inlineStr"/>
+      <c r="CG53" t="inlineStr"/>
+      <c r="CH53" t="inlineStr"/>
+      <c r="CI53" t="inlineStr"/>
       <c r="CJ53" t="n">
         <v>46.5</v>
       </c>
@@ -16705,6 +17411,7 @@
       <c r="CM53" t="n">
         <v>5.5</v>
       </c>
+      <c r="CN53" t="inlineStr"/>
       <c r="CO53" t="n">
         <v>0.2</v>
       </c>
@@ -16720,15 +17427,23 @@
       <c r="CS53" t="n">
         <v>5.7</v>
       </c>
+      <c r="CT53" t="inlineStr"/>
+      <c r="CU53" t="inlineStr"/>
+      <c r="CV53" t="inlineStr"/>
       <c r="CW53" t="n">
         <v>52.51</v>
       </c>
+      <c r="CX53" t="inlineStr"/>
       <c r="CY53" t="n">
         <v>934</v>
       </c>
       <c r="CZ53" t="n">
         <v>4247</v>
       </c>
+      <c r="DA53" t="inlineStr"/>
+      <c r="DB53" t="inlineStr"/>
+      <c r="DC53" t="inlineStr"/>
+      <c r="DD53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -16770,6 +17485,10 @@
       <c r="K54" t="n">
         <v>0.5</v>
       </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
         <v>18.7</v>
       </c>
@@ -16782,6 +17501,8 @@
       <c r="S54" t="n">
         <v>0</v>
       </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="n">
         <v>23.68</v>
       </c>
@@ -16824,12 +17545,18 @@
       <c r="AI54" t="n">
         <v>76</v>
       </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="n">
         <v>4.54</v>
       </c>
       <c r="AO54" t="n">
         <v>53</v>
       </c>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
       <c r="AR54" t="n">
         <v>0</v>
       </c>
@@ -16842,6 +17569,26 @@
       <c r="AU54" t="n">
         <v>5926</v>
       </c>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
       <c r="BP54" t="inlineStr">
         <is>
           <t>Có</t>
@@ -16871,6 +17618,17 @@
       <c r="BX54" t="n">
         <v>27.2</v>
       </c>
+      <c r="BY54" t="inlineStr"/>
+      <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr"/>
+      <c r="CC54" t="inlineStr"/>
+      <c r="CD54" t="inlineStr"/>
+      <c r="CE54" t="inlineStr"/>
+      <c r="CF54" t="inlineStr"/>
+      <c r="CG54" t="inlineStr"/>
+      <c r="CH54" t="inlineStr"/>
+      <c r="CI54" t="inlineStr"/>
       <c r="CJ54" t="n">
         <v>97.5</v>
       </c>
@@ -16883,6 +17641,7 @@
       <c r="CM54" t="n">
         <v>352.9</v>
       </c>
+      <c r="CN54" t="inlineStr"/>
       <c r="CO54" t="n">
         <v>0.1</v>
       </c>
@@ -16898,6 +17657,9 @@
       <c r="CS54" t="n">
         <v>10.5</v>
       </c>
+      <c r="CT54" t="inlineStr"/>
+      <c r="CU54" t="inlineStr"/>
+      <c r="CV54" t="inlineStr"/>
       <c r="CW54" t="n">
         <v>143.46</v>
       </c>
@@ -16910,6 +17672,10 @@
       <c r="CZ54" t="n">
         <v>5926</v>
       </c>
+      <c r="DA54" t="inlineStr"/>
+      <c r="DB54" t="inlineStr"/>
+      <c r="DC54" t="inlineStr"/>
+      <c r="DD54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16975,6 +17741,7 @@
       <c r="S55" t="n">
         <v>7.2</v>
       </c>
+      <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -17042,6 +17809,7 @@
       <c r="AO55" t="n">
         <v>42</v>
       </c>
+      <c r="AP55" t="inlineStr"/>
       <c r="AQ55" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -17050,6 +17818,7 @@
       <c r="AR55" t="n">
         <v>43</v>
       </c>
+      <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="n">
         <v>1</v>
       </c>
@@ -17083,6 +17852,11 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="inlineStr"/>
+      <c r="BF55" t="inlineStr"/>
+      <c r="BG55" t="inlineStr"/>
       <c r="BH55" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -17094,6 +17868,7 @@
       <c r="BJ55" t="n">
         <v>2.31</v>
       </c>
+      <c r="BK55" t="inlineStr"/>
       <c r="BL55" t="n">
         <v>-1.12</v>
       </c>
@@ -17152,6 +17927,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD55" t="inlineStr"/>
       <c r="CE55" t="n">
         <v>-1.12</v>
       </c>
@@ -17197,6 +17973,9 @@
       <c r="CS55" t="n">
         <v>14.2</v>
       </c>
+      <c r="CT55" t="inlineStr"/>
+      <c r="CU55" t="inlineStr"/>
+      <c r="CV55" t="inlineStr"/>
       <c r="CW55" t="n">
         <v>12.89</v>
       </c>
@@ -17250,6 +18029,7 @@
       <c r="G56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>4.4</v>
       </c>
@@ -17283,6 +18063,7 @@
       <c r="S56" t="n">
         <v>3.6</v>
       </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -17291,9 +18072,11 @@
       <c r="V56" t="n">
         <v>-7.96</v>
       </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="n">
         <v>-11</v>
       </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
         <v>22.54</v>
       </c>
@@ -17327,6 +18110,7 @@
       <c r="AJ56" t="n">
         <v>0.15</v>
       </c>
+      <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="n">
         <v>57</v>
       </c>
@@ -17339,6 +18123,7 @@
       <c r="AO56" t="n">
         <v>69</v>
       </c>
+      <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -17373,11 +18158,17 @@
       <c r="AZ56" t="n">
         <v>3.1</v>
       </c>
+      <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr"/>
+      <c r="BF56" t="inlineStr"/>
+      <c r="BG56" t="inlineStr"/>
       <c r="BH56" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -17389,6 +18180,7 @@
       <c r="BJ56" t="n">
         <v>9.93</v>
       </c>
+      <c r="BK56" t="inlineStr"/>
       <c r="BL56" t="n">
         <v>0.46</v>
       </c>
@@ -17398,6 +18190,7 @@
       <c r="BN56" t="n">
         <v>14.6</v>
       </c>
+      <c r="BO56" t="inlineStr"/>
       <c r="BP56" t="inlineStr">
         <is>
           <t>Có</t>
@@ -17444,6 +18237,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD56" t="inlineStr"/>
       <c r="CE56" t="n">
         <v>0.46</v>
       </c>
@@ -17471,6 +18265,7 @@
       <c r="CM56" t="n">
         <v>-55</v>
       </c>
+      <c r="CN56" t="inlineStr"/>
       <c r="CO56" t="n">
         <v>0.3</v>
       </c>
@@ -17486,9 +18281,13 @@
       <c r="CS56" t="n">
         <v>5.9</v>
       </c>
+      <c r="CT56" t="inlineStr"/>
+      <c r="CU56" t="inlineStr"/>
+      <c r="CV56" t="inlineStr"/>
       <c r="CW56" t="n">
         <v>26.89</v>
       </c>
+      <c r="CX56" t="inlineStr"/>
       <c r="CY56" t="n">
         <v>265</v>
       </c>
@@ -17536,6 +18335,7 @@
       <c r="G57" t="n">
         <v>4.2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>4.2</v>
       </c>
@@ -17624,6 +18424,7 @@
       <c r="AJ57" t="n">
         <v>0.03</v>
       </c>
+      <c r="AK57" t="inlineStr"/>
       <c r="AL57" t="n">
         <v>67</v>
       </c>
@@ -17636,6 +18437,7 @@
       <c r="AO57" t="n">
         <v>46</v>
       </c>
+      <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -17647,6 +18449,7 @@
       <c r="AS57" t="n">
         <v>1</v>
       </c>
+      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="n">
         <v>11421</v>
       </c>
@@ -17667,11 +18470,17 @@
       <c r="AZ57" t="n">
         <v>0.1</v>
       </c>
+      <c r="BA57" t="inlineStr"/>
       <c r="BB57" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -17683,6 +18492,7 @@
       <c r="BJ57" t="n">
         <v>-12.3</v>
       </c>
+      <c r="BK57" t="inlineStr"/>
       <c r="BL57" t="n">
         <v>1.52</v>
       </c>
@@ -17741,6 +18551,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD57" t="inlineStr"/>
       <c r="CE57" t="n">
         <v>1.52</v>
       </c>
@@ -17756,6 +18567,7 @@
       <c r="CI57" t="n">
         <v>5.2</v>
       </c>
+      <c r="CJ57" t="inlineStr"/>
       <c r="CK57" t="n">
         <v>1</v>
       </c>
@@ -17765,6 +18577,7 @@
       <c r="CM57" t="n">
         <v>-21</v>
       </c>
+      <c r="CN57" t="inlineStr"/>
       <c r="CO57" t="n">
         <v>0</v>
       </c>
@@ -17780,6 +18593,9 @@
       <c r="CS57" t="n">
         <v>22.8</v>
       </c>
+      <c r="CT57" t="inlineStr"/>
+      <c r="CU57" t="inlineStr"/>
+      <c r="CV57" t="inlineStr"/>
       <c r="CW57" t="n">
         <v>118.03</v>
       </c>
@@ -17869,6 +18685,7 @@
       <c r="S58" t="n">
         <v>7.5</v>
       </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -17936,6 +18753,7 @@
       <c r="AO58" t="n">
         <v>46</v>
       </c>
+      <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -17944,6 +18762,7 @@
       <c r="AR58" t="n">
         <v>-5</v>
       </c>
+      <c r="AS58" t="inlineStr"/>
       <c r="AT58" t="n">
         <v>2</v>
       </c>
@@ -17967,11 +18786,17 @@
       <c r="AZ58" t="n">
         <v>1.3</v>
       </c>
+      <c r="BA58" t="inlineStr"/>
       <c r="BB58" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -17983,6 +18808,7 @@
       <c r="BJ58" t="n">
         <v>-9.789999999999999</v>
       </c>
+      <c r="BK58" t="inlineStr"/>
       <c r="BL58" t="n">
         <v>-0.76</v>
       </c>
@@ -18041,6 +18867,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD58" t="inlineStr"/>
       <c r="CE58" t="n">
         <v>-0.76</v>
       </c>
@@ -18086,6 +18913,9 @@
       <c r="CS58" t="n">
         <v>8.9</v>
       </c>
+      <c r="CT58" t="inlineStr"/>
+      <c r="CU58" t="inlineStr"/>
+      <c r="CV58" t="inlineStr"/>
       <c r="CW58" t="n">
         <v>88.31999999999999</v>
       </c>
@@ -18175,6 +19005,7 @@
       <c r="S59" t="n">
         <v>8.4</v>
       </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -18255,6 +19086,7 @@
       <c r="AR59" t="n">
         <v>-153</v>
       </c>
+      <c r="AS59" t="inlineStr"/>
       <c r="AT59" t="n">
         <v>2</v>
       </c>
@@ -18278,11 +19110,17 @@
       <c r="AZ59" t="n">
         <v>1.4</v>
       </c>
+      <c r="BA59" t="inlineStr"/>
       <c r="BB59" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(50)</t>
         </is>
       </c>
+      <c r="BC59" t="inlineStr"/>
+      <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr"/>
+      <c r="BF59" t="inlineStr"/>
+      <c r="BG59" t="inlineStr"/>
       <c r="BH59" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -18294,6 +19132,7 @@
       <c r="BJ59" t="n">
         <v>-5.21</v>
       </c>
+      <c r="BK59" t="inlineStr"/>
       <c r="BL59" t="n">
         <v>-5.21</v>
       </c>
@@ -18352,6 +19191,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD59" t="inlineStr"/>
       <c r="CE59" t="n">
         <v>-5.21</v>
       </c>
@@ -18397,6 +19237,8 @@
       <c r="CS59" t="n">
         <v>5.5</v>
       </c>
+      <c r="CT59" t="inlineStr"/>
+      <c r="CU59" t="inlineStr"/>
       <c r="CV59" t="inlineStr">
         <is>
           <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
@@ -18531,9 +19373,14 @@
       <c r="AE60" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="n">
         <v>0</v>
       </c>
+      <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="n">
         <v>11.4</v>
       </c>
@@ -18543,6 +19390,8 @@
       <c r="AN60" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -18551,6 +19400,7 @@
       <c r="AR60" t="n">
         <v>3</v>
       </c>
+      <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="n">
         <v>1</v>
       </c>
@@ -18584,6 +19434,9 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
       <c r="BF60" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
@@ -18605,6 +19458,7 @@
       <c r="BJ60" t="n">
         <v>16.33</v>
       </c>
+      <c r="BK60" t="inlineStr"/>
       <c r="BL60" t="n">
         <v>-5.79</v>
       </c>
@@ -18663,6 +19517,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD60" t="inlineStr"/>
       <c r="CE60" t="n">
         <v>-5.79</v>
       </c>
@@ -18690,6 +19545,7 @@
       <c r="CM60" t="n">
         <v>303.6</v>
       </c>
+      <c r="CN60" t="inlineStr"/>
       <c r="CO60" t="n">
         <v>0.1</v>
       </c>
@@ -18705,6 +19561,9 @@
       <c r="CS60" t="n">
         <v>2.5</v>
       </c>
+      <c r="CT60" t="inlineStr"/>
+      <c r="CU60" t="inlineStr"/>
+      <c r="CV60" t="inlineStr"/>
       <c r="CW60" t="n">
         <v>111.37</v>
       </c>
@@ -18794,6 +19653,7 @@
       <c r="S61" t="n">
         <v>4.8</v>
       </c>
+      <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -18877,6 +19737,7 @@
       <c r="AS61" t="n">
         <v>3</v>
       </c>
+      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="n">
         <v>10244</v>
       </c>
@@ -18897,11 +19758,17 @@
       <c r="AZ61" t="n">
         <v>1.9</v>
       </c>
+      <c r="BA61" t="inlineStr"/>
       <c r="BB61" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -18913,6 +19780,7 @@
       <c r="BJ61" t="n">
         <v>5.71</v>
       </c>
+      <c r="BK61" t="inlineStr"/>
       <c r="BL61" t="n">
         <v>3.59</v>
       </c>
@@ -18971,6 +19839,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD61" t="inlineStr"/>
       <c r="CE61" t="n">
         <v>3.59</v>
       </c>
@@ -19016,6 +19885,9 @@
       <c r="CS61" t="n">
         <v>13.9</v>
       </c>
+      <c r="CT61" t="inlineStr"/>
+      <c r="CU61" t="inlineStr"/>
+      <c r="CV61" t="inlineStr"/>
       <c r="CW61" t="n">
         <v>229.9</v>
       </c>
@@ -19081,9 +19953,12 @@
       <c r="K62" t="n">
         <v>-0.2</v>
       </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>98.59999999999999</v>
       </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
         <v>12.3</v>
       </c>
@@ -19096,6 +19971,8 @@
       <c r="S62" t="n">
         <v>4.9</v>
       </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="n">
         <v>5</v>
       </c>
@@ -19138,12 +20015,18 @@
       <c r="AI62" t="n">
         <v>51</v>
       </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="n">
         <v>0.41</v>
       </c>
       <c r="AO62" t="n">
         <v>52</v>
       </c>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
       <c r="AR62" t="n">
         <v>0</v>
       </c>
@@ -19156,6 +20039,26 @@
       <c r="AU62" t="n">
         <v>6154</v>
       </c>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="inlineStr"/>
+      <c r="BE62" t="inlineStr"/>
+      <c r="BF62" t="inlineStr"/>
+      <c r="BG62" t="inlineStr"/>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" t="inlineStr"/>
+      <c r="BL62" t="inlineStr"/>
+      <c r="BM62" t="inlineStr"/>
+      <c r="BN62" t="inlineStr"/>
+      <c r="BO62" t="inlineStr"/>
       <c r="BP62" t="inlineStr">
         <is>
           <t>Có</t>
@@ -19185,6 +20088,17 @@
       <c r="BX62" t="n">
         <v>19.7</v>
       </c>
+      <c r="BY62" t="inlineStr"/>
+      <c r="BZ62" t="inlineStr"/>
+      <c r="CA62" t="inlineStr"/>
+      <c r="CB62" t="inlineStr"/>
+      <c r="CC62" t="inlineStr"/>
+      <c r="CD62" t="inlineStr"/>
+      <c r="CE62" t="inlineStr"/>
+      <c r="CF62" t="inlineStr"/>
+      <c r="CG62" t="inlineStr"/>
+      <c r="CH62" t="inlineStr"/>
+      <c r="CI62" t="inlineStr"/>
       <c r="CJ62" t="n">
         <v>7.8</v>
       </c>
@@ -19197,6 +20111,7 @@
       <c r="CM62" t="n">
         <v>73.3</v>
       </c>
+      <c r="CN62" t="inlineStr"/>
       <c r="CO62" t="n">
         <v>0.4</v>
       </c>
@@ -19212,6 +20127,9 @@
       <c r="CS62" t="n">
         <v>24.2</v>
       </c>
+      <c r="CT62" t="inlineStr"/>
+      <c r="CU62" t="inlineStr"/>
+      <c r="CV62" t="inlineStr"/>
       <c r="CW62" t="n">
         <v>28.92</v>
       </c>
@@ -19224,6 +20142,10 @@
       <c r="CZ62" t="n">
         <v>6154</v>
       </c>
+      <c r="DA62" t="inlineStr"/>
+      <c r="DB62" t="inlineStr"/>
+      <c r="DC62" t="inlineStr"/>
+      <c r="DD62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -19289,6 +20211,7 @@
       <c r="S63" t="n">
         <v>4.1</v>
       </c>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -19339,6 +20262,7 @@
       <c r="AJ63" t="n">
         <v>4.7</v>
       </c>
+      <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="n">
         <v>16.7</v>
       </c>
@@ -19351,6 +20275,7 @@
       <c r="AO63" t="n">
         <v>32</v>
       </c>
+      <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -19359,6 +20284,7 @@
       <c r="AR63" t="n">
         <v>17</v>
       </c>
+      <c r="AS63" t="inlineStr"/>
       <c r="AT63" t="n">
         <v>4</v>
       </c>
@@ -19382,11 +20308,17 @@
       <c r="AZ63" t="n">
         <v>1.1</v>
       </c>
+      <c r="BA63" t="inlineStr"/>
       <c r="BB63" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="inlineStr"/>
+      <c r="BF63" t="inlineStr"/>
+      <c r="BG63" t="inlineStr"/>
       <c r="BH63" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -19398,6 +20330,7 @@
       <c r="BJ63" t="n">
         <v>-13.82</v>
       </c>
+      <c r="BK63" t="inlineStr"/>
       <c r="BL63" t="n">
         <v>-3.67</v>
       </c>
@@ -19456,6 +20389,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD63" t="inlineStr"/>
       <c r="CE63" t="n">
         <v>-3.67</v>
       </c>
@@ -19483,6 +20417,7 @@
       <c r="CM63" t="n">
         <v>13.1</v>
       </c>
+      <c r="CN63" t="inlineStr"/>
       <c r="CO63" t="n">
         <v>0.4</v>
       </c>
@@ -19498,6 +20433,9 @@
       <c r="CS63" t="n">
         <v>11.5</v>
       </c>
+      <c r="CT63" t="inlineStr"/>
+      <c r="CU63" t="inlineStr"/>
+      <c r="CV63" t="inlineStr"/>
       <c r="CW63" t="n">
         <v>22.01</v>
       </c>
@@ -19587,6 +20525,7 @@
       <c r="S64" t="n">
         <v>0</v>
       </c>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -19637,6 +20576,7 @@
       <c r="AJ64" t="n">
         <v>3.19</v>
       </c>
+      <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="n">
         <v>24.5</v>
       </c>
@@ -19649,6 +20589,7 @@
       <c r="AO64" t="n">
         <v>72</v>
       </c>
+      <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -19657,6 +20598,7 @@
       <c r="AR64" t="n">
         <v>62</v>
       </c>
+      <c r="AS64" t="inlineStr"/>
       <c r="AT64" t="n">
         <v>1</v>
       </c>
@@ -19680,11 +20622,17 @@
       <c r="AZ64" t="n">
         <v>2.1</v>
       </c>
+      <c r="BA64" t="inlineStr"/>
       <c r="BB64" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="inlineStr"/>
+      <c r="BE64" t="inlineStr"/>
+      <c r="BF64" t="inlineStr"/>
+      <c r="BG64" t="inlineStr"/>
       <c r="BH64" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -19696,6 +20644,7 @@
       <c r="BJ64" t="n">
         <v>-0.1</v>
       </c>
+      <c r="BK64" t="inlineStr"/>
       <c r="BL64" t="n">
         <v>-1.44</v>
       </c>
@@ -19754,6 +20703,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD64" t="inlineStr"/>
       <c r="CE64" t="n">
         <v>-1.44</v>
       </c>
@@ -19781,6 +20731,7 @@
       <c r="CM64" t="n">
         <v>4.6</v>
       </c>
+      <c r="CN64" t="inlineStr"/>
       <c r="CO64" t="n">
         <v>0.1</v>
       </c>
@@ -19796,6 +20747,8 @@
       <c r="CS64" t="n">
         <v>12.3</v>
       </c>
+      <c r="CT64" t="inlineStr"/>
+      <c r="CU64" t="inlineStr"/>
       <c r="CV64" t="inlineStr">
         <is>
           <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
@@ -19804,6 +20757,7 @@
       <c r="CW64" t="n">
         <v>66</v>
       </c>
+      <c r="CX64" t="inlineStr"/>
       <c r="CY64" t="n">
         <v>426</v>
       </c>
@@ -19887,6 +20841,7 @@
       <c r="S65" t="n">
         <v>6.4</v>
       </c>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(20)</t>
@@ -19954,6 +20909,7 @@
       <c r="AO65" t="n">
         <v>68</v>
       </c>
+      <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -19962,6 +20918,7 @@
       <c r="AR65" t="n">
         <v>-62</v>
       </c>
+      <c r="AS65" t="inlineStr"/>
       <c r="AT65" t="n">
         <v>1</v>
       </c>
@@ -19995,11 +20952,15 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
       <c r="BF65" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG65" t="inlineStr"/>
       <c r="BH65" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -20011,6 +20972,7 @@
       <c r="BJ65" t="n">
         <v>17.01</v>
       </c>
+      <c r="BK65" t="inlineStr"/>
       <c r="BL65" t="n">
         <v>-0.58</v>
       </c>
@@ -20069,6 +21031,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD65" t="inlineStr"/>
       <c r="CE65" t="n">
         <v>-0.58</v>
       </c>
@@ -20096,6 +21059,7 @@
       <c r="CM65" t="n">
         <v>70.5</v>
       </c>
+      <c r="CN65" t="inlineStr"/>
       <c r="CO65" t="n">
         <v>0</v>
       </c>
@@ -20111,6 +21075,9 @@
       <c r="CS65" t="n">
         <v>7.2</v>
       </c>
+      <c r="CT65" t="inlineStr"/>
+      <c r="CU65" t="inlineStr"/>
+      <c r="CV65" t="inlineStr"/>
       <c r="CW65" t="n">
         <v>154.51</v>
       </c>
@@ -20194,9 +21161,11 @@
       <c r="Q66" t="n">
         <v>1.2</v>
       </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
         <v>0</v>
       </c>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -20214,9 +21183,11 @@
       <c r="Y66" t="n">
         <v>17.9</v>
       </c>
+      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>45.81</v>
       </c>
+      <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="n">
         <v>51.76</v>
       </c>
@@ -20258,6 +21229,7 @@
       <c r="AO66" t="n">
         <v>64</v>
       </c>
+      <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -20266,6 +21238,7 @@
       <c r="AR66" t="n">
         <v>-343</v>
       </c>
+      <c r="AS66" t="inlineStr"/>
       <c r="AT66" t="n">
         <v>3</v>
       </c>
@@ -20289,11 +21262,17 @@
       <c r="AZ66" t="n">
         <v>1.5</v>
       </c>
+      <c r="BA66" t="inlineStr"/>
       <c r="BB66" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr"/>
+      <c r="BF66" t="inlineStr"/>
+      <c r="BG66" t="inlineStr"/>
       <c r="BH66" t="inlineStr">
         <is>
           <t>Thoát vùng quá mua</t>
@@ -20302,12 +21281,16 @@
       <c r="BI66" t="n">
         <v>1.05</v>
       </c>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="inlineStr"/>
       <c r="BL66" t="n">
         <v>-2.92</v>
       </c>
+      <c r="BM66" t="inlineStr"/>
       <c r="BN66" t="n">
         <v>118.88</v>
       </c>
+      <c r="BO66" t="inlineStr"/>
       <c r="BP66" t="inlineStr">
         <is>
           <t>Có</t>
@@ -20316,6 +21299,8 @@
       <c r="BQ66" t="n">
         <v>90</v>
       </c>
+      <c r="BR66" t="inlineStr"/>
+      <c r="BS66" t="inlineStr"/>
       <c r="BT66" t="n">
         <v>988.3</v>
       </c>
@@ -20348,6 +21333,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD66" t="inlineStr"/>
       <c r="CE66" t="n">
         <v>-2.92</v>
       </c>
@@ -20366,6 +21352,7 @@
       <c r="CJ66" t="n">
         <v>14.9</v>
       </c>
+      <c r="CK66" t="inlineStr"/>
       <c r="CL66" t="n">
         <v>-8.699999999999999</v>
       </c>
@@ -20384,6 +21371,7 @@
       <c r="CQ66" t="n">
         <v>608</v>
       </c>
+      <c r="CR66" t="inlineStr"/>
       <c r="CS66" t="n">
         <v>0.8</v>
       </c>
@@ -20393,6 +21381,7 @@
       <c r="CU66" t="n">
         <v>2.2</v>
       </c>
+      <c r="CV66" t="inlineStr"/>
       <c r="CW66" t="n">
         <v>26.66</v>
       </c>
@@ -20482,6 +21471,7 @@
       <c r="S67" t="n">
         <v>7.5</v>
       </c>
+      <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -20532,6 +21522,7 @@
       <c r="AJ67" t="n">
         <v>0.02</v>
       </c>
+      <c r="AK67" t="inlineStr"/>
       <c r="AL67" t="n">
         <v>18.6</v>
       </c>
@@ -20544,6 +21535,7 @@
       <c r="AO67" t="n">
         <v>66</v>
       </c>
+      <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr">
         <is>
           <t>Bán mạnh</t>
@@ -20552,6 +21544,7 @@
       <c r="AR67" t="n">
         <v>1</v>
       </c>
+      <c r="AS67" t="inlineStr"/>
       <c r="AT67" t="n">
         <v>2</v>
       </c>
@@ -20575,11 +21568,17 @@
       <c r="AZ67" t="n">
         <v>0.2</v>
       </c>
+      <c r="BA67" t="inlineStr"/>
       <c r="BB67" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="inlineStr"/>
       <c r="BH67" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -20591,6 +21590,7 @@
       <c r="BJ67" t="n">
         <v>-6.53</v>
       </c>
+      <c r="BK67" t="inlineStr"/>
       <c r="BL67" t="n">
         <v>-0.27</v>
       </c>
@@ -20649,6 +21649,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD67" t="inlineStr"/>
       <c r="CE67" t="n">
         <v>-0.27</v>
       </c>
@@ -20676,6 +21677,7 @@
       <c r="CM67" t="n">
         <v>19.2</v>
       </c>
+      <c r="CN67" t="inlineStr"/>
       <c r="CO67" t="n">
         <v>0.1</v>
       </c>
@@ -20691,6 +21693,9 @@
       <c r="CS67" t="n">
         <v>13.7</v>
       </c>
+      <c r="CT67" t="inlineStr"/>
+      <c r="CU67" t="inlineStr"/>
+      <c r="CV67" t="inlineStr"/>
       <c r="CW67" t="n">
         <v>85.37</v>
       </c>
@@ -20780,6 +21785,7 @@
       <c r="S68" t="n">
         <v>0</v>
       </c>
+      <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -20830,6 +21836,7 @@
       <c r="AJ68" t="n">
         <v>43.18</v>
       </c>
+      <c r="AK68" t="inlineStr"/>
       <c r="AL68" t="n">
         <v>12.5</v>
       </c>
@@ -20855,6 +21862,7 @@
       <c r="AR68" t="n">
         <v>18</v>
       </c>
+      <c r="AS68" t="inlineStr"/>
       <c r="AT68" t="n">
         <v>5</v>
       </c>
@@ -20878,11 +21886,17 @@
       <c r="AZ68" t="n">
         <v>1.7</v>
       </c>
+      <c r="BA68" t="inlineStr"/>
       <c r="BB68" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC68" t="inlineStr"/>
+      <c r="BD68" t="inlineStr"/>
+      <c r="BE68" t="inlineStr"/>
+      <c r="BF68" t="inlineStr"/>
+      <c r="BG68" t="inlineStr"/>
       <c r="BH68" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -20894,6 +21908,7 @@
       <c r="BJ68" t="n">
         <v>1.87</v>
       </c>
+      <c r="BK68" t="inlineStr"/>
       <c r="BL68" t="n">
         <v>-2.55</v>
       </c>
@@ -20952,6 +21967,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD68" t="inlineStr"/>
       <c r="CE68" t="n">
         <v>-2.55</v>
       </c>
@@ -20997,6 +22013,8 @@
       <c r="CS68" t="n">
         <v>3.1</v>
       </c>
+      <c r="CT68" t="inlineStr"/>
+      <c r="CU68" t="inlineStr"/>
       <c r="CV68" t="inlineStr">
         <is>
           <t>{'vi': 'Giá cắt xuống SMA(200)', 'en': 'Price cross below SMA(200)'}</t>
@@ -21085,9 +22103,11 @@
       <c r="Q69" t="n">
         <v>1.9</v>
       </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
         <v>2.7</v>
       </c>
+      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -21105,9 +22125,11 @@
       <c r="Y69" t="n">
         <v>1.37</v>
       </c>
+      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>29.86</v>
       </c>
+      <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="n">
         <v>1806.81</v>
       </c>
@@ -21165,6 +22187,7 @@
       <c r="AS69" t="n">
         <v>5</v>
       </c>
+      <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="n">
         <v>2193</v>
       </c>
@@ -21185,6 +22208,7 @@
       <c r="AZ69" t="n">
         <v>1.8</v>
       </c>
+      <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
@@ -21195,6 +22219,10 @@
           <t>Tín hiệu vượt đỉnh</t>
         </is>
       </c>
+      <c r="BD69" t="inlineStr"/>
+      <c r="BE69" t="inlineStr"/>
+      <c r="BF69" t="inlineStr"/>
+      <c r="BG69" t="inlineStr"/>
       <c r="BH69" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -21206,6 +22234,7 @@
       <c r="BJ69" t="n">
         <v>71.19</v>
       </c>
+      <c r="BK69" t="inlineStr"/>
       <c r="BL69" t="n">
         <v>6.87</v>
       </c>
@@ -21226,6 +22255,8 @@
       <c r="BQ69" t="n">
         <v>55</v>
       </c>
+      <c r="BR69" t="inlineStr"/>
+      <c r="BS69" t="inlineStr"/>
       <c r="BT69" t="n">
         <v>17402.6</v>
       </c>
@@ -21281,6 +22312,7 @@
       <c r="CJ69" t="n">
         <v>26.6</v>
       </c>
+      <c r="CK69" t="inlineStr"/>
       <c r="CL69" t="n">
         <v>6.2</v>
       </c>
@@ -21299,6 +22331,7 @@
       <c r="CQ69" t="n">
         <v>16535</v>
       </c>
+      <c r="CR69" t="inlineStr"/>
       <c r="CS69" t="n">
         <v>1.8</v>
       </c>
@@ -21308,6 +22341,7 @@
       <c r="CU69" t="n">
         <v>5.4</v>
       </c>
+      <c r="CV69" t="inlineStr"/>
       <c r="CW69" t="n">
         <v>50.17</v>
       </c>
@@ -21397,6 +22431,7 @@
       <c r="S70" t="n">
         <v>0</v>
       </c>
+      <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
           <t>Giá cắt xuống SMA(20)</t>
@@ -21464,6 +22499,7 @@
       <c r="AO70" t="n">
         <v>26</v>
       </c>
+      <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr">
         <is>
           <t>Bán</t>
@@ -21472,6 +22508,7 @@
       <c r="AR70" t="n">
         <v>-367</v>
       </c>
+      <c r="AS70" t="inlineStr"/>
       <c r="AT70" t="n">
         <v>1</v>
       </c>
@@ -21495,16 +22532,21 @@
       <c r="AZ70" t="n">
         <v>0.9</v>
       </c>
+      <c r="BA70" t="inlineStr"/>
       <c r="BB70" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC70" t="inlineStr"/>
+      <c r="BD70" t="inlineStr"/>
+      <c r="BE70" t="inlineStr"/>
       <c r="BF70" t="inlineStr">
         <is>
           <t>Tín hiệu bán</t>
         </is>
       </c>
+      <c r="BG70" t="inlineStr"/>
       <c r="BH70" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -21516,6 +22558,7 @@
       <c r="BJ70" t="n">
         <v>13.14</v>
       </c>
+      <c r="BK70" t="inlineStr"/>
       <c r="BL70" t="n">
         <v>-2.98</v>
       </c>
@@ -21574,6 +22617,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD70" t="inlineStr"/>
       <c r="CE70" t="n">
         <v>-2.98</v>
       </c>
@@ -21589,6 +22633,7 @@
       <c r="CI70" t="n">
         <v>1171</v>
       </c>
+      <c r="CJ70" t="inlineStr"/>
       <c r="CK70" t="n">
         <v>5</v>
       </c>
@@ -21616,6 +22661,10 @@
       <c r="CS70" t="n">
         <v>1.9</v>
       </c>
+      <c r="CT70" t="inlineStr"/>
+      <c r="CU70" t="inlineStr"/>
+      <c r="CV70" t="inlineStr"/>
+      <c r="CW70" t="inlineStr"/>
       <c r="CX70" t="n">
         <v>248.86</v>
       </c>
@@ -21787,6 +22836,7 @@
       <c r="AR71" t="n">
         <v>-78</v>
       </c>
+      <c r="AS71" t="inlineStr"/>
       <c r="AT71" t="n">
         <v>1</v>
       </c>
@@ -21820,6 +22870,11 @@
           <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
       <c r="BH71" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -21831,6 +22886,7 @@
       <c r="BJ71" t="n">
         <v>-2.27</v>
       </c>
+      <c r="BK71" t="inlineStr"/>
       <c r="BL71" t="n">
         <v>-0.74</v>
       </c>
@@ -21889,6 +22945,7 @@
           <t>Giá nằm dưới SMA(100)</t>
         </is>
       </c>
+      <c r="CD71" t="inlineStr"/>
       <c r="CE71" t="n">
         <v>-0.74</v>
       </c>
@@ -21934,6 +22991,9 @@
       <c r="CS71" t="n">
         <v>9.300000000000001</v>
       </c>
+      <c r="CT71" t="inlineStr"/>
+      <c r="CU71" t="inlineStr"/>
+      <c r="CV71" t="inlineStr"/>
       <c r="CW71" t="n">
         <v>151.09</v>
       </c>
@@ -21987,6 +23047,7 @@
       <c r="G72" t="n">
         <v>1.7</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
         <v>3.8</v>
       </c>
@@ -22020,6 +23081,7 @@
       <c r="S72" t="n">
         <v>6.4</v>
       </c>
+      <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -22028,9 +23090,11 @@
       <c r="V72" t="n">
         <v>71.79000000000001</v>
       </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="n">
         <v>296.23</v>
       </c>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="n">
         <v>6</v>
       </c>
@@ -22064,6 +23128,7 @@
       <c r="AJ72" t="n">
         <v>3.89</v>
       </c>
+      <c r="AK72" t="inlineStr"/>
       <c r="AL72" t="n">
         <v>36.8</v>
       </c>
@@ -22076,6 +23141,7 @@
       <c r="AO72" t="n">
         <v>76</v>
       </c>
+      <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr">
         <is>
           <t>Mua</t>
@@ -22084,6 +23150,7 @@
       <c r="AR72" t="n">
         <v>-5</v>
       </c>
+      <c r="AS72" t="inlineStr"/>
       <c r="AT72" t="n">
         <v>1</v>
       </c>
@@ -22107,11 +23174,17 @@
       <c r="AZ72" t="n">
         <v>2.3</v>
       </c>
+      <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr">
         <is>
           <t>Trung tính</t>
@@ -22123,6 +23196,7 @@
       <c r="BJ72" t="n">
         <v>81.48</v>
       </c>
+      <c r="BK72" t="inlineStr"/>
       <c r="BL72" t="n">
         <v>0.91</v>
       </c>
@@ -22132,6 +23206,7 @@
       <c r="BN72" t="n">
         <v>124.58</v>
       </c>
+      <c r="BO72" t="inlineStr"/>
       <c r="BP72" t="inlineStr">
         <is>
           <t>Có</t>
@@ -22178,6 +23253,7 @@
           <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
+      <c r="CD72" t="inlineStr"/>
       <c r="CE72" t="n">
         <v>0.91</v>
       </c>
@@ -22205,6 +23281,7 @@
       <c r="CM72" t="n">
         <v>111.3</v>
       </c>
+      <c r="CN72" t="inlineStr"/>
       <c r="CO72" t="n">
         <v>0</v>
       </c>
@@ -22220,9 +23297,13 @@
       <c r="CS72" t="n">
         <v>4</v>
       </c>
+      <c r="CT72" t="inlineStr"/>
+      <c r="CU72" t="inlineStr"/>
+      <c r="CV72" t="inlineStr"/>
       <c r="CW72" t="n">
         <v>347.24</v>
       </c>
+      <c r="CX72" t="inlineStr"/>
       <c r="CY72" t="n">
         <v>434</v>
       </c>
@@ -22244,8 +23325,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/market_filtered_pe.xlsx
+++ b/market_filtered_pe.xlsx
@@ -1016,13 +1016,13 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>54.5</v>
+        <v>54</v>
       </c>
       <c r="M2" t="n">
-        <v>34.3</v>
+        <v>37.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.9</v>
@@ -1082,7 +1082,7 @@
         <v>87</v>
       </c>
       <c r="AJ2" t="n">
-        <v>96.55</v>
+        <v>98.17</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1218,16 +1218,16 @@
         <v>4.93</v>
       </c>
       <c r="CF2" t="n">
-        <v>9968.6</v>
+        <v>9978.799999999999</v>
       </c>
       <c r="CG2" t="n">
-        <v>10867.2</v>
+        <v>10872.3</v>
       </c>
       <c r="CH2" t="n">
-        <v>12341.8</v>
+        <v>12344.4</v>
       </c>
       <c r="CI2" t="n">
-        <v>6969.4</v>
+        <v>6970.4</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -1798,13 +1798,13 @@
         <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>82.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="M5" t="n">
-        <v>57.3</v>
+        <v>48.9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>0.3</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
@@ -2002,13 +2002,13 @@
         <v>4.61</v>
       </c>
       <c r="CF5" t="n">
-        <v>58</v>
+        <v>58.2</v>
       </c>
       <c r="CG5" t="n">
         <v>67.8</v>
       </c>
       <c r="CH5" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="CI5" t="n">
         <v>32.6</v>
@@ -2110,13 +2110,13 @@
         <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>61.4</v>
+        <v>60.3</v>
       </c>
       <c r="M6" t="n">
-        <v>55.2</v>
+        <v>18.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O6" t="n">
         <v>0.1</v>
@@ -2182,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>173.7</v>
       </c>
       <c r="CG6" t="n">
-        <v>177.2</v>
+        <v>177.1</v>
       </c>
       <c r="CH6" t="n">
         <v>153.5</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>69.7</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -3214,13 +3214,13 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>70.59999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="M10" t="n">
-        <v>23.4</v>
+        <v>36.8</v>
       </c>
       <c r="N10" t="n">
-        <v>8.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -3280,7 +3280,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="n">
-        <v>276.46</v>
+        <v>304.16</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3288,10 +3288,10 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="AM10" t="n">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
         <v>26.79</v>
@@ -3334,7 +3334,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr">
@@ -3357,23 +3357,23 @@
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>5.85</v>
+        <v>6.05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>16.54</v>
+        <v>16.76</v>
       </c>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="BM10" t="n">
-        <v>16.54</v>
+        <v>16.76</v>
       </c>
       <c r="BN10" t="n">
-        <v>58.13</v>
+        <v>58.43</v>
       </c>
       <c r="BO10" t="n">
-        <v>237.69</v>
+        <v>238.33</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -3401,16 +3401,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="CA10" t="n">
-        <v>60.5</v>
+        <v>60.9</v>
       </c>
       <c r="CB10" t="n">
-        <v>869.4</v>
+        <v>871.2</v>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
@@ -3419,19 +3419,19 @@
       </c>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="CF10" t="n">
-        <v>11248.1</v>
+        <v>11194.5</v>
       </c>
       <c r="CG10" t="n">
-        <v>12825.8</v>
+        <v>12799</v>
       </c>
       <c r="CH10" t="n">
-        <v>13488.1</v>
+        <v>13474.7</v>
       </c>
       <c r="CI10" t="n">
-        <v>9977.5</v>
+        <v>9972.1</v>
       </c>
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
@@ -3479,16 +3479,16 @@
         <v>5608</v>
       </c>
       <c r="DA10" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="DB10" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="DC10" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="DD10" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="11">
@@ -3532,13 +3532,13 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="M11" t="n">
-        <v>65.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="O11" t="n">
         <v>0.7</v>
@@ -3604,7 +3604,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15.39</v>
+        <v>16.28</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>25.05</v>
+        <v>25.1</v>
       </c>
       <c r="AM11" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="AN11" t="n">
         <v>2.5</v>
@@ -3677,23 +3677,23 @@
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>-8.58</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-1.57</v>
+        <v>-1.38</v>
       </c>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="n">
-        <v>-3.09</v>
+        <v>-2.9</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.57</v>
+        <v>-1.38</v>
       </c>
       <c r="BN11" t="n">
-        <v>56.07</v>
+        <v>56.39</v>
       </c>
       <c r="BO11" t="n">
-        <v>124.78</v>
+        <v>125.22</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -3725,16 +3725,16 @@
         <v>36.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>-13.5</v>
+        <v>-13.3</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-18.7</v>
+        <v>-18.5</v>
       </c>
       <c r="CA11" t="n">
-        <v>69.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="CB11" t="n">
-        <v>726.8</v>
+        <v>728.4</v>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
@@ -3743,19 +3743,19 @@
       </c>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="n">
-        <v>-3.09</v>
+        <v>-2.9</v>
       </c>
       <c r="CF11" t="n">
-        <v>2123.9</v>
+        <v>2119.7</v>
       </c>
       <c r="CG11" t="n">
-        <v>2216.4</v>
+        <v>2214.2</v>
       </c>
       <c r="CH11" t="n">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="CI11" t="n">
-        <v>2426.4</v>
+        <v>2425.9</v>
       </c>
       <c r="CJ11" t="n">
         <v>18.3</v>
@@ -3803,16 +3803,16 @@
         <v>2263</v>
       </c>
       <c r="DA11" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="DB11" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="DC11" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="DD11" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="12">
@@ -3856,13 +3856,13 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>36.1</v>
+        <v>33.9</v>
       </c>
       <c r="M12" t="n">
-        <v>75</v>
+        <v>63.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
         <v>0.8</v>
@@ -3928,7 +3928,7 @@
         <v>53</v>
       </c>
       <c r="AJ12" t="n">
-        <v>54.14</v>
+        <v>60.48</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>28.15</v>
+        <v>28.05</v>
       </c>
       <c r="AM12" t="n">
-        <v>38.6</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="n">
         <v>4.24</v>
@@ -4001,23 +4001,23 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-9.050000000000001</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-3.94</v>
+        <v>-4.28</v>
       </c>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
-        <v>-0.88</v>
+        <v>-1.23</v>
       </c>
       <c r="BM12" t="n">
-        <v>-3.94</v>
+        <v>-4.28</v>
       </c>
       <c r="BN12" t="n">
-        <v>13.78</v>
+        <v>13.38</v>
       </c>
       <c r="BO12" t="n">
-        <v>99.54000000000001</v>
+        <v>98.84</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4049,16 +4049,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-13</v>
+        <v>-13.3</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-9.9</v>
+        <v>-10.3</v>
       </c>
       <c r="CA12" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="CB12" t="n">
-        <v>2456.3</v>
+        <v>2447.3</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4067,19 +4067,19 @@
       </c>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="n">
-        <v>-0.88</v>
+        <v>-1.23</v>
       </c>
       <c r="CF12" t="n">
-        <v>9107.200000000001</v>
+        <v>9138</v>
       </c>
       <c r="CG12" t="n">
-        <v>10509.9</v>
+        <v>10525.3</v>
       </c>
       <c r="CH12" t="n">
-        <v>12166.5</v>
+        <v>12174.3</v>
       </c>
       <c r="CI12" t="n">
-        <v>11356.2</v>
+        <v>11359.3</v>
       </c>
       <c r="CJ12" t="n">
         <v>27.8</v>
@@ -4127,16 +4127,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="DB12" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="DC12" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13">
@@ -4180,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>41.3</v>
+        <v>43.9</v>
       </c>
       <c r="M13" t="n">
-        <v>70.59999999999999</v>
+        <v>33</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0.4</v>
@@ -4252,7 +4252,7 @@
         <v>52</v>
       </c>
       <c r="AJ13" t="n">
-        <v>35.91</v>
+        <v>39.08</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>0.1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr">
@@ -4394,16 +4394,16 @@
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>7328.3</v>
+        <v>7326.9</v>
       </c>
       <c r="CG13" t="n">
-        <v>7435.4</v>
+        <v>7434.7</v>
       </c>
       <c r="CH13" t="n">
-        <v>8123.5</v>
+        <v>8123.1</v>
       </c>
       <c r="CI13" t="n">
-        <v>6257.2</v>
+        <v>6257.1</v>
       </c>
       <c r="CJ13" t="n">
         <v>85.5</v>
@@ -4504,13 +4504,13 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>48.4</v>
+        <v>48.8</v>
       </c>
       <c r="M14" t="n">
-        <v>54.2</v>
+        <v>48.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0.8</v>
@@ -4576,7 +4576,7 @@
         <v>88</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.14</v>
+        <v>12.05</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -4584,10 +4584,10 @@
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="AM14" t="n">
-        <v>46.7</v>
+        <v>46.2</v>
       </c>
       <c r="AN14" t="n">
         <v>4.86</v>
@@ -4649,23 +4649,23 @@
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>-9.460000000000001</v>
+        <v>-9.75</v>
       </c>
       <c r="BJ14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="n">
-        <v>-1.8</v>
+        <v>-2.12</v>
       </c>
       <c r="BM14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="BN14" t="n">
-        <v>73.53</v>
+        <v>72.97</v>
       </c>
       <c r="BO14" t="n">
-        <v>556.9</v>
+        <v>554.8</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
@@ -4697,16 +4697,16 @@
         <v>361.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>-11.3</v>
+        <v>-11.6</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-9.9</v>
+        <v>-10.2</v>
       </c>
       <c r="CA14" t="n">
-        <v>156.6</v>
+        <v>155.8</v>
       </c>
       <c r="CB14" t="n">
-        <v>832.2</v>
+        <v>829.2</v>
       </c>
       <c r="CC14" t="inlineStr">
         <is>
@@ -4715,19 +4715,19 @@
       </c>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="n">
-        <v>-1.8</v>
+        <v>-2.12</v>
       </c>
       <c r="CF14" t="n">
-        <v>1550.7</v>
+        <v>1552.1</v>
       </c>
       <c r="CG14" t="n">
-        <v>1607</v>
+        <v>1607.7</v>
       </c>
       <c r="CH14" t="n">
-        <v>1922.9</v>
+        <v>1923.3</v>
       </c>
       <c r="CI14" t="n">
-        <v>2033.8</v>
+        <v>2034</v>
       </c>
       <c r="CJ14" t="n">
         <v>70.09999999999999</v>
@@ -4773,16 +4773,16 @@
         <v>2413</v>
       </c>
       <c r="DA14" t="n">
-        <v>42.8</v>
+        <v>42.3</v>
       </c>
       <c r="DB14" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="DC14" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="DD14" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="15">
@@ -4829,7 +4829,7 @@
         <v>67.8</v>
       </c>
       <c r="M15" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="N15" t="n">
         <v>0.3</v>
@@ -5036,13 +5036,13 @@
         <v>-0.89</v>
       </c>
       <c r="CF15" t="n">
-        <v>826.9</v>
+        <v>826.7</v>
       </c>
       <c r="CG15" t="n">
-        <v>1144.3</v>
+        <v>1144.2</v>
       </c>
       <c r="CH15" t="n">
-        <v>1364.1</v>
+        <v>1364</v>
       </c>
       <c r="CI15" t="n">
         <v>1354.1</v>
@@ -5146,13 +5146,13 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>28.4</v>
+        <v>22.5</v>
       </c>
       <c r="M16" t="n">
-        <v>35.2</v>
+        <v>32.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>0.3</v>
@@ -5218,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3.3</v>
+        <v>4.15</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="AM16" t="n">
-        <v>56.3</v>
+        <v>54.2</v>
       </c>
       <c r="AN16" t="n">
         <v>1.66</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="AW16" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AX16" t="n">
         <v>0.1</v>
@@ -5278,7 +5278,11 @@
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr">
@@ -5287,23 +5291,23 @@
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>-4.85</v>
+        <v>-6.17</v>
       </c>
       <c r="BJ16" t="n">
-        <v>14.89</v>
+        <v>13.3</v>
       </c>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="n">
-        <v>-0.46</v>
+        <v>-1.84</v>
       </c>
       <c r="BM16" t="n">
-        <v>14.89</v>
+        <v>13.3</v>
       </c>
       <c r="BN16" t="n">
-        <v>-8.220000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="BO16" t="n">
-        <v>155.02</v>
+        <v>151.48</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -5335,16 +5339,16 @@
         <v>32.8</v>
       </c>
       <c r="BY16" t="n">
-        <v>-12.1</v>
+        <v>-13.3</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-27.3</v>
+        <v>-28.3</v>
       </c>
       <c r="CA16" t="n">
-        <v>85.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="CB16" t="n">
-        <v>507.9</v>
+        <v>499.5</v>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
@@ -5353,19 +5357,19 @@
       </c>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="n">
-        <v>-0.46</v>
+        <v>-1.84</v>
       </c>
       <c r="CF16" t="n">
-        <v>1187.6</v>
+        <v>1195.3</v>
       </c>
       <c r="CG16" t="n">
-        <v>1477.2</v>
+        <v>1481.1</v>
       </c>
       <c r="CH16" t="n">
-        <v>1516.6</v>
+        <v>1518.6</v>
       </c>
       <c r="CI16" t="n">
-        <v>971.8</v>
+        <v>972.6</v>
       </c>
       <c r="CJ16" t="n">
         <v>5.8</v>
@@ -5413,16 +5417,16 @@
         <v>3364</v>
       </c>
       <c r="DA16" t="n">
-        <v>11.7</v>
+        <v>10.2</v>
       </c>
       <c r="DB16" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="DC16" t="n">
-        <v>14.5</v>
+        <v>12.9</v>
       </c>
       <c r="DD16" t="n">
-        <v>25.8</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="17">
@@ -5801,7 +5805,7 @@
         <v>69.3</v>
       </c>
       <c r="M18" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="N18" t="n">
         <v>0.1</v>
@@ -6422,13 +6426,13 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>40.2</v>
+        <v>35.9</v>
       </c>
       <c r="M20" t="n">
-        <v>71.5</v>
+        <v>58.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O20" t="n">
         <v>0.6</v>
@@ -6494,7 +6498,7 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.62</v>
+        <v>5.67</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -6502,10 +6506,10 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>15.95</v>
+        <v>15.85</v>
       </c>
       <c r="AM20" t="n">
-        <v>38.4</v>
+        <v>37.4</v>
       </c>
       <c r="AN20" t="n">
         <v>46.37</v>
@@ -6567,23 +6571,23 @@
         </is>
       </c>
       <c r="BI20" t="n">
-        <v>-7.27</v>
+        <v>-7.85</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-4.2</v>
+        <v>-4.8</v>
       </c>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="n">
-        <v>-0.62</v>
+        <v>-1.25</v>
       </c>
       <c r="BM20" t="n">
-        <v>-4.2</v>
+        <v>-4.8</v>
       </c>
       <c r="BN20" t="n">
-        <v>28.82</v>
+        <v>28.02</v>
       </c>
       <c r="BO20" t="n">
-        <v>42.85</v>
+        <v>41.95</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -6615,16 +6619,16 @@
         <v>321.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>-13.6</v>
+        <v>-14.1</v>
       </c>
       <c r="BZ20" t="n">
-        <v>-33.7</v>
+        <v>-34.2</v>
       </c>
       <c r="CA20" t="n">
-        <v>52.6</v>
+        <v>51.7</v>
       </c>
       <c r="CB20" t="n">
-        <v>173.4</v>
+        <v>171.7</v>
       </c>
       <c r="CC20" t="inlineStr">
         <is>
@@ -6633,16 +6637,16 @@
       </c>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="n">
-        <v>-0.62</v>
+        <v>-1.25</v>
       </c>
       <c r="CF20" t="n">
-        <v>1847.3</v>
+        <v>1847.6</v>
       </c>
       <c r="CG20" t="n">
-        <v>2240.8</v>
+        <v>2241</v>
       </c>
       <c r="CH20" t="n">
-        <v>2778.4</v>
+        <v>2778.5</v>
       </c>
       <c r="CI20" t="n">
         <v>2508.4</v>
@@ -6693,16 +6697,16 @@
         <v>1529</v>
       </c>
       <c r="DA20" t="n">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="DB20" t="n">
-        <v>-6.2</v>
+        <v>-6.8</v>
       </c>
       <c r="DC20" t="n">
-        <v>-4.2</v>
+        <v>-4.8</v>
       </c>
       <c r="DD20" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -7058,13 +7062,13 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>27.4</v>
+        <v>27.9</v>
       </c>
       <c r="M22" t="n">
-        <v>13.2</v>
+        <v>30.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="O22" t="n">
         <v>0.8</v>
@@ -7130,7 +7134,7 @@
         <v>91</v>
       </c>
       <c r="AJ22" t="n">
-        <v>45.94</v>
+        <v>50.12</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7138,10 +7142,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>60.7</v>
+        <v>60.6</v>
       </c>
       <c r="AM22" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7175,13 +7179,13 @@
         </is>
       </c>
       <c r="AW22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX22" t="n">
         <v>0.2</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ22" t="n">
         <v>0.2</v>
@@ -7203,23 +7207,23 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-3.96</v>
+        <v>-4.11</v>
       </c>
       <c r="BJ22" t="n">
-        <v>14.23</v>
+        <v>14.04</v>
       </c>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="BM22" t="n">
-        <v>14.23</v>
+        <v>14.04</v>
       </c>
       <c r="BN22" t="n">
-        <v>90.39</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="BO22" t="n">
-        <v>1638.79</v>
+        <v>1635.92</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7251,16 +7255,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-11.2</v>
+        <v>-11.3</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="CA22" t="n">
-        <v>106.4</v>
+        <v>106</v>
       </c>
       <c r="CB22" t="n">
-        <v>2576.6</v>
+        <v>2572.2</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7269,19 +7273,19 @@
       </c>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
       <c r="CF22" t="n">
-        <v>3113.4</v>
+        <v>3121.9</v>
       </c>
       <c r="CG22" t="n">
-        <v>3896.6</v>
+        <v>3900.8</v>
       </c>
       <c r="CH22" t="n">
-        <v>5087.1</v>
+        <v>5089.3</v>
       </c>
       <c r="CI22" t="n">
-        <v>4102.8</v>
+        <v>4103.7</v>
       </c>
       <c r="CJ22" t="n">
         <v>56.6</v>
@@ -7329,16 +7333,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="DB22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="DC22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="DD22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="23">
@@ -7382,13 +7386,13 @@
         <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="M23" t="n">
-        <v>55.6</v>
+        <v>63.6</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -7448,7 +7452,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>435.29</v>
+        <v>462.12</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7456,10 +7460,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="AM23" t="n">
-        <v>77.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="AN23" t="n">
         <v>17.45</v>
@@ -7502,7 +7506,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr">
@@ -7525,23 +7529,23 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>14.34</v>
+        <v>14.68</v>
       </c>
       <c r="BJ23" t="n">
-        <v>35.66</v>
+        <v>36.07</v>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="n">
-        <v>3.92</v>
+        <v>4.24</v>
       </c>
       <c r="BM23" t="n">
-        <v>35.66</v>
+        <v>36.07</v>
       </c>
       <c r="BN23" t="n">
-        <v>48.21</v>
+        <v>48.66</v>
       </c>
       <c r="BO23" t="n">
-        <v>381.33</v>
+        <v>382.79</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7569,16 +7573,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="BZ23" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="CA23" t="n">
-        <v>83.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="CB23" t="n">
-        <v>649.2</v>
+        <v>651.5</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7587,19 +7591,19 @@
       </c>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="n">
-        <v>3.92</v>
+        <v>4.24</v>
       </c>
       <c r="CF23" t="n">
-        <v>22999.5</v>
+        <v>23064.9</v>
       </c>
       <c r="CG23" t="n">
-        <v>27253.6</v>
+        <v>27286.3</v>
       </c>
       <c r="CH23" t="n">
-        <v>25609.5</v>
+        <v>25625.8</v>
       </c>
       <c r="CI23" t="n">
-        <v>20581.8</v>
+        <v>20588.4</v>
       </c>
       <c r="CJ23" t="n">
         <v>21.6</v>
@@ -7647,16 +7651,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="DB23" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="DC23" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="DD23" t="n">
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="24">
@@ -8332,13 +8336,13 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="M26" t="n">
-        <v>89.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
         <v>0.3</v>
@@ -8408,7 +8412,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>42.49</v>
+        <v>51.93</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -8453,13 +8457,13 @@
         </is>
       </c>
       <c r="AW26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ26" t="n">
         <v>0.2</v>
@@ -8550,16 +8554,16 @@
         <v>-1.95</v>
       </c>
       <c r="CF26" t="n">
-        <v>21552.8</v>
+        <v>21641.2</v>
       </c>
       <c r="CG26" t="n">
-        <v>22128.4</v>
+        <v>22172.6</v>
       </c>
       <c r="CH26" t="n">
-        <v>20896.8</v>
+        <v>20918.9</v>
       </c>
       <c r="CI26" t="n">
-        <v>14984.9</v>
+        <v>14993.7</v>
       </c>
       <c r="CJ26" t="n">
         <v>26.4</v>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>63.8</v>
+        <v>62.9</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -8895,7 +8899,7 @@
         <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6</v>
+        <v>29.9</v>
       </c>
       <c r="N28" t="n">
         <v>3</v>
@@ -9212,13 +9216,13 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>36.9</v>
+        <v>38.3</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>14.3</v>
       </c>
       <c r="N29" t="n">
-        <v>14.8</v>
+        <v>1.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -9288,7 +9292,7 @@
         <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -9430,10 +9434,10 @@
         <v>1.77</v>
       </c>
       <c r="CF29" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="CG29" t="n">
-        <v>180.4</v>
+        <v>180.5</v>
       </c>
       <c r="CH29" t="n">
         <v>217.4</v>
@@ -10724,13 +10728,13 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>68</v>
+        <v>67.2</v>
       </c>
       <c r="M34" t="n">
-        <v>71</v>
+        <v>67.2</v>
       </c>
       <c r="N34" t="n">
-        <v>17.8</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
         <v>4.8</v>
@@ -10790,7 +10794,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17.19</v>
+        <v>17.35</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10831,7 +10835,7 @@
         </is>
       </c>
       <c r="AW34" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AX34" t="n">
         <v>1.2</v>
@@ -10928,16 +10932,16 @@
         <v>8.08</v>
       </c>
       <c r="CF34" t="n">
-        <v>563.3</v>
+        <v>554.9</v>
       </c>
       <c r="CG34" t="n">
-        <v>575.6</v>
+        <v>571.4</v>
       </c>
       <c r="CH34" t="n">
-        <v>652.3</v>
+        <v>650.2</v>
       </c>
       <c r="CI34" t="n">
-        <v>711.8</v>
+        <v>710.9</v>
       </c>
       <c r="CJ34" t="n">
         <v>10.9</v>
@@ -11670,13 +11674,13 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>43.3</v>
+        <v>44.3</v>
       </c>
       <c r="M37" t="n">
-        <v>60.1</v>
+        <v>43.1</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O37" t="n">
         <v>0.8</v>
@@ -11742,7 +11746,7 @@
         <v>53</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -11790,7 +11794,7 @@
         <v>0.2</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AY37" t="n">
         <v>0.1</v>
@@ -11884,13 +11888,13 @@
         <v>0</v>
       </c>
       <c r="CF37" t="n">
-        <v>497.2</v>
+        <v>497.4</v>
       </c>
       <c r="CG37" t="n">
-        <v>694.7</v>
+        <v>694.8</v>
       </c>
       <c r="CH37" t="n">
-        <v>724.2</v>
+        <v>724.3</v>
       </c>
       <c r="CI37" t="n">
         <v>541.5</v>
@@ -12235,7 +12239,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="N39" t="n">
         <v>0.9</v>
@@ -12546,13 +12550,13 @@
         <v>0.8</v>
       </c>
       <c r="L40" t="n">
-        <v>50.1</v>
+        <v>54.1</v>
       </c>
       <c r="M40" t="n">
-        <v>31.3</v>
+        <v>43.6</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
         <v>3.4</v>
@@ -12612,18 +12616,18 @@
         <v>59</v>
       </c>
       <c r="AJ40" t="n">
-        <v>51.58</v>
+        <v>55.74</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL40" t="n">
-        <v>16.35</v>
+        <v>16.4</v>
       </c>
       <c r="AM40" t="n">
-        <v>69.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AN40" t="n">
         <v>1.83</v>
@@ -12653,16 +12657,16 @@
         </is>
       </c>
       <c r="AW40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY40" t="n">
         <v>1.5</v>
       </c>
-      <c r="AX40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>1.4</v>
-      </c>
       <c r="AZ40" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr">
@@ -12685,20 +12689,20 @@
         </is>
       </c>
       <c r="BI40" t="n">
-        <v>5.48</v>
+        <v>5.81</v>
       </c>
       <c r="BJ40" t="n">
-        <v>12.37</v>
+        <v>12.71</v>
       </c>
       <c r="BK40" t="inlineStr"/>
       <c r="BL40" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="BM40" t="n">
-        <v>12.37</v>
+        <v>12.71</v>
       </c>
       <c r="BN40" t="n">
-        <v>24.62</v>
+        <v>25</v>
       </c>
       <c r="BO40" t="inlineStr"/>
       <c r="BP40" t="inlineStr">
@@ -12727,16 +12731,16 @@
         <v>22.3</v>
       </c>
       <c r="BY40" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="BZ40" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="CA40" t="n">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="CB40" t="n">
-        <v>345.4</v>
+        <v>346.8</v>
       </c>
       <c r="CC40" t="inlineStr">
         <is>
@@ -12745,19 +12749,19 @@
       </c>
       <c r="CD40" t="inlineStr"/>
       <c r="CE40" t="n">
-        <v>2.83</v>
+        <v>3.14</v>
       </c>
       <c r="CF40" t="n">
-        <v>2105.2</v>
+        <v>2100.4</v>
       </c>
       <c r="CG40" t="n">
-        <v>2390.5</v>
+        <v>2388.1</v>
       </c>
       <c r="CH40" t="n">
-        <v>2236.9</v>
+        <v>2235.6</v>
       </c>
       <c r="CI40" t="n">
-        <v>2034</v>
+        <v>2033.5</v>
       </c>
       <c r="CJ40" t="n">
         <v>30</v>
@@ -12805,16 +12809,16 @@
         <v>2243</v>
       </c>
       <c r="DA40" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="DB40" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="DC40" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="DD40" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="41">
@@ -13639,7 +13643,7 @@
         <v>48.3</v>
       </c>
       <c r="M44" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="N44" t="n">
         <v>2.1</v>
@@ -14281,7 +14285,7 @@
         <v>19.1</v>
       </c>
       <c r="M46" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="N46" t="n">
         <v>46.1</v>
@@ -14598,13 +14602,13 @@
         <v>0.7</v>
       </c>
       <c r="L47" t="n">
-        <v>50</v>
+        <v>59.4</v>
       </c>
       <c r="M47" t="n">
-        <v>58.6</v>
+        <v>59</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="O47" t="n">
         <v>0.7</v>
@@ -14670,7 +14674,7 @@
         <v>31</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="n">
@@ -14813,7 +14817,7 @@
         <v>22.2</v>
       </c>
       <c r="CG47" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="CH47" t="n">
         <v>27.5</v>
@@ -14920,10 +14924,10 @@
         <v>0.5</v>
       </c>
       <c r="L48" t="n">
-        <v>78.3</v>
+        <v>76.8</v>
       </c>
       <c r="M48" t="n">
-        <v>40.6</v>
+        <v>37.2</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -14992,7 +14996,7 @@
         <v>9</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2.46</v>
+        <v>2.51</v>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
@@ -15000,10 +15004,10 @@
         </is>
       </c>
       <c r="AL48" t="n">
-        <v>52.9</v>
+        <v>52.7</v>
       </c>
       <c r="AM48" t="n">
-        <v>41.6</v>
+        <v>40</v>
       </c>
       <c r="AN48" t="n">
         <v>13.58</v>
@@ -15040,13 +15044,13 @@
         <v>0.3</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY48" t="n">
         <v>0.3</v>
       </c>
       <c r="AZ48" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr">
@@ -15065,23 +15069,23 @@
         </is>
       </c>
       <c r="BI48" t="n">
-        <v>-3.29</v>
+        <v>-3.66</v>
       </c>
       <c r="BJ48" t="n">
-        <v>-4.17</v>
+        <v>-4.53</v>
       </c>
       <c r="BK48" t="inlineStr"/>
       <c r="BL48" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="BM48" t="n">
-        <v>-4.17</v>
+        <v>-4.53</v>
       </c>
       <c r="BN48" t="n">
-        <v>-16.06</v>
+        <v>-16.38</v>
       </c>
       <c r="BO48" t="n">
-        <v>101.08</v>
+        <v>100.32</v>
       </c>
       <c r="BP48" t="inlineStr">
         <is>
@@ -15113,16 +15117,16 @@
         <v>26.7</v>
       </c>
       <c r="BY48" t="n">
-        <v>-19.7</v>
+        <v>-20</v>
       </c>
       <c r="BZ48" t="n">
-        <v>-33.3</v>
+        <v>-33.6</v>
       </c>
       <c r="CA48" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="CB48" t="n">
-        <v>5035.7</v>
+        <v>5016.3</v>
       </c>
       <c r="CC48" t="inlineStr">
         <is>
@@ -15131,7 +15135,7 @@
       </c>
       <c r="CD48" t="inlineStr"/>
       <c r="CE48" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="CF48" t="n">
         <v>173.4</v>
@@ -15191,16 +15195,16 @@
         <v>6130</v>
       </c>
       <c r="DA48" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="DB48" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="DC48" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="DD48" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="49">
@@ -15244,13 +15248,13 @@
         <v>1.2</v>
       </c>
       <c r="L49" t="n">
-        <v>48.1</v>
+        <v>53.6</v>
       </c>
       <c r="M49" t="n">
-        <v>34.2</v>
+        <v>40.6</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O49" t="n">
         <v>0.6</v>
@@ -15316,7 +15320,7 @@
         <v>16</v>
       </c>
       <c r="AJ49" t="n">
-        <v>53.81</v>
+        <v>57.55</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -15324,10 +15328,10 @@
         </is>
       </c>
       <c r="AL49" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="AM49" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="AN49" t="n">
         <v>11.3</v>
@@ -15364,10 +15368,10 @@
         <v>0.2</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ49" t="n">
         <v>0.2</v>
@@ -15389,23 +15393,23 @@
         </is>
       </c>
       <c r="BI49" t="n">
-        <v>-4.63</v>
+        <v>-4.36</v>
       </c>
       <c r="BJ49" t="n">
-        <v>2.34</v>
+        <v>2.63</v>
       </c>
       <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="n">
-        <v>-0.85</v>
+        <v>-0.57</v>
       </c>
       <c r="BM49" t="n">
-        <v>2.34</v>
+        <v>2.63</v>
       </c>
       <c r="BN49" t="n">
-        <v>-11.51</v>
+        <v>-11.25</v>
       </c>
       <c r="BO49" t="n">
-        <v>246.78</v>
+        <v>247.77</v>
       </c>
       <c r="BP49" t="inlineStr">
         <is>
@@ -15437,16 +15441,16 @@
         <v>10.3</v>
       </c>
       <c r="BY49" t="n">
-        <v>-16.5</v>
+        <v>-16.2</v>
       </c>
       <c r="BZ49" t="n">
-        <v>-22.1</v>
+        <v>-21.9</v>
       </c>
       <c r="CA49" t="n">
-        <v>63.5</v>
+        <v>64</v>
       </c>
       <c r="CB49" t="n">
-        <v>809.4</v>
+        <v>812</v>
       </c>
       <c r="CC49" t="inlineStr">
         <is>
@@ -15455,19 +15459,19 @@
       </c>
       <c r="CD49" t="inlineStr"/>
       <c r="CE49" t="n">
-        <v>-0.85</v>
+        <v>-0.57</v>
       </c>
       <c r="CF49" t="n">
-        <v>7953.4</v>
+        <v>7958.2</v>
       </c>
       <c r="CG49" t="n">
-        <v>10737</v>
+        <v>10739.4</v>
       </c>
       <c r="CH49" t="n">
-        <v>9980.1</v>
+        <v>9981.299999999999</v>
       </c>
       <c r="CI49" t="n">
-        <v>8816.299999999999</v>
+        <v>8816.799999999999</v>
       </c>
       <c r="CJ49" t="n">
         <v>78.59999999999999</v>
@@ -15515,16 +15519,16 @@
         <v>2649</v>
       </c>
       <c r="DA49" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="DB49" t="n">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="DC49" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="DD49" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="50">
@@ -15568,10 +15572,10 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>62.2</v>
+        <v>62</v>
       </c>
       <c r="M50" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="N50" t="n">
         <v>0.1</v>
@@ -15640,14 +15644,14 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18.08</v>
+        <v>18.12</v>
       </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="n">
-        <v>65.59999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="AM50" t="n">
-        <v>39.5</v>
+        <v>40.3</v>
       </c>
       <c r="AN50" t="n">
         <v>49</v>
@@ -15711,23 +15715,23 @@
         </is>
       </c>
       <c r="BI50" t="n">
-        <v>-4.23</v>
+        <v>-4.09</v>
       </c>
       <c r="BJ50" t="n">
-        <v>-4.23</v>
+        <v>-4.09</v>
       </c>
       <c r="BK50" t="inlineStr"/>
       <c r="BL50" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="BM50" t="n">
-        <v>-4.23</v>
+        <v>-4.09</v>
       </c>
       <c r="BN50" t="n">
-        <v>9.41</v>
+        <v>9.58</v>
       </c>
       <c r="BO50" t="n">
-        <v>243.62</v>
+        <v>244.15</v>
       </c>
       <c r="BP50" t="inlineStr">
         <is>
@@ -15759,16 +15763,16 @@
         <v>27.2</v>
       </c>
       <c r="BY50" t="n">
-        <v>-7.9</v>
+        <v>-7.7</v>
       </c>
       <c r="BZ50" t="n">
-        <v>-5.9</v>
+        <v>-5.7</v>
       </c>
       <c r="CA50" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="CB50" t="n">
-        <v>14902.7</v>
+        <v>14925.6</v>
       </c>
       <c r="CC50" t="inlineStr">
         <is>
@@ -15777,7 +15781,7 @@
       </c>
       <c r="CD50" t="inlineStr"/>
       <c r="CE50" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="CF50" t="n">
         <v>970.1</v>
@@ -15837,16 +15841,16 @@
         <v>4418</v>
       </c>
       <c r="DA50" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="DB50" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="DC50" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="DD50" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="51">
@@ -15890,13 +15894,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>61.4</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="M51" t="n">
-        <v>27.4</v>
+        <v>11.6</v>
       </c>
       <c r="N51" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O51" t="n">
         <v>0.4</v>
@@ -15960,7 +15964,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>348.65</v>
+        <v>390.51</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -15968,10 +15972,10 @@
         </is>
       </c>
       <c r="AL51" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AM51" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="AN51" t="n">
         <v>5.09</v>
@@ -16033,23 +16037,23 @@
         </is>
       </c>
       <c r="BI51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="BJ51" t="n">
-        <v>48.8</v>
+        <v>49.6</v>
       </c>
       <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="n">
-        <v>2.19</v>
+        <v>2.73</v>
       </c>
       <c r="BM51" t="n">
-        <v>48.8</v>
+        <v>49.6</v>
       </c>
       <c r="BN51" t="n">
-        <v>128.57</v>
+        <v>129.79</v>
       </c>
       <c r="BO51" t="n">
-        <v>250.05</v>
+        <v>251.92</v>
       </c>
       <c r="BP51" t="inlineStr">
         <is>
@@ -16077,16 +16081,16 @@
         <v>8.9</v>
       </c>
       <c r="BY51" t="n">
-        <v>-3.9</v>
+        <v>-3.3</v>
       </c>
       <c r="BZ51" t="n">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="CA51" t="n">
-        <v>142.2</v>
+        <v>143.5</v>
       </c>
       <c r="CB51" t="n">
-        <v>1626.6</v>
+        <v>1635.9</v>
       </c>
       <c r="CC51" t="inlineStr">
         <is>
@@ -16095,19 +16099,19 @@
       </c>
       <c r="CD51" t="inlineStr"/>
       <c r="CE51" t="n">
-        <v>2.19</v>
+        <v>2.73</v>
       </c>
       <c r="CF51" t="n">
-        <v>104431.2</v>
+        <v>104410.1</v>
       </c>
       <c r="CG51" t="n">
-        <v>103136</v>
+        <v>103125.5</v>
       </c>
       <c r="CH51" t="n">
-        <v>113889.8</v>
+        <v>113884.5</v>
       </c>
       <c r="CI51" t="n">
-        <v>85736.10000000001</v>
+        <v>85734</v>
       </c>
       <c r="CJ51" t="n">
         <v>15.5</v>
@@ -16155,16 +16159,16 @@
         <v>2379</v>
       </c>
       <c r="DA51" t="n">
-        <v>80.3</v>
+        <v>81.3</v>
       </c>
       <c r="DB51" t="n">
-        <v>13.4</v>
+        <v>14</v>
       </c>
       <c r="DC51" t="n">
-        <v>35.2</v>
+        <v>35.9</v>
       </c>
       <c r="DD51" t="n">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="52">
@@ -16985,7 +16989,7 @@
         <v>43.9</v>
       </c>
       <c r="M55" t="n">
-        <v>88.5</v>
+        <v>90.8</v>
       </c>
       <c r="N55" t="n">
         <v>4.6</v>
@@ -18158,13 +18162,13 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="M59" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="N59" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -18230,7 +18234,7 @@
         <v>5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>8.09</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -18372,16 +18376,16 @@
         <v>0</v>
       </c>
       <c r="CF59" t="n">
-        <v>1720.9</v>
+        <v>1719.7</v>
       </c>
       <c r="CG59" t="n">
-        <v>2370.5</v>
+        <v>2370</v>
       </c>
       <c r="CH59" t="n">
-        <v>2327.9</v>
+        <v>2327.6</v>
       </c>
       <c r="CI59" t="n">
-        <v>2192.8</v>
+        <v>2192.7</v>
       </c>
       <c r="CJ59" t="n">
         <v>25.2</v>
@@ -18704,13 +18708,13 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>70.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="M61" t="n">
-        <v>56.6</v>
+        <v>57.6</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -18776,7 +18780,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.5</v>
+        <v>9.57</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
@@ -18784,10 +18788,10 @@
         </is>
       </c>
       <c r="AL61" t="n">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="AM61" t="n">
-        <v>68.09999999999999</v>
+        <v>68.3</v>
       </c>
       <c r="AN61" t="n">
         <v>3.05</v>
@@ -18849,23 +18853,23 @@
         </is>
       </c>
       <c r="BI61" t="n">
-        <v>8.02</v>
+        <v>8.17</v>
       </c>
       <c r="BJ61" t="n">
-        <v>6.45</v>
+        <v>6.59</v>
       </c>
       <c r="BK61" t="inlineStr"/>
       <c r="BL61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="BM61" t="n">
-        <v>6.45</v>
+        <v>6.59</v>
       </c>
       <c r="BN61" t="n">
-        <v>100.54</v>
+        <v>100.81</v>
       </c>
       <c r="BO61" t="n">
-        <v>164.89</v>
+        <v>165.25</v>
       </c>
       <c r="BP61" t="inlineStr">
         <is>
@@ -18897,16 +18901,16 @@
         <v>357.7</v>
       </c>
       <c r="BY61" t="n">
-        <v>-14.7</v>
+        <v>-14.6</v>
       </c>
       <c r="BZ61" t="n">
-        <v>-13.7</v>
+        <v>-13.5</v>
       </c>
       <c r="CA61" t="n">
-        <v>102.9</v>
+        <v>103.2</v>
       </c>
       <c r="CB61" t="n">
-        <v>973.2</v>
+        <v>974.7</v>
       </c>
       <c r="CC61" t="inlineStr">
         <is>
@@ -18919,13 +18923,13 @@
         </is>
       </c>
       <c r="CE61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="CF61" t="n">
-        <v>261.5</v>
+        <v>261.7</v>
       </c>
       <c r="CG61" t="n">
-        <v>218.9</v>
+        <v>219</v>
       </c>
       <c r="CH61" t="n">
         <v>215.8</v>
@@ -18979,16 +18983,16 @@
         <v>10244</v>
       </c>
       <c r="DA61" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="DB61" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="DC61" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="DD61" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="62">
@@ -19266,10 +19270,10 @@
         <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>65.40000000000001</v>
+        <v>65</v>
       </c>
       <c r="M63" t="n">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="N63" t="n">
         <v>0.4</v>
@@ -19338,14 +19342,14 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="AM63" t="n">
-        <v>32.8</v>
+        <v>31.9</v>
       </c>
       <c r="AN63" t="n">
         <v>0.29</v>
@@ -19403,23 +19407,23 @@
         </is>
       </c>
       <c r="BI63" t="n">
-        <v>-8.039999999999999</v>
+        <v>-8.59</v>
       </c>
       <c r="BJ63" t="n">
-        <v>-13.82</v>
+        <v>-14.34</v>
       </c>
       <c r="BK63" t="inlineStr"/>
       <c r="BL63" t="n">
-        <v>-1.24</v>
+        <v>-1.83</v>
       </c>
       <c r="BM63" t="n">
-        <v>-13.82</v>
+        <v>-14.34</v>
       </c>
       <c r="BN63" t="n">
-        <v>8.390000000000001</v>
+        <v>7.74</v>
       </c>
       <c r="BO63" t="n">
-        <v>286.42</v>
+        <v>284.11</v>
       </c>
       <c r="BP63" t="inlineStr">
         <is>
@@ -19451,16 +19455,16 @@
         <v>30.8</v>
       </c>
       <c r="BY63" t="n">
-        <v>-34.4</v>
+        <v>-34.8</v>
       </c>
       <c r="BZ63" t="n">
-        <v>-33</v>
+        <v>-33.5</v>
       </c>
       <c r="CA63" t="n">
-        <v>44.1</v>
+        <v>43.2</v>
       </c>
       <c r="CB63" t="n">
-        <v>726.3</v>
+        <v>721.3</v>
       </c>
       <c r="CC63" t="inlineStr">
         <is>
@@ -19469,7 +19473,7 @@
       </c>
       <c r="CD63" t="inlineStr"/>
       <c r="CE63" t="n">
-        <v>-1.24</v>
+        <v>-1.83</v>
       </c>
       <c r="CF63" t="n">
         <v>218.6</v>
@@ -19527,16 +19531,16 @@
         <v>1799</v>
       </c>
       <c r="DA63" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="DB63" t="n">
-        <v>-6</v>
+        <v>-6.6</v>
       </c>
       <c r="DC63" t="n">
-        <v>-6.7</v>
+        <v>-7.2</v>
       </c>
       <c r="DD63" t="n">
-        <v>-1.6</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="64">
@@ -19899,7 +19903,7 @@
         <v>100</v>
       </c>
       <c r="M65" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N65" t="n">
         <v>2.5</v>
@@ -20214,13 +20218,13 @@
         <v>1.1</v>
       </c>
       <c r="L66" t="n">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="M66" t="n">
-        <v>70.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="N66" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O66" t="n">
         <v>0.4</v>
@@ -20280,7 +20284,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>10.91</v>
+        <v>11.03</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -20408,13 +20412,13 @@
         <v>2.63</v>
       </c>
       <c r="CF66" t="n">
-        <v>3379.9</v>
+        <v>3379.5</v>
       </c>
       <c r="CG66" t="n">
-        <v>3816.7</v>
+        <v>3816.5</v>
       </c>
       <c r="CH66" t="n">
-        <v>3449</v>
+        <v>3448.9</v>
       </c>
       <c r="CI66" t="n">
         <v>2177.6</v>
@@ -20840,13 +20844,13 @@
         <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>47.4</v>
+        <v>48</v>
       </c>
       <c r="M68" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N68" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O68" t="n">
         <v>0.7</v>
@@ -20912,7 +20916,7 @@
         <v>8</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
@@ -20920,10 +20924,10 @@
         </is>
       </c>
       <c r="AL68" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="AM68" t="n">
-        <v>41.4</v>
+        <v>42.8</v>
       </c>
       <c r="AN68" t="n">
         <v>14.05</v>
@@ -20985,23 +20989,23 @@
         </is>
       </c>
       <c r="BI68" t="n">
-        <v>-7.76</v>
+        <v>-7</v>
       </c>
       <c r="BJ68" t="n">
-        <v>-0.58</v>
+        <v>0.24</v>
       </c>
       <c r="BK68" t="inlineStr"/>
       <c r="BL68" t="n">
-        <v>-1.78</v>
+        <v>-0.97</v>
       </c>
       <c r="BM68" t="n">
-        <v>-0.58</v>
+        <v>0.24</v>
       </c>
       <c r="BN68" t="n">
-        <v>-19.97</v>
+        <v>-19.31</v>
       </c>
       <c r="BO68" t="n">
-        <v>88.22</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="BP68" t="inlineStr">
         <is>
@@ -21033,16 +21037,16 @@
         <v>372.1</v>
       </c>
       <c r="BY68" t="n">
-        <v>-22.3</v>
+        <v>-21.7</v>
       </c>
       <c r="BZ68" t="n">
-        <v>-55.2</v>
+        <v>-54.9</v>
       </c>
       <c r="CA68" t="n">
-        <v>69.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="CB68" t="n">
-        <v>137.5</v>
+        <v>139.4</v>
       </c>
       <c r="CC68" t="inlineStr">
         <is>
@@ -21051,19 +21055,19 @@
       </c>
       <c r="CD68" t="inlineStr"/>
       <c r="CE68" t="n">
-        <v>-1.78</v>
+        <v>-0.97</v>
       </c>
       <c r="CF68" t="n">
-        <v>1745.8</v>
+        <v>1744.9</v>
       </c>
       <c r="CG68" t="n">
-        <v>2272.9</v>
+        <v>2272.5</v>
       </c>
       <c r="CH68" t="n">
-        <v>2630</v>
+        <v>2629.8</v>
       </c>
       <c r="CI68" t="n">
-        <v>2160.9</v>
+        <v>2160.8</v>
       </c>
       <c r="CJ68" t="n">
         <v>70.7</v>
@@ -21111,16 +21115,16 @@
         <v>1206</v>
       </c>
       <c r="DA68" t="n">
-        <v>-3.8</v>
+        <v>-3</v>
       </c>
       <c r="DB68" t="n">
-        <v>-5</v>
+        <v>-4.2</v>
       </c>
       <c r="DC68" t="n">
-        <v>-1.9</v>
+        <v>-1.2</v>
       </c>
       <c r="DD68" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="69">
@@ -21164,13 +21168,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="M69" t="n">
-        <v>79.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="N69" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O69" t="n">
         <v>0.9</v>
@@ -21230,7 +21234,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="n">
-        <v>662.6</v>
+        <v>669.4</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -21238,7 +21242,7 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>37.45</v>
+        <v>37.5</v>
       </c>
       <c r="AM69" t="n">
         <v>91.5</v>
@@ -21281,7 +21285,7 @@
         <v>0.4</v>
       </c>
       <c r="AY69" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AZ69" t="n">
         <v>0.4</v>
@@ -21307,23 +21311,23 @@
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>30.03</v>
+        <v>30.21</v>
       </c>
       <c r="BJ69" t="n">
-        <v>75.41</v>
+        <v>75.64</v>
       </c>
       <c r="BK69" t="inlineStr"/>
       <c r="BL69" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="BM69" t="n">
-        <v>75.41</v>
+        <v>75.64</v>
       </c>
       <c r="BN69" t="n">
-        <v>106.82</v>
+        <v>107.1</v>
       </c>
       <c r="BO69" t="n">
-        <v>437.46</v>
+        <v>438.18</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -21351,16 +21355,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BZ69" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="CA69" t="n">
-        <v>153.9</v>
+        <v>154.2</v>
       </c>
       <c r="CB69" t="n">
-        <v>577</v>
+        <v>577.9</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -21373,19 +21377,19 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="CF69" t="n">
-        <v>41790.1</v>
+        <v>41777.5</v>
       </c>
       <c r="CG69" t="n">
-        <v>43611.1</v>
+        <v>43604.8</v>
       </c>
       <c r="CH69" t="n">
-        <v>50685.6</v>
+        <v>50682.4</v>
       </c>
       <c r="CI69" t="n">
-        <v>43337</v>
+        <v>43335.8</v>
       </c>
       <c r="CJ69" t="n">
         <v>26.6</v>
@@ -21433,16 +21437,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>92.2</v>
+        <v>92.5</v>
       </c>
       <c r="DB69" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="DC69" t="n">
-        <v>60</v>
+        <v>60.2</v>
       </c>
       <c r="DD69" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="70">
@@ -21486,13 +21490,13 @@
         <v>1.2</v>
       </c>
       <c r="L70" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>69.5</v>
+        <v>50.3</v>
       </c>
       <c r="N70" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O70" t="n">
         <v>0.8</v>
@@ -21558,7 +21562,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -21566,10 +21570,10 @@
         </is>
       </c>
       <c r="AL70" t="n">
-        <v>9.02</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AM70" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="AN70" t="n">
         <v>0.66</v>
@@ -21627,23 +21631,23 @@
         </is>
       </c>
       <c r="BI70" t="n">
-        <v>-7.01</v>
+        <v>-6.91</v>
       </c>
       <c r="BJ70" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="BK70" t="inlineStr"/>
       <c r="BL70" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="BM70" t="n">
-        <v>11.77</v>
+        <v>11.9</v>
       </c>
       <c r="BN70" t="n">
-        <v>-29.81</v>
+        <v>-29.73</v>
       </c>
       <c r="BO70" t="n">
-        <v>31.53</v>
+        <v>31.68</v>
       </c>
       <c r="BP70" t="inlineStr">
         <is>
@@ -21675,16 +21679,16 @@
         <v>958.9</v>
       </c>
       <c r="BY70" t="n">
-        <v>-36.5</v>
+        <v>-36.4</v>
       </c>
       <c r="BZ70" t="n">
-        <v>-82.7</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="CA70" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="CB70" t="n">
-        <v>150.8</v>
+        <v>151.1</v>
       </c>
       <c r="CC70" t="inlineStr">
         <is>
@@ -21693,16 +21697,16 @@
       </c>
       <c r="CD70" t="inlineStr"/>
       <c r="CE70" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="CF70" t="n">
-        <v>733.8</v>
+        <v>733.7</v>
       </c>
       <c r="CG70" t="n">
         <v>1139.2</v>
       </c>
       <c r="CH70" t="n">
-        <v>1463.5</v>
+        <v>1463.4</v>
       </c>
       <c r="CI70" t="n">
         <v>1123.7</v>
@@ -21749,16 +21753,16 @@
         <v>1558</v>
       </c>
       <c r="DA70" t="n">
-        <v>-17.3</v>
+        <v>-17.2</v>
       </c>
       <c r="DB70" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="DC70" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="DD70" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="71">
@@ -22133,7 +22137,7 @@
         <v>66.8</v>
       </c>
       <c r="M72" t="n">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="N72" t="n">
         <v>9</v>

--- a/market_filtered_pe.xlsx
+++ b/market_filtered_pe.xlsx
@@ -1016,13 +1016,13 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>54</v>
+        <v>52.1</v>
       </c>
       <c r="M2" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.9</v>
@@ -1082,7 +1082,7 @@
         <v>87</v>
       </c>
       <c r="AJ2" t="n">
-        <v>98.17</v>
+        <v>103.02</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>0.7</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AY2" t="n">
         <v>0.6</v>
@@ -1218,16 +1218,16 @@
         <v>4.93</v>
       </c>
       <c r="CF2" t="n">
-        <v>9978.799999999999</v>
+        <v>10006.8</v>
       </c>
       <c r="CG2" t="n">
-        <v>10872.3</v>
+        <v>10886.2</v>
       </c>
       <c r="CH2" t="n">
-        <v>12344.4</v>
+        <v>12351.4</v>
       </c>
       <c r="CI2" t="n">
-        <v>6970.4</v>
+        <v>6973.2</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1798,13 +1798,13 @@
         <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
-        <v>48.9</v>
+        <v>34.4</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="AW5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX5" t="n">
         <v>0.3</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.6</v>
@@ -2002,13 +2002,13 @@
         <v>4.61</v>
       </c>
       <c r="CF5" t="n">
-        <v>58.2</v>
+        <v>57.9</v>
       </c>
       <c r="CG5" t="n">
-        <v>67.8</v>
+        <v>67.7</v>
       </c>
       <c r="CH5" t="n">
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="CI5" t="n">
         <v>32.6</v>
@@ -2182,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -3214,13 +3214,13 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>71.2</v>
+        <v>69.7</v>
       </c>
       <c r="M10" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -3280,7 +3280,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="n">
-        <v>304.16</v>
+        <v>322.44</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3288,10 +3288,10 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AN10" t="n">
         <v>26.79</v>
@@ -3325,13 +3325,13 @@
         </is>
       </c>
       <c r="AW10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AX10" t="n">
         <v>0.5</v>
       </c>
-      <c r="AX10" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AY10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.6</v>
@@ -3342,11 +3342,7 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>Tín hiệu vượt đỉnh</t>
-        </is>
-      </c>
+      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
@@ -3357,23 +3353,23 @@
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>6.05</v>
+        <v>4.84</v>
       </c>
       <c r="BJ10" t="n">
-        <v>16.76</v>
+        <v>15.43</v>
       </c>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="n">
-        <v>3.95</v>
+        <v>2.77</v>
       </c>
       <c r="BM10" t="n">
-        <v>16.76</v>
+        <v>15.43</v>
       </c>
       <c r="BN10" t="n">
-        <v>58.43</v>
+        <v>56.63</v>
       </c>
       <c r="BO10" t="n">
-        <v>238.33</v>
+        <v>234.47</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -3401,16 +3397,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="CA10" t="n">
-        <v>60.9</v>
+        <v>59</v>
       </c>
       <c r="CB10" t="n">
-        <v>871.2</v>
+        <v>860.1</v>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
@@ -3419,19 +3415,19 @@
       </c>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="n">
-        <v>3.95</v>
+        <v>2.77</v>
       </c>
       <c r="CF10" t="n">
-        <v>11194.5</v>
+        <v>11166.3</v>
       </c>
       <c r="CG10" t="n">
-        <v>12799</v>
+        <v>12784.9</v>
       </c>
       <c r="CH10" t="n">
-        <v>13474.7</v>
+        <v>13467.7</v>
       </c>
       <c r="CI10" t="n">
-        <v>9972.1</v>
+        <v>9969.299999999999</v>
       </c>
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
@@ -3479,16 +3475,16 @@
         <v>5608</v>
       </c>
       <c r="DA10" t="n">
-        <v>31.8</v>
+        <v>30.3</v>
       </c>
       <c r="DB10" t="n">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="DC10" t="n">
-        <v>17.2</v>
+        <v>15.9</v>
       </c>
       <c r="DD10" t="n">
-        <v>26.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="11">
@@ -3532,13 +3528,13 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>39.8</v>
+        <v>42.3</v>
       </c>
       <c r="M11" t="n">
-        <v>66.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O11" t="n">
         <v>0.7</v>
@@ -3604,7 +3600,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.28</v>
+        <v>18.1</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3651,7 +3647,7 @@
         <v>0.3</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ11" t="n">
         <v>0.3</v>
@@ -3746,16 +3742,16 @@
         <v>-2.9</v>
       </c>
       <c r="CF11" t="n">
-        <v>2119.7</v>
+        <v>2120</v>
       </c>
       <c r="CG11" t="n">
-        <v>2214.2</v>
+        <v>2214.4</v>
       </c>
       <c r="CH11" t="n">
-        <v>2667</v>
+        <v>2667.1</v>
       </c>
       <c r="CI11" t="n">
-        <v>2425.9</v>
+        <v>2426</v>
       </c>
       <c r="CJ11" t="n">
         <v>18.3</v>
@@ -3856,13 +3852,13 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>33.9</v>
+        <v>32.2</v>
       </c>
       <c r="M12" t="n">
-        <v>63.2</v>
+        <v>32.7</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="O12" t="n">
         <v>0.8</v>
@@ -3928,7 +3924,7 @@
         <v>53</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60.48</v>
+        <v>77.03</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -3936,10 +3932,10 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>28.05</v>
+        <v>27.95</v>
       </c>
       <c r="AM12" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="AN12" t="n">
         <v>4.24</v>
@@ -3973,7 +3969,7 @@
         </is>
       </c>
       <c r="AW12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX12" t="n">
         <v>0.2</v>
@@ -4001,23 +3997,23 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-9.369999999999999</v>
+        <v>-9.69</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-4.28</v>
+        <v>-4.63</v>
       </c>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
-        <v>-1.23</v>
+        <v>-1.58</v>
       </c>
       <c r="BM12" t="n">
-        <v>-4.28</v>
+        <v>-4.63</v>
       </c>
       <c r="BN12" t="n">
-        <v>13.38</v>
+        <v>12.97</v>
       </c>
       <c r="BO12" t="n">
-        <v>98.84</v>
+        <v>98.13</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4049,16 +4045,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-13.3</v>
+        <v>-13.6</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-10.3</v>
+        <v>-10.6</v>
       </c>
       <c r="CA12" t="n">
-        <v>47</v>
+        <v>46.4</v>
       </c>
       <c r="CB12" t="n">
-        <v>2447.3</v>
+        <v>2438.2</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4067,19 +4063,19 @@
       </c>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="n">
-        <v>-1.23</v>
+        <v>-1.58</v>
       </c>
       <c r="CF12" t="n">
-        <v>9138</v>
+        <v>9154.799999999999</v>
       </c>
       <c r="CG12" t="n">
-        <v>10525.3</v>
+        <v>10533.7</v>
       </c>
       <c r="CH12" t="n">
-        <v>12174.3</v>
+        <v>12178.5</v>
       </c>
       <c r="CI12" t="n">
-        <v>11359.3</v>
+        <v>11361</v>
       </c>
       <c r="CJ12" t="n">
         <v>27.8</v>
@@ -4127,16 +4123,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="DB12" t="n">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="DC12" t="n">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="DD12" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -4180,13 +4176,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="M13" t="n">
-        <v>33</v>
+        <v>39.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O13" t="n">
         <v>0.4</v>
@@ -4252,7 +4248,7 @@
         <v>52</v>
       </c>
       <c r="AJ13" t="n">
-        <v>39.08</v>
+        <v>40.58</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4394,13 +4390,13 @@
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>7326.9</v>
+        <v>7327.4</v>
       </c>
       <c r="CG13" t="n">
-        <v>7434.7</v>
+        <v>7434.9</v>
       </c>
       <c r="CH13" t="n">
-        <v>8123.1</v>
+        <v>8123.3</v>
       </c>
       <c r="CI13" t="n">
         <v>6257.1</v>
@@ -4504,13 +4500,13 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="M14" t="n">
-        <v>48.5</v>
+        <v>49.4</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O14" t="n">
         <v>0.8</v>
@@ -4576,7 +4572,7 @@
         <v>88</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.05</v>
+        <v>12.34</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -4621,7 +4617,7 @@
         </is>
       </c>
       <c r="AW14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX14" t="n">
         <v>0.2</v>
@@ -4718,16 +4714,16 @@
         <v>-2.12</v>
       </c>
       <c r="CF14" t="n">
-        <v>1552.1</v>
+        <v>1550.8</v>
       </c>
       <c r="CG14" t="n">
-        <v>1607.7</v>
+        <v>1607.1</v>
       </c>
       <c r="CH14" t="n">
-        <v>1923.3</v>
+        <v>1922.9</v>
       </c>
       <c r="CI14" t="n">
-        <v>2034</v>
+        <v>2033.9</v>
       </c>
       <c r="CJ14" t="n">
         <v>70.09999999999999</v>
@@ -4829,7 +4825,7 @@
         <v>67.8</v>
       </c>
       <c r="M15" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.3</v>
@@ -5146,13 +5142,13 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="M16" t="n">
-        <v>32.4</v>
+        <v>36.8</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>0.1</v>
       </c>
       <c r="O16" t="n">
         <v>0.3</v>
@@ -5218,7 +5214,7 @@
         <v>25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.15</v>
+        <v>4.16</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5226,10 +5222,10 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AM16" t="n">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="AN16" t="n">
         <v>1.66</v>
@@ -5278,11 +5274,7 @@
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>Tín hiệu bán</t>
-        </is>
-      </c>
+      <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr">
@@ -5291,23 +5283,23 @@
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>-6.17</v>
+        <v>-5.73</v>
       </c>
       <c r="BJ16" t="n">
-        <v>13.3</v>
+        <v>13.83</v>
       </c>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="n">
-        <v>-1.84</v>
+        <v>-1.38</v>
       </c>
       <c r="BM16" t="n">
-        <v>13.3</v>
+        <v>13.83</v>
       </c>
       <c r="BN16" t="n">
-        <v>-9.5</v>
+        <v>-9.07</v>
       </c>
       <c r="BO16" t="n">
-        <v>151.48</v>
+        <v>152.66</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -5339,16 +5331,16 @@
         <v>32.8</v>
       </c>
       <c r="BY16" t="n">
-        <v>-13.3</v>
+        <v>-12.9</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-28.3</v>
+        <v>-28</v>
       </c>
       <c r="CA16" t="n">
-        <v>83</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="CB16" t="n">
-        <v>499.5</v>
+        <v>502.3</v>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
@@ -5357,19 +5349,19 @@
       </c>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="n">
-        <v>-1.84</v>
+        <v>-1.38</v>
       </c>
       <c r="CF16" t="n">
-        <v>1195.3</v>
+        <v>1187.3</v>
       </c>
       <c r="CG16" t="n">
-        <v>1481.1</v>
+        <v>1477.1</v>
       </c>
       <c r="CH16" t="n">
-        <v>1518.6</v>
+        <v>1516.6</v>
       </c>
       <c r="CI16" t="n">
-        <v>972.6</v>
+        <v>971.8</v>
       </c>
       <c r="CJ16" t="n">
         <v>5.8</v>
@@ -5417,16 +5409,16 @@
         <v>3364</v>
       </c>
       <c r="DA16" t="n">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="DC16" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="DD16" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="17">
@@ -5473,7 +5465,7 @@
         <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>47</v>
+        <v>46.7</v>
       </c>
       <c r="N17" t="n">
         <v>23</v>
@@ -5802,13 +5794,13 @@
         <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>69.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="O18" t="n">
         <v>0.6</v>
@@ -5874,14 +5866,14 @@
         <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
-        <v>67.59999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -5943,23 +5935,23 @@
         </is>
       </c>
       <c r="BI18" t="n">
-        <v>-7.56</v>
+        <v>-7.69</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-11.72</v>
+        <v>-11.85</v>
       </c>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="BM18" t="n">
-        <v>-11.72</v>
+        <v>-11.85</v>
       </c>
       <c r="BN18" t="n">
-        <v>13.33</v>
+        <v>13.16</v>
       </c>
       <c r="BO18" t="n">
-        <v>379.72</v>
+        <v>379.01</v>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
@@ -5991,16 +5983,16 @@
         <v>17.1</v>
       </c>
       <c r="BY18" t="n">
-        <v>-16</v>
+        <v>-16.1</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-11.7</v>
+        <v>-11.8</v>
       </c>
       <c r="CA18" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="CB18" t="n">
-        <v>589.7</v>
+        <v>588.6</v>
       </c>
       <c r="CC18" t="inlineStr">
         <is>
@@ -6009,19 +6001,19 @@
       </c>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="CF18" t="n">
-        <v>184.5</v>
+        <v>184.8</v>
       </c>
       <c r="CG18" t="n">
-        <v>206.2</v>
+        <v>206.4</v>
       </c>
       <c r="CH18" t="n">
-        <v>198.1</v>
+        <v>198.2</v>
       </c>
       <c r="CI18" t="n">
-        <v>161.7</v>
+        <v>161.8</v>
       </c>
       <c r="CJ18" t="n">
         <v>96.2</v>
@@ -6069,16 +6061,16 @@
         <v>4151</v>
       </c>
       <c r="DA18" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="DB18" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="DC18" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="DD18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="19">
@@ -6426,13 +6418,13 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>35.9</v>
+        <v>41.7</v>
       </c>
       <c r="M20" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O20" t="n">
         <v>0.6</v>
@@ -6498,18 +6490,18 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5.67</v>
+        <v>5.73</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>15.85</v>
+        <v>15.9</v>
       </c>
       <c r="AM20" t="n">
-        <v>37.4</v>
+        <v>37.9</v>
       </c>
       <c r="AN20" t="n">
         <v>46.37</v>
@@ -6546,7 +6538,7 @@
         <v>0.2</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AY20" t="n">
         <v>0.1</v>
@@ -6571,23 +6563,23 @@
         </is>
       </c>
       <c r="BI20" t="n">
-        <v>-7.85</v>
+        <v>-7.56</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="n">
-        <v>-1.25</v>
+        <v>-0.93</v>
       </c>
       <c r="BM20" t="n">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="BN20" t="n">
-        <v>28.02</v>
+        <v>28.42</v>
       </c>
       <c r="BO20" t="n">
-        <v>41.95</v>
+        <v>42.4</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -6619,16 +6611,16 @@
         <v>321.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>-14.1</v>
+        <v>-13.8</v>
       </c>
       <c r="BZ20" t="n">
-        <v>-34.2</v>
+        <v>-34</v>
       </c>
       <c r="CA20" t="n">
-        <v>51.7</v>
+        <v>52.1</v>
       </c>
       <c r="CB20" t="n">
-        <v>171.7</v>
+        <v>172.6</v>
       </c>
       <c r="CC20" t="inlineStr">
         <is>
@@ -6637,16 +6629,16 @@
       </c>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="n">
-        <v>-1.25</v>
+        <v>-0.93</v>
       </c>
       <c r="CF20" t="n">
-        <v>1847.6</v>
+        <v>1847.3</v>
       </c>
       <c r="CG20" t="n">
-        <v>2241</v>
+        <v>2240.8</v>
       </c>
       <c r="CH20" t="n">
-        <v>2778.5</v>
+        <v>2778.4</v>
       </c>
       <c r="CI20" t="n">
         <v>2508.4</v>
@@ -6697,16 +6689,16 @@
         <v>1529</v>
       </c>
       <c r="DA20" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="DB20" t="n">
-        <v>-6.8</v>
+        <v>-6.5</v>
       </c>
       <c r="DC20" t="n">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="21">
@@ -7062,13 +7054,13 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>27.9</v>
+        <v>34.2</v>
       </c>
       <c r="M22" t="n">
-        <v>30.4</v>
+        <v>51.6</v>
       </c>
       <c r="N22" t="n">
-        <v>2.9</v>
+        <v>10.6</v>
       </c>
       <c r="O22" t="n">
         <v>0.8</v>
@@ -7134,7 +7126,7 @@
         <v>91</v>
       </c>
       <c r="AJ22" t="n">
-        <v>50.12</v>
+        <v>63.4</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7142,10 +7134,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>60.6</v>
+        <v>60.2</v>
       </c>
       <c r="AM22" t="n">
-        <v>55.1</v>
+        <v>54.1</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7182,13 +7174,13 @@
         <v>0.3</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY22" t="n">
         <v>0.2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr">
@@ -7198,7 +7190,11 @@
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>Tín hiệu bán</t>
+        </is>
+      </c>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr">
@@ -7207,23 +7203,23 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-4.11</v>
+        <v>-4.75</v>
       </c>
       <c r="BJ22" t="n">
-        <v>14.04</v>
+        <v>13.29</v>
       </c>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="n">
-        <v>0.5</v>
+        <v>-0.17</v>
       </c>
       <c r="BM22" t="n">
-        <v>14.04</v>
+        <v>13.29</v>
       </c>
       <c r="BN22" t="n">
-        <v>90.06999999999999</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="BO22" t="n">
-        <v>1635.92</v>
+        <v>1624.46</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7255,16 +7251,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-11.3</v>
+        <v>-11.9</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-5.9</v>
+        <v>-6.5</v>
       </c>
       <c r="CA22" t="n">
-        <v>106</v>
+        <v>104.7</v>
       </c>
       <c r="CB22" t="n">
-        <v>2572.2</v>
+        <v>2554.6</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7273,19 +7269,19 @@
       </c>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="n">
-        <v>0.5</v>
+        <v>-0.17</v>
       </c>
       <c r="CF22" t="n">
-        <v>3121.9</v>
+        <v>3146.4</v>
       </c>
       <c r="CG22" t="n">
-        <v>3900.8</v>
+        <v>3913.1</v>
       </c>
       <c r="CH22" t="n">
-        <v>5089.3</v>
+        <v>5095.4</v>
       </c>
       <c r="CI22" t="n">
-        <v>4103.7</v>
+        <v>4106.1</v>
       </c>
       <c r="CJ22" t="n">
         <v>56.6</v>
@@ -7333,16 +7329,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>34.4</v>
+        <v>33.5</v>
       </c>
       <c r="DB22" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="DC22" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="DD22" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="23">
@@ -7389,10 +7385,10 @@
         <v>66.8</v>
       </c>
       <c r="M23" t="n">
-        <v>63.6</v>
+        <v>19.9</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -7452,7 +7448,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>462.12</v>
+        <v>486.46</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7460,10 +7456,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AN23" t="n">
         <v>17.45</v>
@@ -7503,7 +7499,7 @@
         <v>0.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.7</v>
@@ -7529,23 +7525,23 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>14.68</v>
+        <v>15.72</v>
       </c>
       <c r="BJ23" t="n">
-        <v>36.07</v>
+        <v>37.3</v>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="n">
-        <v>4.24</v>
+        <v>5.18</v>
       </c>
       <c r="BM23" t="n">
-        <v>36.07</v>
+        <v>37.3</v>
       </c>
       <c r="BN23" t="n">
-        <v>48.66</v>
+        <v>50.01</v>
       </c>
       <c r="BO23" t="n">
-        <v>382.79</v>
+        <v>387.15</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7573,16 +7569,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="BZ23" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="CA23" t="n">
-        <v>84.40000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="CB23" t="n">
-        <v>651.5</v>
+        <v>658.3</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7591,19 +7587,19 @@
       </c>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="n">
-        <v>4.24</v>
+        <v>5.18</v>
       </c>
       <c r="CF23" t="n">
-        <v>23064.9</v>
+        <v>22998.6</v>
       </c>
       <c r="CG23" t="n">
-        <v>27286.3</v>
+        <v>27253.1</v>
       </c>
       <c r="CH23" t="n">
-        <v>25625.8</v>
+        <v>25609.2</v>
       </c>
       <c r="CI23" t="n">
-        <v>20588.4</v>
+        <v>20581.7</v>
       </c>
       <c r="CJ23" t="n">
         <v>21.6</v>
@@ -7651,16 +7647,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>44</v>
+        <v>45.3</v>
       </c>
       <c r="DB23" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="DC23" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="DD23" t="n">
-        <v>41.5</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="24">
@@ -8336,13 +8332,13 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>32.5</v>
+        <v>27.6</v>
       </c>
       <c r="M26" t="n">
-        <v>88.59999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="N26" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>0.3</v>
@@ -8412,7 +8408,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>51.93</v>
+        <v>62.87</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -8420,10 +8416,10 @@
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>15.1</v>
+        <v>15.05</v>
       </c>
       <c r="AM26" t="n">
-        <v>64.59999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="AN26" t="n">
         <v>11.29</v>
@@ -8466,7 +8462,7 @@
         <v>0.2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr">
@@ -8485,23 +8481,23 @@
         </is>
       </c>
       <c r="BI26" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="BJ26" t="n">
-        <v>17.05</v>
+        <v>16.67</v>
       </c>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="n">
-        <v>-1.95</v>
+        <v>-2.27</v>
       </c>
       <c r="BM26" t="n">
-        <v>17.05</v>
+        <v>16.67</v>
       </c>
       <c r="BN26" t="n">
-        <v>31.57</v>
+        <v>31.14</v>
       </c>
       <c r="BO26" t="n">
-        <v>23.52</v>
+        <v>23.11</v>
       </c>
       <c r="BP26" t="inlineStr">
         <is>
@@ -8533,16 +8529,16 @@
         <v>52.3</v>
       </c>
       <c r="BY26" t="n">
-        <v>-10.1</v>
+        <v>-10.4</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-29.1</v>
+        <v>-29.4</v>
       </c>
       <c r="CA26" t="n">
-        <v>63.1</v>
+        <v>62.6</v>
       </c>
       <c r="CB26" t="n">
-        <v>567.3</v>
+        <v>565.1</v>
       </c>
       <c r="CC26" t="inlineStr">
         <is>
@@ -8551,19 +8547,19 @@
       </c>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="n">
-        <v>-1.95</v>
+        <v>-2.27</v>
       </c>
       <c r="CF26" t="n">
-        <v>21641.2</v>
+        <v>21666.4</v>
       </c>
       <c r="CG26" t="n">
-        <v>22172.6</v>
+        <v>22185.2</v>
       </c>
       <c r="CH26" t="n">
-        <v>20918.9</v>
+        <v>20925.2</v>
       </c>
       <c r="CI26" t="n">
-        <v>14993.7</v>
+        <v>14996.2</v>
       </c>
       <c r="CJ26" t="n">
         <v>26.4</v>
@@ -8609,16 +8605,16 @@
         <v>1001</v>
       </c>
       <c r="DA26" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="DB26" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="DC26" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="DD26" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="27">
@@ -9216,13 +9212,13 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>38.3</v>
+        <v>38.9</v>
       </c>
       <c r="M29" t="n">
-        <v>14.3</v>
+        <v>17.2</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -9434,10 +9430,10 @@
         <v>1.77</v>
       </c>
       <c r="CF29" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="CG29" t="n">
-        <v>180.5</v>
+        <v>180.4</v>
       </c>
       <c r="CH29" t="n">
         <v>217.4</v>
@@ -10497,7 +10493,7 @@
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>97.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -10728,13 +10724,13 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>67.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>67.2</v>
+        <v>63.3</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
         <v>4.8</v>
@@ -10794,7 +10790,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>17.35</v>
+        <v>18.18</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10802,10 +10798,10 @@
         </is>
       </c>
       <c r="AL34" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="AM34" t="n">
-        <v>75.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="AN34" t="n">
         <v>1.35</v>
@@ -10838,7 +10834,7 @@
         <v>1.3</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AY34" t="n">
         <v>1.1</v>
@@ -10867,23 +10863,23 @@
         </is>
       </c>
       <c r="BI34" t="n">
-        <v>10.83</v>
+        <v>10.39</v>
       </c>
       <c r="BJ34" t="n">
-        <v>21.05</v>
+        <v>20.57</v>
       </c>
       <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="n">
-        <v>8.08</v>
+        <v>7.66</v>
       </c>
       <c r="BM34" t="n">
-        <v>21.05</v>
+        <v>20.57</v>
       </c>
       <c r="BN34" t="n">
-        <v>109.06</v>
+        <v>108.23</v>
       </c>
       <c r="BO34" t="n">
-        <v>192.56</v>
+        <v>191.4</v>
       </c>
       <c r="BP34" t="inlineStr">
         <is>
@@ -10911,16 +10907,16 @@
         <v>66.8</v>
       </c>
       <c r="BY34" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BZ34" t="n">
-        <v>-37.2</v>
+        <v>-37.5</v>
       </c>
       <c r="CA34" t="n">
-        <v>165.3</v>
+        <v>164.2</v>
       </c>
       <c r="CB34" t="n">
-        <v>273.3</v>
+        <v>271.8</v>
       </c>
       <c r="CC34" t="inlineStr">
         <is>
@@ -10929,13 +10925,13 @@
       </c>
       <c r="CD34" t="inlineStr"/>
       <c r="CE34" t="n">
-        <v>8.08</v>
+        <v>7.66</v>
       </c>
       <c r="CF34" t="n">
-        <v>554.9</v>
+        <v>555.1</v>
       </c>
       <c r="CG34" t="n">
-        <v>571.4</v>
+        <v>571.5</v>
       </c>
       <c r="CH34" t="n">
         <v>650.2</v>
@@ -10989,16 +10985,16 @@
         <v>3275</v>
       </c>
       <c r="DA34" t="n">
-        <v>75.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="DB34" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="DC34" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="DD34" t="n">
-        <v>50.2</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="35">
@@ -11674,13 +11670,13 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>44.3</v>
+        <v>45.9</v>
       </c>
       <c r="M37" t="n">
-        <v>43.1</v>
+        <v>47.2</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="O37" t="n">
         <v>0.8</v>
@@ -11746,7 +11742,7 @@
         <v>53</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.68</v>
+        <v>3.83</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -11772,7 +11768,7 @@
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Bán mạnh</t>
         </is>
       </c>
       <c r="AR37" t="n">
@@ -11888,16 +11884,16 @@
         <v>0</v>
       </c>
       <c r="CF37" t="n">
-        <v>497.4</v>
+        <v>497.8</v>
       </c>
       <c r="CG37" t="n">
-        <v>694.8</v>
+        <v>695</v>
       </c>
       <c r="CH37" t="n">
-        <v>724.3</v>
+        <v>724.4</v>
       </c>
       <c r="CI37" t="n">
-        <v>541.5</v>
+        <v>541.6</v>
       </c>
       <c r="CJ37" t="n">
         <v>12.3</v>
@@ -12550,13 +12546,13 @@
         <v>0.8</v>
       </c>
       <c r="L40" t="n">
-        <v>54.1</v>
+        <v>53.3</v>
       </c>
       <c r="M40" t="n">
-        <v>43.6</v>
+        <v>25.7</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="O40" t="n">
         <v>3.4</v>
@@ -12616,7 +12612,7 @@
         <v>59</v>
       </c>
       <c r="AJ40" t="n">
-        <v>55.74</v>
+        <v>57.74</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -12657,13 +12653,13 @@
         </is>
       </c>
       <c r="AW40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY40" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>1.5</v>
       </c>
       <c r="AZ40" t="n">
         <v>1.7</v>
@@ -12752,16 +12748,16 @@
         <v>3.14</v>
       </c>
       <c r="CF40" t="n">
-        <v>2100.4</v>
+        <v>2084.2</v>
       </c>
       <c r="CG40" t="n">
-        <v>2388.1</v>
+        <v>2380</v>
       </c>
       <c r="CH40" t="n">
-        <v>2235.6</v>
+        <v>2231.6</v>
       </c>
       <c r="CI40" t="n">
-        <v>2033.5</v>
+        <v>2031.9</v>
       </c>
       <c r="CJ40" t="n">
         <v>30</v>
@@ -13640,13 +13636,13 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>48.3</v>
+        <v>52.4</v>
       </c>
       <c r="M44" t="n">
-        <v>53.3</v>
+        <v>52.5</v>
       </c>
       <c r="N44" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0.1</v>
@@ -13712,7 +13708,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -14285,7 +14281,7 @@
         <v>19.1</v>
       </c>
       <c r="M46" t="n">
-        <v>40.1</v>
+        <v>39.4</v>
       </c>
       <c r="N46" t="n">
         <v>46.1</v>
@@ -14602,13 +14598,13 @@
         <v>0.7</v>
       </c>
       <c r="L47" t="n">
-        <v>59.4</v>
+        <v>47.5</v>
       </c>
       <c r="M47" t="n">
-        <v>59</v>
+        <v>60.5</v>
       </c>
       <c r="N47" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="O47" t="n">
         <v>0.7</v>
@@ -14674,7 +14670,7 @@
         <v>31</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="n">
@@ -14717,10 +14713,10 @@
         </is>
       </c>
       <c r="AW47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AY47" t="n">
         <v>0.1</v>
@@ -14817,7 +14813,7 @@
         <v>22.2</v>
       </c>
       <c r="CG47" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="CH47" t="n">
         <v>27.5</v>
@@ -14927,7 +14923,7 @@
         <v>76.8</v>
       </c>
       <c r="M48" t="n">
-        <v>37.2</v>
+        <v>42.9</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -15138,13 +15134,13 @@
         <v>0.38</v>
       </c>
       <c r="CF48" t="n">
-        <v>173.4</v>
+        <v>173.2</v>
       </c>
       <c r="CG48" t="n">
-        <v>186.3</v>
+        <v>186.2</v>
       </c>
       <c r="CH48" t="n">
-        <v>170.7</v>
+        <v>170.6</v>
       </c>
       <c r="CI48" t="n">
         <v>135.5</v>
@@ -15251,10 +15247,10 @@
         <v>53.6</v>
       </c>
       <c r="M49" t="n">
-        <v>40.6</v>
+        <v>41.4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="O49" t="n">
         <v>0.6</v>
@@ -15320,7 +15316,7 @@
         <v>16</v>
       </c>
       <c r="AJ49" t="n">
-        <v>57.55</v>
+        <v>58.04</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -15462,16 +15458,16 @@
         <v>-0.57</v>
       </c>
       <c r="CF49" t="n">
-        <v>7958.2</v>
+        <v>7947.1</v>
       </c>
       <c r="CG49" t="n">
-        <v>10739.4</v>
+        <v>10733.9</v>
       </c>
       <c r="CH49" t="n">
-        <v>9981.299999999999</v>
+        <v>9978.5</v>
       </c>
       <c r="CI49" t="n">
-        <v>8816.799999999999</v>
+        <v>8815.700000000001</v>
       </c>
       <c r="CJ49" t="n">
         <v>78.59999999999999</v>
@@ -15572,7 +15568,7 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>62</v>
+        <v>61.9</v>
       </c>
       <c r="M50" t="n">
         <v>96.3</v>
@@ -15644,7 +15640,7 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18.12</v>
+        <v>18.16</v>
       </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="n">
@@ -15784,7 +15780,7 @@
         <v>0.31</v>
       </c>
       <c r="CF50" t="n">
-        <v>970.1</v>
+        <v>970</v>
       </c>
       <c r="CG50" t="n">
         <v>1172.3</v>
@@ -15894,13 +15890,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>64.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="M51" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O51" t="n">
         <v>0.4</v>
@@ -15964,7 +15960,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>390.51</v>
+        <v>422.45</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -16018,7 +16014,7 @@
         <v>0.2</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="inlineStr">
@@ -16102,16 +16098,16 @@
         <v>2.73</v>
       </c>
       <c r="CF51" t="n">
-        <v>104410.1</v>
+        <v>104377.5</v>
       </c>
       <c r="CG51" t="n">
-        <v>103125.5</v>
+        <v>103109.2</v>
       </c>
       <c r="CH51" t="n">
-        <v>113884.5</v>
+        <v>113876.4</v>
       </c>
       <c r="CI51" t="n">
-        <v>85734</v>
+        <v>85730.7</v>
       </c>
       <c r="CJ51" t="n">
         <v>15.5</v>
@@ -18162,13 +18158,13 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>42.4</v>
+        <v>42.1</v>
       </c>
       <c r="M59" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -18234,7 +18230,7 @@
         <v>5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>8.119999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -18376,16 +18372,16 @@
         <v>0</v>
       </c>
       <c r="CF59" t="n">
-        <v>1719.7</v>
+        <v>1721.3</v>
       </c>
       <c r="CG59" t="n">
-        <v>2370</v>
+        <v>2370.8</v>
       </c>
       <c r="CH59" t="n">
-        <v>2327.6</v>
+        <v>2328</v>
       </c>
       <c r="CI59" t="n">
-        <v>2192.7</v>
+        <v>2192.9</v>
       </c>
       <c r="CJ59" t="n">
         <v>25.2</v>
@@ -18708,13 +18704,13 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>70.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="M61" t="n">
-        <v>57.6</v>
+        <v>69.2</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -18780,7 +18776,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.57</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
@@ -18926,10 +18922,10 @@
         <v>0.83</v>
       </c>
       <c r="CF61" t="n">
-        <v>261.7</v>
+        <v>261.8</v>
       </c>
       <c r="CG61" t="n">
-        <v>219</v>
+        <v>219.1</v>
       </c>
       <c r="CH61" t="n">
         <v>215.8</v>
@@ -19270,13 +19266,13 @@
         <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>65</v>
+        <v>63.9</v>
       </c>
       <c r="M63" t="n">
-        <v>57.1</v>
+        <v>56.9</v>
       </c>
       <c r="N63" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="O63" t="n">
         <v>1.3</v>
@@ -19342,7 +19338,7 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="n">
@@ -19476,7 +19472,7 @@
         <v>-1.83</v>
       </c>
       <c r="CF63" t="n">
-        <v>218.6</v>
+        <v>218.5</v>
       </c>
       <c r="CG63" t="n">
         <v>226.5</v>
@@ -19587,7 +19583,7 @@
         <v>81.5</v>
       </c>
       <c r="M64" t="n">
-        <v>44.6</v>
+        <v>43.7</v>
       </c>
       <c r="N64" t="n">
         <v>0.8</v>
@@ -20218,13 +20214,13 @@
         <v>1.1</v>
       </c>
       <c r="L66" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="M66" t="n">
-        <v>70.40000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O66" t="n">
         <v>0.4</v>
@@ -20284,7 +20280,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>11.03</v>
+        <v>11.35</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -20412,13 +20408,13 @@
         <v>2.63</v>
       </c>
       <c r="CF66" t="n">
-        <v>3379.5</v>
+        <v>3380.2</v>
       </c>
       <c r="CG66" t="n">
-        <v>3816.5</v>
+        <v>3816.8</v>
       </c>
       <c r="CH66" t="n">
-        <v>3448.9</v>
+        <v>3449.1</v>
       </c>
       <c r="CI66" t="n">
         <v>2177.6</v>
@@ -20847,7 +20843,7 @@
         <v>48</v>
       </c>
       <c r="M68" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="N68" t="n">
         <v>0.4</v>
@@ -21058,16 +21054,16 @@
         <v>-0.97</v>
       </c>
       <c r="CF68" t="n">
-        <v>1744.9</v>
+        <v>1744.3</v>
       </c>
       <c r="CG68" t="n">
-        <v>2272.5</v>
+        <v>2272.2</v>
       </c>
       <c r="CH68" t="n">
-        <v>2629.8</v>
+        <v>2629.6</v>
       </c>
       <c r="CI68" t="n">
-        <v>2160.8</v>
+        <v>2160.7</v>
       </c>
       <c r="CJ68" t="n">
         <v>70.7</v>
@@ -21168,13 +21164,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="M69" t="n">
-        <v>75.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="O69" t="n">
         <v>0.9</v>
@@ -21234,7 +21230,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="n">
-        <v>669.4</v>
+        <v>684.15</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -21242,10 +21238,10 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>37.5</v>
+        <v>37.65</v>
       </c>
       <c r="AM69" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AN69" t="n">
         <v>25.77</v>
@@ -21311,23 +21307,23 @@
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>30.21</v>
+        <v>30.73</v>
       </c>
       <c r="BJ69" t="n">
-        <v>75.64</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="BK69" t="inlineStr"/>
       <c r="BL69" t="n">
-        <v>2.6</v>
+        <v>3.01</v>
       </c>
       <c r="BM69" t="n">
-        <v>75.64</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="BN69" t="n">
-        <v>107.1</v>
+        <v>107.93</v>
       </c>
       <c r="BO69" t="n">
-        <v>438.18</v>
+        <v>440.33</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -21355,16 +21351,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="BZ69" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="CA69" t="n">
-        <v>154.2</v>
+        <v>155.3</v>
       </c>
       <c r="CB69" t="n">
-        <v>577.9</v>
+        <v>580.6</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -21377,19 +21373,19 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>2.6</v>
+        <v>3.01</v>
       </c>
       <c r="CF69" t="n">
-        <v>41777.5</v>
+        <v>41800.2</v>
       </c>
       <c r="CG69" t="n">
-        <v>43604.8</v>
+        <v>43616.2</v>
       </c>
       <c r="CH69" t="n">
-        <v>50682.4</v>
+        <v>50688.1</v>
       </c>
       <c r="CI69" t="n">
-        <v>43335.8</v>
+        <v>43338</v>
       </c>
       <c r="CJ69" t="n">
         <v>26.6</v>
@@ -21437,16 +21433,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>92.5</v>
+        <v>93.2</v>
       </c>
       <c r="DB69" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="DC69" t="n">
-        <v>60.2</v>
+        <v>60.8</v>
       </c>
       <c r="DD69" t="n">
-        <v>84.2</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -21493,10 +21489,10 @@
         <v>68.40000000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O70" t="n">
         <v>0.8</v>
@@ -21562,7 +21558,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -21700,16 +21696,16 @@
         <v>-1.1</v>
       </c>
       <c r="CF70" t="n">
-        <v>733.7</v>
+        <v>734</v>
       </c>
       <c r="CG70" t="n">
-        <v>1139.2</v>
+        <v>1139.4</v>
       </c>
       <c r="CH70" t="n">
-        <v>1463.4</v>
+        <v>1463.5</v>
       </c>
       <c r="CI70" t="n">
-        <v>1123.7</v>
+        <v>1123.8</v>
       </c>
       <c r="CJ70" t="inlineStr"/>
       <c r="CK70" t="n">
@@ -22137,7 +22133,7 @@
         <v>66.8</v>
       </c>
       <c r="M72" t="n">
-        <v>53.7</v>
+        <v>54.4</v>
       </c>
       <c r="N72" t="n">
         <v>9</v>

--- a/market_filtered_pe.xlsx
+++ b/market_filtered_pe.xlsx
@@ -1016,13 +1016,13 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>52.1</v>
+        <v>51.7</v>
       </c>
       <c r="M2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.9</v>
@@ -1082,7 +1082,7 @@
         <v>87</v>
       </c>
       <c r="AJ2" t="n">
-        <v>103.02</v>
+        <v>105.65</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="AW2" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AX2" t="n">
         <v>0.7</v>
@@ -1132,7 +1132,7 @@
         <v>0.6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr">
@@ -1218,16 +1218,16 @@
         <v>4.93</v>
       </c>
       <c r="CF2" t="n">
-        <v>10006.8</v>
+        <v>9966.9</v>
       </c>
       <c r="CG2" t="n">
-        <v>10886.2</v>
+        <v>10866.3</v>
       </c>
       <c r="CH2" t="n">
-        <v>12351.4</v>
+        <v>12341.4</v>
       </c>
       <c r="CI2" t="n">
-        <v>6973.2</v>
+        <v>6969.2</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1798,13 +1798,13 @@
         <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>85</v>
+        <v>86.2</v>
       </c>
       <c r="M5" t="n">
-        <v>34.4</v>
+        <v>26.1</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>0.2</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -1868,7 +1868,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="AM5" t="n">
-        <v>72.2</v>
+        <v>71</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
@@ -1937,23 +1937,23 @@
         </is>
       </c>
       <c r="BI5" t="n">
-        <v>12.77</v>
+        <v>11.35</v>
       </c>
       <c r="BJ5" t="n">
-        <v>29.27</v>
+        <v>27.64</v>
       </c>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="n">
-        <v>4.61</v>
+        <v>3.29</v>
       </c>
       <c r="BM5" t="n">
-        <v>29.27</v>
+        <v>27.64</v>
       </c>
       <c r="BN5" t="n">
-        <v>45.34</v>
+        <v>43.51</v>
       </c>
       <c r="BO5" t="n">
-        <v>27.16</v>
+        <v>25.56</v>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
@@ -1981,16 +1981,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BY5" t="n">
-        <v>-2.5</v>
+        <v>-3.7</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-37.2</v>
+        <v>-38</v>
       </c>
       <c r="CA5" t="n">
-        <v>65.09999999999999</v>
+        <v>63</v>
       </c>
       <c r="CB5" t="n">
-        <v>63.4</v>
+        <v>61.3</v>
       </c>
       <c r="CC5" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="n">
-        <v>4.61</v>
+        <v>3.29</v>
       </c>
       <c r="CF5" t="n">
         <v>57.9</v>
@@ -2057,16 +2057,16 @@
         <v>1057</v>
       </c>
       <c r="DA5" t="n">
-        <v>37.4</v>
+        <v>35.7</v>
       </c>
       <c r="DB5" t="n">
-        <v>11.2</v>
+        <v>9.9</v>
       </c>
       <c r="DC5" t="n">
-        <v>24.1</v>
+        <v>22.6</v>
       </c>
       <c r="DD5" t="n">
-        <v>33.4</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="6">
@@ -2110,13 +2110,13 @@
         <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>60.3</v>
+        <v>40.3</v>
       </c>
       <c r="M6" t="n">
-        <v>18.5</v>
+        <v>54.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O6" t="n">
         <v>0.1</v>
@@ -2182,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.89</v>
+        <v>2.42</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>133.6</v>
+        <v>133.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
       <c r="AN6" t="n">
         <v>84.93000000000001</v>
@@ -2227,16 +2227,16 @@
         </is>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr">
@@ -2255,23 +2255,23 @@
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>-4.16</v>
+        <v>-4.23</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-6.31</v>
+        <v>-6.38</v>
       </c>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="BM6" t="n">
-        <v>-6.31</v>
+        <v>-6.38</v>
       </c>
       <c r="BN6" t="n">
-        <v>42.16</v>
+        <v>42.06</v>
       </c>
       <c r="BO6" t="n">
-        <v>290.01</v>
+        <v>289.72</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2303,16 +2303,16 @@
         <v>51.1</v>
       </c>
       <c r="BY6" t="n">
-        <v>-11.5</v>
+        <v>-11.6</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="CA6" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="CB6" t="n">
-        <v>8986.1</v>
+        <v>8979.299999999999</v>
       </c>
       <c r="CC6" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="CF6" t="n">
         <v>173.7</v>
@@ -2381,16 +2381,16 @@
         <v>13894</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="DB6" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="DC6" t="n">
         <v>-4.9</v>
       </c>
       <c r="DD6" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="7">
@@ -2667,9 +2667,11 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>42.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>24.3</v>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>6.8</v>
@@ -2684,7 +2686,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(20)</t>
+        </is>
+      </c>
       <c r="V8" t="n">
         <v>-22.37</v>
       </c>
@@ -2725,10 +2731,16 @@
       <c r="AI8" t="n">
         <v>91</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>0.06</v>
+      </c>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>59</v>
+      </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
@@ -2736,7 +2748,11 @@
         <v>74</v>
       </c>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
@@ -2747,25 +2763,55 @@
       <c r="AU8" t="n">
         <v>2936</v>
       </c>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.1</v>
+      </c>
       <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(50)</t>
+        </is>
+      </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI8" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>33.63</v>
+      </c>
       <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
+      <c r="BL8" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>91.68000000000001</v>
+      </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr">
         <is>
@@ -2796,17 +2842,39 @@
       <c r="BX8" t="n">
         <v>37553.8</v>
       </c>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="inlineStr"/>
+      <c r="BY8" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>-53.7</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>166</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(100)</t>
+        </is>
+      </c>
       <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
+      <c r="CE8" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>27</v>
+      </c>
       <c r="CJ8" t="n">
         <v>68.8</v>
       </c>
@@ -2848,10 +2916,18 @@
       <c r="CZ8" t="n">
         <v>2936</v>
       </c>
-      <c r="DA8" t="inlineStr"/>
-      <c r="DB8" t="inlineStr"/>
-      <c r="DC8" t="inlineStr"/>
-      <c r="DD8" t="inlineStr"/>
+      <c r="DA8" t="n">
+        <v>70</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2894,13 +2970,13 @@
         <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>66.7</v>
+        <v>77.8</v>
       </c>
       <c r="M9" t="n">
-        <v>14.6</v>
+        <v>41.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
         <v>0.1</v>
@@ -2966,7 +3042,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
@@ -3016,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr">
@@ -3214,13 +3290,13 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>69.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>36.7</v>
+        <v>40</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.2</v>
@@ -3280,7 +3356,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="n">
-        <v>322.44</v>
+        <v>335.09</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3418,16 +3494,16 @@
         <v>2.77</v>
       </c>
       <c r="CF10" t="n">
-        <v>11166.3</v>
+        <v>11148.6</v>
       </c>
       <c r="CG10" t="n">
-        <v>12784.9</v>
+        <v>12776</v>
       </c>
       <c r="CH10" t="n">
-        <v>13467.7</v>
+        <v>13463.3</v>
       </c>
       <c r="CI10" t="n">
-        <v>9969.299999999999</v>
+        <v>9967.5</v>
       </c>
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
@@ -3528,13 +3604,13 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>42.3</v>
+        <v>45.8</v>
       </c>
       <c r="M11" t="n">
-        <v>75.59999999999999</v>
+        <v>59.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="n">
         <v>0.7</v>
@@ -3600,7 +3676,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18.1</v>
+        <v>22.4</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3608,10 +3684,10 @@
         </is>
       </c>
       <c r="AL11" t="n">
-        <v>25.1</v>
+        <v>25.15</v>
       </c>
       <c r="AM11" t="n">
-        <v>42.1</v>
+        <v>42.4</v>
       </c>
       <c r="AN11" t="n">
         <v>2.5</v>
@@ -3641,16 +3717,16 @@
         </is>
       </c>
       <c r="AW11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AY11" t="n">
         <v>0.3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr">
@@ -3662,34 +3738,30 @@
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>Tín hiệu bán</t>
-        </is>
-      </c>
+      <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr">
         <is>
           <t>Trung tính</t>
         </is>
       </c>
       <c r="BI11" t="n">
-        <v>-8.390000000000001</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-1.38</v>
+        <v>-1.18</v>
       </c>
       <c r="BK11" t="inlineStr"/>
       <c r="BL11" t="n">
-        <v>-2.9</v>
+        <v>-2.71</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.38</v>
+        <v>-1.18</v>
       </c>
       <c r="BN11" t="n">
-        <v>56.39</v>
+        <v>56.7</v>
       </c>
       <c r="BO11" t="n">
-        <v>125.22</v>
+        <v>125.67</v>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
@@ -3721,16 +3793,16 @@
         <v>36.9</v>
       </c>
       <c r="BY11" t="n">
-        <v>-13.3</v>
+        <v>-13.1</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-18.5</v>
+        <v>-18.4</v>
       </c>
       <c r="CA11" t="n">
-        <v>69.59999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="CB11" t="n">
-        <v>728.4</v>
+        <v>730.1</v>
       </c>
       <c r="CC11" t="inlineStr">
         <is>
@@ -3739,19 +3811,19 @@
       </c>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="n">
-        <v>-2.9</v>
+        <v>-2.71</v>
       </c>
       <c r="CF11" t="n">
-        <v>2120</v>
+        <v>2118.8</v>
       </c>
       <c r="CG11" t="n">
-        <v>2214.4</v>
+        <v>2213.8</v>
       </c>
       <c r="CH11" t="n">
-        <v>2667.1</v>
+        <v>2666.8</v>
       </c>
       <c r="CI11" t="n">
-        <v>2426</v>
+        <v>2425.8</v>
       </c>
       <c r="CJ11" t="n">
         <v>18.3</v>
@@ -3799,16 +3871,16 @@
         <v>2263</v>
       </c>
       <c r="DA11" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="DB11" t="n">
-        <v>-5.4</v>
+        <v>-5.2</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="DD11" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="12">
@@ -3852,13 +3924,13 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>32.2</v>
+        <v>36.1</v>
       </c>
       <c r="M12" t="n">
-        <v>32.7</v>
+        <v>60.1</v>
       </c>
       <c r="N12" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
         <v>0.8</v>
@@ -3924,7 +3996,7 @@
         <v>53</v>
       </c>
       <c r="AJ12" t="n">
-        <v>77.03</v>
+        <v>105.33</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -3932,10 +4004,10 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>27.95</v>
+        <v>27.8</v>
       </c>
       <c r="AM12" t="n">
-        <v>37.5</v>
+        <v>36.8</v>
       </c>
       <c r="AN12" t="n">
         <v>4.24</v>
@@ -3969,16 +4041,16 @@
         </is>
       </c>
       <c r="AW12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AX12" t="n">
         <v>0.3</v>
       </c>
-      <c r="AX12" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AY12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr">
@@ -3997,23 +4069,23 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-9.69</v>
+        <v>-10.18</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-4.63</v>
+        <v>-5.14</v>
       </c>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
-        <v>-1.58</v>
+        <v>-2.11</v>
       </c>
       <c r="BM12" t="n">
-        <v>-4.63</v>
+        <v>-5.14</v>
       </c>
       <c r="BN12" t="n">
-        <v>12.97</v>
+        <v>12.37</v>
       </c>
       <c r="BO12" t="n">
-        <v>98.13</v>
+        <v>97.06</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4045,16 +4117,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-13.6</v>
+        <v>-14.1</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-10.6</v>
+        <v>-11.1</v>
       </c>
       <c r="CA12" t="n">
-        <v>46.4</v>
+        <v>45.6</v>
       </c>
       <c r="CB12" t="n">
-        <v>2438.2</v>
+        <v>2424.6</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4063,19 +4135,19 @@
       </c>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="n">
-        <v>-1.58</v>
+        <v>-2.11</v>
       </c>
       <c r="CF12" t="n">
-        <v>9154.799999999999</v>
+        <v>9124.799999999999</v>
       </c>
       <c r="CG12" t="n">
-        <v>10533.7</v>
+        <v>10518.7</v>
       </c>
       <c r="CH12" t="n">
-        <v>12178.5</v>
+        <v>12171</v>
       </c>
       <c r="CI12" t="n">
-        <v>11361</v>
+        <v>11358</v>
       </c>
       <c r="CJ12" t="n">
         <v>27.8</v>
@@ -4123,16 +4195,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="DB12" t="n">
-        <v>-6.9</v>
+        <v>-7.4</v>
       </c>
       <c r="DC12" t="n">
-        <v>-4.3</v>
+        <v>-4.8</v>
       </c>
       <c r="DD12" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="13">
@@ -4176,10 +4248,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>44.1</v>
+        <v>43.1</v>
       </c>
       <c r="M13" t="n">
-        <v>39.2</v>
+        <v>56.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.1</v>
@@ -4248,7 +4320,7 @@
         <v>52</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40.58</v>
+        <v>41.79</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4256,10 +4328,10 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>40.5</v>
+        <v>40.55</v>
       </c>
       <c r="AM13" t="n">
-        <v>59.8</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
         <v>6.68</v>
@@ -4321,23 +4393,23 @@
         </is>
       </c>
       <c r="BI13" t="n">
-        <v>-1.22</v>
+        <v>-1.1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>19.82</v>
+        <v>19.97</v>
       </c>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="BM13" t="n">
-        <v>19.82</v>
+        <v>19.97</v>
       </c>
       <c r="BN13" t="n">
-        <v>13.29</v>
+        <v>13.43</v>
       </c>
       <c r="BO13" t="n">
-        <v>572.47</v>
+        <v>573.3</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
@@ -4369,16 +4441,16 @@
         <v>18.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="CA13" t="n">
-        <v>73.2</v>
+        <v>73.5</v>
       </c>
       <c r="CB13" t="n">
-        <v>989.4</v>
+        <v>990.8</v>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
@@ -4387,16 +4459,16 @@
       </c>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="CF13" t="n">
-        <v>7327.4</v>
+        <v>7327.1</v>
       </c>
       <c r="CG13" t="n">
-        <v>7434.9</v>
+        <v>7434.8</v>
       </c>
       <c r="CH13" t="n">
-        <v>8123.3</v>
+        <v>8123.2</v>
       </c>
       <c r="CI13" t="n">
         <v>6257.1</v>
@@ -4447,16 +4519,16 @@
         <v>3221</v>
       </c>
       <c r="DA13" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="DB13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="DC13" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="DD13" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="14">
@@ -4500,13 +4572,13 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" t="n">
-        <v>49.4</v>
+        <v>47.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="O14" t="n">
         <v>0.8</v>
@@ -4572,7 +4644,7 @@
         <v>88</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12.34</v>
+        <v>14.11</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -4580,10 +4652,10 @@
         </is>
       </c>
       <c r="AL14" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="AM14" t="n">
-        <v>46.2</v>
+        <v>46.7</v>
       </c>
       <c r="AN14" t="n">
         <v>4.86</v>
@@ -4620,7 +4692,7 @@
         <v>0.3</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY14" t="n">
         <v>0.2</v>
@@ -4645,23 +4717,23 @@
         </is>
       </c>
       <c r="BI14" t="n">
-        <v>-9.75</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="BJ14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BK14" t="inlineStr"/>
       <c r="BL14" t="n">
-        <v>-2.12</v>
+        <v>-1.8</v>
       </c>
       <c r="BM14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="BN14" t="n">
-        <v>72.97</v>
+        <v>73.53</v>
       </c>
       <c r="BO14" t="n">
-        <v>554.8</v>
+        <v>556.9</v>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
@@ -4693,16 +4765,16 @@
         <v>361.8</v>
       </c>
       <c r="BY14" t="n">
-        <v>-11.6</v>
+        <v>-11.3</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-10.2</v>
+        <v>-9.9</v>
       </c>
       <c r="CA14" t="n">
-        <v>155.8</v>
+        <v>156.6</v>
       </c>
       <c r="CB14" t="n">
-        <v>829.2</v>
+        <v>832.2</v>
       </c>
       <c r="CC14" t="inlineStr">
         <is>
@@ -4711,16 +4783,16 @@
       </c>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="n">
-        <v>-2.12</v>
+        <v>-1.8</v>
       </c>
       <c r="CF14" t="n">
-        <v>1550.8</v>
+        <v>1551.5</v>
       </c>
       <c r="CG14" t="n">
-        <v>1607.1</v>
+        <v>1607.5</v>
       </c>
       <c r="CH14" t="n">
-        <v>1922.9</v>
+        <v>1923.1</v>
       </c>
       <c r="CI14" t="n">
         <v>2033.9</v>
@@ -4769,16 +4841,16 @@
         <v>2413</v>
       </c>
       <c r="DA14" t="n">
-        <v>42.3</v>
+        <v>42.8</v>
       </c>
       <c r="DB14" t="n">
-        <v>-4.7</v>
+        <v>-4.4</v>
       </c>
       <c r="DC14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="DD14" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="15">
@@ -4822,13 +4894,13 @@
         <v>1.4</v>
       </c>
       <c r="L15" t="n">
-        <v>67.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>34.6</v>
+        <v>37.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="O15" t="n">
         <v>0.6</v>
@@ -4894,7 +4966,7 @@
         <v>66</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
@@ -5142,13 +5214,13 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="M16" t="n">
-        <v>36.8</v>
+        <v>42.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O16" t="n">
         <v>0.3</v>
@@ -5214,7 +5286,7 @@
         <v>25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.16</v>
+        <v>4.39</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5222,10 +5294,10 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AM16" t="n">
-        <v>54.9</v>
+        <v>56.3</v>
       </c>
       <c r="AN16" t="n">
         <v>1.66</v>
@@ -5283,23 +5355,23 @@
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>-5.73</v>
+        <v>-4.85</v>
       </c>
       <c r="BJ16" t="n">
-        <v>13.83</v>
+        <v>14.89</v>
       </c>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="n">
-        <v>-1.38</v>
+        <v>-0.46</v>
       </c>
       <c r="BM16" t="n">
-        <v>13.83</v>
+        <v>14.89</v>
       </c>
       <c r="BN16" t="n">
-        <v>-9.07</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="BO16" t="n">
-        <v>152.66</v>
+        <v>155.02</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -5331,16 +5403,16 @@
         <v>32.8</v>
       </c>
       <c r="BY16" t="n">
-        <v>-12.9</v>
+        <v>-12.1</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-28</v>
+        <v>-27.3</v>
       </c>
       <c r="CA16" t="n">
-        <v>83.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="CB16" t="n">
-        <v>502.3</v>
+        <v>507.9</v>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
@@ -5349,7 +5421,7 @@
       </c>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="n">
-        <v>-1.38</v>
+        <v>-0.46</v>
       </c>
       <c r="CF16" t="n">
         <v>1187.3</v>
@@ -5409,16 +5481,16 @@
         <v>3364</v>
       </c>
       <c r="DA16" t="n">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="DC16" t="n">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="DD16" t="n">
-        <v>24.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="17">
@@ -5794,13 +5866,13 @@
         <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>67.40000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="M18" t="n">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O18" t="n">
         <v>0.6</v>
@@ -5866,14 +5938,14 @@
         <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.52</v>
+        <v>2.97</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
-        <v>67.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AM18" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -5916,7 +5988,7 @@
         <v>0.2</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr">
@@ -5935,23 +6007,23 @@
         </is>
       </c>
       <c r="BI18" t="n">
-        <v>-7.69</v>
+        <v>-7.56</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-11.85</v>
+        <v>-11.72</v>
       </c>
       <c r="BK18" t="inlineStr"/>
       <c r="BL18" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="BM18" t="n">
-        <v>-11.85</v>
+        <v>-11.72</v>
       </c>
       <c r="BN18" t="n">
-        <v>13.16</v>
+        <v>13.33</v>
       </c>
       <c r="BO18" t="n">
-        <v>379.01</v>
+        <v>379.72</v>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
@@ -5983,16 +6055,16 @@
         <v>17.1</v>
       </c>
       <c r="BY18" t="n">
-        <v>-16.1</v>
+        <v>-16</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="CA18" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="CB18" t="n">
-        <v>588.6</v>
+        <v>589.7</v>
       </c>
       <c r="CC18" t="inlineStr">
         <is>
@@ -6001,13 +6073,13 @@
       </c>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="CF18" t="n">
-        <v>184.8</v>
+        <v>184.7</v>
       </c>
       <c r="CG18" t="n">
-        <v>206.4</v>
+        <v>206.3</v>
       </c>
       <c r="CH18" t="n">
         <v>198.2</v>
@@ -6061,16 +6133,16 @@
         <v>4151</v>
       </c>
       <c r="DA18" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="DB18" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="DC18" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="DD18" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19">
@@ -6115,7 +6187,7 @@
         <v>100</v>
       </c>
       <c r="M19" t="n">
-        <v>54.4</v>
+        <v>52.3</v>
       </c>
       <c r="N19" t="n">
         <v>13.1</v>
@@ -6421,7 +6493,7 @@
         <v>41.7</v>
       </c>
       <c r="M20" t="n">
-        <v>58</v>
+        <v>55.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.1</v>
@@ -6490,7 +6562,7 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5.73</v>
+        <v>6.16</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -6498,10 +6570,10 @@
         </is>
       </c>
       <c r="AL20" t="n">
-        <v>15.9</v>
+        <v>15.95</v>
       </c>
       <c r="AM20" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="AN20" t="n">
         <v>46.37</v>
@@ -6563,23 +6635,23 @@
         </is>
       </c>
       <c r="BI20" t="n">
-        <v>-7.56</v>
+        <v>-7.27</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
       <c r="BK20" t="inlineStr"/>
       <c r="BL20" t="n">
-        <v>-0.93</v>
+        <v>-0.62</v>
       </c>
       <c r="BM20" t="n">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
       <c r="BN20" t="n">
-        <v>28.42</v>
+        <v>28.82</v>
       </c>
       <c r="BO20" t="n">
-        <v>42.4</v>
+        <v>42.85</v>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
@@ -6611,16 +6683,16 @@
         <v>321.9</v>
       </c>
       <c r="BY20" t="n">
-        <v>-13.8</v>
+        <v>-13.6</v>
       </c>
       <c r="BZ20" t="n">
-        <v>-34</v>
+        <v>-33.7</v>
       </c>
       <c r="CA20" t="n">
-        <v>52.1</v>
+        <v>52.6</v>
       </c>
       <c r="CB20" t="n">
-        <v>172.6</v>
+        <v>173.4</v>
       </c>
       <c r="CC20" t="inlineStr">
         <is>
@@ -6629,7 +6701,7 @@
       </c>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="n">
-        <v>-0.93</v>
+        <v>-0.62</v>
       </c>
       <c r="CF20" t="n">
         <v>1847.3</v>
@@ -6689,16 +6761,16 @@
         <v>1529</v>
       </c>
       <c r="DA20" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="DB20" t="n">
-        <v>-6.5</v>
+        <v>-6.2</v>
       </c>
       <c r="DC20" t="n">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21">
@@ -7054,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="M22" t="n">
-        <v>51.6</v>
+        <v>49.4</v>
       </c>
       <c r="N22" t="n">
-        <v>10.6</v>
+        <v>0.2</v>
       </c>
       <c r="O22" t="n">
         <v>0.8</v>
@@ -7126,7 +7198,7 @@
         <v>91</v>
       </c>
       <c r="AJ22" t="n">
-        <v>63.4</v>
+        <v>64.45</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7134,10 +7206,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>60.2</v>
+        <v>60.6</v>
       </c>
       <c r="AM22" t="n">
-        <v>54.1</v>
+        <v>55.1</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7190,11 +7262,7 @@
       </c>
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr">
-        <is>
-          <t>Tín hiệu bán</t>
-        </is>
-      </c>
+      <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr">
@@ -7203,23 +7271,23 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-4.75</v>
+        <v>-4.11</v>
       </c>
       <c r="BJ22" t="n">
-        <v>13.29</v>
+        <v>14.04</v>
       </c>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="n">
-        <v>-0.17</v>
+        <v>0.5</v>
       </c>
       <c r="BM22" t="n">
-        <v>13.29</v>
+        <v>14.04</v>
       </c>
       <c r="BN22" t="n">
-        <v>88.81999999999999</v>
+        <v>90.06999999999999</v>
       </c>
       <c r="BO22" t="n">
-        <v>1624.46</v>
+        <v>1635.92</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7251,16 +7319,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-11.9</v>
+        <v>-11.3</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-6.5</v>
+        <v>-5.9</v>
       </c>
       <c r="CA22" t="n">
-        <v>104.7</v>
+        <v>106</v>
       </c>
       <c r="CB22" t="n">
-        <v>2554.6</v>
+        <v>2572.2</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7269,19 +7337,19 @@
       </c>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="n">
-        <v>-0.17</v>
+        <v>0.5</v>
       </c>
       <c r="CF22" t="n">
-        <v>3146.4</v>
+        <v>3113.1</v>
       </c>
       <c r="CG22" t="n">
-        <v>3913.1</v>
+        <v>3896.4</v>
       </c>
       <c r="CH22" t="n">
-        <v>5095.4</v>
+        <v>5087.1</v>
       </c>
       <c r="CI22" t="n">
-        <v>4106.1</v>
+        <v>4102.8</v>
       </c>
       <c r="CJ22" t="n">
         <v>56.6</v>
@@ -7329,16 +7397,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>33.5</v>
+        <v>34.4</v>
       </c>
       <c r="DB22" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="DC22" t="n">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="DD22" t="n">
-        <v>14.9</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="23">
@@ -7382,13 +7450,13 @@
         <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>66.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>19.9</v>
+        <v>29.3</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -7448,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>486.46</v>
+        <v>587.79</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7456,10 +7524,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="AM23" t="n">
-        <v>78.40000000000001</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="n">
         <v>17.45</v>
@@ -7493,16 +7561,16 @@
         </is>
       </c>
       <c r="AW23" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr">
@@ -7525,23 +7593,23 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>15.72</v>
+        <v>16.75</v>
       </c>
       <c r="BJ23" t="n">
-        <v>37.3</v>
+        <v>38.52</v>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="n">
-        <v>5.18</v>
+        <v>6.12</v>
       </c>
       <c r="BM23" t="n">
-        <v>37.3</v>
+        <v>38.52</v>
       </c>
       <c r="BN23" t="n">
-        <v>50.01</v>
+        <v>51.35</v>
       </c>
       <c r="BO23" t="n">
-        <v>387.15</v>
+        <v>391.51</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7569,16 +7637,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="BZ23" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="CA23" t="n">
-        <v>86.09999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="CB23" t="n">
-        <v>658.3</v>
+        <v>665</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7587,19 +7655,19 @@
       </c>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="n">
-        <v>5.18</v>
+        <v>6.12</v>
       </c>
       <c r="CF23" t="n">
-        <v>22998.6</v>
+        <v>22979.3</v>
       </c>
       <c r="CG23" t="n">
-        <v>27253.1</v>
+        <v>27243.5</v>
       </c>
       <c r="CH23" t="n">
-        <v>25609.2</v>
+        <v>25604.4</v>
       </c>
       <c r="CI23" t="n">
-        <v>20581.7</v>
+        <v>20579.8</v>
       </c>
       <c r="CJ23" t="n">
         <v>21.6</v>
@@ -7647,16 +7715,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>45.3</v>
+        <v>46.5</v>
       </c>
       <c r="DB23" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="DC23" t="n">
-        <v>31.1</v>
+        <v>32.3</v>
       </c>
       <c r="DD23" t="n">
-        <v>42.8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -7700,13 +7768,13 @@
         <v>0.8</v>
       </c>
       <c r="L24" t="n">
-        <v>29.7</v>
+        <v>26.1</v>
       </c>
       <c r="M24" t="n">
-        <v>76.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>62</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
         <v>10.7</v>
@@ -7723,7 +7791,11 @@
       <c r="S24" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -7772,14 +7844,18 @@
         <v>69</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AK24" t="inlineStr"/>
+        <v>0.48</v>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Mua &lt; Bán</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
-        <v>35.2</v>
+        <v>35.9</v>
       </c>
       <c r="AM24" t="n">
-        <v>48.8</v>
+        <v>55.5</v>
       </c>
       <c r="AN24" t="n">
         <v>0.09</v>
@@ -7790,7 +7866,7 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="AR24" t="n">
@@ -7809,18 +7885,22 @@
         </is>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BA24" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(10)</t>
+        </is>
+      </c>
       <c r="BB24" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
@@ -7837,23 +7917,23 @@
         </is>
       </c>
       <c r="BI24" t="n">
-        <v>-0.84</v>
+        <v>1.13</v>
       </c>
       <c r="BJ24" t="n">
-        <v>-1.83</v>
+        <v>0.12</v>
       </c>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="n">
-        <v>0.44</v>
+        <v>2.43</v>
       </c>
       <c r="BM24" t="n">
-        <v>-1.83</v>
+        <v>0.12</v>
       </c>
       <c r="BN24" t="n">
-        <v>13.81</v>
+        <v>16.07</v>
       </c>
       <c r="BO24" t="n">
-        <v>584.76</v>
+        <v>598.38</v>
       </c>
       <c r="BP24" t="inlineStr">
         <is>
@@ -7885,16 +7965,16 @@
         <v>40.5</v>
       </c>
       <c r="BY24" t="n">
-        <v>-7.4</v>
+        <v>-5.5</v>
       </c>
       <c r="BZ24" t="n">
-        <v>-7</v>
+        <v>-5.1</v>
       </c>
       <c r="CA24" t="n">
-        <v>19.3</v>
+        <v>21.7</v>
       </c>
       <c r="CB24" t="n">
-        <v>11777</v>
+        <v>12013.2</v>
       </c>
       <c r="CC24" t="inlineStr">
         <is>
@@ -7903,7 +7983,7 @@
       </c>
       <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="n">
-        <v>0.44</v>
+        <v>2.43</v>
       </c>
       <c r="CF24" t="n">
         <v>5.9</v>
@@ -7961,16 +8041,16 @@
         <v>7073</v>
       </c>
       <c r="DA24" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="DB24" t="n">
-        <v>-1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="DC24" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="DD24" t="n">
-        <v>5.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25">
@@ -8017,7 +8097,7 @@
         <v>68.8</v>
       </c>
       <c r="M25" t="n">
-        <v>58.5</v>
+        <v>59</v>
       </c>
       <c r="N25" t="n">
         <v>4.8</v>
@@ -8332,13 +8412,13 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>27.6</v>
+        <v>32.3</v>
       </c>
       <c r="M26" t="n">
-        <v>65.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="O26" t="n">
         <v>0.3</v>
@@ -8408,18 +8488,18 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>62.87</v>
+        <v>78.03</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>Mua &lt; Bán</t>
+          <t>Mua &gt; Bán</t>
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>15.05</v>
+        <v>15.15</v>
       </c>
       <c r="AM26" t="n">
-        <v>63.9</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AN26" t="n">
         <v>11.29</v>
@@ -8481,23 +8561,23 @@
         </is>
       </c>
       <c r="BI26" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="BJ26" t="n">
-        <v>16.67</v>
+        <v>17.44</v>
       </c>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="n">
-        <v>-2.27</v>
+        <v>-1.62</v>
       </c>
       <c r="BM26" t="n">
-        <v>16.67</v>
+        <v>17.44</v>
       </c>
       <c r="BN26" t="n">
-        <v>31.14</v>
+        <v>32.01</v>
       </c>
       <c r="BO26" t="n">
-        <v>23.11</v>
+        <v>23.93</v>
       </c>
       <c r="BP26" t="inlineStr">
         <is>
@@ -8529,16 +8609,16 @@
         <v>52.3</v>
       </c>
       <c r="BY26" t="n">
-        <v>-10.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-29.4</v>
+        <v>-28.9</v>
       </c>
       <c r="CA26" t="n">
-        <v>62.6</v>
+        <v>63.7</v>
       </c>
       <c r="CB26" t="n">
-        <v>565.1</v>
+        <v>569.5</v>
       </c>
       <c r="CC26" t="inlineStr">
         <is>
@@ -8547,19 +8627,19 @@
       </c>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="n">
-        <v>-2.27</v>
+        <v>-1.62</v>
       </c>
       <c r="CF26" t="n">
-        <v>21666.4</v>
+        <v>21550.8</v>
       </c>
       <c r="CG26" t="n">
-        <v>22185.2</v>
+        <v>22127.4</v>
       </c>
       <c r="CH26" t="n">
-        <v>20925.2</v>
+        <v>20896.3</v>
       </c>
       <c r="CI26" t="n">
-        <v>14996.2</v>
+        <v>14984.7</v>
       </c>
       <c r="CJ26" t="n">
         <v>26.4</v>
@@ -8605,16 +8685,16 @@
         <v>1001</v>
       </c>
       <c r="DA26" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="DB26" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="DC26" t="n">
-        <v>16.8</v>
+        <v>17.6</v>
       </c>
       <c r="DD26" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="27">
@@ -8892,13 +8972,13 @@
         <v>0.8</v>
       </c>
       <c r="L28" t="n">
-        <v>100</v>
+        <v>92.3</v>
       </c>
       <c r="M28" t="n">
-        <v>29.9</v>
+        <v>51.7</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
         <v>0.1</v>
@@ -8968,10 +9048,10 @@
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="AM28" t="n">
-        <v>53.2</v>
+        <v>50</v>
       </c>
       <c r="AN28" t="n">
         <v>0.02</v>
@@ -8986,7 +9066,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR28" t="n">
@@ -9033,23 +9113,23 @@
         </is>
       </c>
       <c r="BI28" t="n">
-        <v>-1.86</v>
+        <v>-2.89</v>
       </c>
       <c r="BJ28" t="n">
-        <v>3.26</v>
+        <v>2.17</v>
       </c>
       <c r="BK28" t="inlineStr"/>
       <c r="BL28" t="n">
-        <v>0.21</v>
+        <v>-0.84</v>
       </c>
       <c r="BM28" t="n">
-        <v>3.26</v>
+        <v>2.17</v>
       </c>
       <c r="BN28" t="n">
-        <v>17.38</v>
+        <v>16.14</v>
       </c>
       <c r="BO28" t="n">
-        <v>529.41</v>
+        <v>522.78</v>
       </c>
       <c r="BP28" t="inlineStr">
         <is>
@@ -9081,16 +9161,16 @@
         <v>24.5</v>
       </c>
       <c r="BY28" t="n">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="BZ28" t="n">
-        <v>-8.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="CA28" t="n">
-        <v>34.4</v>
+        <v>33</v>
       </c>
       <c r="CB28" t="n">
-        <v>741</v>
+        <v>732.2</v>
       </c>
       <c r="CC28" t="inlineStr">
         <is>
@@ -9099,7 +9179,7 @@
       </c>
       <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="n">
-        <v>0.21</v>
+        <v>-0.84</v>
       </c>
       <c r="CF28" t="n">
         <v>34.1</v>
@@ -9159,16 +9239,16 @@
         <v>9749</v>
       </c>
       <c r="DA28" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="DB28" t="n">
-        <v>-0.7</v>
+        <v>-1.7</v>
       </c>
       <c r="DC28" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="DD28" t="n">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="29">
@@ -9212,13 +9292,13 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>38.9</v>
+        <v>37.6</v>
       </c>
       <c r="M29" t="n">
-        <v>17.2</v>
+        <v>14.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -9288,7 +9368,7 @@
         <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -9296,10 +9376,10 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>23.05</v>
       </c>
       <c r="AM29" t="n">
-        <v>57.9</v>
+        <v>58.3</v>
       </c>
       <c r="AN29" t="n">
         <v>6.64</v>
@@ -9361,23 +9441,23 @@
         </is>
       </c>
       <c r="BI29" t="n">
-        <v>-2.54</v>
+        <v>-2.33</v>
       </c>
       <c r="BJ29" t="n">
-        <v>6.73</v>
+        <v>6.96</v>
       </c>
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="BM29" t="n">
-        <v>6.73</v>
+        <v>6.96</v>
       </c>
       <c r="BN29" t="n">
-        <v>59.2</v>
+        <v>59.55</v>
       </c>
       <c r="BO29" t="n">
-        <v>225.92</v>
+        <v>226.63</v>
       </c>
       <c r="BP29" t="inlineStr">
         <is>
@@ -9409,16 +9489,16 @@
         <v>299.6</v>
       </c>
       <c r="BY29" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="BZ29" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="CA29" t="n">
-        <v>60.2</v>
+        <v>60.6</v>
       </c>
       <c r="CB29" t="n">
-        <v>1710</v>
+        <v>1713.9</v>
       </c>
       <c r="CC29" t="inlineStr">
         <is>
@@ -9427,7 +9507,7 @@
       </c>
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="n">
-        <v>1.77</v>
+        <v>1.99</v>
       </c>
       <c r="CF29" t="n">
         <v>101</v>
@@ -9485,16 +9565,16 @@
         <v>5146</v>
       </c>
       <c r="DA29" t="n">
-        <v>33.9</v>
+        <v>34.2</v>
       </c>
       <c r="DB29" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="DC29" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="DD29" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="30">
@@ -9862,13 +9942,13 @@
         <v>0.9</v>
       </c>
       <c r="L31" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="M31" t="n">
-        <v>43.8</v>
+        <v>40.6</v>
       </c>
       <c r="N31" t="n">
-        <v>15.7</v>
+        <v>0.8</v>
       </c>
       <c r="O31" t="n">
         <v>0.4</v>
@@ -9885,7 +9965,11 @@
       <c r="S31" t="n">
         <v>3.5</v>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -9934,14 +10018,14 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="n">
-        <v>31.9</v>
+        <v>32.6</v>
       </c>
       <c r="AM31" t="n">
-        <v>29.8</v>
+        <v>38.8</v>
       </c>
       <c r="AN31" t="n">
         <v>1.09</v>
@@ -9952,7 +10036,7 @@
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>Bán mạnh</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AR31" t="n">
@@ -9995,27 +10079,27 @@
       <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Thoát vùng quá bán</t>
         </is>
       </c>
       <c r="BI31" t="n">
-        <v>-5.34</v>
+        <v>-3.26</v>
       </c>
       <c r="BJ31" t="n">
-        <v>-11.39</v>
+        <v>-9.44</v>
       </c>
       <c r="BK31" t="inlineStr"/>
       <c r="BL31" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BM31" t="n">
-        <v>-11.39</v>
+        <v>-9.44</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.54</v>
+        <v>2.75</v>
       </c>
       <c r="BO31" t="n">
-        <v>240.96</v>
+        <v>248.44</v>
       </c>
       <c r="BP31" t="inlineStr">
         <is>
@@ -10047,16 +10131,16 @@
         <v>55.1</v>
       </c>
       <c r="BY31" t="n">
-        <v>-33.1</v>
+        <v>-31.7</v>
       </c>
       <c r="BZ31" t="n">
-        <v>-29.5</v>
+        <v>-27.9</v>
       </c>
       <c r="CA31" t="n">
-        <v>16.3</v>
+        <v>18.9</v>
       </c>
       <c r="CB31" t="n">
-        <v>4135.6</v>
+        <v>4228.5</v>
       </c>
       <c r="CC31" t="inlineStr">
         <is>
@@ -10065,7 +10149,7 @@
       </c>
       <c r="CD31" t="inlineStr"/>
       <c r="CE31" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="CF31" t="n">
         <v>28.3</v>
@@ -10125,16 +10209,16 @@
         <v>3575</v>
       </c>
       <c r="DA31" t="n">
-        <v>-12.4</v>
+        <v>-10.5</v>
       </c>
       <c r="DB31" t="n">
-        <v>-5.3</v>
+        <v>-3.3</v>
       </c>
       <c r="DC31" t="n">
-        <v>-6.6</v>
+        <v>-4.6</v>
       </c>
       <c r="DD31" t="n">
-        <v>-3</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="32">
@@ -10179,7 +10263,7 @@
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N32" t="n">
         <v>57.2</v>
@@ -10724,13 +10808,13 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>66.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="M34" t="n">
-        <v>63.3</v>
+        <v>56.3</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O34" t="n">
         <v>4.8</v>
@@ -10790,7 +10874,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>18.18</v>
+        <v>19.69</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10798,10 +10882,10 @@
         </is>
       </c>
       <c r="AL34" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="AM34" t="n">
-        <v>74.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="AN34" t="n">
         <v>1.35</v>
@@ -10831,16 +10915,16 @@
         </is>
       </c>
       <c r="AW34" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AX34" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AY34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>1.1</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>1</v>
       </c>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr">
@@ -10863,23 +10947,23 @@
         </is>
       </c>
       <c r="BI34" t="n">
-        <v>10.39</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="BJ34" t="n">
-        <v>20.57</v>
+        <v>20.09</v>
       </c>
       <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="n">
-        <v>7.66</v>
+        <v>7.23</v>
       </c>
       <c r="BM34" t="n">
-        <v>20.57</v>
+        <v>20.09</v>
       </c>
       <c r="BN34" t="n">
-        <v>108.23</v>
+        <v>107.4</v>
       </c>
       <c r="BO34" t="n">
-        <v>191.4</v>
+        <v>190.24</v>
       </c>
       <c r="BP34" t="inlineStr">
         <is>
@@ -10907,16 +10991,16 @@
         <v>66.8</v>
       </c>
       <c r="BY34" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BZ34" t="n">
-        <v>-37.5</v>
+        <v>-37.7</v>
       </c>
       <c r="CA34" t="n">
-        <v>164.2</v>
+        <v>163.2</v>
       </c>
       <c r="CB34" t="n">
-        <v>271.8</v>
+        <v>270.3</v>
       </c>
       <c r="CC34" t="inlineStr">
         <is>
@@ -10925,19 +11009,19 @@
       </c>
       <c r="CD34" t="inlineStr"/>
       <c r="CE34" t="n">
-        <v>7.66</v>
+        <v>7.23</v>
       </c>
       <c r="CF34" t="n">
-        <v>555.1</v>
+        <v>554.1</v>
       </c>
       <c r="CG34" t="n">
-        <v>571.5</v>
+        <v>571</v>
       </c>
       <c r="CH34" t="n">
-        <v>650.2</v>
+        <v>650</v>
       </c>
       <c r="CI34" t="n">
-        <v>710.9</v>
+        <v>710.8</v>
       </c>
       <c r="CJ34" t="n">
         <v>10.9</v>
@@ -10985,16 +11069,16 @@
         <v>3275</v>
       </c>
       <c r="DA34" t="n">
-        <v>74.7</v>
+        <v>74</v>
       </c>
       <c r="DB34" t="n">
-        <v>9.5</v>
+        <v>9.1</v>
       </c>
       <c r="DC34" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="DD34" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
@@ -11359,7 +11443,7 @@
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>26.3</v>
+        <v>19.6</v>
       </c>
       <c r="N36" t="n">
         <v>9935.5</v>
@@ -11670,13 +11754,13 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>45.9</v>
+        <v>39.9</v>
       </c>
       <c r="M37" t="n">
-        <v>47.2</v>
+        <v>13.1</v>
       </c>
       <c r="N37" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0.8</v>
@@ -11742,7 +11826,7 @@
         <v>53</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3.83</v>
+        <v>4.57</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -11750,10 +11834,10 @@
         </is>
       </c>
       <c r="AL37" t="n">
-        <v>35.5</v>
+        <v>35.35</v>
       </c>
       <c r="AM37" t="n">
-        <v>37.1</v>
+        <v>36.4</v>
       </c>
       <c r="AN37" t="n">
         <v>5.13</v>
@@ -11787,13 +11871,13 @@
         </is>
       </c>
       <c r="AW37" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX37" t="n">
         <v>0.2</v>
       </c>
       <c r="AY37" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ37" t="n">
         <v>0.2</v>
@@ -11815,23 +11899,23 @@
         </is>
       </c>
       <c r="BI37" t="n">
-        <v>-6.7</v>
+        <v>-7.1</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-6.58</v>
+        <v>-6.97</v>
       </c>
       <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="BM37" t="n">
-        <v>-6.58</v>
+        <v>-6.97</v>
       </c>
       <c r="BN37" t="n">
-        <v>16.09</v>
+        <v>15.6</v>
       </c>
       <c r="BO37" t="n">
-        <v>267.7</v>
+        <v>266.14</v>
       </c>
       <c r="BP37" t="inlineStr">
         <is>
@@ -11863,16 +11947,16 @@
         <v>61.4</v>
       </c>
       <c r="BY37" t="n">
-        <v>-15.2</v>
+        <v>-15.6</v>
       </c>
       <c r="BZ37" t="n">
-        <v>-13.7</v>
+        <v>-14.1</v>
       </c>
       <c r="CA37" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="CB37" t="n">
-        <v>365.5</v>
+        <v>363.6</v>
       </c>
       <c r="CC37" t="inlineStr">
         <is>
@@ -11881,19 +11965,19 @@
       </c>
       <c r="CD37" t="inlineStr"/>
       <c r="CE37" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="CF37" t="n">
-        <v>497.8</v>
+        <v>497.2</v>
       </c>
       <c r="CG37" t="n">
-        <v>695</v>
+        <v>694.7</v>
       </c>
       <c r="CH37" t="n">
-        <v>724.4</v>
+        <v>724.2</v>
       </c>
       <c r="CI37" t="n">
-        <v>541.6</v>
+        <v>541.5</v>
       </c>
       <c r="CJ37" t="n">
         <v>12.3</v>
@@ -11945,16 +12029,16 @@
         <v>4865</v>
       </c>
       <c r="DA37" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="DB37" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="DC37" t="n">
-        <v>-5.2</v>
+        <v>-5.6</v>
       </c>
       <c r="DD37" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -11997,11 +12081,15 @@
       <c r="K38" t="n">
         <v>0.8</v>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>81.8</v>
+      </c>
       <c r="M38" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>18.9</v>
+      </c>
+      <c r="N38" t="n">
+        <v>21.1</v>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
         <v>7.1</v>
@@ -12016,7 +12104,11 @@
         <v>5.5</v>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(20)</t>
+        </is>
+      </c>
       <c r="V38" t="n">
         <v>7.88</v>
       </c>
@@ -12059,10 +12151,16 @@
       <c r="AI38" t="n">
         <v>14</v>
       </c>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="AJ38" t="n">
+        <v>0.02</v>
+      </c>
       <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="AL38" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41.6</v>
+      </c>
       <c r="AN38" t="n">
         <v>0.07000000000000001</v>
       </c>
@@ -12070,7 +12168,11 @@
         <v>32</v>
       </c>
       <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>Bán mạnh</t>
+        </is>
+      </c>
       <c r="AR38" t="n">
         <v>6</v>
       </c>
@@ -12081,26 +12183,58 @@
       <c r="AU38" t="n">
         <v>2546</v>
       </c>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0.1</v>
+      </c>
       <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(50)</t>
+        </is>
+      </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
       <c r="BE38" t="inlineStr"/>
       <c r="BF38" t="inlineStr"/>
       <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="inlineStr"/>
-      <c r="BI38" t="inlineStr"/>
-      <c r="BJ38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI38" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="BK38" t="inlineStr"/>
-      <c r="BL38" t="inlineStr"/>
-      <c r="BM38" t="inlineStr"/>
-      <c r="BN38" t="inlineStr"/>
-      <c r="BO38" t="inlineStr"/>
+      <c r="BL38" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>-13.09</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>197.73</v>
+      </c>
       <c r="BP38" t="inlineStr">
         <is>
           <t>Có</t>
@@ -12130,17 +12264,39 @@
       <c r="BX38" t="n">
         <v>38.9</v>
       </c>
-      <c r="BY38" t="inlineStr"/>
-      <c r="BZ38" t="inlineStr"/>
-      <c r="CA38" t="inlineStr"/>
-      <c r="CB38" t="inlineStr"/>
-      <c r="CC38" t="inlineStr"/>
+      <c r="BY38" t="n">
+        <v>-39.7</v>
+      </c>
+      <c r="BZ38" t="n">
+        <v>-34.7</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="CB38" t="n">
+        <v>1383.6</v>
+      </c>
+      <c r="CC38" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(100)</t>
+        </is>
+      </c>
       <c r="CD38" t="inlineStr"/>
-      <c r="CE38" t="inlineStr"/>
-      <c r="CF38" t="inlineStr"/>
-      <c r="CG38" t="inlineStr"/>
-      <c r="CH38" t="inlineStr"/>
-      <c r="CI38" t="inlineStr"/>
+      <c r="CE38" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="CG38" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>10.4</v>
+      </c>
       <c r="CJ38" t="n">
         <v>98.2</v>
       </c>
@@ -12186,10 +12342,18 @@
       <c r="CZ38" t="n">
         <v>2546</v>
       </c>
-      <c r="DA38" t="inlineStr"/>
-      <c r="DB38" t="inlineStr"/>
-      <c r="DC38" t="inlineStr"/>
-      <c r="DD38" t="inlineStr"/>
+      <c r="DA38" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="DB38" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="DC38" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="DD38" t="n">
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12232,13 +12396,13 @@
         <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
         <v>0.9</v>
@@ -12304,7 +12468,7 @@
         <v>88</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="n">
@@ -12350,7 +12514,7 @@
         <v>0.1</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr">
@@ -12546,13 +12710,13 @@
         <v>0.8</v>
       </c>
       <c r="L40" t="n">
-        <v>53.3</v>
+        <v>54</v>
       </c>
       <c r="M40" t="n">
-        <v>25.7</v>
+        <v>36.2</v>
       </c>
       <c r="N40" t="n">
-        <v>4.6</v>
+        <v>0.3</v>
       </c>
       <c r="O40" t="n">
         <v>3.4</v>
@@ -12612,7 +12776,7 @@
         <v>59</v>
       </c>
       <c r="AJ40" t="n">
-        <v>57.74</v>
+        <v>59.94</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -12653,16 +12817,16 @@
         </is>
       </c>
       <c r="AW40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY40" t="n">
         <v>1.7</v>
       </c>
-      <c r="AX40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AZ40" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr">
@@ -12748,16 +12912,16 @@
         <v>3.14</v>
       </c>
       <c r="CF40" t="n">
-        <v>2084.2</v>
+        <v>2073.4</v>
       </c>
       <c r="CG40" t="n">
-        <v>2380</v>
+        <v>2374.7</v>
       </c>
       <c r="CH40" t="n">
-        <v>2231.6</v>
+        <v>2228.9</v>
       </c>
       <c r="CI40" t="n">
-        <v>2031.9</v>
+        <v>2030.8</v>
       </c>
       <c r="CJ40" t="n">
         <v>30</v>
@@ -13636,13 +13800,13 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>52.4</v>
+        <v>48.8</v>
       </c>
       <c r="M44" t="n">
-        <v>52.5</v>
+        <v>51.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O44" t="n">
         <v>0.1</v>
@@ -13708,7 +13872,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -13716,10 +13880,10 @@
         </is>
       </c>
       <c r="AL44" t="n">
-        <v>61.2</v>
+        <v>61</v>
       </c>
       <c r="AM44" t="n">
-        <v>33</v>
+        <v>31.7</v>
       </c>
       <c r="AN44" t="n">
         <v>18.12</v>
@@ -13781,23 +13945,23 @@
         </is>
       </c>
       <c r="BI44" t="n">
-        <v>-5.99</v>
+        <v>-6.3</v>
       </c>
       <c r="BJ44" t="n">
-        <v>-11.18</v>
+        <v>-11.47</v>
       </c>
       <c r="BK44" t="inlineStr"/>
       <c r="BL44" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="BM44" t="n">
-        <v>-11.18</v>
+        <v>-11.47</v>
       </c>
       <c r="BN44" t="n">
-        <v>9.33</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="BO44" t="n">
-        <v>293.09</v>
+        <v>291.81</v>
       </c>
       <c r="BP44" t="inlineStr">
         <is>
@@ -13829,16 +13993,16 @@
         <v>94.40000000000001</v>
       </c>
       <c r="BY44" t="n">
-        <v>-14.8</v>
+        <v>-15</v>
       </c>
       <c r="BZ44" t="n">
-        <v>-12.6</v>
+        <v>-12.9</v>
       </c>
       <c r="CA44" t="n">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="CB44" t="n">
-        <v>3985.8</v>
+        <v>3972.4</v>
       </c>
       <c r="CC44" t="inlineStr">
         <is>
@@ -13847,7 +14011,7 @@
       </c>
       <c r="CD44" t="inlineStr"/>
       <c r="CE44" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="CF44" t="n">
         <v>419.6</v>
@@ -13907,16 +14071,16 @@
         <v>5384</v>
       </c>
       <c r="DA44" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="DB44" t="n">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
       <c r="DC44" t="n">
-        <v>-6.6</v>
+        <v>-6.9</v>
       </c>
       <c r="DD44" t="n">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -13963,7 +14127,7 @@
         <v>100</v>
       </c>
       <c r="M45" t="n">
-        <v>18.2</v>
+        <v>10.5</v>
       </c>
       <c r="N45" t="n">
         <v>15.3</v>
@@ -14278,13 +14442,13 @@
         <v>0.1</v>
       </c>
       <c r="L46" t="n">
-        <v>19.1</v>
+        <v>22.7</v>
       </c>
       <c r="M46" t="n">
-        <v>39.4</v>
+        <v>39.8</v>
       </c>
       <c r="N46" t="n">
-        <v>46.1</v>
+        <v>2.7</v>
       </c>
       <c r="O46" t="n">
         <v>1.4</v>
@@ -14354,10 +14518,10 @@
       </c>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AM46" t="n">
-        <v>24.6</v>
+        <v>25.5</v>
       </c>
       <c r="AN46" t="n">
         <v>0.01</v>
@@ -14389,7 +14553,7 @@
         </is>
       </c>
       <c r="AW46" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX46" t="n">
         <v>0.2</v>
@@ -14417,10 +14581,10 @@
         </is>
       </c>
       <c r="BI46" t="n">
-        <v>-5.49</v>
+        <v>-4.95</v>
       </c>
       <c r="BJ46" t="n">
-        <v>-13.13</v>
+        <v>-12.63</v>
       </c>
       <c r="BK46" t="inlineStr">
         <is>
@@ -14428,16 +14592,16 @@
         </is>
       </c>
       <c r="BL46" t="n">
-        <v>-3.37</v>
+        <v>-2.81</v>
       </c>
       <c r="BM46" t="n">
-        <v>-13.13</v>
+        <v>-12.63</v>
       </c>
       <c r="BN46" t="n">
-        <v>-33.48</v>
+        <v>-33.09</v>
       </c>
       <c r="BO46" t="n">
-        <v>139.77</v>
+        <v>141.16</v>
       </c>
       <c r="BP46" t="inlineStr">
         <is>
@@ -14469,16 +14633,16 @@
         <v>53.4</v>
       </c>
       <c r="BY46" t="n">
-        <v>-33.5</v>
+        <v>-33.1</v>
       </c>
       <c r="BZ46" t="n">
-        <v>-34.9</v>
+        <v>-34.5</v>
       </c>
       <c r="CA46" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="CB46" t="n">
-        <v>285.4</v>
+        <v>287.6</v>
       </c>
       <c r="CC46" t="inlineStr">
         <is>
@@ -14487,7 +14651,7 @@
       </c>
       <c r="CD46" t="inlineStr"/>
       <c r="CE46" t="n">
-        <v>-3.37</v>
+        <v>-2.81</v>
       </c>
       <c r="CF46" t="n">
         <v>8.6</v>
@@ -14545,16 +14709,16 @@
         <v>1465</v>
       </c>
       <c r="DA46" t="n">
-        <v>-12.3</v>
+        <v>-11.8</v>
       </c>
       <c r="DB46" t="n">
-        <v>-5.9</v>
+        <v>-5.4</v>
       </c>
       <c r="DC46" t="n">
-        <v>-9.4</v>
+        <v>-8.9</v>
       </c>
       <c r="DD46" t="n">
-        <v>-16.4</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="47">
@@ -14923,7 +15087,7 @@
         <v>76.8</v>
       </c>
       <c r="M48" t="n">
-        <v>42.9</v>
+        <v>44.7</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -15244,13 +15408,13 @@
         <v>1.2</v>
       </c>
       <c r="L49" t="n">
-        <v>53.6</v>
+        <v>52.3</v>
       </c>
       <c r="M49" t="n">
-        <v>41.4</v>
+        <v>40.9</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="O49" t="n">
         <v>0.6</v>
@@ -15316,7 +15480,7 @@
         <v>16</v>
       </c>
       <c r="AJ49" t="n">
-        <v>58.04</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -15324,10 +15488,10 @@
         </is>
       </c>
       <c r="AL49" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="AM49" t="n">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="AN49" t="n">
         <v>11.3</v>
@@ -15389,23 +15553,23 @@
         </is>
       </c>
       <c r="BI49" t="n">
-        <v>-4.36</v>
+        <v>-4.09</v>
       </c>
       <c r="BJ49" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="BK49" t="inlineStr"/>
       <c r="BL49" t="n">
-        <v>-0.57</v>
+        <v>-0.28</v>
       </c>
       <c r="BM49" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="BN49" t="n">
-        <v>-11.25</v>
+        <v>-11</v>
       </c>
       <c r="BO49" t="n">
-        <v>247.77</v>
+        <v>248.76</v>
       </c>
       <c r="BP49" t="inlineStr">
         <is>
@@ -15437,16 +15601,16 @@
         <v>10.3</v>
       </c>
       <c r="BY49" t="n">
-        <v>-16.2</v>
+        <v>-16</v>
       </c>
       <c r="BZ49" t="n">
-        <v>-21.9</v>
+        <v>-21.7</v>
       </c>
       <c r="CA49" t="n">
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="CB49" t="n">
-        <v>812</v>
+        <v>814.6</v>
       </c>
       <c r="CC49" t="inlineStr">
         <is>
@@ -15455,19 +15619,19 @@
       </c>
       <c r="CD49" t="inlineStr"/>
       <c r="CE49" t="n">
-        <v>-0.57</v>
+        <v>-0.28</v>
       </c>
       <c r="CF49" t="n">
-        <v>7947.1</v>
+        <v>7953.9</v>
       </c>
       <c r="CG49" t="n">
-        <v>10733.9</v>
+        <v>10737.2</v>
       </c>
       <c r="CH49" t="n">
-        <v>9978.5</v>
+        <v>9980.200000000001</v>
       </c>
       <c r="CI49" t="n">
-        <v>8815.700000000001</v>
+        <v>8816.4</v>
       </c>
       <c r="CJ49" t="n">
         <v>78.59999999999999</v>
@@ -15515,16 +15679,16 @@
         <v>2649</v>
       </c>
       <c r="DA49" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="DB49" t="n">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="DC49" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="DD49" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="50">
@@ -15568,13 +15732,13 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>61.9</v>
+        <v>61.2</v>
       </c>
       <c r="M50" t="n">
-        <v>96.3</v>
+        <v>95.2</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="O50" t="n">
         <v>1</v>
@@ -15640,7 +15804,7 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18.16</v>
+        <v>18.93</v>
       </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="n">
@@ -15780,13 +15944,13 @@
         <v>0.31</v>
       </c>
       <c r="CF50" t="n">
-        <v>970</v>
+        <v>970.2</v>
       </c>
       <c r="CG50" t="n">
-        <v>1172.3</v>
+        <v>1172.4</v>
       </c>
       <c r="CH50" t="n">
-        <v>1164.9</v>
+        <v>1165</v>
       </c>
       <c r="CI50" t="n">
         <v>1057.6</v>
@@ -15890,13 +16054,13 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>65</v>
+        <v>64.3</v>
       </c>
       <c r="M51" t="n">
-        <v>11.7</v>
+        <v>45.8</v>
       </c>
       <c r="N51" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="O51" t="n">
         <v>0.4</v>
@@ -15960,7 +16124,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>422.45</v>
+        <v>461.69</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -15968,10 +16132,10 @@
         </is>
       </c>
       <c r="AL51" t="n">
-        <v>18.8</v>
+        <v>18.75</v>
       </c>
       <c r="AM51" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="n">
         <v>5.09</v>
@@ -16033,23 +16197,23 @@
         </is>
       </c>
       <c r="BI51" t="n">
-        <v>9.779999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="BJ51" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="n">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="BM51" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="BN51" t="n">
-        <v>129.79</v>
+        <v>129.18</v>
       </c>
       <c r="BO51" t="n">
-        <v>251.92</v>
+        <v>250.98</v>
       </c>
       <c r="BP51" t="inlineStr">
         <is>
@@ -16077,16 +16241,16 @@
         <v>8.9</v>
       </c>
       <c r="BY51" t="n">
-        <v>-3.3</v>
+        <v>-3.6</v>
       </c>
       <c r="BZ51" t="n">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="CA51" t="n">
-        <v>143.5</v>
+        <v>142.9</v>
       </c>
       <c r="CB51" t="n">
-        <v>1635.9</v>
+        <v>1631.3</v>
       </c>
       <c r="CC51" t="inlineStr">
         <is>
@@ -16095,19 +16259,19 @@
       </c>
       <c r="CD51" t="inlineStr"/>
       <c r="CE51" t="n">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="CF51" t="n">
-        <v>104377.5</v>
+        <v>104274.2</v>
       </c>
       <c r="CG51" t="n">
-        <v>103109.2</v>
+        <v>103057.5</v>
       </c>
       <c r="CH51" t="n">
-        <v>113876.4</v>
+        <v>113850.5</v>
       </c>
       <c r="CI51" t="n">
-        <v>85730.7</v>
+        <v>85720.39999999999</v>
       </c>
       <c r="CJ51" t="n">
         <v>15.5</v>
@@ -16155,16 +16319,16 @@
         <v>2379</v>
       </c>
       <c r="DA51" t="n">
-        <v>81.3</v>
+        <v>80.8</v>
       </c>
       <c r="DB51" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="DC51" t="n">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="DD51" t="n">
-        <v>51.1</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="52">
@@ -16982,13 +17146,13 @@
         <v>0.7</v>
       </c>
       <c r="L55" t="n">
-        <v>43.9</v>
+        <v>38.6</v>
       </c>
       <c r="M55" t="n">
-        <v>90.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N55" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O55" t="n">
         <v>1.9</v>
@@ -17054,7 +17218,7 @@
         <v>43</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="AK55" t="inlineStr">
         <is>
@@ -17062,10 +17226,10 @@
         </is>
       </c>
       <c r="AL55" t="n">
-        <v>35.35</v>
+        <v>35.3</v>
       </c>
       <c r="AM55" t="n">
-        <v>54.1</v>
+        <v>53.4</v>
       </c>
       <c r="AN55" t="n">
         <v>6.11</v>
@@ -17101,10 +17265,10 @@
         <v>0.3</v>
       </c>
       <c r="AY55" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA55" t="inlineStr"/>
       <c r="BB55" t="inlineStr">
@@ -17123,23 +17287,23 @@
         </is>
       </c>
       <c r="BI55" t="n">
-        <v>-3.68</v>
+        <v>-3.81</v>
       </c>
       <c r="BJ55" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BK55" t="inlineStr"/>
       <c r="BL55" t="n">
-        <v>-0.14</v>
+        <v>-0.28</v>
       </c>
       <c r="BM55" t="n">
-        <v>2.17</v>
+        <v>2.02</v>
       </c>
       <c r="BN55" t="n">
-        <v>7.69</v>
+        <v>7.54</v>
       </c>
       <c r="BO55" t="n">
-        <v>122.01</v>
+        <v>121.69</v>
       </c>
       <c r="BP55" t="inlineStr">
         <is>
@@ -17171,16 +17335,16 @@
         <v>32.3</v>
       </c>
       <c r="BY55" t="n">
+        <v>-16</v>
+      </c>
+      <c r="BZ55" t="n">
         <v>-15.9</v>
       </c>
-      <c r="BZ55" t="n">
-        <v>-15.8</v>
-      </c>
       <c r="CA55" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="CB55" t="n">
-        <v>1144.3</v>
+        <v>1142.5</v>
       </c>
       <c r="CC55" t="inlineStr">
         <is>
@@ -17189,7 +17353,7 @@
       </c>
       <c r="CD55" t="inlineStr"/>
       <c r="CE55" t="n">
-        <v>-0.14</v>
+        <v>-0.28</v>
       </c>
       <c r="CF55" t="n">
         <v>42.7</v>
@@ -17249,16 +17413,16 @@
         <v>5003</v>
       </c>
       <c r="DA55" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="DB55" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="DC55" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="DD55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="56">
@@ -17845,7 +18009,7 @@
         <v>51.2</v>
       </c>
       <c r="M58" t="n">
-        <v>26.3</v>
+        <v>37.3</v>
       </c>
       <c r="N58" t="n">
         <v>0.9</v>
@@ -18158,13 +18322,13 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>42.1</v>
+        <v>39.4</v>
       </c>
       <c r="M59" t="n">
-        <v>39.8</v>
+        <v>38.2</v>
       </c>
       <c r="N59" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="O59" t="n">
         <v>1.3</v>
@@ -18230,7 +18394,7 @@
         <v>5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -18238,10 +18402,10 @@
         </is>
       </c>
       <c r="AL59" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AM59" t="n">
-        <v>40.5</v>
+        <v>39.8</v>
       </c>
       <c r="AN59" t="n">
         <v>16.68</v>
@@ -18275,7 +18439,7 @@
         </is>
       </c>
       <c r="AW59" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX59" t="n">
         <v>0.2</v>
@@ -18303,23 +18467,23 @@
         </is>
       </c>
       <c r="BI59" t="n">
-        <v>-8.26</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="BJ59" t="n">
-        <v>-5.21</v>
+        <v>-5.69</v>
       </c>
       <c r="BK59" t="inlineStr"/>
       <c r="BL59" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="BM59" t="n">
-        <v>-5.21</v>
+        <v>-5.69</v>
       </c>
       <c r="BN59" t="n">
-        <v>-22.87</v>
+        <v>-23.25</v>
       </c>
       <c r="BO59" t="n">
-        <v>207.08</v>
+        <v>205.55</v>
       </c>
       <c r="BP59" t="inlineStr">
         <is>
@@ -18351,16 +18515,16 @@
         <v>3.4</v>
       </c>
       <c r="BY59" t="n">
-        <v>-25.5</v>
+        <v>-25.9</v>
       </c>
       <c r="BZ59" t="n">
-        <v>-27</v>
+        <v>-27.3</v>
       </c>
       <c r="CA59" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
       <c r="CB59" t="n">
-        <v>2988.7</v>
+        <v>2973.3</v>
       </c>
       <c r="CC59" t="inlineStr">
         <is>
@@ -18369,19 +18533,19 @@
       </c>
       <c r="CD59" t="inlineStr"/>
       <c r="CE59" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="CF59" t="n">
-        <v>1721.3</v>
+        <v>1730.1</v>
       </c>
       <c r="CG59" t="n">
-        <v>2370.8</v>
+        <v>2375.1</v>
       </c>
       <c r="CH59" t="n">
-        <v>2328</v>
+        <v>2330.2</v>
       </c>
       <c r="CI59" t="n">
-        <v>2192.9</v>
+        <v>2193.7</v>
       </c>
       <c r="CJ59" t="n">
         <v>25.2</v>
@@ -18429,16 +18593,16 @@
         <v>2841</v>
       </c>
       <c r="DA59" t="n">
-        <v>-4.4</v>
+        <v>-4.9</v>
       </c>
       <c r="DB59" t="n">
-        <v>-5.3</v>
+        <v>-5.8</v>
       </c>
       <c r="DC59" t="n">
-        <v>-3.4</v>
+        <v>-3.9</v>
       </c>
       <c r="DD59" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="60">
@@ -18707,10 +18871,10 @@
         <v>70.8</v>
       </c>
       <c r="M61" t="n">
-        <v>69.2</v>
+        <v>22.8</v>
       </c>
       <c r="N61" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -18776,7 +18940,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.699999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
@@ -18784,10 +18948,10 @@
         </is>
       </c>
       <c r="AL61" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="AN61" t="n">
         <v>3.05</v>
@@ -18849,23 +19013,23 @@
         </is>
       </c>
       <c r="BI61" t="n">
-        <v>8.17</v>
+        <v>7.73</v>
       </c>
       <c r="BJ61" t="n">
-        <v>6.59</v>
+        <v>6.15</v>
       </c>
       <c r="BK61" t="inlineStr"/>
       <c r="BL61" t="n">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="BM61" t="n">
-        <v>6.59</v>
+        <v>6.15</v>
       </c>
       <c r="BN61" t="n">
-        <v>100.81</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="BO61" t="n">
-        <v>165.25</v>
+        <v>164.16</v>
       </c>
       <c r="BP61" t="inlineStr">
         <is>
@@ -18897,16 +19061,16 @@
         <v>357.7</v>
       </c>
       <c r="BY61" t="n">
-        <v>-14.6</v>
+        <v>-15</v>
       </c>
       <c r="BZ61" t="n">
-        <v>-13.5</v>
+        <v>-13.9</v>
       </c>
       <c r="CA61" t="n">
-        <v>103.2</v>
+        <v>102.3</v>
       </c>
       <c r="CB61" t="n">
-        <v>974.7</v>
+        <v>970.3</v>
       </c>
       <c r="CC61" t="inlineStr">
         <is>
@@ -18919,13 +19083,13 @@
         </is>
       </c>
       <c r="CE61" t="n">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="CF61" t="n">
-        <v>261.8</v>
+        <v>261.5</v>
       </c>
       <c r="CG61" t="n">
-        <v>219.1</v>
+        <v>218.9</v>
       </c>
       <c r="CH61" t="n">
         <v>215.8</v>
@@ -18979,16 +19143,16 @@
         <v>10244</v>
       </c>
       <c r="DA61" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="DB61" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="DC61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="DD61" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="62">
@@ -19266,13 +19430,13 @@
         <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>63.9</v>
+        <v>55.1</v>
       </c>
       <c r="M63" t="n">
-        <v>56.9</v>
+        <v>59.3</v>
       </c>
       <c r="N63" t="n">
-        <v>1.3</v>
+        <v>12.8</v>
       </c>
       <c r="O63" t="n">
         <v>1.3</v>
@@ -19338,7 +19502,7 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="n">
@@ -19375,13 +19539,13 @@
         </is>
       </c>
       <c r="AW63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AY63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AZ63" t="n">
         <v>0.3</v>
@@ -19472,16 +19636,16 @@
         <v>-1.83</v>
       </c>
       <c r="CF63" t="n">
-        <v>218.5</v>
+        <v>221.1</v>
       </c>
       <c r="CG63" t="n">
-        <v>226.5</v>
+        <v>227.7</v>
       </c>
       <c r="CH63" t="n">
-        <v>249</v>
+        <v>249.6</v>
       </c>
       <c r="CI63" t="n">
-        <v>261</v>
+        <v>261.2</v>
       </c>
       <c r="CJ63" t="n">
         <v>65.8</v>
@@ -19583,7 +19747,7 @@
         <v>81.5</v>
       </c>
       <c r="M64" t="n">
-        <v>43.7</v>
+        <v>43.4</v>
       </c>
       <c r="N64" t="n">
         <v>0.8</v>
@@ -20217,10 +20381,10 @@
         <v>55.7</v>
       </c>
       <c r="M66" t="n">
-        <v>20.6</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="N66" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O66" t="n">
         <v>0.4</v>
@@ -20280,7 +20444,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>11.35</v>
+        <v>11.95</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -20288,10 +20452,10 @@
         </is>
       </c>
       <c r="AL66" t="n">
-        <v>13.65</v>
+        <v>13.6</v>
       </c>
       <c r="AM66" t="n">
-        <v>70.40000000000001</v>
+        <v>70</v>
       </c>
       <c r="AN66" t="n">
         <v>0.19</v>
@@ -20321,13 +20485,13 @@
         </is>
       </c>
       <c r="AW66" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AX66" t="n">
         <v>0.2</v>
       </c>
       <c r="AY66" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ66" t="n">
         <v>0.4</v>
@@ -20349,16 +20513,16 @@
         </is>
       </c>
       <c r="BI66" t="n">
-        <v>4.76</v>
+        <v>4.38</v>
       </c>
       <c r="BJ66" t="inlineStr"/>
       <c r="BK66" t="inlineStr"/>
       <c r="BL66" t="n">
-        <v>2.63</v>
+        <v>2.26</v>
       </c>
       <c r="BM66" t="inlineStr"/>
       <c r="BN66" t="n">
-        <v>124.64</v>
+        <v>123.82</v>
       </c>
       <c r="BO66" t="inlineStr"/>
       <c r="BP66" t="inlineStr">
@@ -20387,16 +20551,16 @@
         <v>44.5</v>
       </c>
       <c r="BY66" t="n">
-        <v>-8.4</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="BZ66" t="n">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="CA66" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="CB66" t="n">
-        <v>268.6</v>
+        <v>267.2</v>
       </c>
       <c r="CC66" t="inlineStr">
         <is>
@@ -20405,16 +20569,16 @@
       </c>
       <c r="CD66" t="inlineStr"/>
       <c r="CE66" t="n">
-        <v>2.63</v>
+        <v>2.26</v>
       </c>
       <c r="CF66" t="n">
-        <v>3380.2</v>
+        <v>3379.4</v>
       </c>
       <c r="CG66" t="n">
-        <v>3816.8</v>
+        <v>3816.4</v>
       </c>
       <c r="CH66" t="n">
-        <v>3449.1</v>
+        <v>3448.9</v>
       </c>
       <c r="CI66" t="n">
         <v>2177.6</v>
@@ -20465,16 +20629,16 @@
         <v>1211</v>
       </c>
       <c r="DA66" t="n">
-        <v>78.8</v>
+        <v>78.2</v>
       </c>
       <c r="DB66" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="DC66" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="DD66" t="n">
-        <v>50.9</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="67">
@@ -20840,13 +21004,13 @@
         <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>48</v>
+        <v>43.8</v>
       </c>
       <c r="M68" t="n">
-        <v>38.3</v>
+        <v>37.7</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O68" t="n">
         <v>0.7</v>
@@ -20912,7 +21076,7 @@
         <v>8</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3.57</v>
+        <v>4.02</v>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
@@ -21164,13 +21328,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>46.9</v>
+        <v>47.4</v>
       </c>
       <c r="M69" t="n">
-        <v>84.09999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="O69" t="n">
         <v>0.9</v>
@@ -21230,7 +21394,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="n">
-        <v>684.15</v>
+        <v>728.95</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -21238,10 +21402,10 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>37.65</v>
+        <v>37.8</v>
       </c>
       <c r="AM69" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="AN69" t="n">
         <v>25.77</v>
@@ -21275,7 +21439,7 @@
         </is>
       </c>
       <c r="AW69" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX69" t="n">
         <v>0.4</v>
@@ -21307,23 +21471,23 @@
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>30.73</v>
+        <v>31.25</v>
       </c>
       <c r="BJ69" t="n">
-        <v>76.34999999999999</v>
+        <v>77.05</v>
       </c>
       <c r="BK69" t="inlineStr"/>
       <c r="BL69" t="n">
-        <v>3.01</v>
+        <v>3.42</v>
       </c>
       <c r="BM69" t="n">
-        <v>76.34999999999999</v>
+        <v>77.05</v>
       </c>
       <c r="BN69" t="n">
-        <v>107.93</v>
+        <v>108.76</v>
       </c>
       <c r="BO69" t="n">
-        <v>440.33</v>
+        <v>442.48</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -21351,16 +21515,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BZ69" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="CA69" t="n">
-        <v>155.3</v>
+        <v>156.3</v>
       </c>
       <c r="CB69" t="n">
-        <v>580.6</v>
+        <v>583.3</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -21373,19 +21537,19 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>3.01</v>
+        <v>3.42</v>
       </c>
       <c r="CF69" t="n">
-        <v>41800.2</v>
+        <v>41780.3</v>
       </c>
       <c r="CG69" t="n">
-        <v>43616.2</v>
+        <v>43606.3</v>
       </c>
       <c r="CH69" t="n">
-        <v>50688.1</v>
+        <v>50683.1</v>
       </c>
       <c r="CI69" t="n">
-        <v>43338</v>
+        <v>43336.1</v>
       </c>
       <c r="CJ69" t="n">
         <v>26.6</v>
@@ -21433,16 +21597,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>93.2</v>
+        <v>94</v>
       </c>
       <c r="DB69" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="DC69" t="n">
-        <v>60.8</v>
+        <v>61.5</v>
       </c>
       <c r="DD69" t="n">
-        <v>84.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="70">
@@ -21486,13 +21650,13 @@
         <v>1.2</v>
       </c>
       <c r="L70" t="n">
-        <v>68.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="M70" t="n">
-        <v>50.8</v>
+        <v>93.7</v>
       </c>
       <c r="N70" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O70" t="n">
         <v>0.8</v>
@@ -21558,7 +21722,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -21599,16 +21763,16 @@
         </is>
       </c>
       <c r="AW70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AX70" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>0.1</v>
       </c>
       <c r="AY70" t="n">
         <v>0.1</v>
       </c>
       <c r="AZ70" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BA70" t="inlineStr"/>
       <c r="BB70" t="inlineStr">
@@ -21696,16 +21860,16 @@
         <v>-1.1</v>
       </c>
       <c r="CF70" t="n">
-        <v>734</v>
+        <v>733.8</v>
       </c>
       <c r="CG70" t="n">
-        <v>1139.4</v>
+        <v>1139.3</v>
       </c>
       <c r="CH70" t="n">
         <v>1463.5</v>
       </c>
       <c r="CI70" t="n">
-        <v>1123.8</v>
+        <v>1123.7</v>
       </c>
       <c r="CJ70" t="inlineStr"/>
       <c r="CK70" t="n">
@@ -22133,7 +22297,7 @@
         <v>66.8</v>
       </c>
       <c r="M72" t="n">
-        <v>54.4</v>
+        <v>55.4</v>
       </c>
       <c r="N72" t="n">
         <v>9</v>

--- a/market_filtered_pe.xlsx
+++ b/market_filtered_pe.xlsx
@@ -1016,16 +1016,16 @@
         <v>0.8</v>
       </c>
       <c r="L2" t="n">
-        <v>51.7</v>
+        <v>50.4</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
         <v>9.6</v>
@@ -1082,7 +1082,7 @@
         <v>87</v>
       </c>
       <c r="AJ2" t="n">
-        <v>105.65</v>
+        <v>110.38</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="AL2" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="n">
-        <v>76.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AN2" t="n">
         <v>16.49</v>
@@ -1140,11 +1140,7 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>Tín hiệu vượt đỉnh</t>
-        </is>
-      </c>
+      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
@@ -1155,20 +1151,20 @@
         </is>
       </c>
       <c r="BI2" t="n">
-        <v>5.93</v>
+        <v>5.18</v>
       </c>
       <c r="BJ2" t="n">
-        <v>55.39</v>
+        <v>54.29</v>
       </c>
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="n">
-        <v>4.93</v>
+        <v>4.19</v>
       </c>
       <c r="BM2" t="n">
-        <v>55.39</v>
+        <v>54.29</v>
       </c>
       <c r="BN2" t="n">
-        <v>83</v>
+        <v>81.7</v>
       </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr">
@@ -1197,16 +1193,16 @@
         <v>116.3</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-14.3</v>
+        <v>-14.9</v>
       </c>
       <c r="CA2" t="n">
-        <v>131.2</v>
+        <v>129.5</v>
       </c>
       <c r="CB2" t="n">
-        <v>151</v>
+        <v>149.2</v>
       </c>
       <c r="CC2" t="inlineStr">
         <is>
@@ -1215,19 +1211,19 @@
       </c>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="n">
-        <v>4.93</v>
+        <v>4.19</v>
       </c>
       <c r="CF2" t="n">
-        <v>9966.9</v>
+        <v>9963.6</v>
       </c>
       <c r="CG2" t="n">
-        <v>10866.3</v>
+        <v>10864.6</v>
       </c>
       <c r="CH2" t="n">
-        <v>12341.4</v>
+        <v>12340.6</v>
       </c>
       <c r="CI2" t="n">
-        <v>6969.2</v>
+        <v>6968.9</v>
       </c>
       <c r="CJ2" t="n">
         <v>34.2</v>
@@ -1275,16 +1271,16 @@
         <v>1406</v>
       </c>
       <c r="DA2" t="n">
-        <v>70.90000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="DB2" t="n">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="DC2" t="n">
-        <v>36.7</v>
+        <v>35.8</v>
       </c>
       <c r="DD2" t="n">
-        <v>57.2</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="3">
@@ -1798,16 +1794,16 @@
         <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>86.2</v>
+        <v>58.8</v>
       </c>
       <c r="M5" t="n">
-        <v>26.1</v>
+        <v>37.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2</v>
+        <v>5.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>14.4</v>
@@ -1868,7 +1864,7 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
@@ -1876,10 +1872,10 @@
         </is>
       </c>
       <c r="AL5" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>71</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1905,20 +1901,20 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>MACD Histogram &gt; 0 và tăng dần</t>
+          <t>MACD Histogram &gt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW5" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr">
@@ -1933,27 +1929,27 @@
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>Vào vùng quá mua</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="BI5" t="n">
-        <v>11.35</v>
+        <v>9.93</v>
       </c>
       <c r="BJ5" t="n">
-        <v>27.64</v>
+        <v>26.02</v>
       </c>
       <c r="BK5" t="inlineStr"/>
       <c r="BL5" t="n">
-        <v>3.29</v>
+        <v>1.97</v>
       </c>
       <c r="BM5" t="n">
-        <v>27.64</v>
+        <v>26.02</v>
       </c>
       <c r="BN5" t="n">
-        <v>43.51</v>
+        <v>41.69</v>
       </c>
       <c r="BO5" t="n">
-        <v>25.56</v>
+        <v>23.96</v>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
@@ -1981,16 +1977,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BY5" t="n">
-        <v>-3.7</v>
+        <v>-4.9</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-38</v>
+        <v>-38.8</v>
       </c>
       <c r="CA5" t="n">
-        <v>63</v>
+        <v>60.9</v>
       </c>
       <c r="CB5" t="n">
-        <v>61.3</v>
+        <v>59.3</v>
       </c>
       <c r="CC5" t="inlineStr">
         <is>
@@ -1999,16 +1995,16 @@
       </c>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="n">
-        <v>3.29</v>
+        <v>1.97</v>
       </c>
       <c r="CF5" t="n">
-        <v>57.9</v>
+        <v>58.3</v>
       </c>
       <c r="CG5" t="n">
-        <v>67.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="CH5" t="n">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="CI5" t="n">
         <v>32.6</v>
@@ -2057,16 +2053,16 @@
         <v>1057</v>
       </c>
       <c r="DA5" t="n">
-        <v>35.7</v>
+        <v>34</v>
       </c>
       <c r="DB5" t="n">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="DC5" t="n">
-        <v>22.6</v>
+        <v>21.1</v>
       </c>
       <c r="DD5" t="n">
-        <v>31.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -2110,16 +2106,16 @@
         <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>40.3</v>
+        <v>42.2</v>
       </c>
       <c r="M6" t="n">
-        <v>54.6</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P6" t="n">
         <v>9.5</v>
@@ -2182,7 +2178,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.42</v>
+        <v>3.07</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
@@ -2190,10 +2186,10 @@
         </is>
       </c>
       <c r="AL6" t="n">
-        <v>133.5</v>
+        <v>133</v>
       </c>
       <c r="AM6" t="n">
-        <v>31.2</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>84.93000000000001</v>
@@ -2223,7 +2219,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AW6" t="n">
@@ -2251,27 +2247,27 @@
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>Thoát vùng quá bán</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="BI6" t="n">
-        <v>-4.23</v>
+        <v>-4.59</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-6.38</v>
+        <v>-6.73</v>
       </c>
       <c r="BK6" t="inlineStr"/>
       <c r="BL6" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="BM6" t="n">
-        <v>-6.38</v>
+        <v>-6.73</v>
       </c>
       <c r="BN6" t="n">
-        <v>42.06</v>
+        <v>41.53</v>
       </c>
       <c r="BO6" t="n">
-        <v>289.72</v>
+        <v>288.26</v>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
@@ -2303,16 +2299,16 @@
         <v>51.1</v>
       </c>
       <c r="BY6" t="n">
-        <v>-11.6</v>
+        <v>-11.9</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-8.6</v>
+        <v>-8.9</v>
       </c>
       <c r="CA6" t="n">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="CB6" t="n">
-        <v>8979.299999999999</v>
+        <v>8945.200000000001</v>
       </c>
       <c r="CC6" t="inlineStr">
         <is>
@@ -2321,16 +2317,16 @@
       </c>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="CF6" t="n">
-        <v>173.7</v>
+        <v>174.3</v>
       </c>
       <c r="CG6" t="n">
-        <v>177.1</v>
+        <v>177.4</v>
       </c>
       <c r="CH6" t="n">
-        <v>153.5</v>
+        <v>153.7</v>
       </c>
       <c r="CI6" t="n">
         <v>153.7</v>
@@ -2381,16 +2377,16 @@
         <v>13894</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="DB6" t="n">
-        <v>-4.5</v>
+        <v>-4.8</v>
       </c>
       <c r="DC6" t="n">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="DD6" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="7">
@@ -2435,7 +2431,7 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>71.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -2672,7 +2668,9 @@
       <c r="N8" t="n">
         <v>24.3</v>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>0.7</v>
+      </c>
       <c r="P8" t="n">
         <v>6.8</v>
       </c>
@@ -3290,16 +3288,16 @@
         <v>1.1</v>
       </c>
       <c r="L10" t="n">
-        <v>67.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>70.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>9</v>
@@ -3356,7 +3354,7 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="n">
-        <v>335.09</v>
+        <v>344.22</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
@@ -3364,10 +3362,10 @@
         </is>
       </c>
       <c r="AL10" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="AM10" t="n">
-        <v>73.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="AN10" t="n">
         <v>26.79</v>
@@ -3410,7 +3408,7 @@
         <v>0.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr">
@@ -3429,23 +3427,23 @@
         </is>
       </c>
       <c r="BI10" t="n">
-        <v>4.84</v>
+        <v>4.44</v>
       </c>
       <c r="BJ10" t="n">
-        <v>15.43</v>
+        <v>14.98</v>
       </c>
       <c r="BK10" t="inlineStr"/>
       <c r="BL10" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="BM10" t="n">
-        <v>15.43</v>
+        <v>14.98</v>
       </c>
       <c r="BN10" t="n">
-        <v>56.63</v>
+        <v>56.02</v>
       </c>
       <c r="BO10" t="n">
-        <v>234.47</v>
+        <v>233.18</v>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
@@ -3473,16 +3471,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BY10" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="CA10" t="n">
-        <v>59</v>
+        <v>58.4</v>
       </c>
       <c r="CB10" t="n">
-        <v>860.1</v>
+        <v>856.4</v>
       </c>
       <c r="CC10" t="inlineStr">
         <is>
@@ -3491,19 +3489,19 @@
       </c>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="CF10" t="n">
-        <v>11148.6</v>
+        <v>11147.7</v>
       </c>
       <c r="CG10" t="n">
-        <v>12776</v>
+        <v>12775.6</v>
       </c>
       <c r="CH10" t="n">
-        <v>13463.3</v>
+        <v>13463</v>
       </c>
       <c r="CI10" t="n">
-        <v>9967.5</v>
+        <v>9967.4</v>
       </c>
       <c r="CJ10" t="n">
         <v>86.59999999999999</v>
@@ -3551,16 +3549,16 @@
         <v>5608</v>
       </c>
       <c r="DA10" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="DB10" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="DC10" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="DD10" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="11">
@@ -3604,16 +3602,16 @@
         <v>0.9</v>
       </c>
       <c r="L11" t="n">
-        <v>45.8</v>
+        <v>46.3</v>
       </c>
       <c r="M11" t="n">
-        <v>59.6</v>
+        <v>50.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>11.4</v>
@@ -3676,7 +3674,7 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22.4</v>
+        <v>23.42</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
@@ -3814,13 +3812,13 @@
         <v>-2.71</v>
       </c>
       <c r="CF11" t="n">
-        <v>2118.8</v>
+        <v>2118.3</v>
       </c>
       <c r="CG11" t="n">
-        <v>2213.8</v>
+        <v>2213.5</v>
       </c>
       <c r="CH11" t="n">
-        <v>2666.8</v>
+        <v>2666.6</v>
       </c>
       <c r="CI11" t="n">
         <v>2425.8</v>
@@ -3924,16 +3922,16 @@
         <v>1.2</v>
       </c>
       <c r="L12" t="n">
-        <v>36.1</v>
+        <v>39.5</v>
       </c>
       <c r="M12" t="n">
-        <v>60.1</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
         <v>7</v>
@@ -3996,7 +3994,7 @@
         <v>53</v>
       </c>
       <c r="AJ12" t="n">
-        <v>105.33</v>
+        <v>111.38</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
@@ -4004,10 +4002,10 @@
         </is>
       </c>
       <c r="AL12" t="n">
-        <v>27.8</v>
+        <v>27.95</v>
       </c>
       <c r="AM12" t="n">
-        <v>36.8</v>
+        <v>37.5</v>
       </c>
       <c r="AN12" t="n">
         <v>4.24</v>
@@ -4044,7 +4042,7 @@
         <v>0.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AY12" t="n">
         <v>0.3</v>
@@ -4069,23 +4067,23 @@
         </is>
       </c>
       <c r="BI12" t="n">
-        <v>-10.18</v>
+        <v>-9.69</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-5.14</v>
+        <v>-4.63</v>
       </c>
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="n">
-        <v>-2.11</v>
+        <v>-1.58</v>
       </c>
       <c r="BM12" t="n">
-        <v>-5.14</v>
+        <v>-4.63</v>
       </c>
       <c r="BN12" t="n">
-        <v>12.37</v>
+        <v>12.97</v>
       </c>
       <c r="BO12" t="n">
-        <v>97.06</v>
+        <v>98.13</v>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
@@ -4117,16 +4115,16 @@
         <v>600</v>
       </c>
       <c r="BY12" t="n">
-        <v>-14.1</v>
+        <v>-13.6</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-11.1</v>
+        <v>-10.6</v>
       </c>
       <c r="CA12" t="n">
-        <v>45.6</v>
+        <v>46.4</v>
       </c>
       <c r="CB12" t="n">
-        <v>2424.6</v>
+        <v>2438.2</v>
       </c>
       <c r="CC12" t="inlineStr">
         <is>
@@ -4135,19 +4133,19 @@
       </c>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="n">
-        <v>-2.11</v>
+        <v>-1.58</v>
       </c>
       <c r="CF12" t="n">
-        <v>9124.799999999999</v>
+        <v>9112.1</v>
       </c>
       <c r="CG12" t="n">
-        <v>10518.7</v>
+        <v>10512.3</v>
       </c>
       <c r="CH12" t="n">
-        <v>12171</v>
+        <v>12167.8</v>
       </c>
       <c r="CI12" t="n">
-        <v>11358</v>
+        <v>11356.7</v>
       </c>
       <c r="CJ12" t="n">
         <v>27.8</v>
@@ -4195,16 +4193,16 @@
         <v>4070</v>
       </c>
       <c r="DA12" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="DB12" t="n">
-        <v>-7.4</v>
+        <v>-6.9</v>
       </c>
       <c r="DC12" t="n">
-        <v>-4.8</v>
+        <v>-4.3</v>
       </c>
       <c r="DD12" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="13">
@@ -4248,10 +4246,10 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>43.1</v>
+        <v>43.6</v>
       </c>
       <c r="M13" t="n">
-        <v>56.5</v>
+        <v>33.4</v>
       </c>
       <c r="N13" t="n">
         <v>0.1</v>
@@ -4320,7 +4318,7 @@
         <v>52</v>
       </c>
       <c r="AJ13" t="n">
-        <v>41.79</v>
+        <v>43.24</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
@@ -4328,10 +4326,10 @@
         </is>
       </c>
       <c r="AL13" t="n">
-        <v>40.55</v>
+        <v>40.6</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>60.2</v>
       </c>
       <c r="AN13" t="n">
         <v>6.68</v>
@@ -4393,23 +4391,23 @@
         </is>
       </c>
       <c r="BI13" t="n">
-        <v>-1.1</v>
+        <v>-0.98</v>
       </c>
       <c r="BJ13" t="n">
-        <v>19.97</v>
+        <v>20.12</v>
       </c>
       <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="BM13" t="n">
-        <v>19.97</v>
+        <v>20.12</v>
       </c>
       <c r="BN13" t="n">
-        <v>13.43</v>
+        <v>13.57</v>
       </c>
       <c r="BO13" t="n">
-        <v>573.3</v>
+        <v>574.14</v>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
@@ -4441,16 +4439,16 @@
         <v>18.9</v>
       </c>
       <c r="BY13" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="CA13" t="n">
-        <v>73.5</v>
+        <v>73.7</v>
       </c>
       <c r="CB13" t="n">
-        <v>990.8</v>
+        <v>992.1</v>
       </c>
       <c r="CC13" t="inlineStr">
         <is>
@@ -4459,7 +4457,7 @@
       </c>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="CF13" t="n">
         <v>7327.1</v>
@@ -4519,16 +4517,16 @@
         <v>3221</v>
       </c>
       <c r="DA13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="DB13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="DC13" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="DD13" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="14">
@@ -4572,13 +4570,13 @@
         <v>1.1</v>
       </c>
       <c r="L14" t="n">
-        <v>48</v>
+        <v>48.7</v>
       </c>
       <c r="M14" t="n">
-        <v>47.7</v>
+        <v>46</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O14" t="n">
         <v>0.8</v>
@@ -4644,7 +4642,7 @@
         <v>88</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14.11</v>
+        <v>15.62</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
@@ -4695,7 +4693,7 @@
         <v>0.3</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ14" t="n">
         <v>0.2</v>
@@ -4786,16 +4784,16 @@
         <v>-1.8</v>
       </c>
       <c r="CF14" t="n">
-        <v>1551.5</v>
+        <v>1551.7</v>
       </c>
       <c r="CG14" t="n">
-        <v>1607.5</v>
+        <v>1607.6</v>
       </c>
       <c r="CH14" t="n">
-        <v>1923.1</v>
+        <v>1923.2</v>
       </c>
       <c r="CI14" t="n">
-        <v>2033.9</v>
+        <v>2034</v>
       </c>
       <c r="CJ14" t="n">
         <v>70.09999999999999</v>
@@ -4894,16 +4892,16 @@
         <v>1.4</v>
       </c>
       <c r="L15" t="n">
-        <v>65.90000000000001</v>
+        <v>55.4</v>
       </c>
       <c r="M15" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="n">
         <v>5.8</v>
@@ -4966,7 +4964,7 @@
         <v>66</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
@@ -5214,16 +5212,16 @@
         <v>1.6</v>
       </c>
       <c r="L16" t="n">
-        <v>22.8</v>
+        <v>25.1</v>
       </c>
       <c r="M16" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P16" t="n">
         <v>6.5</v>
@@ -5286,7 +5284,7 @@
         <v>25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.39</v>
+        <v>4.43</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
@@ -5294,10 +5292,10 @@
         </is>
       </c>
       <c r="AL16" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AM16" t="n">
-        <v>56.3</v>
+        <v>57.1</v>
       </c>
       <c r="AN16" t="n">
         <v>1.66</v>
@@ -5355,23 +5353,23 @@
         </is>
       </c>
       <c r="BI16" t="n">
-        <v>-4.85</v>
+        <v>-4.41</v>
       </c>
       <c r="BJ16" t="n">
-        <v>14.89</v>
+        <v>15.43</v>
       </c>
       <c r="BK16" t="inlineStr"/>
       <c r="BL16" t="n">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>14.89</v>
+        <v>15.43</v>
       </c>
       <c r="BN16" t="n">
-        <v>-8.220000000000001</v>
+        <v>-7.8</v>
       </c>
       <c r="BO16" t="n">
-        <v>155.02</v>
+        <v>156.2</v>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
@@ -5403,16 +5401,16 @@
         <v>32.8</v>
       </c>
       <c r="BY16" t="n">
-        <v>-12.1</v>
+        <v>-11.7</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-27.3</v>
+        <v>-26.9</v>
       </c>
       <c r="CA16" t="n">
-        <v>85.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="CB16" t="n">
-        <v>507.9</v>
+        <v>510.8</v>
       </c>
       <c r="CC16" t="inlineStr">
         <is>
@@ -5421,7 +5419,7 @@
       </c>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="n">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="CF16" t="n">
         <v>1187.3</v>
@@ -5481,16 +5479,16 @@
         <v>3364</v>
       </c>
       <c r="DA16" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="DB16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="DC16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="DD16" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="17">
@@ -5866,16 +5864,16 @@
         <v>0.7</v>
       </c>
       <c r="L18" t="n">
-        <v>65.3</v>
+        <v>65.8</v>
       </c>
       <c r="M18" t="n">
-        <v>51.6</v>
+        <v>51.2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P18" t="n">
         <v>16</v>
@@ -5938,7 +5936,7 @@
         <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
@@ -6076,16 +6074,16 @@
         <v>1.92</v>
       </c>
       <c r="CF18" t="n">
-        <v>184.7</v>
+        <v>184.5</v>
       </c>
       <c r="CG18" t="n">
-        <v>206.3</v>
+        <v>206.2</v>
       </c>
       <c r="CH18" t="n">
-        <v>198.2</v>
+        <v>198.1</v>
       </c>
       <c r="CI18" t="n">
-        <v>161.8</v>
+        <v>161.7</v>
       </c>
       <c r="CJ18" t="n">
         <v>96.2</v>
@@ -6490,16 +6488,16 @@
         <v>0.9</v>
       </c>
       <c r="L20" t="n">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="M20" t="n">
-        <v>55.5</v>
+        <v>62.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P20" t="n">
         <v>10.5</v>
@@ -6562,7 +6560,7 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.16</v>
+        <v>6.75</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
@@ -6613,10 +6611,10 @@
         <v>0.2</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr">
@@ -6704,13 +6702,13 @@
         <v>-0.62</v>
       </c>
       <c r="CF20" t="n">
-        <v>1847.3</v>
+        <v>1848.1</v>
       </c>
       <c r="CG20" t="n">
-        <v>2240.8</v>
+        <v>2241.2</v>
       </c>
       <c r="CH20" t="n">
-        <v>2778.4</v>
+        <v>2778.6</v>
       </c>
       <c r="CI20" t="n">
         <v>2508.4</v>
@@ -6821,7 +6819,7 @@
         <v>26.2</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>7.6</v>
@@ -7126,16 +7124,16 @@
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>34</v>
+        <v>32.9</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4</v>
+        <v>44.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>9.5</v>
@@ -7198,7 +7196,7 @@
         <v>91</v>
       </c>
       <c r="AJ22" t="n">
-        <v>64.45</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
@@ -7206,10 +7204,10 @@
         </is>
       </c>
       <c r="AL22" t="n">
-        <v>60.6</v>
+        <v>60.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>55.1</v>
+        <v>54.9</v>
       </c>
       <c r="AN22" t="n">
         <v>6.41</v>
@@ -7243,7 +7241,7 @@
         </is>
       </c>
       <c r="AW22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AX22" t="n">
         <v>0.3</v>
@@ -7271,23 +7269,23 @@
         </is>
       </c>
       <c r="BI22" t="n">
-        <v>-4.11</v>
+        <v>-4.27</v>
       </c>
       <c r="BJ22" t="n">
-        <v>14.04</v>
+        <v>13.86</v>
       </c>
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="BM22" t="n">
-        <v>14.04</v>
+        <v>13.86</v>
       </c>
       <c r="BN22" t="n">
-        <v>90.06999999999999</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="BO22" t="n">
-        <v>1635.92</v>
+        <v>1633.06</v>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
@@ -7319,16 +7317,16 @@
         <v>293.7</v>
       </c>
       <c r="BY22" t="n">
-        <v>-11.3</v>
+        <v>-11.4</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="CA22" t="n">
-        <v>106</v>
+        <v>105.7</v>
       </c>
       <c r="CB22" t="n">
-        <v>2572.2</v>
+        <v>2567.8</v>
       </c>
       <c r="CC22" t="inlineStr">
         <is>
@@ -7337,13 +7335,13 @@
       </c>
       <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="CF22" t="n">
-        <v>3113.1</v>
+        <v>3113.4</v>
       </c>
       <c r="CG22" t="n">
-        <v>3896.4</v>
+        <v>3896.6</v>
       </c>
       <c r="CH22" t="n">
         <v>5087.1</v>
@@ -7397,16 +7395,16 @@
         <v>6362</v>
       </c>
       <c r="DA22" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="DB22" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="DC22" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="DD22" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23">
@@ -7450,16 +7448,16 @@
         <v>1.2</v>
       </c>
       <c r="L23" t="n">
-        <v>72.59999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="M23" t="n">
-        <v>29.3</v>
+        <v>40.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
         <v>7.8</v>
@@ -7516,7 +7514,7 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>587.79</v>
+        <v>599.61</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
@@ -7524,10 +7522,10 @@
         </is>
       </c>
       <c r="AL23" t="n">
-        <v>33.8</v>
+        <v>33.55</v>
       </c>
       <c r="AM23" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="AN23" t="n">
         <v>17.45</v>
@@ -7593,23 +7591,23 @@
         </is>
       </c>
       <c r="BI23" t="n">
-        <v>16.75</v>
+        <v>15.89</v>
       </c>
       <c r="BJ23" t="n">
-        <v>38.52</v>
+        <v>37.5</v>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="n">
-        <v>6.12</v>
+        <v>5.34</v>
       </c>
       <c r="BM23" t="n">
-        <v>38.52</v>
+        <v>37.5</v>
       </c>
       <c r="BN23" t="n">
-        <v>51.35</v>
+        <v>50.23</v>
       </c>
       <c r="BO23" t="n">
-        <v>391.51</v>
+        <v>387.88</v>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
@@ -7637,16 +7635,16 @@
         <v>36.2</v>
       </c>
       <c r="BY23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BZ23" t="n">
         <v>3.2</v>
       </c>
-      <c r="BZ23" t="n">
-        <v>4</v>
-      </c>
       <c r="CA23" t="n">
-        <v>87.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="CB23" t="n">
-        <v>665</v>
+        <v>659.4</v>
       </c>
       <c r="CC23" t="inlineStr">
         <is>
@@ -7655,19 +7653,19 @@
       </c>
       <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="n">
-        <v>6.12</v>
+        <v>5.34</v>
       </c>
       <c r="CF23" t="n">
-        <v>22979.3</v>
+        <v>22960.2</v>
       </c>
       <c r="CG23" t="n">
-        <v>27243.5</v>
+        <v>27233.9</v>
       </c>
       <c r="CH23" t="n">
-        <v>25604.4</v>
+        <v>25599.6</v>
       </c>
       <c r="CI23" t="n">
-        <v>20579.8</v>
+        <v>20577.9</v>
       </c>
       <c r="CJ23" t="n">
         <v>21.6</v>
@@ -7715,16 +7713,16 @@
         <v>4088</v>
       </c>
       <c r="DA23" t="n">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="DB23" t="n">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="DC23" t="n">
-        <v>32.3</v>
+        <v>31.3</v>
       </c>
       <c r="DD23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
@@ -7771,13 +7769,13 @@
         <v>26.1</v>
       </c>
       <c r="M24" t="n">
-        <v>84.59999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N24" t="n">
         <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -8103,7 +8101,7 @@
         <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P25" t="n">
         <v>9</v>
@@ -8412,16 +8410,16 @@
         <v>1.1</v>
       </c>
       <c r="L26" t="n">
-        <v>32.3</v>
+        <v>32.9</v>
       </c>
       <c r="M26" t="n">
-        <v>81.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P26" t="n">
         <v>15.4</v>
@@ -8488,7 +8486,7 @@
         <v>72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>78.03</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
@@ -8496,10 +8494,10 @@
         </is>
       </c>
       <c r="AL26" t="n">
-        <v>15.15</v>
+        <v>15.2</v>
       </c>
       <c r="AM26" t="n">
-        <v>65.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="AN26" t="n">
         <v>11.29</v>
@@ -8539,10 +8537,10 @@
         <v>0.2</v>
       </c>
       <c r="AY26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr">
@@ -8561,23 +8559,23 @@
         </is>
       </c>
       <c r="BI26" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="BJ26" t="n">
-        <v>17.44</v>
+        <v>17.83</v>
       </c>
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="n">
-        <v>-1.62</v>
+        <v>-1.3</v>
       </c>
       <c r="BM26" t="n">
-        <v>17.44</v>
+        <v>17.83</v>
       </c>
       <c r="BN26" t="n">
-        <v>32.01</v>
+        <v>32.45</v>
       </c>
       <c r="BO26" t="n">
-        <v>23.93</v>
+        <v>24.34</v>
       </c>
       <c r="BP26" t="inlineStr">
         <is>
@@ -8609,16 +8607,16 @@
         <v>52.3</v>
       </c>
       <c r="BY26" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-28.9</v>
+        <v>-28.6</v>
       </c>
       <c r="CA26" t="n">
-        <v>63.7</v>
+        <v>64.2</v>
       </c>
       <c r="CB26" t="n">
-        <v>569.5</v>
+        <v>571.7</v>
       </c>
       <c r="CC26" t="inlineStr">
         <is>
@@ -8627,19 +8625,19 @@
       </c>
       <c r="CD26" t="inlineStr"/>
       <c r="CE26" t="n">
-        <v>-1.62</v>
+        <v>-1.3</v>
       </c>
       <c r="CF26" t="n">
-        <v>21550.8</v>
+        <v>21541.9</v>
       </c>
       <c r="CG26" t="n">
-        <v>22127.4</v>
+        <v>22122.9</v>
       </c>
       <c r="CH26" t="n">
-        <v>20896.3</v>
+        <v>20894.1</v>
       </c>
       <c r="CI26" t="n">
-        <v>14984.7</v>
+        <v>14983.8</v>
       </c>
       <c r="CJ26" t="n">
         <v>26.4</v>
@@ -8685,16 +8683,16 @@
         <v>1001</v>
       </c>
       <c r="DA26" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="DB26" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="DC26" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="DD26" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="27">
@@ -8975,7 +8973,7 @@
         <v>92.3</v>
       </c>
       <c r="M28" t="n">
-        <v>51.7</v>
+        <v>53.5</v>
       </c>
       <c r="N28" t="n">
         <v>0.4</v>
@@ -9044,7 +9042,7 @@
         <v>56</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
@@ -9292,16 +9290,16 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>37.6</v>
+        <v>38.2</v>
       </c>
       <c r="M29" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="N29" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
         <v>4.4</v>
@@ -9368,7 +9366,7 @@
         <v>48</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
@@ -9376,10 +9374,10 @@
         </is>
       </c>
       <c r="AL29" t="n">
-        <v>23.05</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
-        <v>58.3</v>
+        <v>57.9</v>
       </c>
       <c r="AN29" t="n">
         <v>6.64</v>
@@ -9441,23 +9439,23 @@
         </is>
       </c>
       <c r="BI29" t="n">
-        <v>-2.33</v>
+        <v>-2.54</v>
       </c>
       <c r="BJ29" t="n">
-        <v>6.96</v>
+        <v>6.73</v>
       </c>
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="n">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="BM29" t="n">
-        <v>6.96</v>
+        <v>6.73</v>
       </c>
       <c r="BN29" t="n">
-        <v>59.55</v>
+        <v>59.2</v>
       </c>
       <c r="BO29" t="n">
-        <v>226.63</v>
+        <v>225.92</v>
       </c>
       <c r="BP29" t="inlineStr">
         <is>
@@ -9489,16 +9487,16 @@
         <v>299.6</v>
       </c>
       <c r="BY29" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="BZ29" t="n">
-        <v>-5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="CA29" t="n">
-        <v>60.6</v>
+        <v>60.2</v>
       </c>
       <c r="CB29" t="n">
-        <v>1713.9</v>
+        <v>1710</v>
       </c>
       <c r="CC29" t="inlineStr">
         <is>
@@ -9507,7 +9505,7 @@
       </c>
       <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="n">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="CF29" t="n">
         <v>101</v>
@@ -9565,16 +9563,16 @@
         <v>5146</v>
       </c>
       <c r="DA29" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="DB29" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="DC29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="DD29" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="30">
@@ -9945,7 +9943,7 @@
         <v>71</v>
       </c>
       <c r="M31" t="n">
-        <v>40.6</v>
+        <v>42.2</v>
       </c>
       <c r="N31" t="n">
         <v>0.8</v>
@@ -10269,7 +10267,7 @@
         <v>57.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="P32" t="n">
         <v>10.1</v>
@@ -10808,16 +10806,16 @@
         <v>0.9</v>
       </c>
       <c r="L34" t="n">
-        <v>66</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="M34" t="n">
-        <v>56.3</v>
+        <v>58.5</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="O34" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="P34" t="n">
         <v>7.1</v>
@@ -10874,7 +10872,7 @@
         <v>91</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19.69</v>
+        <v>20.18</v>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
@@ -10915,16 +10913,16 @@
         </is>
       </c>
       <c r="AW34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AX34" t="n">
         <v>1.4</v>
       </c>
       <c r="AY34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AZ34" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>1.1</v>
       </c>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr">
@@ -11012,16 +11010,16 @@
         <v>7.23</v>
       </c>
       <c r="CF34" t="n">
-        <v>554.1</v>
+        <v>556.6</v>
       </c>
       <c r="CG34" t="n">
-        <v>571</v>
+        <v>572.2</v>
       </c>
       <c r="CH34" t="n">
-        <v>650</v>
+        <v>650.6</v>
       </c>
       <c r="CI34" t="n">
-        <v>710.8</v>
+        <v>711.1</v>
       </c>
       <c r="CJ34" t="n">
         <v>10.9</v>
@@ -11125,7 +11123,7 @@
         <v>100</v>
       </c>
       <c r="M35" t="n">
-        <v>62</v>
+        <v>62.7</v>
       </c>
       <c r="N35" t="n">
         <v>1.8</v>
@@ -11449,7 +11447,7 @@
         <v>9935.5</v>
       </c>
       <c r="O36" t="n">
-        <v>95.2</v>
+        <v>69.3</v>
       </c>
       <c r="P36" t="n">
         <v>4.8</v>
@@ -11754,13 +11752,13 @@
         <v>0.9</v>
       </c>
       <c r="L37" t="n">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="M37" t="n">
-        <v>13.1</v>
+        <v>17.2</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O37" t="n">
         <v>0.8</v>
@@ -11826,7 +11824,7 @@
         <v>53</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4.57</v>
+        <v>4.85</v>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
@@ -11834,10 +11832,10 @@
         </is>
       </c>
       <c r="AL37" t="n">
-        <v>35.35</v>
+        <v>35.3</v>
       </c>
       <c r="AM37" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="AN37" t="n">
         <v>5.13</v>
@@ -11880,7 +11878,7 @@
         <v>0.2</v>
       </c>
       <c r="AZ37" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr">
@@ -11899,23 +11897,23 @@
         </is>
       </c>
       <c r="BI37" t="n">
-        <v>-7.1</v>
+        <v>-7.23</v>
       </c>
       <c r="BJ37" t="n">
-        <v>-6.97</v>
+        <v>-7.11</v>
       </c>
       <c r="BK37" t="inlineStr"/>
       <c r="BL37" t="n">
-        <v>-0.42</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="BM37" t="n">
-        <v>-6.97</v>
+        <v>-7.11</v>
       </c>
       <c r="BN37" t="n">
-        <v>15.6</v>
+        <v>15.44</v>
       </c>
       <c r="BO37" t="n">
-        <v>266.14</v>
+        <v>265.63</v>
       </c>
       <c r="BP37" t="inlineStr">
         <is>
@@ -11947,16 +11945,16 @@
         <v>61.4</v>
       </c>
       <c r="BY37" t="n">
-        <v>-15.6</v>
+        <v>-15.7</v>
       </c>
       <c r="BZ37" t="n">
-        <v>-14.1</v>
+        <v>-14.2</v>
       </c>
       <c r="CA37" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="CB37" t="n">
-        <v>363.6</v>
+        <v>362.9</v>
       </c>
       <c r="CC37" t="inlineStr">
         <is>
@@ -11965,19 +11963,19 @@
       </c>
       <c r="CD37" t="inlineStr"/>
       <c r="CE37" t="n">
-        <v>-0.42</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="CF37" t="n">
-        <v>497.2</v>
+        <v>498.7</v>
       </c>
       <c r="CG37" t="n">
-        <v>694.7</v>
+        <v>695.5</v>
       </c>
       <c r="CH37" t="n">
-        <v>724.2</v>
+        <v>724.6</v>
       </c>
       <c r="CI37" t="n">
-        <v>541.5</v>
+        <v>541.7</v>
       </c>
       <c r="CJ37" t="n">
         <v>12.3</v>
@@ -12029,16 +12027,16 @@
         <v>4865</v>
       </c>
       <c r="DA37" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="DB37" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="DC37" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="DD37" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
@@ -12085,12 +12083,14 @@
         <v>81.8</v>
       </c>
       <c r="M38" t="n">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="N38" t="n">
         <v>21.1</v>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>1.2</v>
+      </c>
       <c r="P38" t="n">
         <v>7.1</v>
       </c>
@@ -12286,13 +12286,13 @@
         <v>-1.11</v>
       </c>
       <c r="CF38" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="CG38" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="CH38" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="CI38" t="n">
         <v>10.4</v>
@@ -12396,16 +12396,16 @@
         <v>1.2</v>
       </c>
       <c r="L39" t="n">
-        <v>93.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="N39" t="n">
         <v>2.3</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P39" t="n">
         <v>12.4</v>
@@ -12468,14 +12468,14 @@
         <v>88</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="AM39" t="n">
-        <v>62</v>
+        <v>60.6</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -12533,23 +12533,23 @@
         </is>
       </c>
       <c r="BI39" t="n">
-        <v>-6.95</v>
+        <v>-7.58</v>
       </c>
       <c r="BJ39" t="n">
-        <v>43.98</v>
+        <v>43</v>
       </c>
       <c r="BK39" t="inlineStr"/>
       <c r="BL39" t="n">
-        <v>1.34</v>
+        <v>0.66</v>
       </c>
       <c r="BM39" t="n">
-        <v>43.98</v>
+        <v>43</v>
       </c>
       <c r="BN39" t="n">
-        <v>77.42</v>
+        <v>76.22</v>
       </c>
       <c r="BO39" t="n">
-        <v>89.65000000000001</v>
+        <v>88.37</v>
       </c>
       <c r="BP39" t="inlineStr">
         <is>
@@ -12581,16 +12581,16 @@
         <v>122.2</v>
       </c>
       <c r="BY39" t="n">
-        <v>-12.9</v>
+        <v>-13.5</v>
       </c>
       <c r="BZ39" t="n">
-        <v>-7</v>
+        <v>-7.6</v>
       </c>
       <c r="CA39" t="n">
-        <v>124.5</v>
+        <v>123</v>
       </c>
       <c r="CB39" t="n">
-        <v>301.8</v>
+        <v>299.1</v>
       </c>
       <c r="CC39" t="inlineStr">
         <is>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="CD39" t="inlineStr"/>
       <c r="CE39" t="n">
-        <v>1.34</v>
+        <v>0.66</v>
       </c>
       <c r="CF39" t="n">
         <v>88.3</v>
@@ -12657,16 +12657,16 @@
         <v>1174</v>
       </c>
       <c r="DA39" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="DB39" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="DC39" t="n">
-        <v>22.1</v>
+        <v>21.3</v>
       </c>
       <c r="DD39" t="n">
-        <v>39.1</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="40">
@@ -12710,13 +12710,13 @@
         <v>0.8</v>
       </c>
       <c r="L40" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="M40" t="n">
-        <v>36.2</v>
+        <v>27.7</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="O40" t="n">
         <v>3.4</v>
@@ -12776,7 +12776,7 @@
         <v>59</v>
       </c>
       <c r="AJ40" t="n">
-        <v>59.94</v>
+        <v>60.93</v>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
@@ -12912,16 +12912,16 @@
         <v>3.14</v>
       </c>
       <c r="CF40" t="n">
-        <v>2073.4</v>
+        <v>2079.1</v>
       </c>
       <c r="CG40" t="n">
-        <v>2374.7</v>
+        <v>2377.5</v>
       </c>
       <c r="CH40" t="n">
-        <v>2228.9</v>
+        <v>2230.3</v>
       </c>
       <c r="CI40" t="n">
-        <v>2030.8</v>
+        <v>2031.4</v>
       </c>
       <c r="CJ40" t="n">
         <v>30</v>
@@ -13800,16 +13800,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>48.8</v>
+        <v>45.1</v>
       </c>
       <c r="M44" t="n">
-        <v>51.5</v>
+        <v>50.7</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P44" t="n">
         <v>11.3</v>
@@ -13872,7 +13872,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="AK44" t="inlineStr">
         <is>
@@ -14014,16 +14014,16 @@
         <v>0</v>
       </c>
       <c r="CF44" t="n">
-        <v>419.6</v>
+        <v>420.4</v>
       </c>
       <c r="CG44" t="n">
-        <v>402.6</v>
+        <v>403</v>
       </c>
       <c r="CH44" t="n">
-        <v>432.5</v>
+        <v>432.7</v>
       </c>
       <c r="CI44" t="n">
-        <v>433.6</v>
+        <v>433.7</v>
       </c>
       <c r="CJ44" t="n">
         <v>73.5</v>
@@ -14133,7 +14133,7 @@
         <v>15.3</v>
       </c>
       <c r="O45" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P45" t="n">
         <v>13.1</v>
@@ -14442,16 +14442,16 @@
         <v>0.1</v>
       </c>
       <c r="L46" t="n">
-        <v>22.7</v>
+        <v>14.3</v>
       </c>
       <c r="M46" t="n">
-        <v>39.8</v>
+        <v>40.6</v>
       </c>
       <c r="N46" t="n">
-        <v>2.7</v>
+        <v>35.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="P46" t="n">
         <v>12.1</v>
@@ -14514,14 +14514,14 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AM46" t="n">
-        <v>25.5</v>
+        <v>24.6</v>
       </c>
       <c r="AN46" t="n">
         <v>0.01</v>
@@ -14553,16 +14553,16 @@
         </is>
       </c>
       <c r="AW46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AZ46" t="n">
         <v>0.3</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0.2</v>
       </c>
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr">
@@ -14581,10 +14581,10 @@
         </is>
       </c>
       <c r="BI46" t="n">
-        <v>-4.95</v>
+        <v>-5.49</v>
       </c>
       <c r="BJ46" t="n">
-        <v>-12.63</v>
+        <v>-13.13</v>
       </c>
       <c r="BK46" t="inlineStr">
         <is>
@@ -14592,16 +14592,16 @@
         </is>
       </c>
       <c r="BL46" t="n">
-        <v>-2.81</v>
+        <v>-3.37</v>
       </c>
       <c r="BM46" t="n">
-        <v>-12.63</v>
+        <v>-13.13</v>
       </c>
       <c r="BN46" t="n">
-        <v>-33.09</v>
+        <v>-33.48</v>
       </c>
       <c r="BO46" t="n">
-        <v>141.16</v>
+        <v>139.77</v>
       </c>
       <c r="BP46" t="inlineStr">
         <is>
@@ -14633,16 +14633,16 @@
         <v>53.4</v>
       </c>
       <c r="BY46" t="n">
-        <v>-33.1</v>
+        <v>-33.5</v>
       </c>
       <c r="BZ46" t="n">
-        <v>-34.5</v>
+        <v>-34.9</v>
       </c>
       <c r="CA46" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="CB46" t="n">
-        <v>287.6</v>
+        <v>285.4</v>
       </c>
       <c r="CC46" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="CD46" t="inlineStr"/>
       <c r="CE46" t="n">
-        <v>-2.81</v>
+        <v>-3.37</v>
       </c>
       <c r="CF46" t="n">
         <v>8.6</v>
@@ -14709,16 +14709,16 @@
         <v>1465</v>
       </c>
       <c r="DA46" t="n">
-        <v>-11.8</v>
+        <v>-12.3</v>
       </c>
       <c r="DB46" t="n">
-        <v>-5.4</v>
+        <v>-5.9</v>
       </c>
       <c r="DC46" t="n">
-        <v>-8.9</v>
+        <v>-9.4</v>
       </c>
       <c r="DD46" t="n">
-        <v>-15.9</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="47">
@@ -14771,7 +14771,7 @@
         <v>6.7</v>
       </c>
       <c r="O47" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="P47" t="n">
         <v>5.1</v>
@@ -15087,13 +15087,13 @@
         <v>76.8</v>
       </c>
       <c r="M48" t="n">
-        <v>44.7</v>
+        <v>48.7</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P48" t="n">
         <v>8.6</v>
@@ -15408,13 +15408,13 @@
         <v>1.2</v>
       </c>
       <c r="L49" t="n">
-        <v>52.3</v>
+        <v>51.4</v>
       </c>
       <c r="M49" t="n">
         <v>40.9</v>
       </c>
       <c r="N49" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="O49" t="n">
         <v>0.6</v>
@@ -15480,7 +15480,7 @@
         <v>16</v>
       </c>
       <c r="AJ49" t="n">
-        <v>64.73999999999999</v>
+        <v>66.08</v>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
@@ -15622,16 +15622,16 @@
         <v>-0.28</v>
       </c>
       <c r="CF49" t="n">
-        <v>7953.9</v>
+        <v>7952.1</v>
       </c>
       <c r="CG49" t="n">
-        <v>10737.2</v>
+        <v>10736.4</v>
       </c>
       <c r="CH49" t="n">
-        <v>9980.200000000001</v>
+        <v>9979.799999999999</v>
       </c>
       <c r="CI49" t="n">
-        <v>8816.4</v>
+        <v>8816.200000000001</v>
       </c>
       <c r="CJ49" t="n">
         <v>78.59999999999999</v>
@@ -15732,16 +15732,16 @@
         <v>0.8</v>
       </c>
       <c r="L50" t="n">
-        <v>61.2</v>
+        <v>60.3</v>
       </c>
       <c r="M50" t="n">
-        <v>95.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P50" t="n">
         <v>14.8</v>
@@ -15804,7 +15804,7 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18.93</v>
+        <v>19.44</v>
       </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="n">
@@ -15853,7 +15853,7 @@
         <v>0.2</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ50" t="n">
         <v>0.3</v>
@@ -15944,13 +15944,13 @@
         <v>0.31</v>
       </c>
       <c r="CF50" t="n">
-        <v>970.2</v>
+        <v>970</v>
       </c>
       <c r="CG50" t="n">
-        <v>1172.4</v>
+        <v>1172.3</v>
       </c>
       <c r="CH50" t="n">
-        <v>1165</v>
+        <v>1164.9</v>
       </c>
       <c r="CI50" t="n">
         <v>1057.6</v>
@@ -16054,16 +16054,16 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>64.3</v>
+        <v>62.9</v>
       </c>
       <c r="M51" t="n">
-        <v>45.8</v>
+        <v>46.3</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="O51" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P51" t="n">
         <v>7.7</v>
@@ -16124,7 +16124,7 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>461.69</v>
+        <v>482.83</v>
       </c>
       <c r="AK51" t="inlineStr">
         <is>
@@ -16132,10 +16132,10 @@
         </is>
       </c>
       <c r="AL51" t="n">
-        <v>18.75</v>
+        <v>18.65</v>
       </c>
       <c r="AM51" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="AN51" t="n">
         <v>5.09</v>
@@ -16172,7 +16172,7 @@
         <v>0.2</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY51" t="n">
         <v>0.2</v>
@@ -16197,23 +16197,23 @@
         </is>
       </c>
       <c r="BI51" t="n">
-        <v>9.49</v>
+        <v>8.91</v>
       </c>
       <c r="BJ51" t="n">
-        <v>49.2</v>
+        <v>48.4</v>
       </c>
       <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="n">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="BM51" t="n">
-        <v>49.2</v>
+        <v>48.4</v>
       </c>
       <c r="BN51" t="n">
-        <v>129.18</v>
+        <v>127.96</v>
       </c>
       <c r="BO51" t="n">
-        <v>250.98</v>
+        <v>249.11</v>
       </c>
       <c r="BP51" t="inlineStr">
         <is>
@@ -16241,16 +16241,16 @@
         <v>8.9</v>
       </c>
       <c r="BY51" t="n">
-        <v>-3.6</v>
+        <v>-4.1</v>
       </c>
       <c r="BZ51" t="n">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="CA51" t="n">
-        <v>142.9</v>
+        <v>141.6</v>
       </c>
       <c r="CB51" t="n">
-        <v>1631.3</v>
+        <v>1622</v>
       </c>
       <c r="CC51" t="inlineStr">
         <is>
@@ -16259,19 +16259,19 @@
       </c>
       <c r="CD51" t="inlineStr"/>
       <c r="CE51" t="n">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="CF51" t="n">
-        <v>104274.2</v>
+        <v>104208.1</v>
       </c>
       <c r="CG51" t="n">
-        <v>103057.5</v>
+        <v>103024.5</v>
       </c>
       <c r="CH51" t="n">
-        <v>113850.5</v>
+        <v>113834</v>
       </c>
       <c r="CI51" t="n">
-        <v>85720.39999999999</v>
+        <v>85713.8</v>
       </c>
       <c r="CJ51" t="n">
         <v>15.5</v>
@@ -16319,16 +16319,16 @@
         <v>2379</v>
       </c>
       <c r="DA51" t="n">
-        <v>80.8</v>
+        <v>79.8</v>
       </c>
       <c r="DB51" t="n">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="DC51" t="n">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="DD51" t="n">
-        <v>50.7</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="52">
@@ -16371,11 +16371,15 @@
       <c r="K52" t="n">
         <v>0.8</v>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
       <c r="M52" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>30.8</v>
+      </c>
+      <c r="N52" t="n">
+        <v>44.1</v>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
         <v>11.5</v>
@@ -16390,7 +16394,11 @@
         <v>0</v>
       </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Giá nằm dưới SMA(20)</t>
+        </is>
+      </c>
       <c r="V52" t="n">
         <v>-0.93</v>
       </c>
@@ -16433,10 +16441,16 @@
       <c r="AI52" t="n">
         <v>78</v>
       </c>
-      <c r="AJ52" t="inlineStr"/>
+      <c r="AJ52" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
+      <c r="AL52" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>51.2</v>
+      </c>
       <c r="AN52" t="n">
         <v>0</v>
       </c>
@@ -16444,7 +16458,11 @@
         <v>41</v>
       </c>
       <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
       <c r="AR52" t="n">
         <v>0</v>
       </c>
@@ -16455,26 +16473,62 @@
       <c r="AU52" t="n">
         <v>1736</v>
       </c>
-      <c r="AV52" t="inlineStr"/>
-      <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="inlineStr"/>
-      <c r="AZ52" t="inlineStr"/>
-      <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
+        </is>
+      </c>
+      <c r="AW52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BA52" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(10)</t>
+        </is>
+      </c>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(50)</t>
+        </is>
+      </c>
       <c r="BC52" t="inlineStr"/>
       <c r="BD52" t="inlineStr"/>
       <c r="BE52" t="inlineStr"/>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
-      <c r="BH52" t="inlineStr"/>
-      <c r="BI52" t="inlineStr"/>
-      <c r="BJ52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr">
+        <is>
+          <t>Trung tính</t>
+        </is>
+      </c>
+      <c r="BI52" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>8.34</v>
+      </c>
       <c r="BK52" t="inlineStr"/>
-      <c r="BL52" t="inlineStr"/>
-      <c r="BM52" t="inlineStr"/>
-      <c r="BN52" t="inlineStr"/>
-      <c r="BO52" t="inlineStr"/>
+      <c r="BL52" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>51.02</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>393.8</v>
+      </c>
       <c r="BP52" t="inlineStr">
         <is>
           <t>Có</t>
@@ -16504,17 +16558,39 @@
       <c r="BX52" t="n">
         <v>1359.4</v>
       </c>
-      <c r="BY52" t="inlineStr"/>
-      <c r="BZ52" t="inlineStr"/>
-      <c r="CA52" t="inlineStr"/>
-      <c r="CB52" t="inlineStr"/>
-      <c r="CC52" t="inlineStr"/>
+      <c r="BY52" t="n">
+        <v>-35.6</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>-38.6</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>527.3</v>
+      </c>
+      <c r="CC52" t="inlineStr">
+        <is>
+          <t>Giá nằm trên SMA(100)</t>
+        </is>
+      </c>
       <c r="CD52" t="inlineStr"/>
-      <c r="CE52" t="inlineStr"/>
-      <c r="CF52" t="inlineStr"/>
-      <c r="CG52" t="inlineStr"/>
-      <c r="CH52" t="inlineStr"/>
-      <c r="CI52" t="inlineStr"/>
+      <c r="CE52" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>2.8</v>
+      </c>
       <c r="CJ52" t="n">
         <v>99.8</v>
       </c>
@@ -16560,10 +16636,18 @@
       <c r="CZ52" t="n">
         <v>1736</v>
       </c>
-      <c r="DA52" t="inlineStr"/>
-      <c r="DB52" t="inlineStr"/>
-      <c r="DC52" t="inlineStr"/>
-      <c r="DD52" t="inlineStr"/>
+      <c r="DA52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -16615,7 +16699,7 @@
         <v>22.1</v>
       </c>
       <c r="O53" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P53" t="n">
         <v>9.300000000000001</v>
@@ -17155,7 +17239,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="P55" t="n">
         <v>7.1</v>
@@ -17463,12 +17547,14 @@
       <c r="K56" t="n">
         <v>0.5</v>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>72.7</v>
+      </c>
       <c r="M56" t="n">
-        <v>54.7</v>
+        <v>46.7</v>
       </c>
       <c r="N56" t="n">
-        <v>37.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="O56" t="n">
         <v>0.7</v>
@@ -17485,11 +17571,7 @@
       <c r="S56" t="n">
         <v>3.6</v>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Giá cắt xuống SMA(5)</t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(20)</t>
@@ -17534,14 +17616,14 @@
         <v>60</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM56" t="n">
-        <v>52.7</v>
+        <v>55.2</v>
       </c>
       <c r="AN56" t="n">
         <v>35.25</v>
@@ -17552,7 +17634,7 @@
       <c r="AP56" t="inlineStr"/>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Mua mạnh</t>
         </is>
       </c>
       <c r="AR56" t="n">
@@ -17569,26 +17651,22 @@
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &gt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AW56" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AY56" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AZ56" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BA56" t="inlineStr">
-        <is>
-          <t>Giá cắt xuống SMA(10)</t>
-        </is>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr">
         <is>
           <t>Giá nằm trên SMA(50)</t>
@@ -17596,7 +17674,11 @@
       </c>
       <c r="BC56" t="inlineStr"/>
       <c r="BD56" t="inlineStr"/>
-      <c r="BE56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>Tín hiệu mua</t>
+        </is>
+      </c>
       <c r="BF56" t="inlineStr"/>
       <c r="BG56" t="inlineStr"/>
       <c r="BH56" t="inlineStr">
@@ -17605,20 +17687,20 @@
         </is>
       </c>
       <c r="BI56" t="n">
-        <v>-1.69</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="BJ56" t="n">
-        <v>8</v>
+        <v>9.93</v>
       </c>
       <c r="BK56" t="inlineStr"/>
       <c r="BL56" t="n">
-        <v>-1.56</v>
+        <v>0.2</v>
       </c>
       <c r="BM56" t="n">
-        <v>8</v>
+        <v>9.93</v>
       </c>
       <c r="BN56" t="n">
-        <v>12.59</v>
+        <v>14.6</v>
       </c>
       <c r="BO56" t="inlineStr"/>
       <c r="BP56" t="inlineStr">
@@ -17651,16 +17733,16 @@
         <v>28.1</v>
       </c>
       <c r="BY56" t="n">
-        <v>-22.7</v>
+        <v>-21.3</v>
       </c>
       <c r="BZ56" t="n">
-        <v>-22.7</v>
+        <v>-21.3</v>
       </c>
       <c r="CA56" t="n">
-        <v>32.7</v>
+        <v>35.1</v>
       </c>
       <c r="CB56" t="n">
-        <v>204.3</v>
+        <v>209.8</v>
       </c>
       <c r="CC56" t="inlineStr">
         <is>
@@ -17669,13 +17751,13 @@
       </c>
       <c r="CD56" t="inlineStr"/>
       <c r="CE56" t="n">
-        <v>-1.56</v>
+        <v>0.2</v>
       </c>
       <c r="CF56" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="CG56" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="CH56" t="n">
         <v>1.1</v>
@@ -17725,16 +17807,16 @@
         <v>6249</v>
       </c>
       <c r="DA56" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="DB56" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="DC56" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="DD56" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="57">
@@ -17777,7 +17859,7 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -18006,16 +18088,16 @@
         <v>0.9</v>
       </c>
       <c r="L58" t="n">
-        <v>51.2</v>
+        <v>54.5</v>
       </c>
       <c r="M58" t="n">
-        <v>37.3</v>
+        <v>24.9</v>
       </c>
       <c r="N58" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="O58" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P58" t="n">
         <v>9.199999999999999</v>
@@ -18078,7 +18160,7 @@
         <v>81</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AK58" t="inlineStr"/>
       <c r="AL58" t="n">
@@ -18322,16 +18404,16 @@
         <v>1.4</v>
       </c>
       <c r="L59" t="n">
-        <v>39.4</v>
+        <v>38.8</v>
       </c>
       <c r="M59" t="n">
-        <v>38.2</v>
+        <v>41.7</v>
       </c>
       <c r="N59" t="n">
-        <v>5.9</v>
+        <v>0.2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P59" t="n">
         <v>7</v>
@@ -18394,7 +18476,7 @@
         <v>5</v>
       </c>
       <c r="AJ59" t="n">
-        <v>9.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
@@ -18402,10 +18484,10 @@
         </is>
       </c>
       <c r="AL59" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AM59" t="n">
-        <v>39.8</v>
+        <v>39.1</v>
       </c>
       <c r="AN59" t="n">
         <v>16.68</v>
@@ -18467,23 +18549,23 @@
         </is>
       </c>
       <c r="BI59" t="n">
-        <v>-8.720000000000001</v>
+        <v>-9.17</v>
       </c>
       <c r="BJ59" t="n">
-        <v>-5.69</v>
+        <v>-6.16</v>
       </c>
       <c r="BK59" t="inlineStr"/>
       <c r="BL59" t="n">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="BM59" t="n">
-        <v>-5.69</v>
+        <v>-6.16</v>
       </c>
       <c r="BN59" t="n">
-        <v>-23.25</v>
+        <v>-23.64</v>
       </c>
       <c r="BO59" t="n">
-        <v>205.55</v>
+        <v>204.01</v>
       </c>
       <c r="BP59" t="inlineStr">
         <is>
@@ -18515,16 +18597,16 @@
         <v>3.4</v>
       </c>
       <c r="BY59" t="n">
-        <v>-25.9</v>
+        <v>-26.3</v>
       </c>
       <c r="BZ59" t="n">
-        <v>-27.3</v>
+        <v>-27.7</v>
       </c>
       <c r="CA59" t="n">
-        <v>57.5</v>
+        <v>56.7</v>
       </c>
       <c r="CB59" t="n">
-        <v>2973.3</v>
+        <v>2957.9</v>
       </c>
       <c r="CC59" t="inlineStr">
         <is>
@@ -18533,19 +18615,19 @@
       </c>
       <c r="CD59" t="inlineStr"/>
       <c r="CE59" t="n">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="CF59" t="n">
-        <v>1730.1</v>
+        <v>1720</v>
       </c>
       <c r="CG59" t="n">
-        <v>2375.1</v>
+        <v>2370.1</v>
       </c>
       <c r="CH59" t="n">
-        <v>2330.2</v>
+        <v>2327.6</v>
       </c>
       <c r="CI59" t="n">
-        <v>2193.7</v>
+        <v>2192.7</v>
       </c>
       <c r="CJ59" t="n">
         <v>25.2</v>
@@ -18593,16 +18675,16 @@
         <v>2841</v>
       </c>
       <c r="DA59" t="n">
-        <v>-4.9</v>
+        <v>-5.3</v>
       </c>
       <c r="DB59" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="DC59" t="n">
-        <v>-3.9</v>
+        <v>-4.4</v>
       </c>
       <c r="DD59" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="60">
@@ -18868,16 +18950,16 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>70.8</v>
+        <v>70.5</v>
       </c>
       <c r="M61" t="n">
-        <v>22.8</v>
+        <v>73.7</v>
       </c>
       <c r="N61" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O61" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P61" t="n">
         <v>7</v>
@@ -18940,7 +19022,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="n">
-        <v>9.85</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AK61" t="inlineStr">
         <is>
@@ -18948,10 +19030,10 @@
         </is>
       </c>
       <c r="AL61" t="n">
-        <v>72.5</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="AM61" t="n">
-        <v>67.7</v>
+        <v>67.5</v>
       </c>
       <c r="AN61" t="n">
         <v>3.05</v>
@@ -19013,23 +19095,23 @@
         </is>
       </c>
       <c r="BI61" t="n">
-        <v>7.73</v>
+        <v>7.58</v>
       </c>
       <c r="BJ61" t="n">
-        <v>6.15</v>
+        <v>6.01</v>
       </c>
       <c r="BK61" t="inlineStr"/>
       <c r="BL61" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="BM61" t="n">
-        <v>6.15</v>
+        <v>6.01</v>
       </c>
       <c r="BN61" t="n">
-        <v>99.98999999999999</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="BO61" t="n">
-        <v>164.16</v>
+        <v>163.8</v>
       </c>
       <c r="BP61" t="inlineStr">
         <is>
@@ -19061,16 +19143,16 @@
         <v>357.7</v>
       </c>
       <c r="BY61" t="n">
-        <v>-15</v>
+        <v>-15.1</v>
       </c>
       <c r="BZ61" t="n">
-        <v>-13.9</v>
+        <v>-14</v>
       </c>
       <c r="CA61" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="CB61" t="n">
-        <v>970.3</v>
+        <v>968.8</v>
       </c>
       <c r="CC61" t="inlineStr">
         <is>
@@ -19083,7 +19165,7 @@
         </is>
       </c>
       <c r="CE61" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
       <c r="CF61" t="n">
         <v>261.5</v>
@@ -19143,16 +19225,16 @@
         <v>10244</v>
       </c>
       <c r="DA61" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="DB61" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="DC61" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="DD61" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="62">
@@ -19430,13 +19512,13 @@
         <v>1.2</v>
       </c>
       <c r="L63" t="n">
-        <v>55.1</v>
+        <v>49.6</v>
       </c>
       <c r="M63" t="n">
-        <v>59.3</v>
+        <v>59</v>
       </c>
       <c r="N63" t="n">
-        <v>12.8</v>
+        <v>0.3</v>
       </c>
       <c r="O63" t="n">
         <v>1.3</v>
@@ -19502,7 +19584,7 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AK63" t="inlineStr"/>
       <c r="AL63" t="n">
@@ -19548,7 +19630,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA63" t="inlineStr"/>
       <c r="BB63" t="inlineStr">
@@ -19636,16 +19718,16 @@
         <v>-1.83</v>
       </c>
       <c r="CF63" t="n">
-        <v>221.1</v>
+        <v>218.6</v>
       </c>
       <c r="CG63" t="n">
-        <v>227.7</v>
+        <v>226.5</v>
       </c>
       <c r="CH63" t="n">
-        <v>249.6</v>
+        <v>249</v>
       </c>
       <c r="CI63" t="n">
-        <v>261.2</v>
+        <v>261</v>
       </c>
       <c r="CJ63" t="n">
         <v>65.8</v>
@@ -20069,7 +20151,7 @@
         <v>2.5</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>5.3</v>
@@ -20378,16 +20460,16 @@
         <v>1.1</v>
       </c>
       <c r="L66" t="n">
-        <v>55.7</v>
+        <v>56.2</v>
       </c>
       <c r="M66" t="n">
-        <v>71.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O66" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P66" t="n">
         <v>11</v>
@@ -20444,7 +20526,7 @@
         <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="AK66" t="inlineStr">
         <is>
@@ -20452,10 +20534,10 @@
         </is>
       </c>
       <c r="AL66" t="n">
-        <v>13.6</v>
+        <v>13.65</v>
       </c>
       <c r="AM66" t="n">
-        <v>70</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AN66" t="n">
         <v>0.19</v>
@@ -20513,16 +20595,16 @@
         </is>
       </c>
       <c r="BI66" t="n">
-        <v>4.38</v>
+        <v>4.76</v>
       </c>
       <c r="BJ66" t="inlineStr"/>
       <c r="BK66" t="inlineStr"/>
       <c r="BL66" t="n">
-        <v>2.26</v>
+        <v>2.63</v>
       </c>
       <c r="BM66" t="inlineStr"/>
       <c r="BN66" t="n">
-        <v>123.82</v>
+        <v>124.64</v>
       </c>
       <c r="BO66" t="inlineStr"/>
       <c r="BP66" t="inlineStr">
@@ -20551,16 +20633,16 @@
         <v>44.5</v>
       </c>
       <c r="BY66" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="BZ66" t="n">
-        <v>-4.2</v>
+        <v>-3.9</v>
       </c>
       <c r="CA66" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="CB66" t="n">
-        <v>267.2</v>
+        <v>268.6</v>
       </c>
       <c r="CC66" t="inlineStr">
         <is>
@@ -20569,19 +20651,19 @@
       </c>
       <c r="CD66" t="inlineStr"/>
       <c r="CE66" t="n">
-        <v>2.26</v>
+        <v>2.63</v>
       </c>
       <c r="CF66" t="n">
-        <v>3379.4</v>
+        <v>3380.4</v>
       </c>
       <c r="CG66" t="n">
-        <v>3816.4</v>
+        <v>3816.9</v>
       </c>
       <c r="CH66" t="n">
-        <v>3448.9</v>
+        <v>3449.1</v>
       </c>
       <c r="CI66" t="n">
-        <v>2177.6</v>
+        <v>2177.7</v>
       </c>
       <c r="CJ66" t="n">
         <v>14.9</v>
@@ -20629,16 +20711,16 @@
         <v>1211</v>
       </c>
       <c r="DA66" t="n">
-        <v>78.2</v>
+        <v>78.8</v>
       </c>
       <c r="DB66" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="DC66" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="DD66" t="n">
-        <v>50.3</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="67">
@@ -20685,7 +20767,7 @@
         <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>63</v>
+        <v>55.4</v>
       </c>
       <c r="N67" t="n">
         <v>4.7</v>
@@ -21004,16 +21086,16 @@
         <v>1.5</v>
       </c>
       <c r="L68" t="n">
-        <v>43.8</v>
+        <v>41.9</v>
       </c>
       <c r="M68" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="O68" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P68" t="n">
         <v>10.3</v>
@@ -21076,7 +21158,7 @@
         <v>8</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4.02</v>
+        <v>4.25</v>
       </c>
       <c r="AK68" t="inlineStr">
         <is>
@@ -21084,10 +21166,10 @@
         </is>
       </c>
       <c r="AL68" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="AM68" t="n">
-        <v>42.8</v>
+        <v>41.4</v>
       </c>
       <c r="AN68" t="n">
         <v>14.05</v>
@@ -21130,7 +21212,7 @@
         <v>0.1</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BA68" t="inlineStr"/>
       <c r="BB68" t="inlineStr">
@@ -21149,23 +21231,23 @@
         </is>
       </c>
       <c r="BI68" t="n">
-        <v>-7</v>
+        <v>-7.76</v>
       </c>
       <c r="BJ68" t="n">
-        <v>0.24</v>
+        <v>-0.58</v>
       </c>
       <c r="BK68" t="inlineStr"/>
       <c r="BL68" t="n">
-        <v>-0.97</v>
+        <v>-1.78</v>
       </c>
       <c r="BM68" t="n">
-        <v>0.24</v>
+        <v>-0.58</v>
       </c>
       <c r="BN68" t="n">
-        <v>-19.31</v>
+        <v>-19.97</v>
       </c>
       <c r="BO68" t="n">
-        <v>89.76000000000001</v>
+        <v>88.22</v>
       </c>
       <c r="BP68" t="inlineStr">
         <is>
@@ -21197,16 +21279,16 @@
         <v>372.1</v>
       </c>
       <c r="BY68" t="n">
-        <v>-21.7</v>
+        <v>-22.3</v>
       </c>
       <c r="BZ68" t="n">
-        <v>-54.9</v>
+        <v>-55.2</v>
       </c>
       <c r="CA68" t="n">
-        <v>70.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="CB68" t="n">
-        <v>139.4</v>
+        <v>137.5</v>
       </c>
       <c r="CC68" t="inlineStr">
         <is>
@@ -21215,7 +21297,7 @@
       </c>
       <c r="CD68" t="inlineStr"/>
       <c r="CE68" t="n">
-        <v>-0.97</v>
+        <v>-1.78</v>
       </c>
       <c r="CF68" t="n">
         <v>1744.3</v>
@@ -21275,16 +21357,16 @@
         <v>1206</v>
       </c>
       <c r="DA68" t="n">
-        <v>-3</v>
+        <v>-3.8</v>
       </c>
       <c r="DB68" t="n">
-        <v>-4.2</v>
+        <v>-5</v>
       </c>
       <c r="DC68" t="n">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
       <c r="DD68" t="n">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="69">
@@ -21328,13 +21410,13 @@
         <v>1.1</v>
       </c>
       <c r="L69" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="M69" t="n">
-        <v>9.199999999999999</v>
+        <v>62.3</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="O69" t="n">
         <v>0.9</v>
@@ -21394,7 +21476,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="n">
-        <v>728.95</v>
+        <v>751.3</v>
       </c>
       <c r="AK69" t="inlineStr">
         <is>
@@ -21402,10 +21484,10 @@
         </is>
       </c>
       <c r="AL69" t="n">
-        <v>37.8</v>
+        <v>37.65</v>
       </c>
       <c r="AM69" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AN69" t="n">
         <v>25.77</v>
@@ -21442,13 +21524,13 @@
         <v>0.5</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AY69" t="n">
         <v>0.4</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr">
@@ -21471,23 +21553,23 @@
         </is>
       </c>
       <c r="BI69" t="n">
-        <v>31.25</v>
+        <v>30.73</v>
       </c>
       <c r="BJ69" t="n">
-        <v>77.05</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="BK69" t="inlineStr"/>
       <c r="BL69" t="n">
-        <v>3.42</v>
+        <v>3.01</v>
       </c>
       <c r="BM69" t="n">
-        <v>77.05</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="BN69" t="n">
-        <v>108.76</v>
+        <v>107.93</v>
       </c>
       <c r="BO69" t="n">
-        <v>442.48</v>
+        <v>440.33</v>
       </c>
       <c r="BP69" t="inlineStr">
         <is>
@@ -21515,16 +21597,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BY69" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BZ69" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="CA69" t="n">
-        <v>156.3</v>
+        <v>155.3</v>
       </c>
       <c r="CB69" t="n">
-        <v>583.3</v>
+        <v>580.6</v>
       </c>
       <c r="CC69" t="inlineStr">
         <is>
@@ -21537,19 +21619,19 @@
         </is>
       </c>
       <c r="CE69" t="n">
-        <v>3.42</v>
+        <v>3.01</v>
       </c>
       <c r="CF69" t="n">
-        <v>41780.3</v>
+        <v>41800.5</v>
       </c>
       <c r="CG69" t="n">
-        <v>43606.3</v>
+        <v>43616.3</v>
       </c>
       <c r="CH69" t="n">
-        <v>50683.1</v>
+        <v>50688.2</v>
       </c>
       <c r="CI69" t="n">
-        <v>43336.1</v>
+        <v>43338.1</v>
       </c>
       <c r="CJ69" t="n">
         <v>26.6</v>
@@ -21597,16 +21679,16 @@
         <v>2193</v>
       </c>
       <c r="DA69" t="n">
-        <v>94</v>
+        <v>93.2</v>
       </c>
       <c r="DB69" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="DC69" t="n">
-        <v>61.5</v>
+        <v>60.8</v>
       </c>
       <c r="DD69" t="n">
-        <v>85.59999999999999</v>
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -21650,16 +21732,16 @@
         <v>1.2</v>
       </c>
       <c r="L70" t="n">
-        <v>58.2</v>
+        <v>53.5</v>
       </c>
       <c r="M70" t="n">
-        <v>93.7</v>
+        <v>62.6</v>
       </c>
       <c r="N70" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O70" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P70" t="n">
         <v>5.9</v>
@@ -21722,7 +21804,7 @@
         <v>3</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
@@ -21730,10 +21812,10 @@
         </is>
       </c>
       <c r="AL70" t="n">
-        <v>9.029999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="AM70" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="AN70" t="n">
         <v>0.66</v>
@@ -21791,23 +21873,23 @@
         </is>
       </c>
       <c r="BI70" t="n">
-        <v>-6.91</v>
+        <v>-7.01</v>
       </c>
       <c r="BJ70" t="n">
-        <v>11.9</v>
+        <v>11.77</v>
       </c>
       <c r="BK70" t="inlineStr"/>
       <c r="BL70" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="BM70" t="n">
-        <v>11.9</v>
+        <v>11.77</v>
       </c>
       <c r="BN70" t="n">
-        <v>-29.73</v>
+        <v>-29.81</v>
       </c>
       <c r="BO70" t="n">
-        <v>31.68</v>
+        <v>31.53</v>
       </c>
       <c r="BP70" t="inlineStr">
         <is>
@@ -21839,16 +21921,16 @@
         <v>958.9</v>
       </c>
       <c r="BY70" t="n">
-        <v>-36.4</v>
+        <v>-36.5</v>
       </c>
       <c r="BZ70" t="n">
-        <v>-82.59999999999999</v>
+        <v>-82.7</v>
       </c>
       <c r="CA70" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="CB70" t="n">
-        <v>151.1</v>
+        <v>150.8</v>
       </c>
       <c r="CC70" t="inlineStr">
         <is>
@@ -21857,16 +21939,16 @@
       </c>
       <c r="CD70" t="inlineStr"/>
       <c r="CE70" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="CF70" t="n">
-        <v>733.8</v>
+        <v>733.7</v>
       </c>
       <c r="CG70" t="n">
-        <v>1139.3</v>
+        <v>1139.2</v>
       </c>
       <c r="CH70" t="n">
-        <v>1463.5</v>
+        <v>1463.4</v>
       </c>
       <c r="CI70" t="n">
         <v>1123.7</v>
@@ -21913,16 +21995,16 @@
         <v>1558</v>
       </c>
       <c r="DA70" t="n">
-        <v>-17.2</v>
+        <v>-17.3</v>
       </c>
       <c r="DB70" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="DC70" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="DD70" t="n">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="71">
@@ -21967,7 +22049,7 @@
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>16.7</v>
+        <v>18</v>
       </c>
       <c r="N71" t="n">
         <v>3.6</v>
@@ -22294,16 +22376,16 @@
         <v>0.2</v>
       </c>
       <c r="L72" t="n">
-        <v>66.8</v>
+        <v>63.6</v>
       </c>
       <c r="M72" t="n">
-        <v>55.4</v>
+        <v>66.7</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="O72" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="P72" t="n">
         <v>6.1</v>
@@ -22362,7 +22444,7 @@
         <v>95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="AK72" t="inlineStr">
         <is>
@@ -22403,16 +22485,16 @@
         </is>
       </c>
       <c r="AW72" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AY72" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AZ72" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr">

--- a/market_filtered_pe.xlsx
+++ b/market_filtered_pe.xlsx
@@ -1022,13 +1022,13 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="N2" t="n">
-        <v>34.2</v>
+        <v>33.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -1088,7 +1088,7 @@
         <v>87</v>
       </c>
       <c r="AK2" t="n">
-        <v>117.43</v>
+        <v>123.03</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="AM2" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>76.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>16.49</v>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AY2" t="n">
         <v>0.8</v>
@@ -1138,7 +1138,7 @@
         <v>0.7</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr">
@@ -1146,11 +1146,7 @@
           <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>Tín hiệu vượt đỉnh</t>
-        </is>
-      </c>
+      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
@@ -1161,20 +1157,20 @@
         </is>
       </c>
       <c r="BJ2" t="n">
-        <v>5.93</v>
+        <v>5.18</v>
       </c>
       <c r="BK2" t="n">
-        <v>55.39</v>
+        <v>54.29</v>
       </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="n">
-        <v>4.93</v>
+        <v>4.19</v>
       </c>
       <c r="BN2" t="n">
-        <v>55.39</v>
+        <v>54.29</v>
       </c>
       <c r="BO2" t="n">
-        <v>83</v>
+        <v>81.7</v>
       </c>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr">
@@ -1203,16 +1199,16 @@
         <v>116.3</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-14.3</v>
+        <v>-14.9</v>
       </c>
       <c r="CB2" t="n">
-        <v>131.2</v>
+        <v>129.5</v>
       </c>
       <c r="CC2" t="n">
-        <v>151</v>
+        <v>149.2</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -1221,19 +1217,19 @@
       </c>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="n">
-        <v>4.93</v>
+        <v>4.19</v>
       </c>
       <c r="CG2" t="n">
-        <v>9970.5</v>
+        <v>9978.700000000001</v>
       </c>
       <c r="CH2" t="n">
-        <v>10868.1</v>
+        <v>10872.2</v>
       </c>
       <c r="CI2" t="n">
-        <v>12342.3</v>
+        <v>12344.4</v>
       </c>
       <c r="CJ2" t="n">
-        <v>6969.6</v>
+        <v>6970.4</v>
       </c>
       <c r="CK2" t="n">
         <v>34.2</v>
@@ -1281,16 +1277,16 @@
         <v>1406</v>
       </c>
       <c r="DB2" t="n">
-        <v>70.90000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="DC2" t="n">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="DD2" t="n">
-        <v>36.7</v>
+        <v>35.8</v>
       </c>
       <c r="DE2" t="n">
-        <v>57.2</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="3">
@@ -1571,7 +1567,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>63.1</v>
+        <v>64.2</v>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -1807,13 +1803,13 @@
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>46.9</v>
+        <v>46.7</v>
       </c>
       <c r="N5" t="n">
-        <v>57.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>15.9</v>
+        <v>0.5</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -1873,7 +1869,7 @@
         <v>72</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
@@ -2116,13 +2112,13 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>37.8</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>50</v>
+        <v>74.7</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="P6" t="n">
         <v>0.4</v>
@@ -2188,7 +2184,7 @@
         <v>75</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.88</v>
+        <v>5.2</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
@@ -2196,10 +2192,10 @@
         </is>
       </c>
       <c r="AM6" t="n">
-        <v>132.9</v>
+        <v>132.6</v>
       </c>
       <c r="AN6" t="n">
-        <v>28.6</v>
+        <v>27.2</v>
       </c>
       <c r="AO6" t="n">
         <v>84.93000000000001</v>
@@ -2239,10 +2235,10 @@
         <v>0.2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr">
@@ -2261,23 +2257,23 @@
         </is>
       </c>
       <c r="BJ6" t="n">
-        <v>-4.66</v>
+        <v>-4.88</v>
       </c>
       <c r="BK6" t="n">
-        <v>-6.8</v>
+        <v>-7.01</v>
       </c>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-6.8</v>
+        <v>-7.01</v>
       </c>
       <c r="BO6" t="n">
-        <v>41.42</v>
+        <v>41.1</v>
       </c>
       <c r="BP6" t="n">
-        <v>287.97</v>
+        <v>287.09</v>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
@@ -2309,16 +2305,16 @@
         <v>51.1</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-12</v>
+        <v>-12.2</v>
       </c>
       <c r="CA6" t="n">
-        <v>-9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="CB6" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="CC6" t="n">
-        <v>8938.5</v>
+        <v>8918</v>
       </c>
       <c r="CD6" t="inlineStr">
         <is>
@@ -2327,19 +2323,19 @@
       </c>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>173.7</v>
+        <v>174.5</v>
       </c>
       <c r="CH6" t="n">
-        <v>177.1</v>
+        <v>177.5</v>
       </c>
       <c r="CI6" t="n">
-        <v>153.5</v>
+        <v>153.7</v>
       </c>
       <c r="CJ6" t="n">
-        <v>153.7</v>
+        <v>153.8</v>
       </c>
       <c r="CK6" t="n">
         <v>76.5</v>
@@ -2387,16 +2383,16 @@
         <v>13894</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="DC6" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="DD6" t="n">
-        <v>-5.3</v>
+        <v>-5.6</v>
       </c>
       <c r="DE6" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="7">
@@ -2757,13 +2753,13 @@
         <v>28.6</v>
       </c>
       <c r="N8" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="O8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q8" t="n">
         <v>6.8</v>
@@ -3063,13 +3059,13 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>86</v>
+        <v>63.6</v>
       </c>
       <c r="N9" t="n">
-        <v>67.7</v>
+        <v>38.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="P9" t="n">
         <v>0.2</v>
@@ -3135,7 +3131,7 @@
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
@@ -3384,13 +3380,13 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>63.6</v>
+        <v>63.9</v>
       </c>
       <c r="N10" t="n">
-        <v>54.1</v>
+        <v>57.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -3450,7 +3446,7 @@
         <v>81</v>
       </c>
       <c r="AK10" t="n">
-        <v>405.69</v>
+        <v>437.67</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -3458,10 +3454,10 @@
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="AN10" t="n">
-        <v>73.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="AO10" t="n">
         <v>26.79</v>
@@ -3495,10 +3491,10 @@
         </is>
       </c>
       <c r="AX10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AY10" t="n">
         <v>0.7</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0.6</v>
       </c>
       <c r="AZ10" t="n">
         <v>0.6</v>
@@ -3523,23 +3519,23 @@
         </is>
       </c>
       <c r="BJ10" t="n">
-        <v>4.64</v>
+        <v>4.84</v>
       </c>
       <c r="BK10" t="n">
-        <v>15.21</v>
+        <v>15.43</v>
       </c>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="BN10" t="n">
-        <v>15.21</v>
+        <v>15.43</v>
       </c>
       <c r="BO10" t="n">
-        <v>56.33</v>
+        <v>56.63</v>
       </c>
       <c r="BP10" t="n">
-        <v>233.83</v>
+        <v>234.47</v>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
@@ -3567,16 +3563,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="CB10" t="n">
-        <v>58.7</v>
+        <v>59</v>
       </c>
       <c r="CC10" t="n">
-        <v>858.3</v>
+        <v>860.1</v>
       </c>
       <c r="CD10" t="inlineStr">
         <is>
@@ -3585,19 +3581,19 @@
       </c>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="CG10" t="n">
-        <v>11148.5</v>
+        <v>11166.4</v>
       </c>
       <c r="CH10" t="n">
-        <v>12776</v>
+        <v>12784.9</v>
       </c>
       <c r="CI10" t="n">
-        <v>13463.2</v>
+        <v>13467.7</v>
       </c>
       <c r="CJ10" t="n">
-        <v>9967.5</v>
+        <v>9969.299999999999</v>
       </c>
       <c r="CK10" t="n">
         <v>86.59999999999999</v>
@@ -3645,16 +3641,16 @@
         <v>5608</v>
       </c>
       <c r="DB10" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="DC10" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="DD10" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="DE10" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="11">
@@ -3699,16 +3695,16 @@
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>48.4</v>
+        <v>49.9</v>
       </c>
       <c r="N11" t="n">
-        <v>59.6</v>
+        <v>45.6</v>
       </c>
       <c r="O11" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>11.4</v>
@@ -3771,7 +3767,7 @@
         <v>85</v>
       </c>
       <c r="AK11" t="n">
-        <v>29.8</v>
+        <v>33.7</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -3779,10 +3775,10 @@
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>25.25</v>
+        <v>25.45</v>
       </c>
       <c r="AN11" t="n">
-        <v>43</v>
+        <v>44.3</v>
       </c>
       <c r="AO11" t="n">
         <v>2.5</v>
@@ -3815,10 +3811,10 @@
         <v>0.6</v>
       </c>
       <c r="AY11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0.4</v>
       </c>
       <c r="BA11" t="n">
         <v>0.5</v>
@@ -3826,7 +3822,7 @@
       <c r="BB11" t="inlineStr"/>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>Giá cắt xuống SMA(50)</t>
+          <t>Giá nằm trên SMA(50)</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr"/>
@@ -3840,23 +3836,23 @@
         </is>
       </c>
       <c r="BJ11" t="n">
-        <v>-7.85</v>
+        <v>-7.12</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="inlineStr"/>
       <c r="BM11" t="n">
-        <v>-2.32</v>
+        <v>-1.55</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>57.32</v>
+        <v>58.57</v>
       </c>
       <c r="BP11" t="n">
-        <v>126.57</v>
+        <v>128.36</v>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
@@ -3888,16 +3884,16 @@
         <v>36.9</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-12.8</v>
+        <v>-12.1</v>
       </c>
       <c r="CA11" t="n">
-        <v>-18</v>
+        <v>-17.4</v>
       </c>
       <c r="CB11" t="n">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="CC11" t="n">
-        <v>733.4</v>
+        <v>740</v>
       </c>
       <c r="CD11" t="inlineStr">
         <is>
@@ -3906,19 +3902,19 @@
       </c>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="n">
-        <v>-2.32</v>
+        <v>-1.55</v>
       </c>
       <c r="CG11" t="n">
-        <v>2134.7</v>
+        <v>2120.7</v>
       </c>
       <c r="CH11" t="n">
-        <v>2221.7</v>
+        <v>2214.8</v>
       </c>
       <c r="CI11" t="n">
-        <v>2670.7</v>
+        <v>2667.3</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2427.4</v>
+        <v>2426</v>
       </c>
       <c r="CK11" t="n">
         <v>18.3</v>
@@ -3966,16 +3962,16 @@
         <v>2263</v>
       </c>
       <c r="DB11" t="n">
-        <v>19.5</v>
+        <v>20.4</v>
       </c>
       <c r="DC11" t="n">
-        <v>-4.9</v>
+        <v>-4.2</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="DE11" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="12">
@@ -4020,16 +4016,16 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>38.6</v>
+        <v>39.5</v>
       </c>
       <c r="N12" t="n">
-        <v>77.3</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="P12" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
         <v>7</v>
@@ -4092,7 +4088,7 @@
         <v>53</v>
       </c>
       <c r="AK12" t="n">
-        <v>157.49</v>
+        <v>173.61</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -4100,10 +4096,10 @@
         </is>
       </c>
       <c r="AM12" t="n">
-        <v>27.65</v>
+        <v>27.85</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="n">
         <v>4.24</v>
@@ -4137,10 +4133,10 @@
         </is>
       </c>
       <c r="AX12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AY12" t="n">
         <v>0.6</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.5</v>
       </c>
       <c r="AZ12" t="n">
         <v>0.5</v>
@@ -4165,23 +4161,23 @@
         </is>
       </c>
       <c r="BJ12" t="n">
-        <v>-10.66</v>
+        <v>-10.02</v>
       </c>
       <c r="BK12" t="n">
-        <v>-5.65</v>
+        <v>-4.97</v>
       </c>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="n">
-        <v>-2.64</v>
+        <v>-1.94</v>
       </c>
       <c r="BN12" t="n">
-        <v>-5.65</v>
+        <v>-4.97</v>
       </c>
       <c r="BO12" t="n">
-        <v>11.76</v>
+        <v>12.57</v>
       </c>
       <c r="BP12" t="n">
-        <v>96</v>
+        <v>97.42</v>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
@@ -4213,16 +4209,16 @@
         <v>600</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-14.5</v>
+        <v>-13.9</v>
       </c>
       <c r="CA12" t="n">
-        <v>-11.6</v>
+        <v>-10.9</v>
       </c>
       <c r="CB12" t="n">
-        <v>44.9</v>
+        <v>45.9</v>
       </c>
       <c r="CC12" t="n">
-        <v>2410.9</v>
+        <v>2429.1</v>
       </c>
       <c r="CD12" t="inlineStr">
         <is>
@@ -4231,19 +4227,19 @@
       </c>
       <c r="CE12" t="inlineStr"/>
       <c r="CF12" t="n">
-        <v>-2.64</v>
+        <v>-1.94</v>
       </c>
       <c r="CG12" t="n">
-        <v>9118.4</v>
+        <v>9097.4</v>
       </c>
       <c r="CH12" t="n">
-        <v>10515.5</v>
+        <v>10505</v>
       </c>
       <c r="CI12" t="n">
-        <v>12169.4</v>
+        <v>12164.1</v>
       </c>
       <c r="CJ12" t="n">
-        <v>11357.4</v>
+        <v>11355.3</v>
       </c>
       <c r="CK12" t="n">
         <v>27.8</v>
@@ -4291,16 +4287,16 @@
         <v>4070</v>
       </c>
       <c r="DB12" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="DC12" t="n">
-        <v>-7.9</v>
+        <v>-7.2</v>
       </c>
       <c r="DD12" t="n">
-        <v>-5.3</v>
+        <v>-4.7</v>
       </c>
       <c r="DE12" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -4345,16 +4341,16 @@
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>51.5</v>
+        <v>57.2</v>
       </c>
       <c r="N13" t="n">
-        <v>82.5</v>
+        <v>16.8</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q13" t="n">
         <v>12.6</v>
@@ -4417,7 +4413,7 @@
         <v>52</v>
       </c>
       <c r="AK13" t="n">
-        <v>55.14</v>
+        <v>64.45</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -4425,10 +4421,10 @@
         </is>
       </c>
       <c r="AM13" t="n">
-        <v>40.7</v>
+        <v>41.2</v>
       </c>
       <c r="AN13" t="n">
-        <v>60.6</v>
+        <v>62.2</v>
       </c>
       <c r="AO13" t="n">
         <v>6.68</v>
@@ -4471,7 +4467,7 @@
         <v>0.2</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BB13" t="inlineStr"/>
       <c r="BC13" t="inlineStr">
@@ -4490,23 +4486,23 @@
         </is>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.73</v>
+        <v>0.49</v>
       </c>
       <c r="BK13" t="n">
-        <v>20.41</v>
+        <v>21.89</v>
       </c>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="n">
-        <v>0.49</v>
+        <v>1.73</v>
       </c>
       <c r="BN13" t="n">
-        <v>20.41</v>
+        <v>21.89</v>
       </c>
       <c r="BO13" t="n">
-        <v>13.85</v>
+        <v>15.25</v>
       </c>
       <c r="BP13" t="n">
-        <v>575.8</v>
+        <v>584.1</v>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
@@ -4538,16 +4534,16 @@
         <v>18.9</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-7.2</v>
+        <v>-6</v>
       </c>
       <c r="CA13" t="n">
-        <v>-6.1</v>
+        <v>-5</v>
       </c>
       <c r="CB13" t="n">
-        <v>74.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="CC13" t="n">
-        <v>994.8</v>
+        <v>1008.3</v>
       </c>
       <c r="CD13" t="inlineStr">
         <is>
@@ -4556,16 +4552,16 @@
       </c>
       <c r="CE13" t="inlineStr"/>
       <c r="CF13" t="n">
-        <v>0.49</v>
+        <v>1.73</v>
       </c>
       <c r="CG13" t="n">
-        <v>7330.9</v>
+        <v>7331.5</v>
       </c>
       <c r="CH13" t="n">
-        <v>7436.7</v>
+        <v>7437</v>
       </c>
       <c r="CI13" t="n">
-        <v>8124.2</v>
+        <v>8124.3</v>
       </c>
       <c r="CJ13" t="n">
         <v>6257.5</v>
@@ -4616,16 +4612,16 @@
         <v>3221</v>
       </c>
       <c r="DB13" t="n">
-        <v>21.6</v>
+        <v>23.1</v>
       </c>
       <c r="DC13" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="DD13" t="n">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="DE13" t="n">
-        <v>22</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="14">
@@ -4670,13 +4666,13 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>44.7</v>
+        <v>46.8</v>
       </c>
       <c r="N14" t="n">
-        <v>51.4</v>
+        <v>48.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="P14" t="n">
         <v>0.7</v>
@@ -4742,7 +4738,7 @@
         <v>88</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.59</v>
+        <v>21.89</v>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
@@ -4793,7 +4789,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA14" t="n">
         <v>0.3</v>
@@ -4884,16 +4880,16 @@
         <v>-0.86</v>
       </c>
       <c r="CG14" t="n">
-        <v>1552.5</v>
+        <v>1550.7</v>
       </c>
       <c r="CH14" t="n">
-        <v>1607.9</v>
+        <v>1607.1</v>
       </c>
       <c r="CI14" t="n">
-        <v>1923.4</v>
+        <v>1922.9</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2034</v>
+        <v>2033.9</v>
       </c>
       <c r="CK14" t="n">
         <v>70.09999999999999</v>
@@ -4993,13 +4989,13 @@
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>41.7</v>
+        <v>50.2</v>
       </c>
       <c r="N15" t="n">
-        <v>40.2</v>
+        <v>41.9</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="P15" t="n">
         <v>0.7</v>
@@ -5065,7 +5061,7 @@
         <v>66</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.14</v>
+        <v>4.03</v>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
@@ -5073,10 +5069,10 @@
         </is>
       </c>
       <c r="AM15" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="AN15" t="n">
-        <v>35.3</v>
+        <v>37.2</v>
       </c>
       <c r="AO15" t="n">
         <v>0.85</v>
@@ -5087,7 +5083,7 @@
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>Bán mạnh</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AS15" t="n">
@@ -5106,10 +5102,10 @@
         </is>
       </c>
       <c r="AX15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AY15" t="n">
         <v>0.3</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0.2</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.2</v>
@@ -5134,23 +5130,23 @@
         </is>
       </c>
       <c r="BJ15" t="n">
-        <v>-5.04</v>
+        <v>-4.27</v>
       </c>
       <c r="BK15" t="n">
-        <v>-7.15</v>
+        <v>-6.39</v>
       </c>
       <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="n">
-        <v>-0.89</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="BN15" t="n">
-        <v>-7.15</v>
+        <v>-6.39</v>
       </c>
       <c r="BO15" t="n">
-        <v>22.83</v>
+        <v>23.83</v>
       </c>
       <c r="BP15" t="n">
-        <v>313.52</v>
+        <v>316.91</v>
       </c>
       <c r="BQ15" t="inlineStr">
         <is>
@@ -5182,16 +5178,16 @@
         <v>167.2</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-25.6</v>
+        <v>-25</v>
       </c>
       <c r="CA15" t="n">
-        <v>-29.5</v>
+        <v>-28.9</v>
       </c>
       <c r="CB15" t="n">
-        <v>56.2</v>
+        <v>57.5</v>
       </c>
       <c r="CC15" t="n">
-        <v>401.7</v>
+        <v>405.8</v>
       </c>
       <c r="CD15" t="inlineStr">
         <is>
@@ -5200,7 +5196,7 @@
       </c>
       <c r="CE15" t="inlineStr"/>
       <c r="CF15" t="n">
-        <v>-0.89</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="CG15" t="n">
         <v>826.7</v>
@@ -5260,16 +5256,16 @@
         <v>2122</v>
       </c>
       <c r="DB15" t="n">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="DC15" t="n">
-        <v>-5</v>
+        <v>-4.2</v>
       </c>
       <c r="DD15" t="n">
-        <v>-3.7</v>
+        <v>-3</v>
       </c>
       <c r="DE15" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
@@ -5314,13 +5310,13 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>29.2</v>
+        <v>31.5</v>
       </c>
       <c r="N16" t="n">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0.4</v>
@@ -5386,7 +5382,7 @@
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>4.98</v>
+        <v>5.77</v>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
@@ -5394,10 +5390,10 @@
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AN16" t="n">
-        <v>57.1</v>
+        <v>56.3</v>
       </c>
       <c r="AO16" t="n">
         <v>1.66</v>
@@ -5436,7 +5432,7 @@
         <v>0.2</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr">
@@ -5455,23 +5451,23 @@
         </is>
       </c>
       <c r="BJ16" t="n">
-        <v>-4.41</v>
+        <v>-4.85</v>
       </c>
       <c r="BK16" t="n">
-        <v>15.43</v>
+        <v>14.89</v>
       </c>
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="BN16" t="n">
-        <v>15.43</v>
+        <v>14.89</v>
       </c>
       <c r="BO16" t="n">
-        <v>-7.8</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="BP16" t="n">
-        <v>156.2</v>
+        <v>155.02</v>
       </c>
       <c r="BQ16" t="inlineStr">
         <is>
@@ -5503,16 +5499,16 @@
         <v>32.8</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-11.7</v>
+        <v>-12.1</v>
       </c>
       <c r="CA16" t="n">
-        <v>-26.9</v>
+        <v>-27.3</v>
       </c>
       <c r="CB16" t="n">
-        <v>86.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="CC16" t="n">
-        <v>510.8</v>
+        <v>507.9</v>
       </c>
       <c r="CD16" t="inlineStr">
         <is>
@@ -5521,16 +5517,16 @@
       </c>
       <c r="CE16" t="inlineStr"/>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
       <c r="CG16" t="n">
-        <v>1188.1</v>
+        <v>1187.3</v>
       </c>
       <c r="CH16" t="n">
-        <v>1477.5</v>
+        <v>1477.1</v>
       </c>
       <c r="CI16" t="n">
-        <v>1516.8</v>
+        <v>1516.6</v>
       </c>
       <c r="CJ16" t="n">
         <v>971.8</v>
@@ -5581,16 +5577,16 @@
         <v>3364</v>
       </c>
       <c r="DB16" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="DC16" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="DD16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="DE16" t="n">
-        <v>26.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="17">
@@ -5638,7 +5634,7 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="O17" t="n">
         <v>23</v>
@@ -5968,16 +5964,16 @@
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>62.3</v>
+        <v>60.4</v>
       </c>
       <c r="N18" t="n">
-        <v>47.6</v>
+        <v>49.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q18" t="n">
         <v>16</v>
@@ -6040,7 +6036,7 @@
         <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.68</v>
+        <v>4.23</v>
       </c>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="n">
@@ -6090,7 +6086,7 @@
         <v>0.3</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr">
@@ -6178,16 +6174,16 @@
         <v>1.01</v>
       </c>
       <c r="CG18" t="n">
-        <v>184.7</v>
+        <v>184.5</v>
       </c>
       <c r="CH18" t="n">
-        <v>206.3</v>
+        <v>206.2</v>
       </c>
       <c r="CI18" t="n">
-        <v>198.2</v>
+        <v>198.1</v>
       </c>
       <c r="CJ18" t="n">
-        <v>161.8</v>
+        <v>161.7</v>
       </c>
       <c r="CK18" t="n">
         <v>96.2</v>
@@ -6290,13 +6286,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>52.3</v>
+        <v>42.2</v>
       </c>
       <c r="O19" t="n">
         <v>13.1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
         <v>16</v>
@@ -6594,13 +6590,13 @@
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>38.1</v>
+        <v>36.2</v>
       </c>
       <c r="N20" t="n">
-        <v>65.3</v>
+        <v>72.2</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0.8</v>
@@ -6666,7 +6662,7 @@
         <v>68</v>
       </c>
       <c r="AK20" t="n">
-        <v>8.91</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
@@ -6714,7 +6710,7 @@
         <v>0.3</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ20" t="n">
         <v>0.2</v>
@@ -6808,13 +6804,13 @@
         <v>-0.93</v>
       </c>
       <c r="CG20" t="n">
-        <v>1848.3</v>
+        <v>1849</v>
       </c>
       <c r="CH20" t="n">
-        <v>2241.3</v>
+        <v>2241.6</v>
       </c>
       <c r="CI20" t="n">
-        <v>2778.6</v>
+        <v>2778.8</v>
       </c>
       <c r="CJ20" t="n">
         <v>2508.5</v>
@@ -6926,7 +6922,7 @@
         <v>26.2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
         <v>7.6</v>
@@ -7235,10 +7231,10 @@
         <v>33.4</v>
       </c>
       <c r="N22" t="n">
-        <v>15.1</v>
+        <v>29.5</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -7304,7 +7300,7 @@
         <v>91</v>
       </c>
       <c r="AK22" t="n">
-        <v>84.34999999999999</v>
+        <v>86.14</v>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
@@ -7349,7 +7345,7 @@
         </is>
       </c>
       <c r="AX22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AY22" t="n">
         <v>0.4</v>
@@ -7446,16 +7442,16 @@
         <v>0.66</v>
       </c>
       <c r="CG22" t="n">
-        <v>3112.7</v>
+        <v>3112.6</v>
       </c>
       <c r="CH22" t="n">
-        <v>3896.3</v>
+        <v>3896.2</v>
       </c>
       <c r="CI22" t="n">
-        <v>5087</v>
+        <v>5086.9</v>
       </c>
       <c r="CJ22" t="n">
-        <v>4102.8</v>
+        <v>4102.7</v>
       </c>
       <c r="CK22" t="n">
         <v>56.6</v>
@@ -7557,16 +7553,16 @@
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>70.3</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>35.4</v>
+        <v>83.3</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q23" t="n">
         <v>7.8</v>
@@ -7623,7 +7619,7 @@
         <v>75</v>
       </c>
       <c r="AK23" t="n">
-        <v>633.5</v>
+        <v>639.58</v>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
@@ -7765,16 +7761,16 @@
         <v>4.08</v>
       </c>
       <c r="CG23" t="n">
-        <v>22957</v>
+        <v>22961.4</v>
       </c>
       <c r="CH23" t="n">
-        <v>27232.3</v>
+        <v>27234.5</v>
       </c>
       <c r="CI23" t="n">
-        <v>25598.8</v>
+        <v>25599.9</v>
       </c>
       <c r="CJ23" t="n">
-        <v>20577.6</v>
+        <v>20578</v>
       </c>
       <c r="CK23" t="n">
         <v>21.6</v>
@@ -7879,13 +7875,13 @@
         <v>29.7</v>
       </c>
       <c r="N24" t="n">
-        <v>71.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="O24" t="n">
         <v>21.7</v>
       </c>
       <c r="P24" t="n">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
@@ -8202,13 +8198,13 @@
         <v>59.1</v>
       </c>
       <c r="N25" t="n">
-        <v>63.6</v>
+        <v>63.7</v>
       </c>
       <c r="O25" t="n">
         <v>9.6</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>9</v>
@@ -8518,13 +8514,13 @@
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>33.1</v>
+        <v>34.6</v>
       </c>
       <c r="N26" t="n">
-        <v>63.6</v>
+        <v>55.2</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P26" t="n">
         <v>0.5</v>
@@ -8594,7 +8590,7 @@
         <v>72</v>
       </c>
       <c r="AK26" t="n">
-        <v>103.9</v>
+        <v>113.03</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
@@ -8602,10 +8598,10 @@
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>15.25</v>
+        <v>15.2</v>
       </c>
       <c r="AN26" t="n">
-        <v>67</v>
+        <v>66.2</v>
       </c>
       <c r="AO26" t="n">
         <v>11.29</v>
@@ -8645,7 +8641,7 @@
         <v>0.3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA26" t="n">
         <v>0.5</v>
@@ -8667,23 +8663,23 @@
         </is>
       </c>
       <c r="BJ26" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="BK26" t="n">
-        <v>18.22</v>
+        <v>17.83</v>
       </c>
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="n">
-        <v>-0.97</v>
+        <v>-1.3</v>
       </c>
       <c r="BN26" t="n">
-        <v>18.22</v>
+        <v>17.83</v>
       </c>
       <c r="BO26" t="n">
-        <v>32.88</v>
+        <v>32.45</v>
       </c>
       <c r="BP26" t="n">
-        <v>24.75</v>
+        <v>24.34</v>
       </c>
       <c r="BQ26" t="inlineStr">
         <is>
@@ -8715,16 +8711,16 @@
         <v>52.3</v>
       </c>
       <c r="BZ26" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="CA26" t="n">
-        <v>-28.4</v>
+        <v>-28.6</v>
       </c>
       <c r="CB26" t="n">
-        <v>64.7</v>
+        <v>64.2</v>
       </c>
       <c r="CC26" t="n">
-        <v>574</v>
+        <v>571.7</v>
       </c>
       <c r="CD26" t="inlineStr">
         <is>
@@ -8733,19 +8729,19 @@
       </c>
       <c r="CE26" t="inlineStr"/>
       <c r="CF26" t="n">
-        <v>-0.97</v>
+        <v>-1.3</v>
       </c>
       <c r="CG26" t="n">
-        <v>21547.8</v>
+        <v>21551.4</v>
       </c>
       <c r="CH26" t="n">
-        <v>22125.9</v>
+        <v>22127.7</v>
       </c>
       <c r="CI26" t="n">
-        <v>20895.5</v>
+        <v>20896.4</v>
       </c>
       <c r="CJ26" t="n">
-        <v>14984.4</v>
+        <v>14984.7</v>
       </c>
       <c r="CK26" t="n">
         <v>26.4</v>
@@ -8791,16 +8787,16 @@
         <v>1001</v>
       </c>
       <c r="DB26" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="DC26" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="DD26" t="n">
-        <v>18.3</v>
+        <v>17.9</v>
       </c>
       <c r="DE26" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="27">
@@ -9083,13 +9079,13 @@
         <v>15.1</v>
       </c>
       <c r="N28" t="n">
-        <v>34.9</v>
+        <v>38.3</v>
       </c>
       <c r="O28" t="n">
         <v>20</v>
       </c>
       <c r="P28" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Q28" t="n">
         <v>4.9</v>
@@ -9401,13 +9397,13 @@
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>38.2</v>
+        <v>56.6</v>
       </c>
       <c r="N29" t="n">
-        <v>4.3</v>
+        <v>98</v>
       </c>
       <c r="O29" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="P29" t="n">
         <v>1.2</v>
@@ -9477,7 +9473,7 @@
         <v>48</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.72</v>
+        <v>1.07</v>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
@@ -9485,10 +9481,10 @@
         </is>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>23.15</v>
       </c>
       <c r="AN29" t="n">
-        <v>57.9</v>
+        <v>59.1</v>
       </c>
       <c r="AO29" t="n">
         <v>6.64</v>
@@ -9518,16 +9514,16 @@
         </is>
       </c>
       <c r="AX29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY29" t="n">
         <v>0.3</v>
       </c>
-      <c r="AY29" t="n">
+      <c r="AZ29" t="n">
         <v>0.2</v>
       </c>
-      <c r="AZ29" t="n">
-        <v>0.1</v>
-      </c>
       <c r="BA29" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
@@ -9550,23 +9546,23 @@
         </is>
       </c>
       <c r="BJ29" t="n">
-        <v>-2.54</v>
+        <v>-1.91</v>
       </c>
       <c r="BK29" t="n">
-        <v>6.73</v>
+        <v>7.42</v>
       </c>
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" t="n">
-        <v>1.77</v>
+        <v>2.43</v>
       </c>
       <c r="BN29" t="n">
-        <v>6.73</v>
+        <v>7.42</v>
       </c>
       <c r="BO29" t="n">
-        <v>59.2</v>
+        <v>60.24</v>
       </c>
       <c r="BP29" t="n">
-        <v>225.92</v>
+        <v>228.05</v>
       </c>
       <c r="BQ29" t="inlineStr">
         <is>
@@ -9598,16 +9594,16 @@
         <v>299.6</v>
       </c>
       <c r="BZ29" t="n">
-        <v>-6.5</v>
+        <v>-5.9</v>
       </c>
       <c r="CA29" t="n">
-        <v>-5.5</v>
+        <v>-4.9</v>
       </c>
       <c r="CB29" t="n">
-        <v>60.2</v>
+        <v>61.3</v>
       </c>
       <c r="CC29" t="n">
-        <v>1710</v>
+        <v>1721.8</v>
       </c>
       <c r="CD29" t="inlineStr">
         <is>
@@ -9616,7 +9612,7 @@
       </c>
       <c r="CE29" t="inlineStr"/>
       <c r="CF29" t="n">
-        <v>1.77</v>
+        <v>2.43</v>
       </c>
       <c r="CG29" t="n">
         <v>101</v>
@@ -9674,16 +9670,16 @@
         <v>5146</v>
       </c>
       <c r="DB29" t="n">
-        <v>33.9</v>
+        <v>34.8</v>
       </c>
       <c r="DC29" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="DD29" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="DE29" t="n">
-        <v>21.3</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="30">
@@ -9737,7 +9733,7 @@
         <v>30</v>
       </c>
       <c r="P30" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q30" t="n">
         <v>7.2</v>
@@ -10056,7 +10052,7 @@
         <v>53.1</v>
       </c>
       <c r="N31" t="n">
-        <v>40.4</v>
+        <v>43.9</v>
       </c>
       <c r="O31" t="n">
         <v>4.7</v>
@@ -10377,7 +10373,7 @@
         <v>57.2</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q32" t="n">
         <v>10.1</v>
@@ -10686,7 +10682,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
@@ -10918,16 +10914,16 @@
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>66.7</v>
+        <v>65.7</v>
       </c>
       <c r="N34" t="n">
-        <v>54.6</v>
+        <v>55.7</v>
       </c>
       <c r="O34" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P34" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q34" t="n">
         <v>7.1</v>
@@ -10984,7 +10980,7 @@
         <v>91</v>
       </c>
       <c r="AK34" t="n">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
@@ -10992,10 +10988,10 @@
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="AN34" t="n">
-        <v>74.09999999999999</v>
+        <v>73.2</v>
       </c>
       <c r="AO34" t="n">
         <v>1.35</v>
@@ -11025,16 +11021,16 @@
         </is>
       </c>
       <c r="AX34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY34" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>1.5</v>
       </c>
       <c r="AZ34" t="n">
         <v>1.4</v>
       </c>
       <c r="BA34" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
@@ -11057,23 +11053,23 @@
         </is>
       </c>
       <c r="BJ34" t="n">
-        <v>9.51</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="BK34" t="n">
-        <v>19.61</v>
+        <v>18.65</v>
       </c>
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="n">
-        <v>6.8</v>
+        <v>5.94</v>
       </c>
       <c r="BN34" t="n">
-        <v>19.61</v>
+        <v>18.65</v>
       </c>
       <c r="BO34" t="n">
-        <v>106.57</v>
+        <v>104.91</v>
       </c>
       <c r="BP34" t="n">
-        <v>189.07</v>
+        <v>186.75</v>
       </c>
       <c r="BQ34" t="inlineStr">
         <is>
@@ -11101,16 +11097,16 @@
         <v>66.8</v>
       </c>
       <c r="BZ34" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="CA34" t="n">
-        <v>-38</v>
+        <v>-38.5</v>
       </c>
       <c r="CB34" t="n">
-        <v>162.1</v>
+        <v>160</v>
       </c>
       <c r="CC34" t="n">
-        <v>268.8</v>
+        <v>265.9</v>
       </c>
       <c r="CD34" t="inlineStr">
         <is>
@@ -11119,19 +11115,19 @@
       </c>
       <c r="CE34" t="inlineStr"/>
       <c r="CF34" t="n">
-        <v>6.8</v>
+        <v>5.94</v>
       </c>
       <c r="CG34" t="n">
-        <v>554.2</v>
+        <v>554.3</v>
       </c>
       <c r="CH34" t="n">
-        <v>571</v>
+        <v>571.1</v>
       </c>
       <c r="CI34" t="n">
         <v>650</v>
       </c>
       <c r="CJ34" t="n">
-        <v>710.8</v>
+        <v>710.9</v>
       </c>
       <c r="CK34" t="n">
         <v>10.9</v>
@@ -11179,16 +11175,16 @@
         <v>3275</v>
       </c>
       <c r="DB34" t="n">
-        <v>73.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="DC34" t="n">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="DD34" t="n">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="DE34" t="n">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="35">
@@ -11233,13 +11229,13 @@
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="N35" t="n">
-        <v>59.5</v>
+        <v>59.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11256,11 +11252,7 @@
       <c r="T35" t="n">
         <v>6.1</v>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Giá cắt lên SMA(5)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -11309,14 +11301,14 @@
         <v>72</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="AN35" t="n">
-        <v>52.9</v>
+        <v>43.8</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
@@ -11327,7 +11319,7 @@
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AS35" t="n">
@@ -11342,11 +11334,11 @@
       </c>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và tăng dần</t>
+          <t>MACD Histogram &lt; 0 và giảm dần</t>
         </is>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AY35" t="n">
         <v>0</v>
@@ -11355,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
@@ -11374,23 +11366,23 @@
         </is>
       </c>
       <c r="BJ35" t="n">
-        <v>-0.39</v>
+        <v>-2.23</v>
       </c>
       <c r="BK35" t="n">
-        <v>3.33</v>
+        <v>1.43</v>
       </c>
       <c r="BL35" t="inlineStr"/>
       <c r="BM35" t="n">
-        <v>1.77</v>
+        <v>-0.11</v>
       </c>
       <c r="BN35" t="n">
-        <v>3.33</v>
+        <v>1.43</v>
       </c>
       <c r="BO35" t="n">
-        <v>-3.62</v>
+        <v>-5.4</v>
       </c>
       <c r="BP35" t="n">
-        <v>96.87</v>
+        <v>93.23999999999999</v>
       </c>
       <c r="BQ35" t="inlineStr">
         <is>
@@ -11422,16 +11414,16 @@
         <v>19.5</v>
       </c>
       <c r="BZ35" t="n">
-        <v>-21.2</v>
+        <v>-22.6</v>
       </c>
       <c r="CA35" t="n">
-        <v>-16.8</v>
+        <v>-18.3</v>
       </c>
       <c r="CB35" t="n">
-        <v>28.5</v>
+        <v>26.1</v>
       </c>
       <c r="CC35" t="n">
-        <v>130.4</v>
+        <v>126.1</v>
       </c>
       <c r="CD35" t="inlineStr">
         <is>
@@ -11440,7 +11432,7 @@
       </c>
       <c r="CE35" t="inlineStr"/>
       <c r="CF35" t="n">
-        <v>1.77</v>
+        <v>-0.11</v>
       </c>
       <c r="CG35" t="n">
         <v>10.4</v>
@@ -11500,16 +11492,16 @@
         <v>4014</v>
       </c>
       <c r="DB35" t="n">
-        <v>-0.5</v>
+        <v>-2.4</v>
       </c>
       <c r="DC35" t="n">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
       <c r="DD35" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="DE35" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="36">
@@ -11557,13 +11549,13 @@
         <v>50</v>
       </c>
       <c r="N36" t="n">
-        <v>40.6</v>
+        <v>37.3</v>
       </c>
       <c r="O36" t="n">
         <v>5.7</v>
       </c>
       <c r="P36" t="n">
-        <v>101.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="Q36" t="n">
         <v>4.8</v>
@@ -11869,16 +11861,16 @@
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>34.8</v>
+        <v>41.4</v>
       </c>
       <c r="N37" t="n">
-        <v>76.2</v>
+        <v>6.4</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q37" t="n">
         <v>7.3</v>
@@ -11941,7 +11933,7 @@
         <v>53</v>
       </c>
       <c r="AK37" t="n">
-        <v>6.98</v>
+        <v>7.6</v>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
@@ -11949,10 +11941,10 @@
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>35.2</v>
+        <v>35.35</v>
       </c>
       <c r="AN37" t="n">
-        <v>35.8</v>
+        <v>36.4</v>
       </c>
       <c r="AO37" t="n">
         <v>5.13</v>
@@ -11995,7 +11987,7 @@
         <v>0.3</v>
       </c>
       <c r="BA37" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
@@ -12014,23 +12006,23 @@
         </is>
       </c>
       <c r="BJ37" t="n">
-        <v>-7.49</v>
+        <v>-7.1</v>
       </c>
       <c r="BK37" t="n">
-        <v>-7.37</v>
+        <v>-6.97</v>
       </c>
       <c r="BL37" t="inlineStr"/>
       <c r="BM37" t="n">
-        <v>-0.85</v>
+        <v>-0.42</v>
       </c>
       <c r="BN37" t="n">
-        <v>-7.37</v>
+        <v>-6.97</v>
       </c>
       <c r="BO37" t="n">
-        <v>15.11</v>
+        <v>15.6</v>
       </c>
       <c r="BP37" t="n">
-        <v>264.59</v>
+        <v>266.14</v>
       </c>
       <c r="BQ37" t="inlineStr">
         <is>
@@ -12062,25 +12054,25 @@
         <v>61.4</v>
       </c>
       <c r="BZ37" t="n">
-        <v>-15.9</v>
+        <v>-15.6</v>
       </c>
       <c r="CA37" t="n">
-        <v>-14.4</v>
+        <v>-14.1</v>
       </c>
       <c r="CB37" t="n">
-        <v>39.9</v>
+        <v>40.5</v>
       </c>
       <c r="CC37" t="n">
-        <v>361.6</v>
+        <v>363.6</v>
       </c>
       <c r="CD37" t="inlineStr">
         <is>
-          <t>Giá nằm dưới SMA(100)</t>
+          <t>Giá nằm trên SMA(100)</t>
         </is>
       </c>
       <c r="CE37" t="inlineStr"/>
       <c r="CF37" t="n">
-        <v>-0.85</v>
+        <v>-0.42</v>
       </c>
       <c r="CG37" t="n">
         <v>497.2</v>
@@ -12089,7 +12081,7 @@
         <v>694.7</v>
       </c>
       <c r="CI37" t="n">
-        <v>724.2</v>
+        <v>724.3</v>
       </c>
       <c r="CJ37" t="n">
         <v>541.5</v>
@@ -12144,16 +12136,16 @@
         <v>4865</v>
       </c>
       <c r="DB37" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="DC37" t="n">
-        <v>-6.9</v>
+        <v>-6.5</v>
       </c>
       <c r="DD37" t="n">
-        <v>-6</v>
+        <v>-5.6</v>
       </c>
       <c r="DE37" t="n">
-        <v>-0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -12201,13 +12193,13 @@
         <v>88</v>
       </c>
       <c r="N38" t="n">
-        <v>29.2</v>
+        <v>31.3</v>
       </c>
       <c r="O38" t="n">
         <v>23.1</v>
       </c>
       <c r="P38" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="Q38" t="n">
         <v>7.1</v>
@@ -12515,16 +12507,16 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>89.7</v>
+        <v>91.3</v>
       </c>
       <c r="N39" t="n">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="O39" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="P39" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="Q39" t="n">
         <v>12.4</v>
@@ -12587,14 +12579,14 @@
         <v>88</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="AN39" t="n">
-        <v>62</v>
+        <v>60.6</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -12624,7 +12616,7 @@
         </is>
       </c>
       <c r="AX39" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY39" t="n">
         <v>0.2</v>
@@ -12652,23 +12644,23 @@
         </is>
       </c>
       <c r="BJ39" t="n">
-        <v>-6.95</v>
+        <v>-7.58</v>
       </c>
       <c r="BK39" t="n">
-        <v>43.98</v>
+        <v>43</v>
       </c>
       <c r="BL39" t="inlineStr"/>
       <c r="BM39" t="n">
-        <v>1.34</v>
+        <v>0.66</v>
       </c>
       <c r="BN39" t="n">
-        <v>43.98</v>
+        <v>43</v>
       </c>
       <c r="BO39" t="n">
-        <v>77.42</v>
+        <v>76.22</v>
       </c>
       <c r="BP39" t="n">
-        <v>89.65000000000001</v>
+        <v>88.37</v>
       </c>
       <c r="BQ39" t="inlineStr">
         <is>
@@ -12700,16 +12692,16 @@
         <v>122.2</v>
       </c>
       <c r="BZ39" t="n">
-        <v>-12.9</v>
+        <v>-13.5</v>
       </c>
       <c r="CA39" t="n">
-        <v>-7</v>
+        <v>-7.6</v>
       </c>
       <c r="CB39" t="n">
-        <v>124.5</v>
+        <v>123</v>
       </c>
       <c r="CC39" t="n">
-        <v>301.8</v>
+        <v>299.1</v>
       </c>
       <c r="CD39" t="inlineStr">
         <is>
@@ -12718,7 +12710,7 @@
       </c>
       <c r="CE39" t="inlineStr"/>
       <c r="CF39" t="n">
-        <v>1.34</v>
+        <v>0.66</v>
       </c>
       <c r="CG39" t="n">
         <v>88.3</v>
@@ -12776,16 +12768,16 @@
         <v>1174</v>
       </c>
       <c r="DB39" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="DC39" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="DD39" t="n">
-        <v>22.1</v>
+        <v>21.3</v>
       </c>
       <c r="DE39" t="n">
-        <v>39.1</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="40">
@@ -12830,13 +12822,13 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>53.9</v>
+        <v>54.8</v>
       </c>
       <c r="N40" t="n">
-        <v>51</v>
+        <v>33.3</v>
       </c>
       <c r="O40" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="P40" t="n">
         <v>3.1</v>
@@ -12896,7 +12888,7 @@
         <v>59</v>
       </c>
       <c r="AK40" t="n">
-        <v>66.56</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
@@ -12904,10 +12896,10 @@
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>16.2</v>
+        <v>16.35</v>
       </c>
       <c r="AN40" t="n">
-        <v>67.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AO40" t="n">
         <v>1.83</v>
@@ -12940,13 +12932,13 @@
         <v>2</v>
       </c>
       <c r="AY40" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AZ40" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="BA40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr">
@@ -12969,20 +12961,20 @@
         </is>
       </c>
       <c r="BJ40" t="n">
-        <v>4.52</v>
+        <v>5.48</v>
       </c>
       <c r="BK40" t="n">
-        <v>11.34</v>
+        <v>12.37</v>
       </c>
       <c r="BL40" t="inlineStr"/>
       <c r="BM40" t="n">
-        <v>1.89</v>
+        <v>2.83</v>
       </c>
       <c r="BN40" t="n">
-        <v>11.34</v>
+        <v>12.37</v>
       </c>
       <c r="BO40" t="n">
-        <v>23.48</v>
+        <v>24.62</v>
       </c>
       <c r="BP40" t="inlineStr"/>
       <c r="BQ40" t="inlineStr">
@@ -13011,16 +13003,16 @@
         <v>22.3</v>
       </c>
       <c r="BZ40" t="n">
-        <v>-2.7</v>
+        <v>-1.8</v>
       </c>
       <c r="CA40" t="n">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
       <c r="CB40" t="n">
-        <v>35</v>
+        <v>36.2</v>
       </c>
       <c r="CC40" t="n">
-        <v>341.4</v>
+        <v>345.4</v>
       </c>
       <c r="CD40" t="inlineStr">
         <is>
@@ -13029,19 +13021,19 @@
       </c>
       <c r="CE40" t="inlineStr"/>
       <c r="CF40" t="n">
-        <v>1.89</v>
+        <v>2.83</v>
       </c>
       <c r="CG40" t="n">
-        <v>2084.1</v>
+        <v>2073.1</v>
       </c>
       <c r="CH40" t="n">
-        <v>2380</v>
+        <v>2374.5</v>
       </c>
       <c r="CI40" t="n">
-        <v>2231.6</v>
+        <v>2228.8</v>
       </c>
       <c r="CJ40" t="n">
-        <v>2031.9</v>
+        <v>2030.8</v>
       </c>
       <c r="CK40" t="n">
         <v>30</v>
@@ -13089,16 +13081,16 @@
         <v>2243</v>
       </c>
       <c r="DB40" t="n">
-        <v>19.1</v>
+        <v>20.2</v>
       </c>
       <c r="DC40" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="DD40" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
       </c>
       <c r="DE40" t="n">
-        <v>16</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="41">
@@ -13375,12 +13367,14 @@
         <v>100</v>
       </c>
       <c r="N42" t="n">
-        <v>29</v>
+        <v>48.7</v>
       </c>
       <c r="O42" t="n">
         <v>140.1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
+      <c r="P42" t="n">
+        <v>2.7</v>
+      </c>
       <c r="Q42" t="n">
         <v>10.2</v>
       </c>
@@ -13479,7 +13473,7 @@
         </is>
       </c>
       <c r="AX42" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AY42" t="n">
         <v>0.2</v>
@@ -13576,16 +13570,16 @@
         <v>-5.63</v>
       </c>
       <c r="CG42" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="CH42" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="CI42" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="CJ42" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="CK42" t="n">
         <v>63.1</v>
@@ -13694,7 +13688,7 @@
         <v>163.5</v>
       </c>
       <c r="P43" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
       <c r="Q43" t="n">
         <v>9.199999999999999</v>
@@ -14000,16 +13994,16 @@
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>29.8</v>
+        <v>26.3</v>
       </c>
       <c r="N44" t="n">
-        <v>58.7</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q44" t="n">
         <v>11.3</v>
@@ -14072,7 +14066,7 @@
         <v>41</v>
       </c>
       <c r="AK44" t="n">
-        <v>4.24</v>
+        <v>5.01</v>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
@@ -14080,10 +14074,10 @@
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>60.7</v>
+        <v>60.8</v>
       </c>
       <c r="AN44" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="AO44" t="n">
         <v>18.12</v>
@@ -14145,23 +14139,23 @@
         </is>
       </c>
       <c r="BJ44" t="n">
-        <v>-6.76</v>
+        <v>-6.61</v>
       </c>
       <c r="BK44" t="n">
-        <v>-11.9</v>
+        <v>-11.76</v>
       </c>
       <c r="BL44" t="inlineStr"/>
       <c r="BM44" t="n">
-        <v>-0.49</v>
+        <v>-0.33</v>
       </c>
       <c r="BN44" t="n">
-        <v>-11.9</v>
+        <v>-11.76</v>
       </c>
       <c r="BO44" t="n">
-        <v>8.43</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="BP44" t="n">
-        <v>289.88</v>
+        <v>290.52</v>
       </c>
       <c r="BQ44" t="inlineStr">
         <is>
@@ -14193,16 +14187,16 @@
         <v>94.40000000000001</v>
       </c>
       <c r="BZ44" t="n">
-        <v>-15.5</v>
+        <v>-15.3</v>
       </c>
       <c r="CA44" t="n">
-        <v>-13.3</v>
+        <v>-13.1</v>
       </c>
       <c r="CB44" t="n">
-        <v>51.9</v>
+        <v>52.2</v>
       </c>
       <c r="CC44" t="n">
-        <v>3952.4</v>
+        <v>3959.1</v>
       </c>
       <c r="CD44" t="inlineStr">
         <is>
@@ -14211,7 +14205,7 @@
       </c>
       <c r="CE44" t="inlineStr"/>
       <c r="CF44" t="n">
-        <v>-0.49</v>
+        <v>-0.33</v>
       </c>
       <c r="CG44" t="n">
         <v>419.6</v>
@@ -14271,16 +14265,16 @@
         <v>5384</v>
       </c>
       <c r="DB44" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="DC44" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="DD44" t="n">
-        <v>-7.4</v>
+        <v>-7.2</v>
       </c>
       <c r="DE44" t="n">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="45">
@@ -14334,7 +14328,7 @@
         <v>15.3</v>
       </c>
       <c r="P45" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q45" t="n">
         <v>13.1</v>
@@ -14644,16 +14638,16 @@
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>14.3</v>
+        <v>12.5</v>
       </c>
       <c r="N46" t="n">
         <v>39.7</v>
       </c>
       <c r="O46" t="n">
-        <v>35.2</v>
+        <v>13.6</v>
       </c>
       <c r="P46" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Q46" t="n">
         <v>12.1</v>
@@ -14716,7 +14710,7 @@
         <v>39</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="n">
@@ -14755,7 +14749,7 @@
         </is>
       </c>
       <c r="AX46" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AY46" t="n">
         <v>0.4</v>
@@ -14965,16 +14959,16 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>47.5</v>
+        <v>31.7</v>
       </c>
       <c r="N47" t="n">
-        <v>62.2</v>
+        <v>63.5</v>
       </c>
       <c r="O47" t="n">
-        <v>6.7</v>
+        <v>12.5</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q47" t="n">
         <v>5.1</v>
@@ -14988,7 +14982,11 @@
       <c r="T47" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Giá cắt xuống SMA(5)</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -15037,14 +15035,14 @@
         <v>31</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="AN47" t="n">
-        <v>45.9</v>
+        <v>43.2</v>
       </c>
       <c r="AO47" t="n">
         <v>0.02</v>
@@ -15059,7 +15057,7 @@
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>Trung tính</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="AS47" t="n">
@@ -15080,21 +15078,21 @@
         </is>
       </c>
       <c r="AX47" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AY47" t="n">
         <v>0.2</v>
       </c>
       <c r="AZ47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BA47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="BB47" t="inlineStr"/>
       <c r="BC47" t="inlineStr">
         <is>
-          <t>Giá nằm trên SMA(50)</t>
+          <t>Giá nằm dưới SMA(50)</t>
         </is>
       </c>
       <c r="BD47" t="inlineStr"/>
@@ -15108,23 +15106,23 @@
         </is>
       </c>
       <c r="BJ47" t="n">
-        <v>-1.6</v>
+        <v>-1.95</v>
       </c>
       <c r="BK47" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="BL47" t="inlineStr"/>
       <c r="BM47" t="n">
-        <v>0.11</v>
+        <v>-0.24</v>
       </c>
       <c r="BN47" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="BO47" t="n">
-        <v>0.51</v>
+        <v>0.15</v>
       </c>
       <c r="BP47" t="n">
-        <v>237.59</v>
+        <v>236.38</v>
       </c>
       <c r="BQ47" t="inlineStr">
         <is>
@@ -15156,16 +15154,16 @@
         <v>13.5</v>
       </c>
       <c r="BZ47" t="n">
-        <v>-11.2</v>
+        <v>-11.5</v>
       </c>
       <c r="CA47" t="n">
-        <v>-9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="CB47" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="CC47" t="n">
-        <v>359.2</v>
+        <v>357.6</v>
       </c>
       <c r="CD47" t="inlineStr">
         <is>
@@ -15174,7 +15172,7 @@
       </c>
       <c r="CE47" t="inlineStr"/>
       <c r="CF47" t="n">
-        <v>0.11</v>
+        <v>-0.24</v>
       </c>
       <c r="CG47" t="n">
         <v>22.2</v>
@@ -15234,16 +15232,16 @@
         <v>5476</v>
       </c>
       <c r="DB47" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="DC47" t="n">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="DD47" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="DE47" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="48">
@@ -15288,16 +15286,16 @@
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="N48" t="n">
-        <v>46.7</v>
+        <v>48.9</v>
       </c>
       <c r="O48" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q48" t="n">
         <v>8.6</v>
@@ -15360,7 +15358,7 @@
         <v>9</v>
       </c>
       <c r="AK48" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
@@ -15613,13 +15611,13 @@
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>47.8</v>
+        <v>48.5</v>
       </c>
       <c r="N49" t="n">
-        <v>46.2</v>
+        <v>51.4</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="P49" t="n">
         <v>0.6</v>
@@ -15639,7 +15637,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Giá nằm dưới SMA(20)</t>
+          <t>Giá nằm trên SMA(20)</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -15685,7 +15683,7 @@
         <v>16</v>
       </c>
       <c r="AK49" t="n">
-        <v>79.36</v>
+        <v>95.16</v>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
@@ -15693,10 +15691,10 @@
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>35.3</v>
+        <v>35.6</v>
       </c>
       <c r="AN49" t="n">
-        <v>50</v>
+        <v>51.7</v>
       </c>
       <c r="AO49" t="n">
         <v>11.3</v>
@@ -15733,10 +15731,10 @@
         <v>0.3</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AZ49" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA49" t="n">
         <v>0.3</v>
@@ -15758,23 +15756,23 @@
         </is>
       </c>
       <c r="BJ49" t="n">
-        <v>-3.81</v>
+        <v>-3</v>
       </c>
       <c r="BK49" t="n">
-        <v>3.22</v>
+        <v>4.09</v>
       </c>
       <c r="BL49" t="inlineStr"/>
       <c r="BM49" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="BN49" t="n">
-        <v>3.22</v>
+        <v>4.09</v>
       </c>
       <c r="BO49" t="n">
-        <v>-10.75</v>
+        <v>-9.99</v>
       </c>
       <c r="BP49" t="n">
-        <v>249.75</v>
+        <v>252.72</v>
       </c>
       <c r="BQ49" t="inlineStr">
         <is>
@@ -15806,16 +15804,16 @@
         <v>10.3</v>
       </c>
       <c r="BZ49" t="n">
-        <v>-15.8</v>
+        <v>-15.1</v>
       </c>
       <c r="CA49" t="n">
-        <v>-21.5</v>
+        <v>-20.8</v>
       </c>
       <c r="CB49" t="n">
-        <v>65</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="CC49" t="n">
-        <v>817.2</v>
+        <v>825</v>
       </c>
       <c r="CD49" t="inlineStr">
         <is>
@@ -15824,19 +15822,19 @@
       </c>
       <c r="CE49" t="inlineStr"/>
       <c r="CF49" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="CG49" t="n">
-        <v>7946.4</v>
+        <v>7948.3</v>
       </c>
       <c r="CH49" t="n">
-        <v>10733.5</v>
+        <v>10734.5</v>
       </c>
       <c r="CI49" t="n">
-        <v>9978.299999999999</v>
+        <v>9978.799999999999</v>
       </c>
       <c r="CJ49" t="n">
-        <v>8815.6</v>
+        <v>8815.799999999999</v>
       </c>
       <c r="CK49" t="n">
         <v>78.59999999999999</v>
@@ -15884,16 +15882,16 @@
         <v>2649</v>
       </c>
       <c r="DB49" t="n">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="DC49" t="n">
-        <v>-0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="DD49" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="DE49" t="n">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="50">
@@ -15938,16 +15936,16 @@
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>57.9</v>
+        <v>52</v>
       </c>
       <c r="N50" t="n">
-        <v>97.7</v>
+        <v>56.7</v>
       </c>
       <c r="O50" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q50" t="n">
         <v>14.8</v>
@@ -15961,7 +15959,11 @@
       <c r="T50" t="n">
         <v>1.7</v>
       </c>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -16010,14 +16012,14 @@
         <v>44</v>
       </c>
       <c r="AK50" t="n">
-        <v>23.68</v>
+        <v>26.9</v>
       </c>
       <c r="AL50" t="inlineStr"/>
       <c r="AM50" t="n">
-        <v>65.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="AN50" t="n">
-        <v>40.3</v>
+        <v>43.2</v>
       </c>
       <c r="AO50" t="n">
         <v>49</v>
@@ -16032,7 +16034,7 @@
       </c>
       <c r="AR50" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AS50" t="n">
@@ -16049,7 +16051,7 @@
       </c>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AX50" t="n">
@@ -16062,7 +16064,7 @@
         <v>0.3</v>
       </c>
       <c r="BA50" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB50" t="inlineStr"/>
       <c r="BC50" t="inlineStr">
@@ -16081,23 +16083,23 @@
         </is>
       </c>
       <c r="BJ50" t="n">
-        <v>-4.09</v>
+        <v>-3.5</v>
       </c>
       <c r="BK50" t="n">
-        <v>-4.09</v>
+        <v>-3.5</v>
       </c>
       <c r="BL50" t="inlineStr"/>
       <c r="BM50" t="n">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="BN50" t="n">
-        <v>-4.09</v>
+        <v>-3.5</v>
       </c>
       <c r="BO50" t="n">
-        <v>9.58</v>
+        <v>10.24</v>
       </c>
       <c r="BP50" t="n">
-        <v>244.15</v>
+        <v>246.24</v>
       </c>
       <c r="BQ50" t="inlineStr">
         <is>
@@ -16129,16 +16131,16 @@
         <v>27.2</v>
       </c>
       <c r="BZ50" t="n">
-        <v>-7.7</v>
+        <v>-7.2</v>
       </c>
       <c r="CA50" t="n">
-        <v>-5.7</v>
+        <v>-5.2</v>
       </c>
       <c r="CB50" t="n">
-        <v>32.3</v>
+        <v>33.1</v>
       </c>
       <c r="CC50" t="n">
-        <v>14925.6</v>
+        <v>15017.1</v>
       </c>
       <c r="CD50" t="inlineStr">
         <is>
@@ -16147,19 +16149,19 @@
       </c>
       <c r="CE50" t="inlineStr"/>
       <c r="CF50" t="n">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="CG50" t="n">
-        <v>970.1</v>
+        <v>970.9</v>
       </c>
       <c r="CH50" t="n">
-        <v>1172.4</v>
+        <v>1172.7</v>
       </c>
       <c r="CI50" t="n">
-        <v>1165</v>
+        <v>1165.1</v>
       </c>
       <c r="CJ50" t="n">
-        <v>1057.6</v>
+        <v>1057.7</v>
       </c>
       <c r="CK50" t="n">
         <v>57.3</v>
@@ -16207,16 +16209,16 @@
         <v>4418</v>
       </c>
       <c r="DB50" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="DC50" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="DD50" t="n">
         <v>-2.2</v>
       </c>
-      <c r="DD50" t="n">
-        <v>-2.8</v>
-      </c>
       <c r="DE50" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="51">
@@ -16261,13 +16263,13 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>60.9</v>
+        <v>58</v>
       </c>
       <c r="N51" t="n">
-        <v>56.2</v>
+        <v>37.7</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P51" t="n">
         <v>0.6</v>
@@ -16331,7 +16333,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="n">
-        <v>526.7</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
@@ -16382,10 +16384,10 @@
         <v>0.3</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="BA51" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB51" t="inlineStr"/>
       <c r="BC51" t="inlineStr">
@@ -16469,16 +16471,16 @@
         <v>1.91</v>
       </c>
       <c r="CG51" t="n">
-        <v>104195.1</v>
+        <v>104206.7</v>
       </c>
       <c r="CH51" t="n">
-        <v>103018</v>
+        <v>103023.8</v>
       </c>
       <c r="CI51" t="n">
-        <v>113830.7</v>
+        <v>113833.6</v>
       </c>
       <c r="CJ51" t="n">
-        <v>85712.5</v>
+        <v>85713.7</v>
       </c>
       <c r="CK51" t="n">
         <v>15.5</v>
@@ -16583,13 +16585,13 @@
         <v>50</v>
       </c>
       <c r="N52" t="n">
-        <v>27.1</v>
+        <v>35.1</v>
       </c>
       <c r="O52" t="n">
         <v>44.1</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q52" t="n">
         <v>11.5</v>
@@ -16910,7 +16912,7 @@
         <v>22.1</v>
       </c>
       <c r="P53" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q53" t="n">
         <v>9.300000000000001</v>
@@ -17443,16 +17445,16 @@
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="N55" t="n">
         <v>33.3</v>
       </c>
       <c r="O55" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="P55" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q55" t="n">
         <v>7.1</v>
@@ -17523,10 +17525,10 @@
         </is>
       </c>
       <c r="AM55" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="AN55" t="n">
-        <v>53.4</v>
+        <v>54.8</v>
       </c>
       <c r="AO55" t="n">
         <v>6.11</v>
@@ -17584,23 +17586,23 @@
         </is>
       </c>
       <c r="BJ55" t="n">
-        <v>-3.81</v>
+        <v>-3.54</v>
       </c>
       <c r="BK55" t="n">
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="BL55" t="inlineStr"/>
       <c r="BM55" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="BN55" t="n">
-        <v>2.02</v>
+        <v>2.31</v>
       </c>
       <c r="BO55" t="n">
-        <v>7.54</v>
+        <v>7.84</v>
       </c>
       <c r="BP55" t="n">
-        <v>121.69</v>
+        <v>122.32</v>
       </c>
       <c r="BQ55" t="inlineStr">
         <is>
@@ -17632,16 +17634,16 @@
         <v>32.3</v>
       </c>
       <c r="BZ55" t="n">
-        <v>-16</v>
+        <v>-15.8</v>
       </c>
       <c r="CA55" t="n">
-        <v>-15.9</v>
+        <v>-15.7</v>
       </c>
       <c r="CB55" t="n">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="CC55" t="n">
-        <v>1142.5</v>
+        <v>1146</v>
       </c>
       <c r="CD55" t="inlineStr">
         <is>
@@ -17650,7 +17652,7 @@
       </c>
       <c r="CE55" t="inlineStr"/>
       <c r="CF55" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
       <c r="CG55" t="n">
         <v>42.7</v>
@@ -17710,16 +17712,16 @@
         <v>5003</v>
       </c>
       <c r="DB55" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="DC55" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="DD55" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="DE55" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="56">
@@ -17771,7 +17773,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="P56" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q56" t="n">
         <v>9.1</v>
@@ -18304,16 +18306,16 @@
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>58.8</v>
+        <v>52.4</v>
       </c>
       <c r="N58" t="n">
-        <v>21.6</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="P58" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Q58" t="n">
         <v>9.199999999999999</v>
@@ -18376,7 +18378,7 @@
         <v>81</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="AL58" t="inlineStr">
         <is>
@@ -18384,10 +18386,10 @@
         </is>
       </c>
       <c r="AM58" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="AN58" t="n">
-        <v>38.1</v>
+        <v>37.3</v>
       </c>
       <c r="AO58" t="n">
         <v>1.47</v>
@@ -18420,7 +18422,7 @@
         <v>0.2</v>
       </c>
       <c r="AY58" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AZ58" t="n">
         <v>0.1</v>
@@ -18445,23 +18447,23 @@
         </is>
       </c>
       <c r="BJ58" t="n">
-        <v>-2.23</v>
+        <v>-2.42</v>
       </c>
       <c r="BK58" t="n">
-        <v>-9.619999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="BL58" t="inlineStr"/>
       <c r="BM58" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BN58" t="n">
-        <v>-9.619999999999999</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="BO58" t="n">
-        <v>55.61</v>
+        <v>55.31</v>
       </c>
       <c r="BP58" t="n">
-        <v>194.04</v>
+        <v>193.48</v>
       </c>
       <c r="BQ58" t="inlineStr">
         <is>
@@ -18493,16 +18495,16 @@
         <v>76.59999999999999</v>
       </c>
       <c r="BZ58" t="n">
-        <v>-11.7</v>
+        <v>-11.9</v>
       </c>
       <c r="CA58" t="n">
-        <v>-10.1</v>
+        <v>-10.3</v>
       </c>
       <c r="CB58" t="n">
-        <v>61.3</v>
+        <v>61</v>
       </c>
       <c r="CC58" t="n">
-        <v>9406.799999999999</v>
+        <v>9388.700000000001</v>
       </c>
       <c r="CD58" t="inlineStr">
         <is>
@@ -18511,7 +18513,7 @@
       </c>
       <c r="CE58" t="inlineStr"/>
       <c r="CF58" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="CG58" t="n">
         <v>43.3</v>
@@ -18571,16 +18573,16 @@
         <v>5720</v>
       </c>
       <c r="DB58" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="DC58" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="DD58" t="n">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="DE58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="59">
@@ -18625,16 +18627,16 @@
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N59" t="n">
-        <v>53.7</v>
+        <v>59.8</v>
       </c>
       <c r="O59" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P59" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Q59" t="n">
         <v>7</v>
@@ -18697,7 +18699,7 @@
         <v>5</v>
       </c>
       <c r="AK59" t="n">
-        <v>15.11</v>
+        <v>16.73</v>
       </c>
       <c r="AL59" t="inlineStr">
         <is>
@@ -18742,16 +18744,16 @@
         </is>
       </c>
       <c r="AX59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AY59" t="n">
         <v>0.4</v>
       </c>
-      <c r="AY59" t="n">
-        <v>0.3</v>
-      </c>
       <c r="AZ59" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BA59" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="BB59" t="inlineStr"/>
       <c r="BC59" t="inlineStr">
@@ -18839,13 +18841,13 @@
         <v>-1</v>
       </c>
       <c r="CG59" t="n">
-        <v>1720.1</v>
+        <v>1719.7</v>
       </c>
       <c r="CH59" t="n">
-        <v>2370.1</v>
+        <v>2369.9</v>
       </c>
       <c r="CI59" t="n">
-        <v>2327.7</v>
+        <v>2327.6</v>
       </c>
       <c r="CJ59" t="n">
         <v>2192.7</v>
@@ -19173,16 +19175,16 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N61" t="n">
-        <v>77</v>
+        <v>53.6</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P61" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Q61" t="n">
         <v>7</v>
@@ -19245,7 +19247,7 @@
         <v>93</v>
       </c>
       <c r="AK61" t="n">
-        <v>10.09</v>
+        <v>10.45</v>
       </c>
       <c r="AL61" t="inlineStr">
         <is>
@@ -19253,10 +19255,10 @@
         </is>
       </c>
       <c r="AM61" t="n">
-        <v>72.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="AN61" t="n">
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="AO61" t="n">
         <v>3.05</v>
@@ -19293,10 +19295,10 @@
         <v>0.5</v>
       </c>
       <c r="AY61" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="BA61" t="n">
         <v>0.6</v>
@@ -19318,23 +19320,23 @@
         </is>
       </c>
       <c r="BJ61" t="n">
-        <v>7.58</v>
+        <v>8.32</v>
       </c>
       <c r="BK61" t="n">
-        <v>6.01</v>
+        <v>6.74</v>
       </c>
       <c r="BL61" t="inlineStr"/>
       <c r="BM61" t="n">
-        <v>0.28</v>
+        <v>0.97</v>
       </c>
       <c r="BN61" t="n">
-        <v>6.01</v>
+        <v>6.74</v>
       </c>
       <c r="BO61" t="n">
-        <v>99.70999999999999</v>
+        <v>101.09</v>
       </c>
       <c r="BP61" t="n">
-        <v>163.8</v>
+        <v>165.62</v>
       </c>
       <c r="BQ61" t="inlineStr">
         <is>
@@ -19366,16 +19368,16 @@
         <v>357.7</v>
       </c>
       <c r="BZ61" t="n">
-        <v>-15.1</v>
+        <v>-14.5</v>
       </c>
       <c r="CA61" t="n">
-        <v>-14</v>
+        <v>-13.4</v>
       </c>
       <c r="CB61" t="n">
-        <v>102.1</v>
+        <v>103.5</v>
       </c>
       <c r="CC61" t="n">
-        <v>968.8</v>
+        <v>976.2</v>
       </c>
       <c r="CD61" t="inlineStr">
         <is>
@@ -19388,13 +19390,13 @@
         </is>
       </c>
       <c r="CF61" t="n">
-        <v>0.28</v>
+        <v>0.97</v>
       </c>
       <c r="CG61" t="n">
-        <v>261.7</v>
+        <v>261.5</v>
       </c>
       <c r="CH61" t="n">
-        <v>219</v>
+        <v>218.9</v>
       </c>
       <c r="CI61" t="n">
         <v>215.8</v>
@@ -19448,16 +19450,16 @@
         <v>10244</v>
       </c>
       <c r="DB61" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="DC61" t="n">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="DD61" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="DE61" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="62">
@@ -19737,16 +19739,16 @@
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>43.5</v>
+        <v>42.2</v>
       </c>
       <c r="N63" t="n">
-        <v>60.3</v>
+        <v>61.9</v>
       </c>
       <c r="O63" t="n">
         <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Q63" t="n">
         <v>9.4</v>
@@ -19809,7 +19811,7 @@
         <v>96</v>
       </c>
       <c r="AK63" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="AL63" t="inlineStr"/>
       <c r="AM63" t="n">
@@ -19846,7 +19848,7 @@
         </is>
       </c>
       <c r="AX63" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AY63" t="n">
         <v>0.5</v>
@@ -19855,7 +19857,7 @@
         <v>0.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="inlineStr">
@@ -20052,16 +20054,16 @@
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>73</v>
+        <v>54.1</v>
       </c>
       <c r="N64" t="n">
-        <v>27.6</v>
+        <v>20</v>
       </c>
       <c r="O64" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q64" t="n">
         <v>5.3</v>
@@ -20075,7 +20077,11 @@
       <c r="T64" t="n">
         <v>0</v>
       </c>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Giá cắt lên SMA(5)</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
           <t>Giá nằm dưới SMA(20)</t>
@@ -20124,14 +20130,14 @@
         <v>70</v>
       </c>
       <c r="AK64" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AL64" t="inlineStr"/>
       <c r="AM64" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="AN64" t="n">
-        <v>42.2</v>
+        <v>46.1</v>
       </c>
       <c r="AO64" t="n">
         <v>1</v>
@@ -20142,7 +20148,7 @@
       <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Trung tính</t>
         </is>
       </c>
       <c r="AS64" t="n">
@@ -20157,7 +20163,7 @@
       </c>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>MACD Histogram &lt; 0 và giảm dần</t>
+          <t>MACD Histogram &lt; 0 và tăng dần</t>
         </is>
       </c>
       <c r="AX64" t="n">
@@ -20189,23 +20195,23 @@
         </is>
       </c>
       <c r="BJ64" t="n">
-        <v>-5.16</v>
+        <v>-4</v>
       </c>
       <c r="BK64" t="n">
-        <v>-0.1</v>
+        <v>1.12</v>
       </c>
       <c r="BL64" t="inlineStr"/>
       <c r="BM64" t="n">
-        <v>0.61</v>
+        <v>1.84</v>
       </c>
       <c r="BN64" t="n">
-        <v>-0.1</v>
+        <v>1.12</v>
       </c>
       <c r="BO64" t="n">
-        <v>9.01</v>
+        <v>10.34</v>
       </c>
       <c r="BP64" t="n">
-        <v>150.33</v>
+        <v>153.4</v>
       </c>
       <c r="BQ64" t="inlineStr">
         <is>
@@ -20237,16 +20243,16 @@
         <v>111.3</v>
       </c>
       <c r="BZ64" t="n">
-        <v>-17.5</v>
+        <v>-16.5</v>
       </c>
       <c r="CA64" t="n">
-        <v>-14.6</v>
+        <v>-13.5</v>
       </c>
       <c r="CB64" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="CC64" t="n">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="CD64" t="inlineStr">
         <is>
@@ -20255,7 +20261,7 @@
       </c>
       <c r="CE64" t="inlineStr"/>
       <c r="CF64" t="n">
-        <v>0.61</v>
+        <v>1.84</v>
       </c>
       <c r="CG64" t="n">
         <v>57.5</v>
@@ -20311,16 +20317,16 @@
         <v>4636</v>
       </c>
       <c r="DB64" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="DC64" t="n">
-        <v>-3.1</v>
+        <v>-1.9</v>
       </c>
       <c r="DD64" t="n">
-        <v>-2.6</v>
+        <v>-1.5</v>
       </c>
       <c r="DE64" t="n">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="65">
@@ -20365,13 +20371,13 @@
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="N65" t="n">
-        <v>69.2</v>
+        <v>42</v>
       </c>
       <c r="O65" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -20437,7 +20443,7 @@
         <v>53</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AL65" t="inlineStr">
         <is>
@@ -20684,13 +20690,13 @@
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>58.4</v>
+        <v>60.8</v>
       </c>
       <c r="N66" t="n">
-        <v>26.1</v>
+        <v>22.4</v>
       </c>
       <c r="O66" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="P66" t="n">
         <v>0.5</v>
@@ -20750,7 +20756,7 @@
         <v>95</v>
       </c>
       <c r="AK66" t="n">
-        <v>13.41</v>
+        <v>15.85</v>
       </c>
       <c r="AL66" t="inlineStr">
         <is>
@@ -20758,10 +20764,10 @@
         </is>
       </c>
       <c r="AM66" t="n">
-        <v>13.7</v>
+        <v>13.75</v>
       </c>
       <c r="AN66" t="n">
-        <v>70.7</v>
+        <v>71</v>
       </c>
       <c r="AO66" t="n">
         <v>0.19</v>
@@ -20819,16 +20825,16 @@
         </is>
       </c>
       <c r="BJ66" t="n">
-        <v>5.15</v>
+        <v>5.53</v>
       </c>
       <c r="BK66" t="inlineStr"/>
       <c r="BL66" t="inlineStr"/>
       <c r="BM66" t="n">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="BN66" t="inlineStr"/>
       <c r="BO66" t="n">
-        <v>125.47</v>
+        <v>126.29</v>
       </c>
       <c r="BP66" t="inlineStr"/>
       <c r="BQ66" t="inlineStr">
@@ -20857,16 +20863,16 @@
         <v>44.5</v>
       </c>
       <c r="BZ66" t="n">
-        <v>-8.1</v>
+        <v>-7.7</v>
       </c>
       <c r="CA66" t="n">
-        <v>-3.5</v>
+        <v>-3.2</v>
       </c>
       <c r="CB66" t="n">
-        <v>39.5</v>
+        <v>40</v>
       </c>
       <c r="CC66" t="n">
-        <v>269.9</v>
+        <v>271.3</v>
       </c>
       <c r="CD66" t="inlineStr">
         <is>
@@ -20875,19 +20881,19 @@
       </c>
       <c r="CE66" t="inlineStr"/>
       <c r="CF66" t="n">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="CG66" t="n">
-        <v>3379.6</v>
+        <v>3379.2</v>
       </c>
       <c r="CH66" t="n">
-        <v>3816.5</v>
+        <v>3816.3</v>
       </c>
       <c r="CI66" t="n">
-        <v>3448.9</v>
+        <v>3448.8</v>
       </c>
       <c r="CJ66" t="n">
-        <v>2177.6</v>
+        <v>2177.5</v>
       </c>
       <c r="CK66" t="n">
         <v>14.9</v>
@@ -20935,16 +20941,16 @@
         <v>1211</v>
       </c>
       <c r="DB66" t="n">
-        <v>79.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="DC66" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="DD66" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="DE66" t="n">
-        <v>51.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
@@ -21312,13 +21318,13 @@
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>29</v>
+        <v>33.1</v>
       </c>
       <c r="N68" t="n">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="O68" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>0.7</v>
@@ -21384,7 +21390,7 @@
         <v>8</v>
       </c>
       <c r="AK68" t="n">
-        <v>6.1</v>
+        <v>6.48</v>
       </c>
       <c r="AL68" t="inlineStr">
         <is>
@@ -21392,10 +21398,10 @@
         </is>
       </c>
       <c r="AM68" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="AN68" t="n">
-        <v>41.4</v>
+        <v>42.8</v>
       </c>
       <c r="AO68" t="n">
         <v>14.05</v>
@@ -21457,23 +21463,23 @@
         </is>
       </c>
       <c r="BJ68" t="n">
-        <v>-7.76</v>
+        <v>-7</v>
       </c>
       <c r="BK68" t="n">
-        <v>-0.58</v>
+        <v>0.24</v>
       </c>
       <c r="BL68" t="inlineStr"/>
       <c r="BM68" t="n">
-        <v>-1.78</v>
+        <v>-0.97</v>
       </c>
       <c r="BN68" t="n">
-        <v>-0.58</v>
+        <v>0.24</v>
       </c>
       <c r="BO68" t="n">
-        <v>-19.97</v>
+        <v>-19.31</v>
       </c>
       <c r="BP68" t="n">
-        <v>88.22</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="BQ68" t="inlineStr">
         <is>
@@ -21505,16 +21511,16 @@
         <v>372.1</v>
       </c>
       <c r="BZ68" t="n">
-        <v>-22.3</v>
+        <v>-21.7</v>
       </c>
       <c r="CA68" t="n">
-        <v>-55.2</v>
+        <v>-54.9</v>
       </c>
       <c r="CB68" t="n">
-        <v>69.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="CC68" t="n">
-        <v>137.5</v>
+        <v>139.4</v>
       </c>
       <c r="CD68" t="inlineStr">
         <is>
@@ -21523,13 +21529,13 @@
       </c>
       <c r="CE68" t="inlineStr"/>
       <c r="CF68" t="n">
-        <v>-1.78</v>
+        <v>-0.97</v>
       </c>
       <c r="CG68" t="n">
-        <v>1744.5</v>
+        <v>1744.3</v>
       </c>
       <c r="CH68" t="n">
-        <v>2272.3</v>
+        <v>2272.2</v>
       </c>
       <c r="CI68" t="n">
         <v>2629.7</v>
@@ -21583,16 +21589,16 @@
         <v>1206</v>
       </c>
       <c r="DB68" t="n">
-        <v>-3.8</v>
+        <v>-3</v>
       </c>
       <c r="DC68" t="n">
-        <v>-5</v>
+        <v>-4.2</v>
       </c>
       <c r="DD68" t="n">
-        <v>-1.9</v>
+        <v>-1.2</v>
       </c>
       <c r="DE68" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="69">
@@ -21637,16 +21643,16 @@
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="N69" t="n">
-        <v>75.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="O69" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P69" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q69" t="n">
         <v>16.7</v>
@@ -21703,7 +21709,7 @@
         <v>93</v>
       </c>
       <c r="AK69" t="n">
-        <v>813.61</v>
+        <v>872.39</v>
       </c>
       <c r="AL69" t="inlineStr">
         <is>
@@ -21711,10 +21717,10 @@
         </is>
       </c>
       <c r="AM69" t="n">
-        <v>37.6</v>
+        <v>37.55</v>
       </c>
       <c r="AN69" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="AO69" t="n">
         <v>25.77</v>
@@ -21748,13 +21754,13 @@
         </is>
       </c>
       <c r="AX69" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AY69" t="n">
         <v>0.5</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BA69" t="n">
         <v>0.5</v>
@@ -21780,23 +21786,23 @@
         </is>
       </c>
       <c r="BJ69" t="n">
-        <v>30.56</v>
+        <v>30.38</v>
       </c>
       <c r="BK69" t="n">
-        <v>76.11</v>
+        <v>75.88</v>
       </c>
       <c r="BL69" t="inlineStr"/>
       <c r="BM69" t="n">
-        <v>2.87</v>
+        <v>2.74</v>
       </c>
       <c r="BN69" t="n">
-        <v>76.11</v>
+        <v>75.88</v>
       </c>
       <c r="BO69" t="n">
-        <v>107.65</v>
+        <v>107.38</v>
       </c>
       <c r="BP69" t="n">
-        <v>439.61</v>
+        <v>438.9</v>
       </c>
       <c r="BQ69" t="inlineStr">
         <is>
@@ -21824,16 +21830,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="BZ69" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="CA69" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="CB69" t="n">
-        <v>154.9</v>
+        <v>154.6</v>
       </c>
       <c r="CC69" t="n">
-        <v>579.7</v>
+        <v>578.8</v>
       </c>
       <c r="CD69" t="inlineStr">
         <is>
@@ -21846,19 +21852,19 @@
         </is>
       </c>
       <c r="CF69" t="n">
-        <v>2.87</v>
+        <v>2.74</v>
       </c>
       <c r="CG69" t="n">
-        <v>41778.1</v>
+        <v>41786.9</v>
       </c>
       <c r="CH69" t="n">
-        <v>43605.1</v>
+        <v>43609.5</v>
       </c>
       <c r="CI69" t="n">
-        <v>50682.6</v>
+        <v>50684.8</v>
       </c>
       <c r="CJ69" t="n">
-        <v>43335.8</v>
+        <v>43336.7</v>
       </c>
       <c r="CK69" t="n">
         <v>26.6</v>
@@ -21906,16 +21912,16 @@
         <v>2193</v>
       </c>
       <c r="DB69" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="DC69" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="DD69" t="n">
-        <v>60.6</v>
+        <v>60.4</v>
       </c>
       <c r="DE69" t="n">
-        <v>84.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -21960,13 +21966,13 @@
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>52.4</v>
+        <v>47.6</v>
       </c>
       <c r="N70" t="n">
-        <v>76.90000000000001</v>
+        <v>50.7</v>
       </c>
       <c r="O70" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="P70" t="n">
         <v>0.9</v>
@@ -22032,7 +22038,7 @@
         <v>3</v>
       </c>
       <c r="AK70" t="n">
-        <v>2.74</v>
+        <v>3.13</v>
       </c>
       <c r="AL70" t="inlineStr">
         <is>
@@ -22073,7 +22079,7 @@
         </is>
       </c>
       <c r="AX70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AY70" t="n">
         <v>0.3</v>
@@ -22170,13 +22176,13 @@
         <v>-1.2</v>
       </c>
       <c r="CG70" t="n">
-        <v>733.6</v>
+        <v>733.8</v>
       </c>
       <c r="CH70" t="n">
         <v>1139.2</v>
       </c>
       <c r="CI70" t="n">
-        <v>1463.4</v>
+        <v>1463.5</v>
       </c>
       <c r="CJ70" t="n">
         <v>1123.7</v>
@@ -22276,15 +22282,17 @@
         <v>0.1</v>
       </c>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>28.6</v>
+      </c>
       <c r="N71" t="n">
         <v>16.7</v>
       </c>
       <c r="O71" t="n">
-        <v>7.2</v>
+        <v>17.9</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q71" t="n">
         <v>13.5</v>
@@ -22347,7 +22355,7 @@
         <v>27</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AL71" t="inlineStr">
         <is>
@@ -22392,13 +22400,13 @@
         </is>
       </c>
       <c r="AX71" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AY71" t="n">
         <v>0.1</v>
       </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
       <c r="AZ71" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BA71" t="n">
         <v>0</v>
@@ -22605,13 +22613,13 @@
         <v>63.6</v>
       </c>
       <c r="N72" t="n">
-        <v>67.2</v>
+        <v>67.7</v>
       </c>
       <c r="O72" t="n">
         <v>8.4</v>
       </c>
       <c r="P72" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q72" t="n">
         <v>6.1</v>
